--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="21">
   <si>
     <t>Number</t>
   </si>
@@ -43,16 +43,16 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>AETF.GR</t>
+    <t>VUAA.EU</t>
   </si>
   <si>
     <t xml:space="preserve"> Buy </t>
   </si>
   <si>
-    <t>USD/EUR</t>
+    <t>AETF.GR</t>
   </si>
   <si>
-    <t>VUAA.EU</t>
+    <t>USD/EUR</t>
   </si>
   <si>
     <t>EQAC.EU</t>
@@ -460,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J104"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -497,13 +497,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>577313732</v>
+        <v>579211549</v>
       </c>
       <c r="B2" s="2">
-        <v>45933.56972222222</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C2" s="2">
-        <v>45937</v>
+        <v>45943</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -512,62 +512,62 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>52.65</v>
+        <v>129.08</v>
       </c>
       <c r="H2">
-        <v>105.3</v>
+        <v>129.08</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>576413456</v>
+        <v>577313732</v>
       </c>
       <c r="B3" s="2">
-        <v>45931.44907407407</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C3" s="2">
-        <v>45933</v>
+        <v>45937</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>51.62</v>
+        <v>52.65</v>
       </c>
       <c r="H3">
-        <v>51.62</v>
+        <v>105.3</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>576410571</v>
+        <v>576413456</v>
       </c>
       <c r="B4" s="2">
-        <v>45931.43001157408</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C4" s="2">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -576,65 +576,65 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>116.85</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.85583</v>
+        <v>51.62</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>51.62</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>575554915</v>
+        <v>576410571</v>
       </c>
       <c r="B5" s="2">
-        <v>45929.452060185184</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C5" s="2">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G5">
-        <v>51.47</v>
+        <v>0.85583</v>
       </c>
       <c r="H5">
-        <v>51.47</v>
+        <v>100</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>573400676</v>
+        <v>575554915</v>
       </c>
       <c r="B6" s="2">
-        <v>45922.33627314815</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C6" s="2">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -643,24 +643,24 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>127.36</v>
+        <v>51.47</v>
       </c>
       <c r="H6">
-        <v>127.36</v>
+        <v>51.47</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>573399341</v>
+        <v>573400676</v>
       </c>
       <c r="B7" s="2">
-        <v>45922.324120370366</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C7" s="2">
         <v>45924</v>
@@ -675,27 +675,27 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51</v>
+        <v>127.36</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>127.36</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>568717926</v>
+        <v>573399341</v>
       </c>
       <c r="B8" s="2">
-        <v>45905.5246875</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C8" s="2">
-        <v>45908</v>
+        <v>45924</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -704,30 +704,30 @@
         <v>11</v>
       </c>
       <c r="F8">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.85539</v>
+        <v>51</v>
       </c>
       <c r="H8">
-        <v>106.92</v>
+        <v>51</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>567931751</v>
+        <v>568717926</v>
       </c>
       <c r="B9" s="2">
-        <v>45903.333657407406</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C9" s="2">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -736,62 +736,62 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="G9">
-        <v>123.16</v>
+        <v>0.85539</v>
       </c>
       <c r="H9">
-        <v>123.16</v>
+        <v>106.92</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>566723916</v>
+        <v>567931751</v>
       </c>
       <c r="B10" s="2">
-        <v>45897.62657407408</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C10" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>290.69</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.86002</v>
+        <v>123.16</v>
       </c>
       <c r="H10">
-        <v>250</v>
+        <v>123.16</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>564426812</v>
+        <v>566723916</v>
       </c>
       <c r="B11" s="2">
-        <v>45889.61331018519</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C11" s="2">
-        <v>45891</v>
+        <v>45898</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -800,77 +800,77 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>290.69</v>
       </c>
       <c r="G11">
-        <v>121.62</v>
+        <v>0.86002</v>
       </c>
       <c r="H11">
-        <v>121.62</v>
+        <v>250</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>564420621</v>
+        <v>564426812</v>
       </c>
       <c r="B12" s="2">
-        <v>45889.60018518519</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C12" s="2">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12">
-        <v>127.71</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.86135</v>
+        <v>121.62</v>
       </c>
       <c r="H12">
-        <v>110</v>
+        <v>121.62</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>555657178</v>
+        <v>564420621</v>
       </c>
       <c r="B13" s="2">
-        <v>45859.48091435185</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C13" s="2">
-        <v>45860</v>
+        <v>45890</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>127.71</v>
       </c>
       <c r="G13">
-        <v>0.85771</v>
+        <v>0.86135</v>
       </c>
       <c r="H13">
-        <v>85.77</v>
+        <v>110</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -881,48 +881,48 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>555654532</v>
+        <v>555657178</v>
       </c>
       <c r="B14" s="2">
-        <v>45859.465474537035</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C14" s="2">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G14">
-        <v>395</v>
+        <v>0.85771</v>
       </c>
       <c r="H14">
-        <v>395</v>
+        <v>85.77</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>551218217</v>
+        <v>555654532</v>
       </c>
       <c r="B15" s="2">
-        <v>45841.369837962964</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C15" s="2">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -931,74 +931,74 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>119.16</v>
+        <v>395</v>
       </c>
       <c r="H15">
-        <v>119.16</v>
+        <v>395</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>551216497</v>
+        <v>551218217</v>
       </c>
       <c r="B16" s="2">
-        <v>45841.35429398148</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C16" s="2">
         <v>45845</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.84741</v>
+        <v>119.16</v>
       </c>
       <c r="H16">
-        <v>169.48</v>
+        <v>119.16</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>549290062</v>
+        <v>551216497</v>
       </c>
       <c r="B17" s="2">
-        <v>45834.39111111111</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C17" s="2">
-        <v>45835</v>
+        <v>45845</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="G17">
-        <v>0.85337</v>
+        <v>0.84741</v>
       </c>
       <c r="H17">
-        <v>99.84</v>
+        <v>169.48</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>546584060</v>
+        <v>549290062</v>
       </c>
       <c r="B18" s="2">
-        <v>45824.480104166665</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C18" s="2">
-        <v>45826</v>
+        <v>45835</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1024,77 +1024,77 @@
         <v>11</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="G18">
-        <v>114.8</v>
+        <v>0.85337</v>
       </c>
       <c r="H18">
-        <v>114.8</v>
+        <v>99.84</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>546583898</v>
+        <v>546584060</v>
       </c>
       <c r="B19" s="2">
-        <v>45824.47923611111</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C19" s="2">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.86376</v>
+        <v>114.8</v>
       </c>
       <c r="H19">
-        <v>99.33</v>
+        <v>114.8</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>545459805</v>
+        <v>546583898</v>
       </c>
       <c r="B20" s="2">
-        <v>45819.41773148148</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C20" s="2">
-        <v>45820</v>
+        <v>45825</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="G20">
-        <v>0.87444</v>
+        <v>0.86376</v>
       </c>
       <c r="H20">
-        <v>43.72</v>
+        <v>99.33</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>542145647</v>
+        <v>545459805</v>
       </c>
       <c r="B21" s="2">
-        <v>45807.5672337963</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C21" s="2">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1120,62 +1120,62 @@
         <v>11</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G21">
-        <v>112.4</v>
+        <v>0.87444</v>
       </c>
       <c r="H21">
-        <v>112.4</v>
+        <v>43.72</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>541352365</v>
+        <v>542145647</v>
       </c>
       <c r="B22" s="2">
-        <v>45805.594560185185</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C22" s="2">
-        <v>45806</v>
+        <v>45811</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22">
-        <v>169.82</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.88332</v>
+        <v>112.4</v>
       </c>
       <c r="H22">
-        <v>150.01</v>
+        <v>112.4</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>540397794</v>
+        <v>541352365</v>
       </c>
       <c r="B23" s="2">
-        <v>45800.4953125</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C23" s="2">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1184,141 +1184,141 @@
         <v>11</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>169.82</v>
       </c>
       <c r="G23">
-        <v>110.1385</v>
+        <v>0.88332</v>
       </c>
       <c r="H23">
-        <v>110.14</v>
+        <v>150.01</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>539546182</v>
+        <v>540397794</v>
       </c>
       <c r="B24" s="2">
-        <v>45798.38793981481</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C24" s="2">
-        <v>45799</v>
+        <v>45805</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.88321</v>
+        <v>110.1385</v>
       </c>
       <c r="H24">
-        <v>88.32</v>
+        <v>110.14</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>530748416</v>
+        <v>539546182</v>
       </c>
       <c r="B25" s="2">
-        <v>45777.621458333335</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C25" s="2">
-        <v>45779</v>
+        <v>45799</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G25">
-        <v>327.9</v>
+        <v>0.88321</v>
       </c>
       <c r="H25">
-        <v>327.9</v>
+        <v>88.32</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>530748345</v>
+        <v>530748416</v>
       </c>
       <c r="B26" s="2">
-        <v>45777.62107638889</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C26" s="2">
-        <v>45778</v>
+        <v>45779</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.88043</v>
+        <v>327.9</v>
       </c>
       <c r="H26">
-        <v>26.41</v>
+        <v>327.9</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>530748166</v>
+        <v>530748345</v>
       </c>
       <c r="B27" s="2">
-        <v>45777.62068287037</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C27" s="2">
         <v>45778</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G27">
-        <v>0.8804</v>
+        <v>0.88043</v>
       </c>
       <c r="H27">
-        <v>264.12</v>
+        <v>26.41</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1329,28 +1329,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>528304116</v>
+        <v>530748166</v>
       </c>
       <c r="B28" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C28" s="2">
-        <v>45772</v>
+        <v>45778</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="G28">
-        <v>0.87843</v>
+        <v>0.8804</v>
       </c>
       <c r="H28">
-        <v>74.67</v>
+        <v>264.12</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>525384379</v>
+        <v>528304116</v>
       </c>
       <c r="B29" s="2">
-        <v>45763.63711805556</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C29" s="2">
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -1376,62 +1376,62 @@
         <v>11</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G29">
-        <v>101.9</v>
+        <v>0.87843</v>
       </c>
       <c r="H29">
-        <v>101.9</v>
+        <v>74.67</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>525383965</v>
+        <v>525384379</v>
       </c>
       <c r="B30" s="2">
-        <v>45763.634826388894</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C30" s="2">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.87888</v>
+        <v>101.9</v>
       </c>
       <c r="H30">
-        <v>65.92</v>
+        <v>101.9</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>521135744</v>
+        <v>525383965</v>
       </c>
       <c r="B31" s="2">
-        <v>45754.608506944445</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C31" s="2">
-        <v>45756</v>
+        <v>45764</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -1440,123 +1440,123 @@
         <v>11</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G31">
-        <v>95</v>
+        <v>0.87888</v>
       </c>
       <c r="H31">
-        <v>95</v>
+        <v>65.92</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>521115122</v>
+        <v>521135744</v>
       </c>
       <c r="B32" s="2">
-        <v>45754.593506944446</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C32" s="2">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32">
-        <v>109.66</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.91206</v>
+        <v>95</v>
       </c>
       <c r="H32">
-        <v>100.02</v>
+        <v>95</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>519105737</v>
+        <v>521115122</v>
       </c>
       <c r="B33" s="2">
-        <v>45749.575324074074</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C33" s="2">
-        <v>45751</v>
+        <v>45755</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>109.66</v>
       </c>
       <c r="G33">
-        <v>330.5499</v>
+        <v>0.91206</v>
       </c>
       <c r="H33">
-        <v>330.55</v>
+        <v>100.02</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>519105619</v>
+        <v>519105737</v>
       </c>
       <c r="B34" s="2">
-        <v>45749.575115740736</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C34" s="2">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.92423</v>
+        <v>330.5499</v>
       </c>
       <c r="H34">
-        <v>305</v>
+        <v>330.55</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>518501268</v>
+        <v>519105619</v>
       </c>
       <c r="B35" s="2">
-        <v>45748.342511574076</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C35" s="2">
         <v>45750</v>
@@ -1568,62 +1568,62 @@
         <v>11</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="G35">
-        <v>106.7</v>
+        <v>0.92423</v>
       </c>
       <c r="H35">
-        <v>106.7</v>
+        <v>305</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>518501204</v>
+        <v>518501268</v>
       </c>
       <c r="B36" s="2">
-        <v>45748.342199074075</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C36" s="2">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36">
-        <v>118.85</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.92553</v>
+        <v>106.7</v>
       </c>
       <c r="H36">
-        <v>110</v>
+        <v>106.7</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>510327986</v>
+        <v>518501204</v>
       </c>
       <c r="B37" s="2">
-        <v>45728.454201388886</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C37" s="2">
-        <v>45729.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -1632,141 +1632,141 @@
         <v>11</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>118.85</v>
       </c>
       <c r="G37">
-        <v>107</v>
+        <v>0.92553</v>
       </c>
       <c r="H37">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>510326670</v>
+        <v>510327986</v>
       </c>
       <c r="B38" s="2">
-        <v>45728.43972222222</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C38" s="2">
-        <v>45728.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
       </c>
       <c r="F38">
-        <v>114.54</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0.91668</v>
+        <v>107</v>
       </c>
       <c r="H38">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>506086900</v>
+        <v>510326670</v>
       </c>
       <c r="B39" s="2">
-        <v>45719.31646990741</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C39" s="2">
-        <v>45720.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>114.54</v>
       </c>
       <c r="G39">
-        <v>355.9998</v>
+        <v>0.91668</v>
       </c>
       <c r="H39">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>506086612</v>
+        <v>506086900</v>
       </c>
       <c r="B40" s="2">
-        <v>45719.31418981482</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C40" s="2">
-        <v>45719.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>9.74</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0.96213</v>
+        <v>355.9998</v>
       </c>
       <c r="H40">
-        <v>9.37</v>
+        <v>356</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>506084312</v>
+        <v>506086612</v>
       </c>
       <c r="B41" s="2">
-        <v>45719.29939814815</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C41" s="2">
         <v>45719.95833333333</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41">
-        <v>204.2</v>
+        <v>9.74</v>
       </c>
       <c r="G41">
-        <v>0.96116</v>
+        <v>0.96213</v>
       </c>
       <c r="H41">
-        <v>196.27</v>
+        <v>9.37</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1777,28 +1777,28 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>505408659</v>
+        <v>506084312</v>
       </c>
       <c r="B42" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C42" s="2">
-        <v>45718.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>129.21</v>
+        <v>204.2</v>
       </c>
       <c r="G42">
-        <v>0.96171</v>
+        <v>0.96116</v>
       </c>
       <c r="H42">
-        <v>124.26</v>
+        <v>196.27</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>503618898</v>
+        <v>505408659</v>
       </c>
       <c r="B43" s="2">
-        <v>45713.606828703705</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C43" s="2">
-        <v>45714.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -1824,141 +1824,141 @@
         <v>11</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>129.21</v>
       </c>
       <c r="G43">
-        <v>112.86</v>
+        <v>0.96171</v>
       </c>
       <c r="H43">
-        <v>112.86</v>
+        <v>124.26</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>503618686</v>
+        <v>503618898</v>
       </c>
       <c r="B44" s="2">
-        <v>45713.60653935185</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C44" s="2">
-        <v>45713.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0.9511</v>
+        <v>112.86</v>
       </c>
       <c r="H44">
-        <v>114.13</v>
+        <v>112.86</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>499625741</v>
+        <v>503618686</v>
       </c>
       <c r="B45" s="2">
-        <v>45702.56398148148</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C45" s="2">
-        <v>45705.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G45">
-        <v>375.25</v>
+        <v>0.9511</v>
       </c>
       <c r="H45">
-        <v>375.25</v>
+        <v>114.13</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>2.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>499590185</v>
+        <v>499625741</v>
       </c>
       <c r="B46" s="2">
-        <v>45702.36454861111</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C46" s="2">
         <v>45705.95833333333</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>20.96</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>0.95429</v>
+        <v>375.25</v>
       </c>
       <c r="H46">
-        <v>20</v>
+        <v>375.25</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>498403616</v>
+        <v>499590185</v>
       </c>
       <c r="B47" s="2">
-        <v>45700.59783564815</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C47" s="2">
-        <v>45700.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47">
-        <v>103.4</v>
+        <v>20.96</v>
       </c>
       <c r="G47">
-        <v>0.96693</v>
+        <v>0.95429</v>
       </c>
       <c r="H47">
-        <v>99.98</v>
+        <v>20</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>494107867</v>
+        <v>498403616</v>
       </c>
       <c r="B48" s="2">
-        <v>45691.58335648148</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C48" s="2">
-        <v>45692.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -1984,62 +1984,62 @@
         <v>11</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>103.4</v>
       </c>
       <c r="G48">
-        <v>112.9</v>
+        <v>0.96693</v>
       </c>
       <c r="H48">
-        <v>112.9</v>
+        <v>99.98</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>494049655</v>
+        <v>494107867</v>
       </c>
       <c r="B49" s="2">
-        <v>45691.31773148148</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C49" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
       <c r="F49">
-        <v>307.46</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0.97578</v>
+        <v>112.9</v>
       </c>
       <c r="H49">
-        <v>300.01</v>
+        <v>112.9</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>494049572</v>
+        <v>494049655</v>
       </c>
       <c r="B50" s="2">
-        <v>45691.31670138889</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C50" s="2">
-        <v>45692.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -2048,94 +2048,94 @@
         <v>11</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>307.46</v>
       </c>
       <c r="G50">
-        <v>113.34</v>
+        <v>0.97578</v>
       </c>
       <c r="H50">
-        <v>113.34</v>
+        <v>300.01</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>493368805</v>
+        <v>494049572</v>
       </c>
       <c r="B51" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C51" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>115.9</v>
+        <v>113.34</v>
       </c>
       <c r="H51">
-        <v>231.8</v>
+        <v>113.34</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>492836969</v>
+        <v>493368805</v>
       </c>
       <c r="B52" s="2">
-        <v>45687.621666666666</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C52" s="2">
-        <v>45687.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>417.21</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <v>0.95874</v>
+        <v>115.9</v>
       </c>
       <c r="H52">
-        <v>400</v>
+        <v>231.8</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>491075870</v>
+        <v>492836969</v>
       </c>
       <c r="B53" s="2">
-        <v>45684.61530092593</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C53" s="2">
-        <v>45685.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -2144,126 +2144,126 @@
         <v>11</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>417.21</v>
       </c>
       <c r="G53">
-        <v>114.4</v>
+        <v>0.95874</v>
       </c>
       <c r="H53">
-        <v>114.4</v>
+        <v>400</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>491075618</v>
+        <v>491075870</v>
       </c>
       <c r="B54" s="2">
-        <v>45684.61476851851</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C54" s="2">
-        <v>45684.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>115.46</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0.95269</v>
+        <v>114.4</v>
       </c>
       <c r="H54">
-        <v>110</v>
+        <v>114.4</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>483911545</v>
+        <v>491075618</v>
       </c>
       <c r="B55" s="2">
-        <v>45665.44930555555</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C55" s="2">
-        <v>45666.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>115.46</v>
       </c>
       <c r="G55">
-        <v>360.35</v>
+        <v>0.95269</v>
       </c>
       <c r="H55">
-        <v>360.35</v>
+        <v>110</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>483911481</v>
+        <v>483911545</v>
       </c>
       <c r="B56" s="2">
-        <v>45665.44840277778</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C56" s="2">
         <v>45666.95833333333</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>0.97183</v>
+        <v>360.35</v>
       </c>
       <c r="H56">
-        <v>354.72</v>
+        <v>360.35</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>481235383</v>
+        <v>483911481</v>
       </c>
       <c r="B57" s="2">
-        <v>45660.337430555555</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C57" s="2">
-        <v>45663.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
@@ -2272,141 +2272,141 @@
         <v>11</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>365</v>
       </c>
       <c r="G57">
-        <v>112</v>
+        <v>0.97183</v>
       </c>
       <c r="H57">
-        <v>224</v>
+        <v>354.72</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>481235152</v>
+        <v>481235383</v>
       </c>
       <c r="B58" s="2">
-        <v>45660.33241898148</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C58" s="2">
-        <v>45662.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>226.2</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>0.97259</v>
+        <v>112</v>
       </c>
       <c r="H58">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>476674643</v>
+        <v>481235152</v>
       </c>
       <c r="B59" s="2">
-        <v>45646.40855324074</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C59" s="2">
-        <v>45652.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>226.2</v>
       </c>
       <c r="G59">
-        <v>355.4</v>
+        <v>0.97259</v>
       </c>
       <c r="H59">
-        <v>355.4</v>
+        <v>220</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>476674604</v>
+        <v>476674643</v>
       </c>
       <c r="B60" s="2">
-        <v>45646.408437499995</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C60" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>0.96264</v>
+        <v>355.4</v>
       </c>
       <c r="H60">
-        <v>206.97</v>
+        <v>355.4</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>476670294</v>
+        <v>476674604</v>
       </c>
       <c r="B61" s="2">
-        <v>45646.38765046296</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C61" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61">
-        <v>51.32</v>
+        <v>215</v>
       </c>
       <c r="G61">
-        <v>0.96299</v>
+        <v>0.96264</v>
       </c>
       <c r="H61">
-        <v>49.42</v>
+        <v>206.97</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2417,28 +2417,28 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>476669731</v>
+        <v>476670294</v>
       </c>
       <c r="B62" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C62" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>60</v>
+        <v>51.32</v>
       </c>
       <c r="G62">
-        <v>0.96251</v>
+        <v>0.96299</v>
       </c>
       <c r="H62">
-        <v>57.75</v>
+        <v>49.42</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>476123556</v>
+        <v>476669731</v>
       </c>
       <c r="B63" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C63" s="2">
         <v>45648.95833333333</v>
@@ -2464,158 +2464,158 @@
         <v>11</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G63">
-        <v>112.54</v>
+        <v>0.96251</v>
       </c>
       <c r="H63">
-        <v>112.54</v>
+        <v>57.75</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>476123515</v>
+        <v>476123556</v>
       </c>
       <c r="B64" s="2">
-        <v>45645.52649305556</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C64" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>0.96108</v>
+        <v>112.54</v>
       </c>
       <c r="H64">
-        <v>96.11</v>
+        <v>112.54</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>471357479</v>
+        <v>476123515</v>
       </c>
       <c r="B65" s="2">
-        <v>45635.56259259259</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C65" s="2">
-        <v>45635.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G65">
-        <v>8.3412</v>
+        <v>0.96108</v>
       </c>
       <c r="H65">
-        <v>8.34</v>
+        <v>96.11</v>
       </c>
       <c r="I65">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>466623419</v>
+        <v>471357479</v>
       </c>
       <c r="B66" s="2">
-        <v>45622.31217592592</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C66" s="2">
-        <v>45624.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66">
-        <v>354.5</v>
+        <v>8.3412</v>
       </c>
       <c r="H66">
-        <v>354.5</v>
+        <v>8.34</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J66">
-        <v>2.05</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>466623402</v>
+        <v>466623419</v>
       </c>
       <c r="B67" s="2">
-        <v>45622.31188657407</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C67" s="2">
-        <v>45622.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67">
-        <v>141.78</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>0.95389</v>
+        <v>354.5</v>
       </c>
       <c r="H67">
-        <v>135.24</v>
+        <v>354.5</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>462598648</v>
+        <v>466623402</v>
       </c>
       <c r="B68" s="2">
-        <v>45611.592997685184</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C68" s="2">
-        <v>45614.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
@@ -2624,94 +2624,94 @@
         <v>11</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>141.78</v>
       </c>
       <c r="G68">
-        <v>111.8099</v>
+        <v>0.95389</v>
       </c>
       <c r="H68">
-        <v>111.81</v>
+        <v>135.24</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>460084933</v>
+        <v>462598648</v>
       </c>
       <c r="B69" s="2">
-        <v>45604.62016203704</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C69" s="2">
-        <v>45607.95833333333</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>8.3836</v>
+        <v>111.8099</v>
       </c>
       <c r="H69">
-        <v>8.38</v>
+        <v>111.81</v>
       </c>
       <c r="I69">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>458847628</v>
+        <v>460084933</v>
       </c>
       <c r="B70" s="2">
-        <v>45602.26765046296</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C70" s="2">
-        <v>45602.95833333333</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F70">
-        <v>341.65</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>0.93077</v>
+        <v>8.3836</v>
       </c>
       <c r="H70">
-        <v>318</v>
+        <v>8.38</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>449590057</v>
+        <v>458847628</v>
       </c>
       <c r="B71" s="2">
-        <v>45579.62847222222</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C71" s="2">
-        <v>45581</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -2720,62 +2720,62 @@
         <v>11</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>341.65</v>
       </c>
       <c r="G71">
-        <v>110.9161</v>
+        <v>0.93077</v>
       </c>
       <c r="H71">
-        <v>110.92</v>
+        <v>318</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>449589875</v>
+        <v>449590057</v>
       </c>
       <c r="B72" s="2">
-        <v>45579.628125</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C72" s="2">
-        <v>45580</v>
+        <v>45581</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>0.91628</v>
+        <v>110.9161</v>
       </c>
       <c r="H72">
-        <v>32.07</v>
+        <v>110.92</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>449589083</v>
+        <v>449589875</v>
       </c>
       <c r="B73" s="2">
-        <v>45579.62637731481</v>
+        <v>45579.628125</v>
       </c>
       <c r="C73" s="2">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -2784,126 +2784,126 @@
         <v>11</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G73">
-        <v>110.9196</v>
+        <v>0.91628</v>
       </c>
       <c r="H73">
-        <v>110.92</v>
+        <v>32.07</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>449588246</v>
+        <v>449589083</v>
       </c>
       <c r="B74" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C74" s="2">
         <v>45581</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F74">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>3.4715</v>
+        <v>110.9196</v>
       </c>
       <c r="H74">
-        <v>149.27</v>
+        <v>110.92</v>
       </c>
       <c r="I74">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>445429841</v>
+        <v>449588246</v>
       </c>
       <c r="B75" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C75" s="2">
-        <v>45572</v>
+        <v>45581</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G75">
-        <v>337.65</v>
+        <v>3.4715</v>
       </c>
       <c r="H75">
-        <v>337.65</v>
+        <v>149.27</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J75">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>445429174</v>
+        <v>445429841</v>
       </c>
       <c r="B76" s="2">
-        <v>45568.57231481481</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C76" s="2">
-        <v>45569</v>
+        <v>45572</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
       </c>
       <c r="F76">
-        <v>369.23</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>0.90605</v>
+        <v>337.65</v>
       </c>
       <c r="H76">
-        <v>334.54</v>
+        <v>337.65</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>444353954</v>
+        <v>445429174</v>
       </c>
       <c r="B77" s="2">
-        <v>45566.58853009259</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C77" s="2">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -2912,173 +2912,173 @@
         <v>11</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>369.23</v>
       </c>
       <c r="G77">
-        <v>108.24</v>
+        <v>0.90605</v>
       </c>
       <c r="H77">
-        <v>108.24</v>
+        <v>334.54</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>444310921</v>
+        <v>444353954</v>
       </c>
       <c r="B78" s="2">
-        <v>45566.29953703703</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C78" s="2">
-        <v>45567</v>
+        <v>45568</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78">
-        <v>60.56</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0.89984</v>
+        <v>108.24</v>
       </c>
       <c r="H78">
-        <v>54.49</v>
+        <v>108.24</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>439936166</v>
+        <v>444310921</v>
       </c>
       <c r="B79" s="2">
-        <v>45554.56259259259</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C79" s="2">
-        <v>45555</v>
+        <v>45567</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>60.56</v>
       </c>
       <c r="G79">
-        <v>62.0726</v>
+        <v>0.89984</v>
       </c>
       <c r="H79">
-        <v>62.07</v>
+        <v>54.49</v>
       </c>
       <c r="I79">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>435165980</v>
+        <v>439936166</v>
       </c>
       <c r="B80" s="2">
-        <v>45541.475370370375</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C80" s="2">
-        <v>45545</v>
+        <v>45555</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>103.72</v>
+        <v>62.0726</v>
       </c>
       <c r="H80">
-        <v>103.72</v>
+        <v>62.07</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J80">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>435165968</v>
+        <v>435165980</v>
       </c>
       <c r="B81" s="2">
-        <v>45541.47508101852</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C81" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="F81">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>0.9011</v>
+        <v>103.72</v>
       </c>
       <c r="H81">
-        <v>0.19</v>
+        <v>103.72</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>435165951</v>
+        <v>435165968</v>
       </c>
       <c r="B82" s="2">
-        <v>45541.47487268518</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C82" s="2">
         <v>45544</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
       <c r="F82">
-        <v>4.42</v>
+        <v>0.21</v>
       </c>
       <c r="G82">
-        <v>0.90109</v>
+        <v>0.9011</v>
       </c>
       <c r="H82">
-        <v>3.98</v>
+        <v>0.19</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3089,28 +3089,28 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>435165927</v>
+        <v>435165951</v>
       </c>
       <c r="B83" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C83" s="2">
         <v>45544</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
       </c>
       <c r="F83">
-        <v>92.77</v>
+        <v>4.42</v>
       </c>
       <c r="G83">
         <v>0.90109</v>
       </c>
       <c r="H83">
-        <v>83.59</v>
+        <v>3.98</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3121,208 +3121,208 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>434675474</v>
+        <v>435165927</v>
       </c>
       <c r="B84" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C84" s="2">
         <v>45544</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84">
-        <v>8</v>
+        <v>92.77</v>
       </c>
       <c r="G84">
-        <v>3.689</v>
+        <v>0.90109</v>
       </c>
       <c r="H84">
-        <v>29.51</v>
+        <v>83.59</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>434162210</v>
+        <v>434675474</v>
       </c>
       <c r="B85" s="2">
-        <v>45539.43609953704</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C85" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G85">
-        <v>104.42</v>
+        <v>3.689</v>
       </c>
       <c r="H85">
-        <v>104.42</v>
+        <v>29.51</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>433696199</v>
+        <v>434162210</v>
       </c>
       <c r="B86" s="2">
-        <v>45538.68898148148</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C86" s="2">
-        <v>45539</v>
+        <v>45541</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86">
-        <v>110.122</v>
+        <v>104.42</v>
       </c>
       <c r="H86">
-        <v>110.12</v>
+        <v>104.42</v>
       </c>
       <c r="I86">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>433626785</v>
+        <v>433696199</v>
       </c>
       <c r="B87" s="2">
-        <v>45538.39231481482</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C87" s="2">
-        <v>45540</v>
+        <v>45539</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>106.54</v>
+        <v>110.122</v>
       </c>
       <c r="H87">
-        <v>106.54</v>
+        <v>110.12</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J87">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>433626678</v>
+        <v>433626785</v>
       </c>
       <c r="B88" s="2">
-        <v>45538.391076388885</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C88" s="2">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>0.90603</v>
+        <v>106.54</v>
       </c>
       <c r="H88">
-        <v>66.96</v>
+        <v>106.54</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>432518350</v>
+        <v>433626678</v>
       </c>
       <c r="B89" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C89" s="2">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="D89" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>73.9</v>
       </c>
       <c r="G89">
-        <v>120.88</v>
+        <v>0.90603</v>
       </c>
       <c r="H89">
-        <v>120.88</v>
+        <v>66.96</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>432515426</v>
+        <v>432518350</v>
       </c>
       <c r="B90" s="2">
-        <v>45533.54127314815</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C90" s="2">
-        <v>45537</v>
+        <v>45533</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
@@ -3331,222 +3331,222 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>106.34</v>
+        <v>120.88</v>
       </c>
       <c r="H90">
-        <v>106.34</v>
+        <v>120.88</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>432005364</v>
+        <v>432515426</v>
       </c>
       <c r="B91" s="2">
-        <v>45532.39208333333</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C91" s="2">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
       </c>
       <c r="F91">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G91">
-        <v>3.632</v>
+        <v>106.34</v>
       </c>
       <c r="H91">
-        <v>116.22</v>
+        <v>106.34</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1.84</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>432003333</v>
+        <v>432005364</v>
       </c>
       <c r="B92" s="2">
-        <v>45532.363020833334</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C92" s="2">
         <v>45534</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G92">
-        <v>106.74</v>
+        <v>3.632</v>
       </c>
       <c r="H92">
-        <v>213.48</v>
+        <v>116.22</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>432003262</v>
+        <v>432003333</v>
       </c>
       <c r="B93" s="2">
-        <v>45532.361875</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C93" s="2">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
       </c>
       <c r="F93">
-        <v>618.74</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>0.89741</v>
+        <v>106.74</v>
       </c>
       <c r="H93">
-        <v>555.26</v>
+        <v>213.48</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>430366906</v>
+        <v>432003262</v>
       </c>
       <c r="B94" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.361875</v>
       </c>
       <c r="C94" s="2">
-        <v>45532</v>
+        <v>45533</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>618.74</v>
       </c>
       <c r="G94">
-        <v>3.6305</v>
+        <v>0.89741</v>
       </c>
       <c r="H94">
-        <v>10.89</v>
+        <v>555.26</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>1.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>430365249</v>
+        <v>430366906</v>
       </c>
       <c r="B95" s="2">
-        <v>45527.27630787037</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C95" s="2">
-        <v>45530</v>
+        <v>45532</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
       </c>
       <c r="F95">
-        <v>4.63</v>
+        <v>3</v>
       </c>
       <c r="G95">
-        <v>0.8999</v>
+        <v>3.6305</v>
       </c>
       <c r="H95">
-        <v>4.17</v>
+        <v>10.89</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>428453232</v>
+        <v>430365249</v>
       </c>
       <c r="B96" s="2">
-        <v>45523.56253472222</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C96" s="2">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>4.63</v>
       </c>
       <c r="G96">
-        <v>60.046</v>
+        <v>0.8999</v>
       </c>
       <c r="H96">
-        <v>60.05</v>
+        <v>4.17</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>428444212</v>
+        <v>428453232</v>
       </c>
       <c r="B97" s="2">
-        <v>45523.47152777778</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C97" s="2">
-        <v>45525</v>
+        <v>45524</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
@@ -3555,74 +3555,74 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <v>105.3</v>
+        <v>60.046</v>
       </c>
       <c r="H97">
-        <v>105.3</v>
+        <v>60.05</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>428437042</v>
+        <v>428444212</v>
       </c>
       <c r="B98" s="2">
-        <v>45523.37878472223</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C98" s="2">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
       <c r="F98">
-        <v>7.15</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>0.90756</v>
+        <v>105.3</v>
       </c>
       <c r="H98">
-        <v>6.49</v>
+        <v>105.3</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>428437005</v>
+        <v>428437042</v>
       </c>
       <c r="B99" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C99" s="2">
         <v>45524</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
       </c>
       <c r="F99">
-        <v>150.15</v>
+        <v>7.15</v>
       </c>
       <c r="G99">
         <v>0.90756</v>
       </c>
       <c r="H99">
-        <v>136.27</v>
+        <v>6.49</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -3633,13 +3633,13 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>426418112</v>
+        <v>428437005</v>
       </c>
       <c r="B100" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C100" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
@@ -3648,77 +3648,77 @@
         <v>11</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>150.15</v>
       </c>
       <c r="G100">
-        <v>102.02</v>
+        <v>0.90756</v>
       </c>
       <c r="H100">
-        <v>102.02</v>
+        <v>136.27</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>426417966</v>
+        <v>426418112</v>
       </c>
       <c r="B101" s="2">
-        <v>45517.58042824074</v>
+        <v>45517.58078703703</v>
       </c>
       <c r="C101" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
       </c>
       <c r="F101">
-        <v>10.45</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>0.91439</v>
+        <v>102.02</v>
       </c>
       <c r="H101">
-        <v>9.56</v>
+        <v>102.02</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>426416264</v>
+        <v>426417966</v>
       </c>
       <c r="B102" s="2">
-        <v>45517.57699074074</v>
+        <v>45517.58042824074</v>
       </c>
       <c r="C102" s="2">
         <v>45518</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
       </c>
       <c r="F102">
-        <v>4.86</v>
+        <v>10.45</v>
       </c>
       <c r="G102">
-        <v>0.91458</v>
+        <v>0.91439</v>
       </c>
       <c r="H102">
-        <v>4.44</v>
+        <v>9.56</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -3729,33 +3729,65 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>426416183</v>
+        <v>426416264</v>
       </c>
       <c r="B103" s="2">
-        <v>45517.576678240745</v>
+        <v>45517.57699074074</v>
       </c>
       <c r="C103" s="2">
         <v>45518</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
       </c>
       <c r="F103">
+        <v>4.86</v>
+      </c>
+      <c r="G103">
+        <v>0.91458</v>
+      </c>
+      <c r="H103">
+        <v>4.44</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>426416183</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45517.576678240745</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104">
         <v>102.05</v>
       </c>
-      <c r="G103">
+      <c r="G104">
         <v>0.91459</v>
       </c>
-      <c r="H103">
+      <c r="H104">
         <v>93.33</v>
       </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>

--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="21">
   <si>
     <t>Number</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>VUAA.EU</t>
+    <t>USD/EUR</t>
   </si>
   <si>
     <t xml:space="preserve"> Buy </t>
@@ -52,7 +52,7 @@
     <t>AETF.GR</t>
   </si>
   <si>
-    <t>USD/EUR</t>
+    <t>VUAA.EU</t>
   </si>
   <si>
     <t>EQAC.EU</t>
@@ -460,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J107"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -497,13 +497,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>579211549</v>
+        <v>580169893</v>
       </c>
       <c r="B2" s="2">
-        <v>45939.61756944444</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C2" s="2">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -512,30 +512,30 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>80.87</v>
       </c>
       <c r="G2">
-        <v>129.08</v>
+        <v>0.8656</v>
       </c>
       <c r="H2">
-        <v>129.08</v>
+        <v>70</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>577313732</v>
+        <v>580169868</v>
       </c>
       <c r="B3" s="2">
-        <v>45933.56972222222</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C3" s="2">
-        <v>45937</v>
+        <v>45945</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -544,33 +544,33 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>52.65</v>
+        <v>53.65</v>
       </c>
       <c r="H3">
-        <v>105.3</v>
+        <v>53.65</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>576413456</v>
+        <v>580169327</v>
       </c>
       <c r="B4" s="2">
-        <v>45931.44907407407</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C4" s="2">
-        <v>45933</v>
+        <v>45945</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -579,27 +579,27 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.62</v>
+        <v>127.32</v>
       </c>
       <c r="H4">
-        <v>51.62</v>
+        <v>127.32</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>576410571</v>
+        <v>579211549</v>
       </c>
       <c r="B5" s="2">
-        <v>45931.43001157408</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C5" s="2">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -608,30 +608,30 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>116.85</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.85583</v>
+        <v>129.08</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>129.08</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>575554915</v>
+        <v>577313732</v>
       </c>
       <c r="B6" s="2">
-        <v>45929.452060185184</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C6" s="2">
-        <v>45931</v>
+        <v>45937</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -640,33 +640,33 @@
         <v>11</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>51.47</v>
+        <v>52.65</v>
       </c>
       <c r="H6">
-        <v>51.47</v>
+        <v>105.3</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>573400676</v>
+        <v>576413456</v>
       </c>
       <c r="B7" s="2">
-        <v>45922.33627314815</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C7" s="2">
-        <v>45924</v>
+        <v>45933</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -675,94 +675,94 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>127.36</v>
+        <v>51.62</v>
       </c>
       <c r="H7">
-        <v>127.36</v>
+        <v>51.62</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>573399341</v>
+        <v>576410571</v>
       </c>
       <c r="B8" s="2">
-        <v>45922.324120370366</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C8" s="2">
-        <v>45924</v>
+        <v>45932</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G8">
-        <v>51</v>
+        <v>0.85583</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>568717926</v>
+        <v>575554915</v>
       </c>
       <c r="B9" s="2">
-        <v>45905.5246875</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C9" s="2">
-        <v>45908</v>
+        <v>45931</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.85539</v>
+        <v>51.47</v>
       </c>
       <c r="H9">
-        <v>106.92</v>
+        <v>51.47</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>567931751</v>
+        <v>573400676</v>
       </c>
       <c r="B10" s="2">
-        <v>45903.333657407406</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C10" s="2">
-        <v>45905</v>
+        <v>45924</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -771,59 +771,59 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>123.16</v>
+        <v>127.36</v>
       </c>
       <c r="H10">
-        <v>123.16</v>
+        <v>127.36</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>566723916</v>
+        <v>573399341</v>
       </c>
       <c r="B11" s="2">
-        <v>45897.62657407408</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C11" s="2">
-        <v>45898</v>
+        <v>45924</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11">
-        <v>290.69</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.86002</v>
+        <v>51</v>
       </c>
       <c r="H11">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>564426812</v>
+        <v>568717926</v>
       </c>
       <c r="B12" s="2">
-        <v>45889.61331018519</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C12" s="2">
-        <v>45891</v>
+        <v>45908</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -832,30 +832,30 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="G12">
-        <v>121.62</v>
+        <v>0.85539</v>
       </c>
       <c r="H12">
-        <v>121.62</v>
+        <v>106.92</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>564420621</v>
+        <v>567931751</v>
       </c>
       <c r="B13" s="2">
-        <v>45889.60018518519</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C13" s="2">
-        <v>45890</v>
+        <v>45905</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -864,45 +864,45 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>127.71</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.86135</v>
+        <v>123.16</v>
       </c>
       <c r="H13">
-        <v>110</v>
+        <v>123.16</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>555657178</v>
+        <v>566723916</v>
       </c>
       <c r="B14" s="2">
-        <v>45859.48091435185</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C14" s="2">
-        <v>45860</v>
+        <v>45898</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>290.69</v>
       </c>
       <c r="G14">
-        <v>0.85771</v>
+        <v>0.86002</v>
       </c>
       <c r="H14">
-        <v>85.77</v>
+        <v>250</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -913,16 +913,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>555654532</v>
+        <v>564426812</v>
       </c>
       <c r="B15" s="2">
-        <v>45859.465474537035</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C15" s="2">
-        <v>45861</v>
+        <v>45891</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -931,27 +931,27 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>395</v>
+        <v>121.62</v>
       </c>
       <c r="H15">
-        <v>395</v>
+        <v>121.62</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2.06</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>551218217</v>
+        <v>564420621</v>
       </c>
       <c r="B16" s="2">
-        <v>45841.369837962964</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C16" s="2">
-        <v>45845</v>
+        <v>45890</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -960,45 +960,45 @@
         <v>11</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>127.71</v>
       </c>
       <c r="G16">
-        <v>119.16</v>
+        <v>0.86135</v>
       </c>
       <c r="H16">
-        <v>119.16</v>
+        <v>110</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>551216497</v>
+        <v>555657178</v>
       </c>
       <c r="B17" s="2">
-        <v>45841.35429398148</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C17" s="2">
-        <v>45845</v>
+        <v>45860</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17">
-        <v>0.84741</v>
+        <v>0.85771</v>
       </c>
       <c r="H17">
-        <v>169.48</v>
+        <v>85.77</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,48 +1009,48 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>549290062</v>
+        <v>555654532</v>
       </c>
       <c r="B18" s="2">
-        <v>45834.39111111111</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C18" s="2">
-        <v>45835</v>
+        <v>45861</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.85337</v>
+        <v>395</v>
       </c>
       <c r="H18">
-        <v>99.84</v>
+        <v>395</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>546584060</v>
+        <v>551218217</v>
       </c>
       <c r="B19" s="2">
-        <v>45824.480104166665</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C19" s="2">
-        <v>45826</v>
+        <v>45845</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1059,10 +1059,10 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.8</v>
+        <v>119.16</v>
       </c>
       <c r="H19">
-        <v>114.8</v>
+        <v>119.16</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1073,28 +1073,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>546583898</v>
+        <v>551216497</v>
       </c>
       <c r="B20" s="2">
-        <v>45824.47923611111</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C20" s="2">
-        <v>45825</v>
+        <v>45845</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="G20">
-        <v>0.86376</v>
+        <v>0.84741</v>
       </c>
       <c r="H20">
-        <v>99.33</v>
+        <v>169.48</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1105,28 +1105,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>545459805</v>
+        <v>549290062</v>
       </c>
       <c r="B21" s="2">
-        <v>45819.41773148148</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C21" s="2">
-        <v>45820</v>
+        <v>45835</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="G21">
-        <v>0.87444</v>
+        <v>0.85337</v>
       </c>
       <c r="H21">
-        <v>43.72</v>
+        <v>99.84</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>542145647</v>
+        <v>546584060</v>
       </c>
       <c r="B22" s="2">
-        <v>45807.5672337963</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C22" s="2">
-        <v>45811</v>
+        <v>45826</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1155,10 +1155,10 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>112.4</v>
+        <v>114.8</v>
       </c>
       <c r="H22">
-        <v>112.4</v>
+        <v>114.8</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1169,28 +1169,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>541352365</v>
+        <v>546583898</v>
       </c>
       <c r="B23" s="2">
-        <v>45805.594560185185</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C23" s="2">
-        <v>45806</v>
+        <v>45825</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23">
-        <v>169.82</v>
+        <v>115</v>
       </c>
       <c r="G23">
-        <v>0.88332</v>
+        <v>0.86376</v>
       </c>
       <c r="H23">
-        <v>150.01</v>
+        <v>99.33</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1201,13 +1201,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>540397794</v>
+        <v>545459805</v>
       </c>
       <c r="B24" s="2">
-        <v>45800.4953125</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C24" s="2">
-        <v>45805</v>
+        <v>45820</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -1216,30 +1216,30 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G24">
-        <v>110.1385</v>
+        <v>0.87444</v>
       </c>
       <c r="H24">
-        <v>110.14</v>
+        <v>43.72</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>539546182</v>
+        <v>542145647</v>
       </c>
       <c r="B25" s="2">
-        <v>45798.38793981481</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C25" s="2">
-        <v>45799</v>
+        <v>45811</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -1248,62 +1248,62 @@
         <v>11</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.88321</v>
+        <v>112.4</v>
       </c>
       <c r="H25">
-        <v>88.32</v>
+        <v>112.4</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>530748416</v>
+        <v>541352365</v>
       </c>
       <c r="B26" s="2">
-        <v>45777.621458333335</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C26" s="2">
-        <v>45779</v>
+        <v>45806</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>169.82</v>
       </c>
       <c r="G26">
-        <v>327.9</v>
+        <v>0.88332</v>
       </c>
       <c r="H26">
-        <v>327.9</v>
+        <v>150.01</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>530748345</v>
+        <v>540397794</v>
       </c>
       <c r="B27" s="2">
-        <v>45777.62107638889</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C27" s="2">
-        <v>45778</v>
+        <v>45805</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1312,45 +1312,45 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.88043</v>
+        <v>110.1385</v>
       </c>
       <c r="H27">
-        <v>26.41</v>
+        <v>110.14</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>530748166</v>
+        <v>539546182</v>
       </c>
       <c r="B28" s="2">
-        <v>45777.62068287037</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C28" s="2">
-        <v>45778</v>
+        <v>45799</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G28">
-        <v>0.8804</v>
+        <v>0.88321</v>
       </c>
       <c r="H28">
-        <v>264.12</v>
+        <v>88.32</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1361,45 +1361,45 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>528304116</v>
+        <v>530748416</v>
       </c>
       <c r="B29" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C29" s="2">
-        <v>45772</v>
+        <v>45779</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.87843</v>
+        <v>327.9</v>
       </c>
       <c r="H29">
-        <v>74.67</v>
+        <v>327.9</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>525384379</v>
+        <v>530748345</v>
       </c>
       <c r="B30" s="2">
-        <v>45763.63711805556</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C30" s="2">
-        <v>45769</v>
+        <v>45778</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -1408,45 +1408,45 @@
         <v>11</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G30">
-        <v>101.9</v>
+        <v>0.88043</v>
       </c>
       <c r="H30">
-        <v>101.9</v>
+        <v>26.41</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>525383965</v>
+        <v>530748166</v>
       </c>
       <c r="B31" s="2">
-        <v>45763.634826388894</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C31" s="2">
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="G31">
-        <v>0.87888</v>
+        <v>0.8804</v>
       </c>
       <c r="H31">
-        <v>65.92</v>
+        <v>264.12</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>521135744</v>
+        <v>528304116</v>
       </c>
       <c r="B32" s="2">
-        <v>45754.608506944445</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C32" s="2">
-        <v>45756</v>
+        <v>45772</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -1472,30 +1472,30 @@
         <v>11</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G32">
-        <v>95</v>
+        <v>0.87843</v>
       </c>
       <c r="H32">
-        <v>95</v>
+        <v>74.67</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>521115122</v>
+        <v>525384379</v>
       </c>
       <c r="B33" s="2">
-        <v>45754.593506944446</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C33" s="2">
-        <v>45755</v>
+        <v>45769</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -1504,62 +1504,62 @@
         <v>11</v>
       </c>
       <c r="F33">
-        <v>109.66</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.91206</v>
+        <v>101.9</v>
       </c>
       <c r="H33">
-        <v>100.02</v>
+        <v>101.9</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>519105737</v>
+        <v>525383965</v>
       </c>
       <c r="B34" s="2">
-        <v>45749.575324074074</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C34" s="2">
-        <v>45751</v>
+        <v>45764</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G34">
-        <v>330.5499</v>
+        <v>0.87888</v>
       </c>
       <c r="H34">
-        <v>330.55</v>
+        <v>65.92</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>519105619</v>
+        <v>521135744</v>
       </c>
       <c r="B35" s="2">
-        <v>45749.575115740736</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C35" s="2">
-        <v>45750</v>
+        <v>45756</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -1568,30 +1568,30 @@
         <v>11</v>
       </c>
       <c r="F35">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.92423</v>
+        <v>95</v>
       </c>
       <c r="H35">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>518501268</v>
+        <v>521115122</v>
       </c>
       <c r="B36" s="2">
-        <v>45748.342511574076</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C36" s="2">
-        <v>45750</v>
+        <v>45755</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
@@ -1600,62 +1600,62 @@
         <v>11</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>109.66</v>
       </c>
       <c r="G36">
-        <v>106.7</v>
+        <v>0.91206</v>
       </c>
       <c r="H36">
-        <v>106.7</v>
+        <v>100.02</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>518501204</v>
+        <v>519105737</v>
       </c>
       <c r="B37" s="2">
-        <v>45748.342199074075</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C37" s="2">
-        <v>45749</v>
+        <v>45751</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37">
-        <v>118.85</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.92553</v>
+        <v>330.5499</v>
       </c>
       <c r="H37">
-        <v>110</v>
+        <v>330.55</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>510327986</v>
+        <v>519105619</v>
       </c>
       <c r="B38" s="2">
-        <v>45728.454201388886</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C38" s="2">
-        <v>45729.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -1664,30 +1664,30 @@
         <v>11</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="G38">
-        <v>107</v>
+        <v>0.92423</v>
       </c>
       <c r="H38">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>510326670</v>
+        <v>518501268</v>
       </c>
       <c r="B39" s="2">
-        <v>45728.43972222222</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C39" s="2">
-        <v>45728.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -1696,62 +1696,62 @@
         <v>11</v>
       </c>
       <c r="F39">
-        <v>114.54</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.91668</v>
+        <v>106.7</v>
       </c>
       <c r="H39">
-        <v>105</v>
+        <v>106.7</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>506086900</v>
+        <v>518501204</v>
       </c>
       <c r="B40" s="2">
-        <v>45719.31646990741</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C40" s="2">
-        <v>45720.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>118.85</v>
       </c>
       <c r="G40">
-        <v>355.9998</v>
+        <v>0.92553</v>
       </c>
       <c r="H40">
-        <v>356</v>
+        <v>110</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>506086612</v>
+        <v>510327986</v>
       </c>
       <c r="B41" s="2">
-        <v>45719.31418981482</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C41" s="2">
-        <v>45719.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -1760,45 +1760,45 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <v>9.74</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0.96213</v>
+        <v>107</v>
       </c>
       <c r="H41">
-        <v>9.37</v>
+        <v>107</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>506084312</v>
+        <v>510326670</v>
       </c>
       <c r="B42" s="2">
-        <v>45719.29939814815</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C42" s="2">
-        <v>45719.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>204.2</v>
+        <v>114.54</v>
       </c>
       <c r="G42">
-        <v>0.96116</v>
+        <v>0.91668</v>
       </c>
       <c r="H42">
-        <v>196.27</v>
+        <v>105</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1809,45 +1809,45 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>505408659</v>
+        <v>506086900</v>
       </c>
       <c r="B43" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C43" s="2">
-        <v>45718.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>129.21</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0.96171</v>
+        <v>355.9998</v>
       </c>
       <c r="H43">
-        <v>124.26</v>
+        <v>356</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>503618898</v>
+        <v>506086612</v>
       </c>
       <c r="B44" s="2">
-        <v>45713.606828703705</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C44" s="2">
-        <v>45714.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -1856,45 +1856,45 @@
         <v>11</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>9.74</v>
       </c>
       <c r="G44">
-        <v>112.86</v>
+        <v>0.96213</v>
       </c>
       <c r="H44">
-        <v>112.86</v>
+        <v>9.37</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>503618686</v>
+        <v>506084312</v>
       </c>
       <c r="B45" s="2">
-        <v>45713.60653935185</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C45" s="2">
-        <v>45713.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45">
-        <v>120</v>
+        <v>204.2</v>
       </c>
       <c r="G45">
-        <v>0.9511</v>
+        <v>0.96116</v>
       </c>
       <c r="H45">
-        <v>114.13</v>
+        <v>196.27</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -1905,45 +1905,45 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>499625741</v>
+        <v>505408659</v>
       </c>
       <c r="B46" s="2">
-        <v>45702.56398148148</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C46" s="2">
-        <v>45705.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>129.21</v>
       </c>
       <c r="G46">
-        <v>375.25</v>
+        <v>0.96171</v>
       </c>
       <c r="H46">
-        <v>375.25</v>
+        <v>124.26</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>2.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>499590185</v>
+        <v>503618898</v>
       </c>
       <c r="B47" s="2">
-        <v>45702.36454861111</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C47" s="2">
-        <v>45705.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -1952,45 +1952,45 @@
         <v>11</v>
       </c>
       <c r="F47">
-        <v>20.96</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0.95429</v>
+        <v>112.86</v>
       </c>
       <c r="H47">
-        <v>20</v>
+        <v>112.86</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>498403616</v>
+        <v>503618686</v>
       </c>
       <c r="B48" s="2">
-        <v>45700.59783564815</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C48" s="2">
-        <v>45700.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48">
-        <v>103.4</v>
+        <v>120</v>
       </c>
       <c r="G48">
-        <v>0.96693</v>
+        <v>0.9511</v>
       </c>
       <c r="H48">
-        <v>99.98</v>
+        <v>114.13</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2001,16 +2001,16 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>494107867</v>
+        <v>499625741</v>
       </c>
       <c r="B49" s="2">
-        <v>45691.58335648148</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C49" s="2">
-        <v>45692.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -2019,42 +2019,42 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>112.9</v>
+        <v>375.25</v>
       </c>
       <c r="H49">
-        <v>112.9</v>
+        <v>375.25</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1.48</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>494049655</v>
+        <v>499590185</v>
       </c>
       <c r="B50" s="2">
-        <v>45691.31773148148</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C50" s="2">
-        <v>45691.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>307.46</v>
+        <v>20.96</v>
       </c>
       <c r="G50">
-        <v>0.97578</v>
+        <v>0.95429</v>
       </c>
       <c r="H50">
-        <v>300.01</v>
+        <v>20</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2065,13 +2065,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>494049572</v>
+        <v>498403616</v>
       </c>
       <c r="B51" s="2">
-        <v>45691.31670138889</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C51" s="2">
-        <v>45692.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
@@ -2080,77 +2080,77 @@
         <v>11</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>103.4</v>
       </c>
       <c r="G51">
-        <v>113.34</v>
+        <v>0.96693</v>
       </c>
       <c r="H51">
-        <v>113.34</v>
+        <v>99.98</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>493368805</v>
+        <v>494107867</v>
       </c>
       <c r="B52" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C52" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>115.9</v>
+        <v>112.9</v>
       </c>
       <c r="H52">
-        <v>231.8</v>
+        <v>112.9</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>492836969</v>
+        <v>494049655</v>
       </c>
       <c r="B53" s="2">
-        <v>45687.621666666666</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C53" s="2">
-        <v>45687.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53">
-        <v>417.21</v>
+        <v>307.46</v>
       </c>
       <c r="G53">
-        <v>0.95874</v>
+        <v>0.97578</v>
       </c>
       <c r="H53">
-        <v>400</v>
+        <v>300.01</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2161,16 +2161,16 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>491075870</v>
+        <v>494049572</v>
       </c>
       <c r="B54" s="2">
-        <v>45684.61530092593</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C54" s="2">
-        <v>45685.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -2179,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>114.4</v>
+        <v>113.34</v>
       </c>
       <c r="H54">
-        <v>114.4</v>
+        <v>113.34</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>491075618</v>
+        <v>493368805</v>
       </c>
       <c r="B55" s="2">
-        <v>45684.61476851851</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C55" s="2">
-        <v>45684.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
@@ -2208,62 +2208,62 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>115.46</v>
+        <v>2</v>
       </c>
       <c r="G55">
-        <v>0.95269</v>
+        <v>115.9</v>
       </c>
       <c r="H55">
-        <v>110</v>
+        <v>231.8</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>483911545</v>
+        <v>492836969</v>
       </c>
       <c r="B56" s="2">
-        <v>45665.44930555555</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C56" s="2">
-        <v>45666.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>417.21</v>
       </c>
       <c r="G56">
-        <v>360.35</v>
+        <v>0.95874</v>
       </c>
       <c r="H56">
-        <v>360.35</v>
+        <v>400</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>483911481</v>
+        <v>491075870</v>
       </c>
       <c r="B57" s="2">
-        <v>45665.44840277778</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C57" s="2">
-        <v>45666.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
@@ -2272,30 +2272,30 @@
         <v>11</v>
       </c>
       <c r="F57">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>0.97183</v>
+        <v>114.4</v>
       </c>
       <c r="H57">
-        <v>354.72</v>
+        <v>114.4</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>481235383</v>
+        <v>491075618</v>
       </c>
       <c r="B58" s="2">
-        <v>45660.337430555555</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C58" s="2">
-        <v>45663.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -2304,94 +2304,94 @@
         <v>11</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>115.46</v>
       </c>
       <c r="G58">
-        <v>112</v>
+        <v>0.95269</v>
       </c>
       <c r="H58">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>1.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>481235152</v>
+        <v>483911545</v>
       </c>
       <c r="B59" s="2">
-        <v>45660.33241898148</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C59" s="2">
-        <v>45662.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59">
-        <v>226.2</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>0.97259</v>
+        <v>360.35</v>
       </c>
       <c r="H59">
-        <v>220</v>
+        <v>360.35</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>476674643</v>
+        <v>483911481</v>
       </c>
       <c r="B60" s="2">
-        <v>45646.40855324074</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C60" s="2">
-        <v>45652.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="G60">
-        <v>355.4</v>
+        <v>0.97183</v>
       </c>
       <c r="H60">
-        <v>355.4</v>
+        <v>354.72</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>476674604</v>
+        <v>481235383</v>
       </c>
       <c r="B61" s="2">
-        <v>45646.408437499995</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C61" s="2">
-        <v>45648.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -2400,45 +2400,45 @@
         <v>11</v>
       </c>
       <c r="F61">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="G61">
-        <v>0.96264</v>
+        <v>112</v>
       </c>
       <c r="H61">
-        <v>206.97</v>
+        <v>224</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>476670294</v>
+        <v>481235152</v>
       </c>
       <c r="B62" s="2">
-        <v>45646.38765046296</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C62" s="2">
-        <v>45648.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>51.32</v>
+        <v>226.2</v>
       </c>
       <c r="G62">
-        <v>0.96299</v>
+        <v>0.97259</v>
       </c>
       <c r="H62">
-        <v>49.42</v>
+        <v>220</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2449,42 +2449,42 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>476669731</v>
+        <v>476674643</v>
       </c>
       <c r="B63" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C63" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="F63">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>0.96251</v>
+        <v>355.4</v>
       </c>
       <c r="H63">
-        <v>57.75</v>
+        <v>355.4</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>476123556</v>
+        <v>476674604</v>
       </c>
       <c r="B64" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C64" s="2">
         <v>45648.95833333333</v>
@@ -2496,45 +2496,45 @@
         <v>11</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="G64">
-        <v>112.54</v>
+        <v>0.96264</v>
       </c>
       <c r="H64">
-        <v>112.54</v>
+        <v>206.97</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>476123515</v>
+        <v>476670294</v>
       </c>
       <c r="B65" s="2">
-        <v>45645.52649305556</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C65" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>100</v>
+        <v>51.32</v>
       </c>
       <c r="G65">
-        <v>0.96108</v>
+        <v>0.96299</v>
       </c>
       <c r="H65">
-        <v>96.11</v>
+        <v>49.42</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2545,48 +2545,48 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>471357479</v>
+        <v>476669731</v>
       </c>
       <c r="B66" s="2">
-        <v>45635.56259259259</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C66" s="2">
-        <v>45635.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G66">
-        <v>8.3412</v>
+        <v>0.96251</v>
       </c>
       <c r="H66">
-        <v>8.34</v>
+        <v>57.75</v>
       </c>
       <c r="I66">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>466623419</v>
+        <v>476123556</v>
       </c>
       <c r="B67" s="2">
-        <v>45622.31217592592</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C67" s="2">
-        <v>45624.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -2595,42 +2595,42 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>354.5</v>
+        <v>112.54</v>
       </c>
       <c r="H67">
-        <v>354.5</v>
+        <v>112.54</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>2.05</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>466623402</v>
+        <v>476123515</v>
       </c>
       <c r="B68" s="2">
-        <v>45622.31188657407</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C68" s="2">
-        <v>45622.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68">
-        <v>141.78</v>
+        <v>100</v>
       </c>
       <c r="G68">
-        <v>0.95389</v>
+        <v>0.96108</v>
       </c>
       <c r="H68">
-        <v>135.24</v>
+        <v>96.11</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2641,92 +2641,92 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>462598648</v>
+        <v>471357479</v>
       </c>
       <c r="B69" s="2">
-        <v>45611.592997685184</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C69" s="2">
-        <v>45614.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>111.8099</v>
+        <v>8.3412</v>
       </c>
       <c r="H69">
-        <v>111.81</v>
+        <v>8.34</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J69">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>460084933</v>
+        <v>466623419</v>
       </c>
       <c r="B70" s="2">
-        <v>45604.62016203704</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C70" s="2">
-        <v>45607.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70">
-        <v>8.3836</v>
+        <v>354.5</v>
       </c>
       <c r="H70">
-        <v>8.38</v>
+        <v>354.5</v>
       </c>
       <c r="I70">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>1.23</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>458847628</v>
+        <v>466623402</v>
       </c>
       <c r="B71" s="2">
-        <v>45602.26765046296</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C71" s="2">
-        <v>45602.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>341.65</v>
+        <v>141.78</v>
       </c>
       <c r="G71">
-        <v>0.93077</v>
+        <v>0.95389</v>
       </c>
       <c r="H71">
-        <v>318</v>
+        <v>135.24</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2737,16 +2737,16 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>449590057</v>
+        <v>462598648</v>
       </c>
       <c r="B72" s="2">
-        <v>45579.62847222222</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C72" s="2">
-        <v>45581</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -2755,59 +2755,59 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>110.9161</v>
+        <v>111.8099</v>
       </c>
       <c r="H72">
-        <v>110.92</v>
+        <v>111.81</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>449589875</v>
+        <v>460084933</v>
       </c>
       <c r="B73" s="2">
-        <v>45579.628125</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C73" s="2">
-        <v>45580</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F73">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>0.91628</v>
+        <v>8.3836</v>
       </c>
       <c r="H73">
-        <v>32.07</v>
+        <v>8.38</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>449589083</v>
+        <v>458847628</v>
       </c>
       <c r="B74" s="2">
-        <v>45579.62637731481</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C74" s="2">
-        <v>45581</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -2816,94 +2816,94 @@
         <v>11</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>341.65</v>
       </c>
       <c r="G74">
-        <v>110.9196</v>
+        <v>0.93077</v>
       </c>
       <c r="H74">
-        <v>110.92</v>
+        <v>318</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>449588246</v>
+        <v>449590057</v>
       </c>
       <c r="B75" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C75" s="2">
         <v>45581</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F75">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>3.4715</v>
+        <v>110.9161</v>
       </c>
       <c r="H75">
-        <v>149.27</v>
+        <v>110.92</v>
       </c>
       <c r="I75">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>445429841</v>
+        <v>449589875</v>
       </c>
       <c r="B76" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.628125</v>
       </c>
       <c r="C76" s="2">
-        <v>45572</v>
+        <v>45580</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G76">
-        <v>337.65</v>
+        <v>0.91628</v>
       </c>
       <c r="H76">
-        <v>337.65</v>
+        <v>32.07</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>1.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>445429174</v>
+        <v>449589083</v>
       </c>
       <c r="B77" s="2">
-        <v>45568.57231481481</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C77" s="2">
-        <v>45569</v>
+        <v>45581</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -2912,129 +2912,129 @@
         <v>11</v>
       </c>
       <c r="F77">
-        <v>369.23</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>0.90605</v>
+        <v>110.9196</v>
       </c>
       <c r="H77">
-        <v>334.54</v>
+        <v>110.92</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>444353954</v>
+        <v>449588246</v>
       </c>
       <c r="B78" s="2">
-        <v>45566.58853009259</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C78" s="2">
-        <v>45568</v>
+        <v>45581</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G78">
-        <v>108.24</v>
+        <v>3.4715</v>
       </c>
       <c r="H78">
-        <v>108.24</v>
+        <v>149.27</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J78">
-        <v>1.45</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>444310921</v>
+        <v>445429841</v>
       </c>
       <c r="B79" s="2">
-        <v>45566.29953703703</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C79" s="2">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79">
-        <v>60.56</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>0.89984</v>
+        <v>337.65</v>
       </c>
       <c r="H79">
-        <v>54.49</v>
+        <v>337.65</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>439936166</v>
+        <v>445429174</v>
       </c>
       <c r="B80" s="2">
-        <v>45554.56259259259</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C80" s="2">
-        <v>45555</v>
+        <v>45569</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>369.23</v>
       </c>
       <c r="G80">
-        <v>62.0726</v>
+        <v>0.90605</v>
       </c>
       <c r="H80">
-        <v>62.07</v>
+        <v>334.54</v>
       </c>
       <c r="I80">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>435165980</v>
+        <v>444353954</v>
       </c>
       <c r="B81" s="2">
-        <v>45541.475370370375</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C81" s="2">
-        <v>45545</v>
+        <v>45568</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -3043,42 +3043,42 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>103.72</v>
+        <v>108.24</v>
       </c>
       <c r="H81">
-        <v>103.72</v>
+        <v>108.24</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>435165968</v>
+        <v>444310921</v>
       </c>
       <c r="B82" s="2">
-        <v>45541.47508101852</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C82" s="2">
-        <v>45544</v>
+        <v>45567</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
       <c r="F82">
-        <v>0.21</v>
+        <v>60.56</v>
       </c>
       <c r="G82">
-        <v>0.9011</v>
+        <v>0.89984</v>
       </c>
       <c r="H82">
-        <v>0.19</v>
+        <v>54.49</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3089,45 +3089,45 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>435165951</v>
+        <v>439936166</v>
       </c>
       <c r="B83" s="2">
-        <v>45541.47487268518</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C83" s="2">
-        <v>45544</v>
+        <v>45555</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F83">
-        <v>4.42</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>0.90109</v>
+        <v>62.0726</v>
       </c>
       <c r="H83">
-        <v>3.98</v>
+        <v>62.07</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>435165927</v>
+        <v>435165980</v>
       </c>
       <c r="B84" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C84" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -3136,62 +3136,62 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>92.77</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0.90109</v>
+        <v>103.72</v>
       </c>
       <c r="H84">
-        <v>83.59</v>
+        <v>103.72</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>434675474</v>
+        <v>435165968</v>
       </c>
       <c r="B85" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C85" s="2">
         <v>45544</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>0.21</v>
       </c>
       <c r="G85">
-        <v>3.689</v>
+        <v>0.9011</v>
       </c>
       <c r="H85">
-        <v>29.51</v>
+        <v>0.19</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>434162210</v>
+        <v>435165951</v>
       </c>
       <c r="B86" s="2">
-        <v>45539.43609953704</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C86" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
@@ -3200,94 +3200,94 @@
         <v>11</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>4.42</v>
       </c>
       <c r="G86">
-        <v>104.42</v>
+        <v>0.90109</v>
       </c>
       <c r="H86">
-        <v>104.42</v>
+        <v>3.98</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>433696199</v>
+        <v>435165927</v>
       </c>
       <c r="B87" s="2">
-        <v>45538.68898148148</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C87" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>92.77</v>
       </c>
       <c r="G87">
-        <v>110.122</v>
+        <v>0.90109</v>
       </c>
       <c r="H87">
-        <v>110.12</v>
+        <v>83.59</v>
       </c>
       <c r="I87">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>433626785</v>
+        <v>434675474</v>
       </c>
       <c r="B88" s="2">
-        <v>45538.39231481482</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C88" s="2">
-        <v>45540</v>
+        <v>45544</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G88">
-        <v>106.54</v>
+        <v>3.689</v>
       </c>
       <c r="H88">
-        <v>106.54</v>
+        <v>29.51</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>433626678</v>
+        <v>434162210</v>
       </c>
       <c r="B89" s="2">
-        <v>45538.391076388885</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C89" s="2">
-        <v>45539</v>
+        <v>45541</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
@@ -3296,65 +3296,65 @@
         <v>11</v>
       </c>
       <c r="F89">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>0.90603</v>
+        <v>104.42</v>
       </c>
       <c r="H89">
-        <v>66.96</v>
+        <v>104.42</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>432518350</v>
+        <v>433696199</v>
       </c>
       <c r="B90" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C90" s="2">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="D90" t="s">
         <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90">
-        <v>120.88</v>
+        <v>110.122</v>
       </c>
       <c r="H90">
-        <v>120.88</v>
+        <v>110.12</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J90">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>432515426</v>
+        <v>433626785</v>
       </c>
       <c r="B91" s="2">
-        <v>45533.54127314815</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C91" s="2">
-        <v>45537</v>
+        <v>45540</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>106.34</v>
+        <v>106.54</v>
       </c>
       <c r="H91">
-        <v>106.34</v>
+        <v>106.54</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -3377,77 +3377,77 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>432005364</v>
+        <v>433626678</v>
       </c>
       <c r="B92" s="2">
-        <v>45532.39208333333</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C92" s="2">
-        <v>45534</v>
+        <v>45539</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92">
-        <v>32</v>
+        <v>73.9</v>
       </c>
       <c r="G92">
-        <v>3.632</v>
+        <v>0.90603</v>
       </c>
       <c r="H92">
-        <v>116.22</v>
+        <v>66.96</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>432003333</v>
+        <v>432518350</v>
       </c>
       <c r="B93" s="2">
-        <v>45532.363020833334</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C93" s="2">
-        <v>45534</v>
+        <v>45533</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>106.74</v>
+        <v>120.88</v>
       </c>
       <c r="H93">
-        <v>213.48</v>
+        <v>120.88</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>432003262</v>
+        <v>432515426</v>
       </c>
       <c r="B94" s="2">
-        <v>45532.361875</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C94" s="2">
-        <v>45533</v>
+        <v>45537</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
@@ -3456,30 +3456,30 @@
         <v>11</v>
       </c>
       <c r="F94">
-        <v>618.74</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>0.89741</v>
+        <v>106.34</v>
       </c>
       <c r="H94">
-        <v>555.26</v>
+        <v>106.34</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>430366906</v>
+        <v>432005364</v>
       </c>
       <c r="B95" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C95" s="2">
-        <v>45532</v>
+        <v>45534</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
@@ -3488,30 +3488,30 @@
         <v>11</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G95">
-        <v>3.6305</v>
+        <v>3.632</v>
       </c>
       <c r="H95">
-        <v>10.89</v>
+        <v>116.22</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>1.26</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>430365249</v>
+        <v>432003333</v>
       </c>
       <c r="B96" s="2">
-        <v>45527.27630787037</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C96" s="2">
-        <v>45530</v>
+        <v>45534</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
@@ -3520,109 +3520,109 @@
         <v>11</v>
       </c>
       <c r="F96">
-        <v>4.63</v>
+        <v>2</v>
       </c>
       <c r="G96">
-        <v>0.8999</v>
+        <v>106.74</v>
       </c>
       <c r="H96">
-        <v>4.17</v>
+        <v>213.48</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>428453232</v>
+        <v>432003262</v>
       </c>
       <c r="B97" s="2">
-        <v>45523.56253472222</v>
+        <v>45532.361875</v>
       </c>
       <c r="C97" s="2">
-        <v>45524</v>
+        <v>45533</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>618.74</v>
       </c>
       <c r="G97">
-        <v>60.046</v>
+        <v>0.89741</v>
       </c>
       <c r="H97">
-        <v>60.05</v>
+        <v>555.26</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>428444212</v>
+        <v>430366906</v>
       </c>
       <c r="B98" s="2">
-        <v>45523.47152777778</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C98" s="2">
-        <v>45525</v>
+        <v>45532</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G98">
-        <v>105.3</v>
+        <v>3.6305</v>
       </c>
       <c r="H98">
-        <v>105.3</v>
+        <v>10.89</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>428437042</v>
+        <v>430365249</v>
       </c>
       <c r="B99" s="2">
-        <v>45523.37878472223</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C99" s="2">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
       </c>
       <c r="F99">
-        <v>7.15</v>
+        <v>4.63</v>
       </c>
       <c r="G99">
-        <v>0.90756</v>
+        <v>0.8999</v>
       </c>
       <c r="H99">
-        <v>6.49</v>
+        <v>4.17</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -3633,48 +3633,48 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>428437005</v>
+        <v>428453232</v>
       </c>
       <c r="B100" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C100" s="2">
         <v>45524</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100">
-        <v>150.15</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>0.90756</v>
+        <v>60.046</v>
       </c>
       <c r="H100">
-        <v>136.27</v>
+        <v>60.05</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>426418112</v>
+        <v>428444212</v>
       </c>
       <c r="B101" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C101" s="2">
-        <v>45519</v>
+        <v>45525</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>102.02</v>
+        <v>105.3</v>
       </c>
       <c r="H101">
-        <v>102.02</v>
+        <v>105.3</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -3697,28 +3697,28 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>426417966</v>
+        <v>428437042</v>
       </c>
       <c r="B102" s="2">
-        <v>45517.58042824074</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C102" s="2">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
       </c>
       <c r="F102">
-        <v>10.45</v>
+        <v>7.15</v>
       </c>
       <c r="G102">
-        <v>0.91439</v>
+        <v>0.90756</v>
       </c>
       <c r="H102">
-        <v>9.56</v>
+        <v>6.49</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -3729,28 +3729,28 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>426416264</v>
+        <v>428437005</v>
       </c>
       <c r="B103" s="2">
-        <v>45517.57699074074</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C103" s="2">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
       </c>
       <c r="F103">
-        <v>4.86</v>
+        <v>150.15</v>
       </c>
       <c r="G103">
-        <v>0.91458</v>
+        <v>0.90756</v>
       </c>
       <c r="H103">
-        <v>4.44</v>
+        <v>136.27</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -3761,13 +3761,13 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>426416183</v>
+        <v>426418112</v>
       </c>
       <c r="B104" s="2">
-        <v>45517.576678240745</v>
+        <v>45517.58078703703</v>
       </c>
       <c r="C104" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
@@ -3776,18 +3776,114 @@
         <v>11</v>
       </c>
       <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>102.02</v>
+      </c>
+      <c r="H104">
+        <v>102.02</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>426417966</v>
+      </c>
+      <c r="B105" s="2">
+        <v>45517.58042824074</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105">
+        <v>10.45</v>
+      </c>
+      <c r="G105">
+        <v>0.91439</v>
+      </c>
+      <c r="H105">
+        <v>9.56</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>426416264</v>
+      </c>
+      <c r="B106" s="2">
+        <v>45517.57699074074</v>
+      </c>
+      <c r="C106" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106">
+        <v>4.86</v>
+      </c>
+      <c r="G106">
+        <v>0.91458</v>
+      </c>
+      <c r="H106">
+        <v>4.44</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>426416183</v>
+      </c>
+      <c r="B107" s="2">
+        <v>45517.576678240745</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107">
         <v>102.05</v>
       </c>
-      <c r="G104">
+      <c r="G107">
         <v>0.91459</v>
       </c>
-      <c r="H104">
+      <c r="H107">
         <v>93.33</v>
       </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
         <v>0</v>
       </c>
     </row>

--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="21">
   <si>
     <t>Number</t>
   </si>
@@ -43,16 +43,16 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>USD/EUR</t>
+    <t>AETF.GR</t>
   </si>
   <si>
     <t xml:space="preserve"> Buy </t>
   </si>
   <si>
-    <t>AETF.GR</t>
+    <t>VUAA.EU</t>
   </si>
   <si>
-    <t>VUAA.EU</t>
+    <t>USD/EUR</t>
   </si>
   <si>
     <t>EQAC.EU</t>
@@ -460,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J110"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -497,13 +497,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>580169893</v>
+        <v>581709074</v>
       </c>
       <c r="B2" s="2">
-        <v>45943.423321759255</v>
+        <v>45947.35291666667</v>
       </c>
       <c r="C2" s="2">
-        <v>45944</v>
+        <v>45951</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -512,30 +512,30 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>80.87</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8656</v>
+        <v>49.61</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>49.61</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>580169868</v>
+        <v>581709060</v>
       </c>
       <c r="B3" s="2">
-        <v>45943.42288194444</v>
+        <v>45947.35277777778</v>
       </c>
       <c r="C3" s="2">
-        <v>45945</v>
+        <v>45951</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -547,30 +547,30 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.65</v>
+        <v>125.58</v>
       </c>
       <c r="H3">
-        <v>53.65</v>
+        <v>125.58</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>580169327</v>
+        <v>581269382</v>
       </c>
       <c r="B4" s="2">
-        <v>45943.41800925926</v>
+        <v>45946.41150462963</v>
       </c>
       <c r="C4" s="2">
-        <v>45945</v>
+        <v>45950</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -579,27 +579,27 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>127.32</v>
+        <v>50.94</v>
       </c>
       <c r="H4">
-        <v>127.32</v>
+        <v>50.94</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>579211549</v>
+        <v>580169893</v>
       </c>
       <c r="B5" s="2">
-        <v>45939.61756944444</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C5" s="2">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -608,62 +608,62 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>80.87</v>
       </c>
       <c r="G5">
-        <v>129.08</v>
+        <v>0.8656</v>
       </c>
       <c r="H5">
-        <v>129.08</v>
+        <v>70</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>577313732</v>
+        <v>580169868</v>
       </c>
       <c r="B6" s="2">
-        <v>45933.56972222222</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C6" s="2">
-        <v>45937</v>
+        <v>45945</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>52.65</v>
+        <v>53.65</v>
       </c>
       <c r="H6">
-        <v>105.3</v>
+        <v>53.65</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>576413456</v>
+        <v>580169327</v>
       </c>
       <c r="B7" s="2">
-        <v>45931.44907407407</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C7" s="2">
-        <v>45933</v>
+        <v>45945</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -675,94 +675,94 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.62</v>
+        <v>127.32</v>
       </c>
       <c r="H7">
-        <v>51.62</v>
+        <v>127.32</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>576410571</v>
+        <v>579211549</v>
       </c>
       <c r="B8" s="2">
-        <v>45931.43001157408</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C8" s="2">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8">
-        <v>116.85</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.85583</v>
+        <v>129.08</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>129.08</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>575554915</v>
+        <v>577313732</v>
       </c>
       <c r="B9" s="2">
-        <v>45929.452060185184</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C9" s="2">
-        <v>45931</v>
+        <v>45937</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>51.47</v>
+        <v>52.65</v>
       </c>
       <c r="H9">
-        <v>51.47</v>
+        <v>105.3</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>573400676</v>
+        <v>576413456</v>
       </c>
       <c r="B10" s="2">
-        <v>45922.33627314815</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C10" s="2">
-        <v>45924</v>
+        <v>45933</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -771,59 +771,59 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>127.36</v>
+        <v>51.62</v>
       </c>
       <c r="H10">
-        <v>127.36</v>
+        <v>51.62</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>573399341</v>
+        <v>576410571</v>
       </c>
       <c r="B11" s="2">
-        <v>45922.324120370366</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C11" s="2">
-        <v>45924</v>
+        <v>45932</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G11">
-        <v>51</v>
+        <v>0.85583</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>568717926</v>
+        <v>575554915</v>
       </c>
       <c r="B12" s="2">
-        <v>45905.5246875</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C12" s="2">
-        <v>45908</v>
+        <v>45931</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -832,33 +832,33 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.85539</v>
+        <v>51.47</v>
       </c>
       <c r="H12">
-        <v>106.92</v>
+        <v>51.47</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>567931751</v>
+        <v>573400676</v>
       </c>
       <c r="B13" s="2">
-        <v>45903.333657407406</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C13" s="2">
-        <v>45905</v>
+        <v>45924</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -867,27 +867,27 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.16</v>
+        <v>127.36</v>
       </c>
       <c r="H13">
-        <v>123.16</v>
+        <v>127.36</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>566723916</v>
+        <v>573399341</v>
       </c>
       <c r="B14" s="2">
-        <v>45897.62657407408</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C14" s="2">
-        <v>45898</v>
+        <v>45924</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -896,30 +896,30 @@
         <v>11</v>
       </c>
       <c r="F14">
-        <v>290.69</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.86002</v>
+        <v>51</v>
       </c>
       <c r="H14">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>564426812</v>
+        <v>568717926</v>
       </c>
       <c r="B15" s="2">
-        <v>45889.61331018519</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C15" s="2">
-        <v>45891</v>
+        <v>45908</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -928,77 +928,77 @@
         <v>11</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="G15">
-        <v>121.62</v>
+        <v>0.85539</v>
       </c>
       <c r="H15">
-        <v>121.62</v>
+        <v>106.92</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>564420621</v>
+        <v>567931751</v>
       </c>
       <c r="B16" s="2">
-        <v>45889.60018518519</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C16" s="2">
-        <v>45890</v>
+        <v>45905</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16">
-        <v>127.71</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.86135</v>
+        <v>123.16</v>
       </c>
       <c r="H16">
-        <v>110</v>
+        <v>123.16</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>555657178</v>
+        <v>566723916</v>
       </c>
       <c r="B17" s="2">
-        <v>45859.48091435185</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C17" s="2">
-        <v>45860</v>
+        <v>45898</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17">
-        <v>100</v>
+        <v>290.69</v>
       </c>
       <c r="G17">
-        <v>0.85771</v>
+        <v>0.86002</v>
       </c>
       <c r="H17">
-        <v>85.77</v>
+        <v>250</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,16 +1009,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>555654532</v>
+        <v>564426812</v>
       </c>
       <c r="B18" s="2">
-        <v>45859.465474537035</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C18" s="2">
-        <v>45861</v>
+        <v>45891</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1027,27 +1027,27 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>395</v>
+        <v>121.62</v>
       </c>
       <c r="H18">
-        <v>395</v>
+        <v>121.62</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2.06</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>551218217</v>
+        <v>564420621</v>
       </c>
       <c r="B19" s="2">
-        <v>45841.369837962964</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C19" s="2">
-        <v>45845</v>
+        <v>45890</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1056,45 +1056,45 @@
         <v>11</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>127.71</v>
       </c>
       <c r="G19">
-        <v>119.16</v>
+        <v>0.86135</v>
       </c>
       <c r="H19">
-        <v>119.16</v>
+        <v>110</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>551216497</v>
+        <v>555657178</v>
       </c>
       <c r="B20" s="2">
-        <v>45841.35429398148</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C20" s="2">
-        <v>45845</v>
+        <v>45860</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G20">
-        <v>0.84741</v>
+        <v>0.85771</v>
       </c>
       <c r="H20">
-        <v>169.48</v>
+        <v>85.77</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1105,48 +1105,48 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>549290062</v>
+        <v>555654532</v>
       </c>
       <c r="B21" s="2">
-        <v>45834.39111111111</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C21" s="2">
-        <v>45835</v>
+        <v>45861</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.85337</v>
+        <v>395</v>
       </c>
       <c r="H21">
-        <v>99.84</v>
+        <v>395</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>546584060</v>
+        <v>551218217</v>
       </c>
       <c r="B22" s="2">
-        <v>45824.480104166665</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C22" s="2">
-        <v>45826</v>
+        <v>45845</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1155,10 +1155,10 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>114.8</v>
+        <v>119.16</v>
       </c>
       <c r="H22">
-        <v>114.8</v>
+        <v>119.16</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1169,28 +1169,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>546583898</v>
+        <v>551216497</v>
       </c>
       <c r="B23" s="2">
-        <v>45824.47923611111</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C23" s="2">
-        <v>45825</v>
+        <v>45845</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="G23">
-        <v>0.86376</v>
+        <v>0.84741</v>
       </c>
       <c r="H23">
-        <v>99.33</v>
+        <v>169.48</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1201,28 +1201,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>545459805</v>
+        <v>549290062</v>
       </c>
       <c r="B24" s="2">
-        <v>45819.41773148148</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C24" s="2">
-        <v>45820</v>
+        <v>45835</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="G24">
-        <v>0.87444</v>
+        <v>0.85337</v>
       </c>
       <c r="H24">
-        <v>43.72</v>
+        <v>99.84</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>542145647</v>
+        <v>546584060</v>
       </c>
       <c r="B25" s="2">
-        <v>45807.5672337963</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C25" s="2">
-        <v>45811</v>
+        <v>45826</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1251,10 +1251,10 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>112.4</v>
+        <v>114.8</v>
       </c>
       <c r="H25">
-        <v>112.4</v>
+        <v>114.8</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1265,28 +1265,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>541352365</v>
+        <v>546583898</v>
       </c>
       <c r="B26" s="2">
-        <v>45805.594560185185</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C26" s="2">
-        <v>45806</v>
+        <v>45825</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
       <c r="F26">
-        <v>169.82</v>
+        <v>115</v>
       </c>
       <c r="G26">
-        <v>0.88332</v>
+        <v>0.86376</v>
       </c>
       <c r="H26">
-        <v>150.01</v>
+        <v>99.33</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>540397794</v>
+        <v>545459805</v>
       </c>
       <c r="B27" s="2">
-        <v>45800.4953125</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C27" s="2">
-        <v>45805</v>
+        <v>45820</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1312,141 +1312,141 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G27">
-        <v>110.1385</v>
+        <v>0.87444</v>
       </c>
       <c r="H27">
-        <v>110.14</v>
+        <v>43.72</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>539546182</v>
+        <v>542145647</v>
       </c>
       <c r="B28" s="2">
-        <v>45798.38793981481</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C28" s="2">
-        <v>45799</v>
+        <v>45811</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.88321</v>
+        <v>112.4</v>
       </c>
       <c r="H28">
-        <v>88.32</v>
+        <v>112.4</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>530748416</v>
+        <v>541352365</v>
       </c>
       <c r="B29" s="2">
-        <v>45777.621458333335</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C29" s="2">
-        <v>45779</v>
+        <v>45806</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>169.82</v>
       </c>
       <c r="G29">
-        <v>327.9</v>
+        <v>0.88332</v>
       </c>
       <c r="H29">
-        <v>327.9</v>
+        <v>150.01</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>530748345</v>
+        <v>540397794</v>
       </c>
       <c r="B30" s="2">
-        <v>45777.62107638889</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C30" s="2">
-        <v>45778</v>
+        <v>45805</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.88043</v>
+        <v>110.1385</v>
       </c>
       <c r="H30">
-        <v>26.41</v>
+        <v>110.14</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>530748166</v>
+        <v>539546182</v>
       </c>
       <c r="B31" s="2">
-        <v>45777.62068287037</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C31" s="2">
-        <v>45778</v>
+        <v>45799</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G31">
-        <v>0.8804</v>
+        <v>0.88321</v>
       </c>
       <c r="H31">
-        <v>264.12</v>
+        <v>88.32</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1457,45 +1457,45 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>528304116</v>
+        <v>530748416</v>
       </c>
       <c r="B32" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C32" s="2">
-        <v>45772</v>
+        <v>45779</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.87843</v>
+        <v>327.9</v>
       </c>
       <c r="H32">
-        <v>74.67</v>
+        <v>327.9</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>525384379</v>
+        <v>530748345</v>
       </c>
       <c r="B33" s="2">
-        <v>45763.63711805556</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C33" s="2">
-        <v>45769</v>
+        <v>45778</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -1504,45 +1504,45 @@
         <v>11</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G33">
-        <v>101.9</v>
+        <v>0.88043</v>
       </c>
       <c r="H33">
-        <v>101.9</v>
+        <v>26.41</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>525383965</v>
+        <v>530748166</v>
       </c>
       <c r="B34" s="2">
-        <v>45763.634826388894</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C34" s="2">
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="G34">
-        <v>0.87888</v>
+        <v>0.8804</v>
       </c>
       <c r="H34">
-        <v>65.92</v>
+        <v>264.12</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>521135744</v>
+        <v>528304116</v>
       </c>
       <c r="B35" s="2">
-        <v>45754.608506944445</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C35" s="2">
-        <v>45756</v>
+        <v>45772</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -1568,126 +1568,126 @@
         <v>11</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G35">
-        <v>95</v>
+        <v>0.87843</v>
       </c>
       <c r="H35">
-        <v>95</v>
+        <v>74.67</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>521115122</v>
+        <v>525384379</v>
       </c>
       <c r="B36" s="2">
-        <v>45754.593506944446</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C36" s="2">
-        <v>45755</v>
+        <v>45769</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36">
-        <v>109.66</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.91206</v>
+        <v>101.9</v>
       </c>
       <c r="H36">
-        <v>100.02</v>
+        <v>101.9</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>519105737</v>
+        <v>525383965</v>
       </c>
       <c r="B37" s="2">
-        <v>45749.575324074074</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C37" s="2">
-        <v>45751</v>
+        <v>45764</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G37">
-        <v>330.5499</v>
+        <v>0.87888</v>
       </c>
       <c r="H37">
-        <v>330.55</v>
+        <v>65.92</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>519105619</v>
+        <v>521135744</v>
       </c>
       <c r="B38" s="2">
-        <v>45749.575115740736</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C38" s="2">
-        <v>45750</v>
+        <v>45756</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
       </c>
       <c r="F38">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0.92423</v>
+        <v>95</v>
       </c>
       <c r="H38">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>518501268</v>
+        <v>521115122</v>
       </c>
       <c r="B39" s="2">
-        <v>45748.342511574076</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C39" s="2">
-        <v>45750</v>
+        <v>45755</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -1696,62 +1696,62 @@
         <v>11</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>109.66</v>
       </c>
       <c r="G39">
-        <v>106.7</v>
+        <v>0.91206</v>
       </c>
       <c r="H39">
-        <v>106.7</v>
+        <v>100.02</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>518501204</v>
+        <v>519105737</v>
       </c>
       <c r="B40" s="2">
-        <v>45748.342199074075</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C40" s="2">
-        <v>45749</v>
+        <v>45751</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>118.85</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0.92553</v>
+        <v>330.5499</v>
       </c>
       <c r="H40">
-        <v>110</v>
+        <v>330.55</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>510327986</v>
+        <v>519105619</v>
       </c>
       <c r="B41" s="2">
-        <v>45728.454201388886</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C41" s="2">
-        <v>45729.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -1760,141 +1760,141 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="G41">
-        <v>107</v>
+        <v>0.92423</v>
       </c>
       <c r="H41">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>510326670</v>
+        <v>518501268</v>
       </c>
       <c r="B42" s="2">
-        <v>45728.43972222222</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C42" s="2">
-        <v>45728.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>114.54</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0.91668</v>
+        <v>106.7</v>
       </c>
       <c r="H42">
-        <v>105</v>
+        <v>106.7</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>506086900</v>
+        <v>518501204</v>
       </c>
       <c r="B43" s="2">
-        <v>45719.31646990741</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C43" s="2">
-        <v>45720.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>118.85</v>
       </c>
       <c r="G43">
-        <v>355.9998</v>
+        <v>0.92553</v>
       </c>
       <c r="H43">
-        <v>356</v>
+        <v>110</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>506086612</v>
+        <v>510327986</v>
       </c>
       <c r="B44" s="2">
-        <v>45719.31418981482</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C44" s="2">
-        <v>45719.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44">
-        <v>9.74</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0.96213</v>
+        <v>107</v>
       </c>
       <c r="H44">
-        <v>9.37</v>
+        <v>107</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>506084312</v>
+        <v>510326670</v>
       </c>
       <c r="B45" s="2">
-        <v>45719.29939814815</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C45" s="2">
-        <v>45719.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45">
-        <v>204.2</v>
+        <v>114.54</v>
       </c>
       <c r="G45">
-        <v>0.96116</v>
+        <v>0.91668</v>
       </c>
       <c r="H45">
-        <v>196.27</v>
+        <v>105</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -1905,45 +1905,45 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>505408659</v>
+        <v>506086900</v>
       </c>
       <c r="B46" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C46" s="2">
-        <v>45718.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>129.21</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>0.96171</v>
+        <v>355.9998</v>
       </c>
       <c r="H46">
-        <v>124.26</v>
+        <v>356</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>503618898</v>
+        <v>506086612</v>
       </c>
       <c r="B47" s="2">
-        <v>45713.606828703705</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C47" s="2">
-        <v>45714.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -1952,45 +1952,45 @@
         <v>11</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>9.74</v>
       </c>
       <c r="G47">
-        <v>112.86</v>
+        <v>0.96213</v>
       </c>
       <c r="H47">
-        <v>112.86</v>
+        <v>9.37</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>503618686</v>
+        <v>506084312</v>
       </c>
       <c r="B48" s="2">
-        <v>45713.60653935185</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C48" s="2">
-        <v>45713.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48">
-        <v>120</v>
+        <v>204.2</v>
       </c>
       <c r="G48">
-        <v>0.9511</v>
+        <v>0.96116</v>
       </c>
       <c r="H48">
-        <v>114.13</v>
+        <v>196.27</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2001,92 +2001,92 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>499625741</v>
+        <v>505408659</v>
       </c>
       <c r="B49" s="2">
-        <v>45702.56398148148</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C49" s="2">
-        <v>45705.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>129.21</v>
       </c>
       <c r="G49">
-        <v>375.25</v>
+        <v>0.96171</v>
       </c>
       <c r="H49">
-        <v>375.25</v>
+        <v>124.26</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>2.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>499590185</v>
+        <v>503618898</v>
       </c>
       <c r="B50" s="2">
-        <v>45702.36454861111</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C50" s="2">
-        <v>45705.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>20.96</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>0.95429</v>
+        <v>112.86</v>
       </c>
       <c r="H50">
-        <v>20</v>
+        <v>112.86</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>498403616</v>
+        <v>503618686</v>
       </c>
       <c r="B51" s="2">
-        <v>45700.59783564815</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C51" s="2">
-        <v>45700.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
       </c>
       <c r="F51">
-        <v>103.4</v>
+        <v>120</v>
       </c>
       <c r="G51">
-        <v>0.96693</v>
+        <v>0.9511</v>
       </c>
       <c r="H51">
-        <v>99.98</v>
+        <v>114.13</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>494107867</v>
+        <v>499625741</v>
       </c>
       <c r="B52" s="2">
-        <v>45691.58335648148</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C52" s="2">
-        <v>45692.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -2115,42 +2115,42 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>112.9</v>
+        <v>375.25</v>
       </c>
       <c r="H52">
-        <v>112.9</v>
+        <v>375.25</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1.48</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>494049655</v>
+        <v>499590185</v>
       </c>
       <c r="B53" s="2">
-        <v>45691.31773148148</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C53" s="2">
-        <v>45691.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53">
-        <v>307.46</v>
+        <v>20.96</v>
       </c>
       <c r="G53">
-        <v>0.97578</v>
+        <v>0.95429</v>
       </c>
       <c r="H53">
-        <v>300.01</v>
+        <v>20</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2161,13 +2161,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>494049572</v>
+        <v>498403616</v>
       </c>
       <c r="B54" s="2">
-        <v>45691.31670138889</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C54" s="2">
-        <v>45692.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -2176,77 +2176,77 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>103.4</v>
       </c>
       <c r="G54">
-        <v>113.34</v>
+        <v>0.96693</v>
       </c>
       <c r="H54">
-        <v>113.34</v>
+        <v>99.98</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>493368805</v>
+        <v>494107867</v>
       </c>
       <c r="B55" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C55" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>115.9</v>
+        <v>112.9</v>
       </c>
       <c r="H55">
-        <v>231.8</v>
+        <v>112.9</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>492836969</v>
+        <v>494049655</v>
       </c>
       <c r="B56" s="2">
-        <v>45687.621666666666</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C56" s="2">
-        <v>45687.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>417.21</v>
+        <v>307.46</v>
       </c>
       <c r="G56">
-        <v>0.95874</v>
+        <v>0.97578</v>
       </c>
       <c r="H56">
-        <v>400</v>
+        <v>300.01</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>491075870</v>
+        <v>494049572</v>
       </c>
       <c r="B57" s="2">
-        <v>45684.61530092593</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C57" s="2">
-        <v>45685.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -2275,10 +2275,10 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>114.4</v>
+        <v>113.34</v>
       </c>
       <c r="H57">
-        <v>114.4</v>
+        <v>113.34</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2289,109 +2289,109 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>491075618</v>
+        <v>493368805</v>
       </c>
       <c r="B58" s="2">
-        <v>45684.61476851851</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C58" s="2">
-        <v>45684.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>115.46</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>0.95269</v>
+        <v>115.9</v>
       </c>
       <c r="H58">
-        <v>110</v>
+        <v>231.8</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>483911545</v>
+        <v>492836969</v>
       </c>
       <c r="B59" s="2">
-        <v>45665.44930555555</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C59" s="2">
-        <v>45666.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>417.21</v>
       </c>
       <c r="G59">
-        <v>360.35</v>
+        <v>0.95874</v>
       </c>
       <c r="H59">
-        <v>360.35</v>
+        <v>400</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>483911481</v>
+        <v>491075870</v>
       </c>
       <c r="B60" s="2">
-        <v>45665.44840277778</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C60" s="2">
-        <v>45666.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>0.97183</v>
+        <v>114.4</v>
       </c>
       <c r="H60">
-        <v>354.72</v>
+        <v>114.4</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>481235383</v>
+        <v>491075618</v>
       </c>
       <c r="B61" s="2">
-        <v>45660.337430555555</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C61" s="2">
-        <v>45663.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -2400,141 +2400,141 @@
         <v>11</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>115.46</v>
       </c>
       <c r="G61">
-        <v>112</v>
+        <v>0.95269</v>
       </c>
       <c r="H61">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>1.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>481235152</v>
+        <v>483911545</v>
       </c>
       <c r="B62" s="2">
-        <v>45660.33241898148</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C62" s="2">
-        <v>45662.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>226.2</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>0.97259</v>
+        <v>360.35</v>
       </c>
       <c r="H62">
-        <v>220</v>
+        <v>360.35</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>476674643</v>
+        <v>483911481</v>
       </c>
       <c r="B63" s="2">
-        <v>45646.40855324074</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C63" s="2">
-        <v>45652.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="G63">
-        <v>355.4</v>
+        <v>0.97183</v>
       </c>
       <c r="H63">
-        <v>355.4</v>
+        <v>354.72</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>476674604</v>
+        <v>481235383</v>
       </c>
       <c r="B64" s="2">
-        <v>45646.408437499995</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C64" s="2">
-        <v>45648.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="G64">
-        <v>0.96264</v>
+        <v>112</v>
       </c>
       <c r="H64">
-        <v>206.97</v>
+        <v>224</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>476670294</v>
+        <v>481235152</v>
       </c>
       <c r="B65" s="2">
-        <v>45646.38765046296</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C65" s="2">
-        <v>45648.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>51.32</v>
+        <v>226.2</v>
       </c>
       <c r="G65">
-        <v>0.96299</v>
+        <v>0.97259</v>
       </c>
       <c r="H65">
-        <v>49.42</v>
+        <v>220</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2545,42 +2545,42 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>476669731</v>
+        <v>476674643</v>
       </c>
       <c r="B66" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C66" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>0.96251</v>
+        <v>355.4</v>
       </c>
       <c r="H66">
-        <v>57.75</v>
+        <v>355.4</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>476123556</v>
+        <v>476674604</v>
       </c>
       <c r="B67" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C67" s="2">
         <v>45648.95833333333</v>
@@ -2592,45 +2592,45 @@
         <v>11</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="G67">
-        <v>112.54</v>
+        <v>0.96264</v>
       </c>
       <c r="H67">
-        <v>112.54</v>
+        <v>206.97</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>476123515</v>
+        <v>476670294</v>
       </c>
       <c r="B68" s="2">
-        <v>45645.52649305556</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C68" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68">
-        <v>100</v>
+        <v>51.32</v>
       </c>
       <c r="G68">
-        <v>0.96108</v>
+        <v>0.96299</v>
       </c>
       <c r="H68">
-        <v>96.11</v>
+        <v>49.42</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2641,48 +2641,48 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>471357479</v>
+        <v>476669731</v>
       </c>
       <c r="B69" s="2">
-        <v>45635.56259259259</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C69" s="2">
-        <v>45635.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G69">
-        <v>8.3412</v>
+        <v>0.96251</v>
       </c>
       <c r="H69">
-        <v>8.34</v>
+        <v>57.75</v>
       </c>
       <c r="I69">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>466623419</v>
+        <v>476123556</v>
       </c>
       <c r="B70" s="2">
-        <v>45622.31217592592</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C70" s="2">
-        <v>45624.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -2691,42 +2691,42 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>354.5</v>
+        <v>112.54</v>
       </c>
       <c r="H70">
-        <v>354.5</v>
+        <v>112.54</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>2.05</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>466623402</v>
+        <v>476123515</v>
       </c>
       <c r="B71" s="2">
-        <v>45622.31188657407</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C71" s="2">
-        <v>45622.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>141.78</v>
+        <v>100</v>
       </c>
       <c r="G71">
-        <v>0.95389</v>
+        <v>0.96108</v>
       </c>
       <c r="H71">
-        <v>135.24</v>
+        <v>96.11</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2737,92 +2737,92 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>462598648</v>
+        <v>471357479</v>
       </c>
       <c r="B72" s="2">
-        <v>45611.592997685184</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C72" s="2">
-        <v>45614.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72">
-        <v>111.8099</v>
+        <v>8.3412</v>
       </c>
       <c r="H72">
-        <v>111.81</v>
+        <v>8.34</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J72">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>460084933</v>
+        <v>466623419</v>
       </c>
       <c r="B73" s="2">
-        <v>45604.62016203704</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C73" s="2">
-        <v>45607.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73">
-        <v>8.3836</v>
+        <v>354.5</v>
       </c>
       <c r="H73">
-        <v>8.38</v>
+        <v>354.5</v>
       </c>
       <c r="I73">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>1.23</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>458847628</v>
+        <v>466623402</v>
       </c>
       <c r="B74" s="2">
-        <v>45602.26765046296</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C74" s="2">
-        <v>45602.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74">
-        <v>341.65</v>
+        <v>141.78</v>
       </c>
       <c r="G74">
-        <v>0.93077</v>
+        <v>0.95389</v>
       </c>
       <c r="H74">
-        <v>318</v>
+        <v>135.24</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -2833,16 +2833,16 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>449590057</v>
+        <v>462598648</v>
       </c>
       <c r="B75" s="2">
-        <v>45579.62847222222</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C75" s="2">
-        <v>45581</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -2851,59 +2851,59 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <v>110.9161</v>
+        <v>111.8099</v>
       </c>
       <c r="H75">
-        <v>110.92</v>
+        <v>111.81</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>449589875</v>
+        <v>460084933</v>
       </c>
       <c r="B76" s="2">
-        <v>45579.628125</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C76" s="2">
-        <v>45580</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F76">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>0.91628</v>
+        <v>8.3836</v>
       </c>
       <c r="H76">
-        <v>32.07</v>
+        <v>8.38</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>449589083</v>
+        <v>458847628</v>
       </c>
       <c r="B77" s="2">
-        <v>45579.62637731481</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C77" s="2">
-        <v>45581</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -2912,225 +2912,225 @@
         <v>11</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>341.65</v>
       </c>
       <c r="G77">
-        <v>110.9196</v>
+        <v>0.93077</v>
       </c>
       <c r="H77">
-        <v>110.92</v>
+        <v>318</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>449588246</v>
+        <v>449590057</v>
       </c>
       <c r="B78" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C78" s="2">
         <v>45581</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F78">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>3.4715</v>
+        <v>110.9161</v>
       </c>
       <c r="H78">
-        <v>149.27</v>
+        <v>110.92</v>
       </c>
       <c r="I78">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>445429841</v>
+        <v>449589875</v>
       </c>
       <c r="B79" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.628125</v>
       </c>
       <c r="C79" s="2">
-        <v>45572</v>
+        <v>45580</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G79">
-        <v>337.65</v>
+        <v>0.91628</v>
       </c>
       <c r="H79">
-        <v>337.65</v>
+        <v>32.07</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>1.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>445429174</v>
+        <v>449589083</v>
       </c>
       <c r="B80" s="2">
-        <v>45568.57231481481</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C80" s="2">
-        <v>45569</v>
+        <v>45581</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80">
-        <v>369.23</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>0.90605</v>
+        <v>110.9196</v>
       </c>
       <c r="H80">
-        <v>334.54</v>
+        <v>110.92</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>444353954</v>
+        <v>449588246</v>
       </c>
       <c r="B81" s="2">
-        <v>45566.58853009259</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C81" s="2">
-        <v>45568</v>
+        <v>45581</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G81">
-        <v>108.24</v>
+        <v>3.4715</v>
       </c>
       <c r="H81">
-        <v>108.24</v>
+        <v>149.27</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J81">
-        <v>1.45</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>444310921</v>
+        <v>445429841</v>
       </c>
       <c r="B82" s="2">
-        <v>45566.29953703703</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C82" s="2">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
       <c r="F82">
-        <v>60.56</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>0.89984</v>
+        <v>337.65</v>
       </c>
       <c r="H82">
-        <v>54.49</v>
+        <v>337.65</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>439936166</v>
+        <v>445429174</v>
       </c>
       <c r="B83" s="2">
-        <v>45554.56259259259</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C83" s="2">
-        <v>45555</v>
+        <v>45569</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>369.23</v>
       </c>
       <c r="G83">
-        <v>62.0726</v>
+        <v>0.90605</v>
       </c>
       <c r="H83">
-        <v>62.07</v>
+        <v>334.54</v>
       </c>
       <c r="I83">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>435165980</v>
+        <v>444353954</v>
       </c>
       <c r="B84" s="2">
-        <v>45541.475370370375</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C84" s="2">
-        <v>45545</v>
+        <v>45568</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -3139,42 +3139,42 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>103.72</v>
+        <v>108.24</v>
       </c>
       <c r="H84">
-        <v>103.72</v>
+        <v>108.24</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>435165968</v>
+        <v>444310921</v>
       </c>
       <c r="B85" s="2">
-        <v>45541.47508101852</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C85" s="2">
-        <v>45544</v>
+        <v>45567</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85">
-        <v>0.21</v>
+        <v>60.56</v>
       </c>
       <c r="G85">
-        <v>0.9011</v>
+        <v>0.89984</v>
       </c>
       <c r="H85">
-        <v>0.19</v>
+        <v>54.49</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -3185,109 +3185,109 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>435165951</v>
+        <v>439936166</v>
       </c>
       <c r="B86" s="2">
-        <v>45541.47487268518</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C86" s="2">
-        <v>45544</v>
+        <v>45555</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F86">
-        <v>4.42</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>0.90109</v>
+        <v>62.0726</v>
       </c>
       <c r="H86">
-        <v>3.98</v>
+        <v>62.07</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>435165927</v>
+        <v>435165980</v>
       </c>
       <c r="B87" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C87" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
       </c>
       <c r="F87">
-        <v>92.77</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>0.90109</v>
+        <v>103.72</v>
       </c>
       <c r="H87">
-        <v>83.59</v>
+        <v>103.72</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>434675474</v>
+        <v>435165968</v>
       </c>
       <c r="B88" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C88" s="2">
         <v>45544</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88">
-        <v>8</v>
+        <v>0.21</v>
       </c>
       <c r="G88">
-        <v>3.689</v>
+        <v>0.9011</v>
       </c>
       <c r="H88">
-        <v>29.51</v>
+        <v>0.19</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>434162210</v>
+        <v>435165951</v>
       </c>
       <c r="B89" s="2">
-        <v>45539.43609953704</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C89" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
@@ -3296,161 +3296,161 @@
         <v>11</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>4.42</v>
       </c>
       <c r="G89">
-        <v>104.42</v>
+        <v>0.90109</v>
       </c>
       <c r="H89">
-        <v>104.42</v>
+        <v>3.98</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>433696199</v>
+        <v>435165927</v>
       </c>
       <c r="B90" s="2">
-        <v>45538.68898148148</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C90" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>92.77</v>
       </c>
       <c r="G90">
-        <v>110.122</v>
+        <v>0.90109</v>
       </c>
       <c r="H90">
-        <v>110.12</v>
+        <v>83.59</v>
       </c>
       <c r="I90">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>433626785</v>
+        <v>434675474</v>
       </c>
       <c r="B91" s="2">
-        <v>45538.39231481482</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C91" s="2">
-        <v>45540</v>
+        <v>45544</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G91">
-        <v>106.54</v>
+        <v>3.689</v>
       </c>
       <c r="H91">
-        <v>106.54</v>
+        <v>29.51</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>433626678</v>
+        <v>434162210</v>
       </c>
       <c r="B92" s="2">
-        <v>45538.391076388885</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C92" s="2">
-        <v>45539</v>
+        <v>45541</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0.90603</v>
+        <v>104.42</v>
       </c>
       <c r="H92">
-        <v>66.96</v>
+        <v>104.42</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>432518350</v>
+        <v>433696199</v>
       </c>
       <c r="B93" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C93" s="2">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="D93" t="s">
         <v>20</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93">
-        <v>120.88</v>
+        <v>110.122</v>
       </c>
       <c r="H93">
-        <v>120.88</v>
+        <v>110.12</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J93">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>432515426</v>
+        <v>433626785</v>
       </c>
       <c r="B94" s="2">
-        <v>45533.54127314815</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C94" s="2">
-        <v>45537</v>
+        <v>45540</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
@@ -3459,10 +3459,10 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <v>106.34</v>
+        <v>106.54</v>
       </c>
       <c r="H94">
-        <v>106.34</v>
+        <v>106.54</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -3473,109 +3473,109 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>432005364</v>
+        <v>433626678</v>
       </c>
       <c r="B95" s="2">
-        <v>45532.39208333333</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C95" s="2">
-        <v>45534</v>
+        <v>45539</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
       </c>
       <c r="F95">
-        <v>32</v>
+        <v>73.9</v>
       </c>
       <c r="G95">
-        <v>3.632</v>
+        <v>0.90603</v>
       </c>
       <c r="H95">
-        <v>116.22</v>
+        <v>66.96</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>1.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>432003333</v>
+        <v>432518350</v>
       </c>
       <c r="B96" s="2">
-        <v>45532.363020833334</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C96" s="2">
-        <v>45534</v>
+        <v>45533</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>106.74</v>
+        <v>120.88</v>
       </c>
       <c r="H96">
-        <v>213.48</v>
+        <v>120.88</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>432003262</v>
+        <v>432515426</v>
       </c>
       <c r="B97" s="2">
-        <v>45532.361875</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C97" s="2">
-        <v>45533</v>
+        <v>45537</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
       </c>
       <c r="F97">
-        <v>618.74</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>0.89741</v>
+        <v>106.34</v>
       </c>
       <c r="H97">
-        <v>555.26</v>
+        <v>106.34</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>430366906</v>
+        <v>432005364</v>
       </c>
       <c r="B98" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C98" s="2">
-        <v>45532</v>
+        <v>45534</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -3584,141 +3584,141 @@
         <v>11</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G98">
-        <v>3.6305</v>
+        <v>3.632</v>
       </c>
       <c r="H98">
-        <v>10.89</v>
+        <v>116.22</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1.26</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>430365249</v>
+        <v>432003333</v>
       </c>
       <c r="B99" s="2">
-        <v>45527.27630787037</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C99" s="2">
-        <v>45530</v>
+        <v>45534</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
       </c>
       <c r="F99">
-        <v>4.63</v>
+        <v>2</v>
       </c>
       <c r="G99">
-        <v>0.8999</v>
+        <v>106.74</v>
       </c>
       <c r="H99">
-        <v>4.17</v>
+        <v>213.48</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>428453232</v>
+        <v>432003262</v>
       </c>
       <c r="B100" s="2">
-        <v>45523.56253472222</v>
+        <v>45532.361875</v>
       </c>
       <c r="C100" s="2">
-        <v>45524</v>
+        <v>45533</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>618.74</v>
       </c>
       <c r="G100">
-        <v>60.046</v>
+        <v>0.89741</v>
       </c>
       <c r="H100">
-        <v>60.05</v>
+        <v>555.26</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>428444212</v>
+        <v>430366906</v>
       </c>
       <c r="B101" s="2">
-        <v>45523.47152777778</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C101" s="2">
-        <v>45525</v>
+        <v>45532</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G101">
-        <v>105.3</v>
+        <v>3.6305</v>
       </c>
       <c r="H101">
-        <v>105.3</v>
+        <v>10.89</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>428437042</v>
+        <v>430365249</v>
       </c>
       <c r="B102" s="2">
-        <v>45523.37878472223</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C102" s="2">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
       </c>
       <c r="F102">
-        <v>7.15</v>
+        <v>4.63</v>
       </c>
       <c r="G102">
-        <v>0.90756</v>
+        <v>0.8999</v>
       </c>
       <c r="H102">
-        <v>6.49</v>
+        <v>4.17</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -3729,48 +3729,48 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>428437005</v>
+        <v>428453232</v>
       </c>
       <c r="B103" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C103" s="2">
         <v>45524</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
       </c>
       <c r="F103">
-        <v>150.15</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>0.90756</v>
+        <v>60.046</v>
       </c>
       <c r="H103">
-        <v>136.27</v>
+        <v>60.05</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>426418112</v>
+        <v>428444212</v>
       </c>
       <c r="B104" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C104" s="2">
-        <v>45519</v>
+        <v>45525</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -3779,10 +3779,10 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <v>102.02</v>
+        <v>105.3</v>
       </c>
       <c r="H104">
-        <v>102.02</v>
+        <v>105.3</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -3793,28 +3793,28 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>426417966</v>
+        <v>428437042</v>
       </c>
       <c r="B105" s="2">
-        <v>45517.58042824074</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C105" s="2">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
       </c>
       <c r="F105">
-        <v>10.45</v>
+        <v>7.15</v>
       </c>
       <c r="G105">
-        <v>0.91439</v>
+        <v>0.90756</v>
       </c>
       <c r="H105">
-        <v>9.56</v>
+        <v>6.49</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -3825,28 +3825,28 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>426416264</v>
+        <v>428437005</v>
       </c>
       <c r="B106" s="2">
-        <v>45517.57699074074</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C106" s="2">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
       </c>
       <c r="F106">
-        <v>4.86</v>
+        <v>150.15</v>
       </c>
       <c r="G106">
-        <v>0.91458</v>
+        <v>0.90756</v>
       </c>
       <c r="H106">
-        <v>4.44</v>
+        <v>136.27</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -3857,33 +3857,129 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
+        <v>426418112</v>
+      </c>
+      <c r="B107" s="2">
+        <v>45517.58078703703</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45519</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>102.02</v>
+      </c>
+      <c r="H107">
+        <v>102.02</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>426417966</v>
+      </c>
+      <c r="B108" s="2">
+        <v>45517.58042824074</v>
+      </c>
+      <c r="C108" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108">
+        <v>10.45</v>
+      </c>
+      <c r="G108">
+        <v>0.91439</v>
+      </c>
+      <c r="H108">
+        <v>9.56</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>426416264</v>
+      </c>
+      <c r="B109" s="2">
+        <v>45517.57699074074</v>
+      </c>
+      <c r="C109" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109">
+        <v>4.86</v>
+      </c>
+      <c r="G109">
+        <v>0.91458</v>
+      </c>
+      <c r="H109">
+        <v>4.44</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>426416183</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B110" s="2">
         <v>45517.576678240745</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C110" s="2">
         <v>45518</v>
       </c>
-      <c r="D107" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107">
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110">
         <v>102.05</v>
       </c>
-      <c r="G107">
+      <c r="G110">
         <v>0.91459</v>
       </c>
-      <c r="H107">
+      <c r="H110">
         <v>93.33</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
         <v>0</v>
       </c>
     </row>

--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="21">
   <si>
     <t>Number</t>
   </si>
@@ -460,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J111"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -497,13 +497,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>581709074</v>
+        <v>585309488</v>
       </c>
       <c r="B2" s="2">
-        <v>45947.35291666667</v>
+        <v>45959.31539351852</v>
       </c>
       <c r="C2" s="2">
-        <v>45951</v>
+        <v>45960.95833333333</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -515,30 +515,30 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.61</v>
+        <v>51.01</v>
       </c>
       <c r="H2">
-        <v>49.61</v>
+        <v>51.01</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>581709060</v>
+        <v>581709074</v>
       </c>
       <c r="B3" s="2">
-        <v>45947.35277777778</v>
+        <v>45947.35291666667</v>
       </c>
       <c r="C3" s="2">
         <v>45951</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -547,30 +547,30 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>125.58</v>
+        <v>49.61</v>
       </c>
       <c r="H3">
-        <v>125.58</v>
+        <v>49.61</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>581269382</v>
+        <v>581709060</v>
       </c>
       <c r="B4" s="2">
-        <v>45946.41150462963</v>
+        <v>45947.35277777778</v>
       </c>
       <c r="C4" s="2">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -579,94 +579,94 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.94</v>
+        <v>125.58</v>
       </c>
       <c r="H4">
-        <v>50.94</v>
+        <v>125.58</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>580169893</v>
+        <v>581269382</v>
       </c>
       <c r="B5" s="2">
-        <v>45943.423321759255</v>
+        <v>45946.41150462963</v>
       </c>
       <c r="C5" s="2">
-        <v>45944</v>
+        <v>45950</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5">
-        <v>80.87</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8656</v>
+        <v>50.94</v>
       </c>
       <c r="H5">
-        <v>70</v>
+        <v>50.94</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>580169868</v>
+        <v>580169893</v>
       </c>
       <c r="B6" s="2">
-        <v>45943.42288194444</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C6" s="2">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>80.87</v>
       </c>
       <c r="G6">
-        <v>53.65</v>
+        <v>0.8656</v>
       </c>
       <c r="H6">
-        <v>53.65</v>
+        <v>70</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>580169327</v>
+        <v>580169868</v>
       </c>
       <c r="B7" s="2">
-        <v>45943.41800925926</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C7" s="2">
         <v>45945</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -675,27 +675,27 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>127.32</v>
+        <v>53.65</v>
       </c>
       <c r="H7">
-        <v>127.32</v>
+        <v>53.65</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>579211549</v>
+        <v>580169327</v>
       </c>
       <c r="B8" s="2">
-        <v>45939.61756944444</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C8" s="2">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -707,59 +707,59 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>129.08</v>
+        <v>127.32</v>
       </c>
       <c r="H8">
-        <v>129.08</v>
+        <v>127.32</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>577313732</v>
+        <v>579211549</v>
       </c>
       <c r="B9" s="2">
-        <v>45933.56972222222</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C9" s="2">
-        <v>45937</v>
+        <v>45943</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>52.65</v>
+        <v>129.08</v>
       </c>
       <c r="H9">
-        <v>105.3</v>
+        <v>129.08</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>576413456</v>
+        <v>577313732</v>
       </c>
       <c r="B10" s="2">
-        <v>45931.44907407407</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C10" s="2">
-        <v>45933</v>
+        <v>45937</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -768,97 +768,97 @@
         <v>11</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>51.62</v>
+        <v>52.65</v>
       </c>
       <c r="H10">
-        <v>51.62</v>
+        <v>105.3</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>576410571</v>
+        <v>576413456</v>
       </c>
       <c r="B11" s="2">
-        <v>45931.43001157408</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C11" s="2">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11">
-        <v>116.85</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.85583</v>
+        <v>51.62</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>51.62</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>575554915</v>
+        <v>576410571</v>
       </c>
       <c r="B12" s="2">
-        <v>45929.452060185184</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C12" s="2">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G12">
-        <v>51.47</v>
+        <v>0.85583</v>
       </c>
       <c r="H12">
-        <v>51.47</v>
+        <v>100</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>573400676</v>
+        <v>575554915</v>
       </c>
       <c r="B13" s="2">
-        <v>45922.33627314815</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C13" s="2">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -867,30 +867,30 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>127.36</v>
+        <v>51.47</v>
       </c>
       <c r="H13">
-        <v>127.36</v>
+        <v>51.47</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>573399341</v>
+        <v>573400676</v>
       </c>
       <c r="B14" s="2">
-        <v>45922.324120370366</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C14" s="2">
         <v>45924</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -899,187 +899,187 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>51</v>
+        <v>127.36</v>
       </c>
       <c r="H14">
-        <v>51</v>
+        <v>127.36</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>568717926</v>
+        <v>573399341</v>
       </c>
       <c r="B15" s="2">
-        <v>45905.5246875</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C15" s="2">
-        <v>45908</v>
+        <v>45924</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.85539</v>
+        <v>51</v>
       </c>
       <c r="H15">
-        <v>106.92</v>
+        <v>51</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>567931751</v>
+        <v>568717926</v>
       </c>
       <c r="B16" s="2">
-        <v>45903.333657407406</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C16" s="2">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="G16">
-        <v>123.16</v>
+        <v>0.85539</v>
       </c>
       <c r="H16">
-        <v>123.16</v>
+        <v>106.92</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>566723916</v>
+        <v>567931751</v>
       </c>
       <c r="B17" s="2">
-        <v>45897.62657407408</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C17" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17">
-        <v>290.69</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.86002</v>
+        <v>123.16</v>
       </c>
       <c r="H17">
-        <v>250</v>
+        <v>123.16</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>564426812</v>
+        <v>566723916</v>
       </c>
       <c r="B18" s="2">
-        <v>45889.61331018519</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C18" s="2">
-        <v>45891</v>
+        <v>45898</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>290.69</v>
       </c>
       <c r="G18">
-        <v>121.62</v>
+        <v>0.86002</v>
       </c>
       <c r="H18">
-        <v>121.62</v>
+        <v>250</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>564420621</v>
+        <v>564426812</v>
       </c>
       <c r="B19" s="2">
-        <v>45889.60018518519</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C19" s="2">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19">
-        <v>127.71</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.86135</v>
+        <v>121.62</v>
       </c>
       <c r="H19">
-        <v>110</v>
+        <v>121.62</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>555657178</v>
+        <v>564420621</v>
       </c>
       <c r="B20" s="2">
-        <v>45859.48091435185</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C20" s="2">
-        <v>45860</v>
+        <v>45890</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1088,13 +1088,13 @@
         <v>11</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>127.71</v>
       </c>
       <c r="G20">
-        <v>0.85771</v>
+        <v>0.86135</v>
       </c>
       <c r="H20">
-        <v>85.77</v>
+        <v>110</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1105,48 +1105,48 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>555654532</v>
+        <v>555657178</v>
       </c>
       <c r="B21" s="2">
-        <v>45859.465474537035</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C21" s="2">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G21">
-        <v>395</v>
+        <v>0.85771</v>
       </c>
       <c r="H21">
-        <v>395</v>
+        <v>85.77</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>551218217</v>
+        <v>555654532</v>
       </c>
       <c r="B22" s="2">
-        <v>45841.369837962964</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C22" s="2">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1155,59 +1155,59 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>119.16</v>
+        <v>395</v>
       </c>
       <c r="H22">
-        <v>119.16</v>
+        <v>395</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>551216497</v>
+        <v>551218217</v>
       </c>
       <c r="B23" s="2">
-        <v>45841.35429398148</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C23" s="2">
         <v>45845</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.84741</v>
+        <v>119.16</v>
       </c>
       <c r="H23">
-        <v>169.48</v>
+        <v>119.16</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>549290062</v>
+        <v>551216497</v>
       </c>
       <c r="B24" s="2">
-        <v>45834.39111111111</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C24" s="2">
-        <v>45835</v>
+        <v>45845</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -1216,13 +1216,13 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="G24">
-        <v>0.85337</v>
+        <v>0.84741</v>
       </c>
       <c r="H24">
-        <v>99.84</v>
+        <v>169.48</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1233,77 +1233,77 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>546584060</v>
+        <v>549290062</v>
       </c>
       <c r="B25" s="2">
-        <v>45824.480104166665</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C25" s="2">
-        <v>45826</v>
+        <v>45835</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="G25">
-        <v>114.8</v>
+        <v>0.85337</v>
       </c>
       <c r="H25">
-        <v>114.8</v>
+        <v>99.84</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>546583898</v>
+        <v>546584060</v>
       </c>
       <c r="B26" s="2">
-        <v>45824.47923611111</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C26" s="2">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
       <c r="F26">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.86376</v>
+        <v>114.8</v>
       </c>
       <c r="H26">
-        <v>99.33</v>
+        <v>114.8</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>545459805</v>
+        <v>546583898</v>
       </c>
       <c r="B27" s="2">
-        <v>45819.41773148148</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C27" s="2">
-        <v>45820</v>
+        <v>45825</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1312,13 +1312,13 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="G27">
-        <v>0.87444</v>
+        <v>0.86376</v>
       </c>
       <c r="H27">
-        <v>43.72</v>
+        <v>99.33</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1329,202 +1329,202 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>542145647</v>
+        <v>545459805</v>
       </c>
       <c r="B28" s="2">
-        <v>45807.5672337963</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C28" s="2">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G28">
-        <v>112.4</v>
+        <v>0.87444</v>
       </c>
       <c r="H28">
-        <v>112.4</v>
+        <v>43.72</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>541352365</v>
+        <v>542145647</v>
       </c>
       <c r="B29" s="2">
-        <v>45805.594560185185</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C29" s="2">
-        <v>45806</v>
+        <v>45811</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29">
-        <v>169.82</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.88332</v>
+        <v>112.4</v>
       </c>
       <c r="H29">
-        <v>150.01</v>
+        <v>112.4</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>540397794</v>
+        <v>541352365</v>
       </c>
       <c r="B30" s="2">
-        <v>45800.4953125</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C30" s="2">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>169.82</v>
       </c>
       <c r="G30">
-        <v>110.1385</v>
+        <v>0.88332</v>
       </c>
       <c r="H30">
-        <v>110.14</v>
+        <v>150.01</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>539546182</v>
+        <v>540397794</v>
       </c>
       <c r="B31" s="2">
-        <v>45798.38793981481</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C31" s="2">
-        <v>45799</v>
+        <v>45805</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.88321</v>
+        <v>110.1385</v>
       </c>
       <c r="H31">
-        <v>88.32</v>
+        <v>110.14</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>530748416</v>
+        <v>539546182</v>
       </c>
       <c r="B32" s="2">
-        <v>45777.621458333335</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C32" s="2">
-        <v>45779</v>
+        <v>45799</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G32">
-        <v>327.9</v>
+        <v>0.88321</v>
       </c>
       <c r="H32">
-        <v>327.9</v>
+        <v>88.32</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>530748345</v>
+        <v>530748416</v>
       </c>
       <c r="B33" s="2">
-        <v>45777.62107638889</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C33" s="2">
-        <v>45778</v>
+        <v>45779</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.88043</v>
+        <v>327.9</v>
       </c>
       <c r="H33">
-        <v>26.41</v>
+        <v>327.9</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>530748166</v>
+        <v>530748345</v>
       </c>
       <c r="B34" s="2">
-        <v>45777.62068287037</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C34" s="2">
         <v>45778</v>
@@ -1536,13 +1536,13 @@
         <v>11</v>
       </c>
       <c r="F34">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G34">
-        <v>0.8804</v>
+        <v>0.88043</v>
       </c>
       <c r="H34">
-        <v>264.12</v>
+        <v>26.41</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>528304116</v>
+        <v>530748166</v>
       </c>
       <c r="B35" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C35" s="2">
-        <v>45772</v>
+        <v>45778</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -1568,13 +1568,13 @@
         <v>11</v>
       </c>
       <c r="F35">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="G35">
-        <v>0.87843</v>
+        <v>0.8804</v>
       </c>
       <c r="H35">
-        <v>74.67</v>
+        <v>264.12</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1585,394 +1585,394 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>525384379</v>
+        <v>528304116</v>
       </c>
       <c r="B36" s="2">
-        <v>45763.63711805556</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C36" s="2">
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G36">
-        <v>101.9</v>
+        <v>0.87843</v>
       </c>
       <c r="H36">
-        <v>101.9</v>
+        <v>74.67</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>525383965</v>
+        <v>525384379</v>
       </c>
       <c r="B37" s="2">
-        <v>45763.634826388894</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C37" s="2">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.87888</v>
+        <v>101.9</v>
       </c>
       <c r="H37">
-        <v>65.92</v>
+        <v>101.9</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>521135744</v>
+        <v>525383965</v>
       </c>
       <c r="B38" s="2">
-        <v>45754.608506944445</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C38" s="2">
-        <v>45756</v>
+        <v>45764</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G38">
-        <v>95</v>
+        <v>0.87888</v>
       </c>
       <c r="H38">
-        <v>95</v>
+        <v>65.92</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>521115122</v>
+        <v>521135744</v>
       </c>
       <c r="B39" s="2">
-        <v>45754.593506944446</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C39" s="2">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>109.66</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.91206</v>
+        <v>95</v>
       </c>
       <c r="H39">
-        <v>100.02</v>
+        <v>95</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>519105737</v>
+        <v>521115122</v>
       </c>
       <c r="B40" s="2">
-        <v>45749.575324074074</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C40" s="2">
-        <v>45751</v>
+        <v>45755</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>109.66</v>
       </c>
       <c r="G40">
-        <v>330.5499</v>
+        <v>0.91206</v>
       </c>
       <c r="H40">
-        <v>330.55</v>
+        <v>100.02</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>519105619</v>
+        <v>519105737</v>
       </c>
       <c r="B41" s="2">
-        <v>45749.575115740736</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C41" s="2">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0.92423</v>
+        <v>330.5499</v>
       </c>
       <c r="H41">
-        <v>305</v>
+        <v>330.55</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>518501268</v>
+        <v>519105619</v>
       </c>
       <c r="B42" s="2">
-        <v>45748.342511574076</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C42" s="2">
         <v>45750</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="G42">
-        <v>106.7</v>
+        <v>0.92423</v>
       </c>
       <c r="H42">
-        <v>106.7</v>
+        <v>305</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>518501204</v>
+        <v>518501268</v>
       </c>
       <c r="B43" s="2">
-        <v>45748.342199074075</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C43" s="2">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>118.85</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0.92553</v>
+        <v>106.7</v>
       </c>
       <c r="H43">
-        <v>110</v>
+        <v>106.7</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>510327986</v>
+        <v>518501204</v>
       </c>
       <c r="B44" s="2">
-        <v>45728.454201388886</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C44" s="2">
-        <v>45729.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>118.85</v>
       </c>
       <c r="G44">
-        <v>107</v>
+        <v>0.92553</v>
       </c>
       <c r="H44">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>510326670</v>
+        <v>510327986</v>
       </c>
       <c r="B45" s="2">
-        <v>45728.43972222222</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C45" s="2">
-        <v>45728.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45">
-        <v>114.54</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0.91668</v>
+        <v>107</v>
       </c>
       <c r="H45">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>506086900</v>
+        <v>510326670</v>
       </c>
       <c r="B46" s="2">
-        <v>45719.31646990741</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C46" s="2">
-        <v>45720.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>114.54</v>
       </c>
       <c r="G46">
-        <v>355.9998</v>
+        <v>0.91668</v>
       </c>
       <c r="H46">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>506086612</v>
+        <v>506086900</v>
       </c>
       <c r="B47" s="2">
-        <v>45719.31418981482</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C47" s="2">
-        <v>45719.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47">
-        <v>9.74</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0.96213</v>
+        <v>355.9998</v>
       </c>
       <c r="H47">
-        <v>9.37</v>
+        <v>356</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>506084312</v>
+        <v>506086612</v>
       </c>
       <c r="B48" s="2">
-        <v>45719.29939814815</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C48" s="2">
         <v>45719.95833333333</v>
@@ -1984,13 +1984,13 @@
         <v>11</v>
       </c>
       <c r="F48">
-        <v>204.2</v>
+        <v>9.74</v>
       </c>
       <c r="G48">
-        <v>0.96116</v>
+        <v>0.96213</v>
       </c>
       <c r="H48">
-        <v>196.27</v>
+        <v>9.37</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2001,13 +2001,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>505408659</v>
+        <v>506084312</v>
       </c>
       <c r="B49" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C49" s="2">
-        <v>45718.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
@@ -2016,13 +2016,13 @@
         <v>11</v>
       </c>
       <c r="F49">
-        <v>129.21</v>
+        <v>204.2</v>
       </c>
       <c r="G49">
-        <v>0.96171</v>
+        <v>0.96116</v>
       </c>
       <c r="H49">
-        <v>124.26</v>
+        <v>196.27</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2033,141 +2033,141 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>503618898</v>
+        <v>505408659</v>
       </c>
       <c r="B50" s="2">
-        <v>45713.606828703705</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C50" s="2">
-        <v>45714.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>129.21</v>
       </c>
       <c r="G50">
-        <v>112.86</v>
+        <v>0.96171</v>
       </c>
       <c r="H50">
-        <v>112.86</v>
+        <v>124.26</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>503618686</v>
+        <v>503618898</v>
       </c>
       <c r="B51" s="2">
-        <v>45713.60653935185</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C51" s="2">
-        <v>45713.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
       </c>
       <c r="F51">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0.9511</v>
+        <v>112.86</v>
       </c>
       <c r="H51">
-        <v>114.13</v>
+        <v>112.86</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>499625741</v>
+        <v>503618686</v>
       </c>
       <c r="B52" s="2">
-        <v>45702.56398148148</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C52" s="2">
-        <v>45705.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G52">
-        <v>375.25</v>
+        <v>0.9511</v>
       </c>
       <c r="H52">
-        <v>375.25</v>
+        <v>114.13</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>2.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>499590185</v>
+        <v>499625741</v>
       </c>
       <c r="B53" s="2">
-        <v>45702.36454861111</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C53" s="2">
         <v>45705.95833333333</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53">
-        <v>20.96</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0.95429</v>
+        <v>375.25</v>
       </c>
       <c r="H53">
-        <v>20</v>
+        <v>375.25</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>498403616</v>
+        <v>499590185</v>
       </c>
       <c r="B54" s="2">
-        <v>45700.59783564815</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C54" s="2">
-        <v>45700.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -2176,13 +2176,13 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>103.4</v>
+        <v>20.96</v>
       </c>
       <c r="G54">
-        <v>0.96693</v>
+        <v>0.95429</v>
       </c>
       <c r="H54">
-        <v>99.98</v>
+        <v>20</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2193,109 +2193,109 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>494107867</v>
+        <v>498403616</v>
       </c>
       <c r="B55" s="2">
-        <v>45691.58335648148</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C55" s="2">
-        <v>45692.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>103.4</v>
       </c>
       <c r="G55">
-        <v>112.9</v>
+        <v>0.96693</v>
       </c>
       <c r="H55">
-        <v>112.9</v>
+        <v>99.98</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>494049655</v>
+        <v>494107867</v>
       </c>
       <c r="B56" s="2">
-        <v>45691.31773148148</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C56" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>307.46</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>0.97578</v>
+        <v>112.9</v>
       </c>
       <c r="H56">
-        <v>300.01</v>
+        <v>112.9</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>494049572</v>
+        <v>494049655</v>
       </c>
       <c r="B57" s="2">
-        <v>45691.31670138889</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C57" s="2">
-        <v>45692.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>307.46</v>
       </c>
       <c r="G57">
-        <v>113.34</v>
+        <v>0.97578</v>
       </c>
       <c r="H57">
-        <v>113.34</v>
+        <v>300.01</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>493368805</v>
+        <v>494049572</v>
       </c>
       <c r="B58" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C58" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -2304,315 +2304,315 @@
         <v>11</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>115.9</v>
+        <v>113.34</v>
       </c>
       <c r="H58">
-        <v>231.8</v>
+        <v>113.34</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>492836969</v>
+        <v>493368805</v>
       </c>
       <c r="B59" s="2">
-        <v>45687.621666666666</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C59" s="2">
-        <v>45687.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59">
-        <v>417.21</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>0.95874</v>
+        <v>115.9</v>
       </c>
       <c r="H59">
-        <v>400</v>
+        <v>231.8</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>491075870</v>
+        <v>492836969</v>
       </c>
       <c r="B60" s="2">
-        <v>45684.61530092593</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C60" s="2">
-        <v>45685.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>417.21</v>
       </c>
       <c r="G60">
-        <v>114.4</v>
+        <v>0.95874</v>
       </c>
       <c r="H60">
-        <v>114.4</v>
+        <v>400</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>491075618</v>
+        <v>491075870</v>
       </c>
       <c r="B61" s="2">
-        <v>45684.61476851851</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C61" s="2">
-        <v>45684.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61">
-        <v>115.46</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>0.95269</v>
+        <v>114.4</v>
       </c>
       <c r="H61">
-        <v>110</v>
+        <v>114.4</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>483911545</v>
+        <v>491075618</v>
       </c>
       <c r="B62" s="2">
-        <v>45665.44930555555</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C62" s="2">
-        <v>45666.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>115.46</v>
       </c>
       <c r="G62">
-        <v>360.35</v>
+        <v>0.95269</v>
       </c>
       <c r="H62">
-        <v>360.35</v>
+        <v>110</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>483911481</v>
+        <v>483911545</v>
       </c>
       <c r="B63" s="2">
-        <v>45665.44840277778</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C63" s="2">
         <v>45666.95833333333</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="F63">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>0.97183</v>
+        <v>360.35</v>
       </c>
       <c r="H63">
-        <v>354.72</v>
+        <v>360.35</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>481235383</v>
+        <v>483911481</v>
       </c>
       <c r="B64" s="2">
-        <v>45660.337430555555</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C64" s="2">
-        <v>45663.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>365</v>
       </c>
       <c r="G64">
-        <v>112</v>
+        <v>0.97183</v>
       </c>
       <c r="H64">
-        <v>224</v>
+        <v>354.72</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>481235152</v>
+        <v>481235383</v>
       </c>
       <c r="B65" s="2">
-        <v>45660.33241898148</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C65" s="2">
-        <v>45662.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>226.2</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>0.97259</v>
+        <v>112</v>
       </c>
       <c r="H65">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>476674643</v>
+        <v>481235152</v>
       </c>
       <c r="B66" s="2">
-        <v>45646.40855324074</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C66" s="2">
-        <v>45652.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>226.2</v>
       </c>
       <c r="G66">
-        <v>355.4</v>
+        <v>0.97259</v>
       </c>
       <c r="H66">
-        <v>355.4</v>
+        <v>220</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>476674604</v>
+        <v>476674643</v>
       </c>
       <c r="B67" s="2">
-        <v>45646.408437499995</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C67" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>0.96264</v>
+        <v>355.4</v>
       </c>
       <c r="H67">
-        <v>206.97</v>
+        <v>355.4</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>476670294</v>
+        <v>476674604</v>
       </c>
       <c r="B68" s="2">
-        <v>45646.38765046296</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C68" s="2">
         <v>45648.95833333333</v>
@@ -2624,13 +2624,13 @@
         <v>11</v>
       </c>
       <c r="F68">
-        <v>51.32</v>
+        <v>215</v>
       </c>
       <c r="G68">
-        <v>0.96299</v>
+        <v>0.96264</v>
       </c>
       <c r="H68">
-        <v>49.42</v>
+        <v>206.97</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>476669731</v>
+        <v>476670294</v>
       </c>
       <c r="B69" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C69" s="2">
         <v>45648.95833333333</v>
@@ -2656,13 +2656,13 @@
         <v>11</v>
       </c>
       <c r="F69">
-        <v>60</v>
+        <v>51.32</v>
       </c>
       <c r="G69">
-        <v>0.96251</v>
+        <v>0.96299</v>
       </c>
       <c r="H69">
-        <v>57.75</v>
+        <v>49.42</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -2673,618 +2673,618 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>476123556</v>
+        <v>476669731</v>
       </c>
       <c r="B70" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C70" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G70">
-        <v>112.54</v>
+        <v>0.96251</v>
       </c>
       <c r="H70">
-        <v>112.54</v>
+        <v>57.75</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>476123515</v>
+        <v>476123556</v>
       </c>
       <c r="B71" s="2">
-        <v>45645.52649305556</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C71" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0.96108</v>
+        <v>112.54</v>
       </c>
       <c r="H71">
-        <v>96.11</v>
+        <v>112.54</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>471357479</v>
+        <v>476123515</v>
       </c>
       <c r="B72" s="2">
-        <v>45635.56259259259</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C72" s="2">
-        <v>45635.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G72">
-        <v>8.3412</v>
+        <v>0.96108</v>
       </c>
       <c r="H72">
-        <v>8.34</v>
+        <v>96.11</v>
       </c>
       <c r="I72">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>466623419</v>
+        <v>471357479</v>
       </c>
       <c r="B73" s="2">
-        <v>45622.31217592592</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C73" s="2">
-        <v>45624.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73">
-        <v>354.5</v>
+        <v>8.3412</v>
       </c>
       <c r="H73">
-        <v>354.5</v>
+        <v>8.34</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J73">
-        <v>2.05</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>466623402</v>
+        <v>466623419</v>
       </c>
       <c r="B74" s="2">
-        <v>45622.31188657407</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C74" s="2">
-        <v>45622.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74">
-        <v>141.78</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0.95389</v>
+        <v>354.5</v>
       </c>
       <c r="H74">
-        <v>135.24</v>
+        <v>354.5</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>462598648</v>
+        <v>466623402</v>
       </c>
       <c r="B75" s="2">
-        <v>45611.592997685184</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C75" s="2">
-        <v>45614.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>141.78</v>
       </c>
       <c r="G75">
-        <v>111.8099</v>
+        <v>0.95389</v>
       </c>
       <c r="H75">
-        <v>111.81</v>
+        <v>135.24</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>460084933</v>
+        <v>462598648</v>
       </c>
       <c r="B76" s="2">
-        <v>45604.62016203704</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C76" s="2">
-        <v>45607.95833333333</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>8.3836</v>
+        <v>111.8099</v>
       </c>
       <c r="H76">
-        <v>8.38</v>
+        <v>111.81</v>
       </c>
       <c r="I76">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>458847628</v>
+        <v>460084933</v>
       </c>
       <c r="B77" s="2">
-        <v>45602.26765046296</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C77" s="2">
-        <v>45602.95833333333</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F77">
-        <v>341.65</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>0.93077</v>
+        <v>8.3836</v>
       </c>
       <c r="H77">
-        <v>318</v>
+        <v>8.38</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>449590057</v>
+        <v>458847628</v>
       </c>
       <c r="B78" s="2">
-        <v>45579.62847222222</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C78" s="2">
-        <v>45581</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>341.65</v>
       </c>
       <c r="G78">
-        <v>110.9161</v>
+        <v>0.93077</v>
       </c>
       <c r="H78">
-        <v>110.92</v>
+        <v>318</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>449589875</v>
+        <v>449590057</v>
       </c>
       <c r="B79" s="2">
-        <v>45579.628125</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C79" s="2">
-        <v>45580</v>
+        <v>45581</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>0.91628</v>
+        <v>110.9161</v>
       </c>
       <c r="H79">
-        <v>32.07</v>
+        <v>110.92</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>449589083</v>
+        <v>449589875</v>
       </c>
       <c r="B80" s="2">
-        <v>45579.62637731481</v>
+        <v>45579.628125</v>
       </c>
       <c r="C80" s="2">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G80">
-        <v>110.9196</v>
+        <v>0.91628</v>
       </c>
       <c r="H80">
-        <v>110.92</v>
+        <v>32.07</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>449588246</v>
+        <v>449589083</v>
       </c>
       <c r="B81" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C81" s="2">
         <v>45581</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F81">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>3.4715</v>
+        <v>110.9196</v>
       </c>
       <c r="H81">
-        <v>149.27</v>
+        <v>110.92</v>
       </c>
       <c r="I81">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>445429841</v>
+        <v>449588246</v>
       </c>
       <c r="B82" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C82" s="2">
-        <v>45572</v>
+        <v>45581</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G82">
-        <v>337.65</v>
+        <v>3.4715</v>
       </c>
       <c r="H82">
-        <v>337.65</v>
+        <v>149.27</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J82">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>445429174</v>
+        <v>445429841</v>
       </c>
       <c r="B83" s="2">
-        <v>45568.57231481481</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C83" s="2">
-        <v>45569</v>
+        <v>45572</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
       </c>
       <c r="F83">
-        <v>369.23</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>0.90605</v>
+        <v>337.65</v>
       </c>
       <c r="H83">
-        <v>334.54</v>
+        <v>337.65</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>444353954</v>
+        <v>445429174</v>
       </c>
       <c r="B84" s="2">
-        <v>45566.58853009259</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C84" s="2">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>369.23</v>
       </c>
       <c r="G84">
-        <v>108.24</v>
+        <v>0.90605</v>
       </c>
       <c r="H84">
-        <v>108.24</v>
+        <v>334.54</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>444310921</v>
+        <v>444353954</v>
       </c>
       <c r="B85" s="2">
-        <v>45566.29953703703</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C85" s="2">
-        <v>45567</v>
+        <v>45568</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85">
-        <v>60.56</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0.89984</v>
+        <v>108.24</v>
       </c>
       <c r="H85">
-        <v>54.49</v>
+        <v>108.24</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>439936166</v>
+        <v>444310921</v>
       </c>
       <c r="B86" s="2">
-        <v>45554.56259259259</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C86" s="2">
-        <v>45555</v>
+        <v>45567</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>60.56</v>
       </c>
       <c r="G86">
-        <v>62.0726</v>
+        <v>0.89984</v>
       </c>
       <c r="H86">
-        <v>62.07</v>
+        <v>54.49</v>
       </c>
       <c r="I86">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>435165980</v>
+        <v>439936166</v>
       </c>
       <c r="B87" s="2">
-        <v>45541.475370370375</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C87" s="2">
-        <v>45545</v>
+        <v>45555</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>103.72</v>
+        <v>62.0726</v>
       </c>
       <c r="H87">
-        <v>103.72</v>
+        <v>62.07</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J87">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>435165968</v>
+        <v>435165980</v>
       </c>
       <c r="B88" s="2">
-        <v>45541.47508101852</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C88" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>0.9011</v>
+        <v>103.72</v>
       </c>
       <c r="H88">
-        <v>0.19</v>
+        <v>103.72</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>435165951</v>
+        <v>435165968</v>
       </c>
       <c r="B89" s="2">
-        <v>45541.47487268518</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C89" s="2">
         <v>45544</v>
@@ -3296,13 +3296,13 @@
         <v>11</v>
       </c>
       <c r="F89">
-        <v>4.42</v>
+        <v>0.21</v>
       </c>
       <c r="G89">
-        <v>0.90109</v>
+        <v>0.9011</v>
       </c>
       <c r="H89">
-        <v>3.98</v>
+        <v>0.19</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -3313,10 +3313,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>435165927</v>
+        <v>435165951</v>
       </c>
       <c r="B90" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C90" s="2">
         <v>45544</v>
@@ -3328,13 +3328,13 @@
         <v>11</v>
       </c>
       <c r="F90">
-        <v>92.77</v>
+        <v>4.42</v>
       </c>
       <c r="G90">
         <v>0.90109</v>
       </c>
       <c r="H90">
-        <v>83.59</v>
+        <v>3.98</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -3345,208 +3345,208 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>434675474</v>
+        <v>435165927</v>
       </c>
       <c r="B91" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C91" s="2">
         <v>45544</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
       </c>
       <c r="F91">
-        <v>8</v>
+        <v>92.77</v>
       </c>
       <c r="G91">
-        <v>3.689</v>
+        <v>0.90109</v>
       </c>
       <c r="H91">
-        <v>29.51</v>
+        <v>83.59</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>434162210</v>
+        <v>434675474</v>
       </c>
       <c r="B92" s="2">
-        <v>45539.43609953704</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C92" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G92">
-        <v>104.42</v>
+        <v>3.689</v>
       </c>
       <c r="H92">
-        <v>104.42</v>
+        <v>29.51</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>433696199</v>
+        <v>434162210</v>
       </c>
       <c r="B93" s="2">
-        <v>45538.68898148148</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C93" s="2">
-        <v>45539</v>
+        <v>45541</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93">
-        <v>110.122</v>
+        <v>104.42</v>
       </c>
       <c r="H93">
-        <v>110.12</v>
+        <v>104.42</v>
       </c>
       <c r="I93">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>433626785</v>
+        <v>433696199</v>
       </c>
       <c r="B94" s="2">
-        <v>45538.39231481482</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C94" s="2">
-        <v>45540</v>
+        <v>45539</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94">
-        <v>106.54</v>
+        <v>110.122</v>
       </c>
       <c r="H94">
-        <v>106.54</v>
+        <v>110.12</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J94">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>433626678</v>
+        <v>433626785</v>
       </c>
       <c r="B95" s="2">
-        <v>45538.391076388885</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C95" s="2">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
       </c>
       <c r="F95">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>0.90603</v>
+        <v>106.54</v>
       </c>
       <c r="H95">
-        <v>66.96</v>
+        <v>106.54</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>432518350</v>
+        <v>433626678</v>
       </c>
       <c r="B96" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C96" s="2">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="D96" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>73.9</v>
       </c>
       <c r="G96">
-        <v>120.88</v>
+        <v>0.90603</v>
       </c>
       <c r="H96">
-        <v>120.88</v>
+        <v>66.96</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>432515426</v>
+        <v>432518350</v>
       </c>
       <c r="B97" s="2">
-        <v>45533.54127314815</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C97" s="2">
-        <v>45537</v>
+        <v>45533</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
@@ -3555,222 +3555,222 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <v>106.34</v>
+        <v>120.88</v>
       </c>
       <c r="H97">
-        <v>106.34</v>
+        <v>120.88</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>432005364</v>
+        <v>432515426</v>
       </c>
       <c r="B98" s="2">
-        <v>45532.39208333333</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C98" s="2">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
       <c r="F98">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>3.632</v>
+        <v>106.34</v>
       </c>
       <c r="H98">
-        <v>116.22</v>
+        <v>106.34</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1.84</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>432003333</v>
+        <v>432005364</v>
       </c>
       <c r="B99" s="2">
-        <v>45532.363020833334</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C99" s="2">
         <v>45534</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G99">
-        <v>106.74</v>
+        <v>3.632</v>
       </c>
       <c r="H99">
-        <v>213.48</v>
+        <v>116.22</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>432003262</v>
+        <v>432003333</v>
       </c>
       <c r="B100" s="2">
-        <v>45532.361875</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C100" s="2">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100">
-        <v>618.74</v>
+        <v>2</v>
       </c>
       <c r="G100">
-        <v>0.89741</v>
+        <v>106.74</v>
       </c>
       <c r="H100">
-        <v>555.26</v>
+        <v>213.48</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>430366906</v>
+        <v>432003262</v>
       </c>
       <c r="B101" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.361875</v>
       </c>
       <c r="C101" s="2">
-        <v>45532</v>
+        <v>45533</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>618.74</v>
       </c>
       <c r="G101">
-        <v>3.6305</v>
+        <v>0.89741</v>
       </c>
       <c r="H101">
-        <v>10.89</v>
+        <v>555.26</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>1.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>430365249</v>
+        <v>430366906</v>
       </c>
       <c r="B102" s="2">
-        <v>45527.27630787037</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C102" s="2">
-        <v>45530</v>
+        <v>45532</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
       </c>
       <c r="F102">
-        <v>4.63</v>
+        <v>3</v>
       </c>
       <c r="G102">
-        <v>0.8999</v>
+        <v>3.6305</v>
       </c>
       <c r="H102">
-        <v>4.17</v>
+        <v>10.89</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>428453232</v>
+        <v>430365249</v>
       </c>
       <c r="B103" s="2">
-        <v>45523.56253472222</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C103" s="2">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>4.63</v>
       </c>
       <c r="G103">
-        <v>60.046</v>
+        <v>0.8999</v>
       </c>
       <c r="H103">
-        <v>60.05</v>
+        <v>4.17</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>428444212</v>
+        <v>428453232</v>
       </c>
       <c r="B104" s="2">
-        <v>45523.47152777778</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C104" s="2">
-        <v>45525</v>
+        <v>45524</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -3779,56 +3779,56 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <v>105.3</v>
+        <v>60.046</v>
       </c>
       <c r="H104">
-        <v>105.3</v>
+        <v>60.05</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>428437042</v>
+        <v>428444212</v>
       </c>
       <c r="B105" s="2">
-        <v>45523.37878472223</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C105" s="2">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
       </c>
       <c r="F105">
-        <v>7.15</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>0.90756</v>
+        <v>105.3</v>
       </c>
       <c r="H105">
-        <v>6.49</v>
+        <v>105.3</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>428437005</v>
+        <v>428437042</v>
       </c>
       <c r="B106" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C106" s="2">
         <v>45524</v>
@@ -3840,13 +3840,13 @@
         <v>11</v>
       </c>
       <c r="F106">
-        <v>150.15</v>
+        <v>7.15</v>
       </c>
       <c r="G106">
         <v>0.90756</v>
       </c>
       <c r="H106">
-        <v>136.27</v>
+        <v>6.49</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -3857,74 +3857,74 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>426418112</v>
+        <v>428437005</v>
       </c>
       <c r="B107" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C107" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>150.15</v>
       </c>
       <c r="G107">
-        <v>102.02</v>
+        <v>0.90756</v>
       </c>
       <c r="H107">
-        <v>102.02</v>
+        <v>136.27</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>426417966</v>
+        <v>426418112</v>
       </c>
       <c r="B108" s="2">
-        <v>45517.58042824074</v>
+        <v>45517.58078703703</v>
       </c>
       <c r="C108" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
       </c>
       <c r="F108">
-        <v>10.45</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>0.91439</v>
+        <v>102.02</v>
       </c>
       <c r="H108">
-        <v>9.56</v>
+        <v>102.02</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>426416264</v>
+        <v>426417966</v>
       </c>
       <c r="B109" s="2">
-        <v>45517.57699074074</v>
+        <v>45517.58042824074</v>
       </c>
       <c r="C109" s="2">
         <v>45518</v>
@@ -3936,13 +3936,13 @@
         <v>11</v>
       </c>
       <c r="F109">
-        <v>4.86</v>
+        <v>10.45</v>
       </c>
       <c r="G109">
-        <v>0.91458</v>
+        <v>0.91439</v>
       </c>
       <c r="H109">
-        <v>4.44</v>
+        <v>9.56</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -3953,10 +3953,10 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>426416183</v>
+        <v>426416264</v>
       </c>
       <c r="B110" s="2">
-        <v>45517.576678240745</v>
+        <v>45517.57699074074</v>
       </c>
       <c r="C110" s="2">
         <v>45518</v>
@@ -3968,18 +3968,50 @@
         <v>11</v>
       </c>
       <c r="F110">
+        <v>4.86</v>
+      </c>
+      <c r="G110">
+        <v>0.91458</v>
+      </c>
+      <c r="H110">
+        <v>4.44</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>426416183</v>
+      </c>
+      <c r="B111" s="2">
+        <v>45517.576678240745</v>
+      </c>
+      <c r="C111" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111">
         <v>102.05</v>
       </c>
-      <c r="G110">
+      <c r="G111">
         <v>0.91459</v>
       </c>
-      <c r="H110">
+      <c r="H111">
         <v>93.33</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
         <v>0</v>
       </c>
     </row>

--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="21">
   <si>
     <t>Number</t>
   </si>
@@ -460,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J114"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -497,13 +497,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>585309488</v>
+        <v>587179374</v>
       </c>
       <c r="B2" s="2">
-        <v>45959.31539351852</v>
+        <v>45965.315983796296</v>
       </c>
       <c r="C2" s="2">
-        <v>45960.95833333333</v>
+        <v>45966.95833333333</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -515,10 +515,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.01</v>
+        <v>50.67</v>
       </c>
       <c r="H2">
-        <v>51.01</v>
+        <v>50.67</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -529,16 +529,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>581709074</v>
+        <v>586793234</v>
       </c>
       <c r="B3" s="2">
-        <v>45947.35291666667</v>
+        <v>45964.60378472222</v>
       </c>
       <c r="C3" s="2">
-        <v>45951</v>
+        <v>45965.95833333333</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -547,59 +547,59 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.61</v>
+        <v>130.9</v>
       </c>
       <c r="H3">
-        <v>49.61</v>
+        <v>130.9</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>581709060</v>
+        <v>586792895</v>
       </c>
       <c r="B4" s="2">
-        <v>45947.35277777778</v>
+        <v>45964.60346064815</v>
       </c>
       <c r="C4" s="2">
-        <v>45951</v>
+        <v>45964.95833333333</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>286.74</v>
       </c>
       <c r="G4">
-        <v>125.58</v>
+        <v>0.87185</v>
       </c>
       <c r="H4">
-        <v>125.58</v>
+        <v>249.99</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>581269382</v>
+        <v>585309488</v>
       </c>
       <c r="B5" s="2">
-        <v>45946.41150462963</v>
+        <v>45959.31539351852</v>
       </c>
       <c r="C5" s="2">
-        <v>45950</v>
+        <v>45960.95833333333</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -611,10 +611,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.94</v>
+        <v>51.01</v>
       </c>
       <c r="H5">
-        <v>50.94</v>
+        <v>51.01</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -625,48 +625,48 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>580169893</v>
+        <v>581709074</v>
       </c>
       <c r="B6" s="2">
-        <v>45943.423321759255</v>
+        <v>45947.35291666667</v>
       </c>
       <c r="C6" s="2">
-        <v>45944</v>
+        <v>45951</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6">
-        <v>80.87</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8656</v>
+        <v>49.61</v>
       </c>
       <c r="H6">
-        <v>70</v>
+        <v>49.61</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>580169868</v>
+        <v>581709060</v>
       </c>
       <c r="B7" s="2">
-        <v>45943.42288194444</v>
+        <v>45947.35277777778</v>
       </c>
       <c r="C7" s="2">
-        <v>45945</v>
+        <v>45951</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -675,30 +675,30 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>53.65</v>
+        <v>125.58</v>
       </c>
       <c r="H7">
-        <v>53.65</v>
+        <v>125.58</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>580169327</v>
+        <v>581269382</v>
       </c>
       <c r="B8" s="2">
-        <v>45943.41800925926</v>
+        <v>45946.41150462963</v>
       </c>
       <c r="C8" s="2">
-        <v>45945</v>
+        <v>45950</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -707,59 +707,59 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>127.32</v>
+        <v>50.94</v>
       </c>
       <c r="H8">
-        <v>127.32</v>
+        <v>50.94</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>579211549</v>
+        <v>580169893</v>
       </c>
       <c r="B9" s="2">
-        <v>45939.61756944444</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C9" s="2">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>80.87</v>
       </c>
       <c r="G9">
-        <v>129.08</v>
+        <v>0.8656</v>
       </c>
       <c r="H9">
-        <v>129.08</v>
+        <v>70</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>577313732</v>
+        <v>580169868</v>
       </c>
       <c r="B10" s="2">
-        <v>45933.56972222222</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C10" s="2">
-        <v>45937</v>
+        <v>45945</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -768,33 +768,33 @@
         <v>11</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>52.65</v>
+        <v>53.65</v>
       </c>
       <c r="H10">
-        <v>105.3</v>
+        <v>53.65</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>576413456</v>
+        <v>580169327</v>
       </c>
       <c r="B11" s="2">
-        <v>45931.44907407407</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C11" s="2">
-        <v>45933</v>
+        <v>45945</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -803,59 +803,59 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>51.62</v>
+        <v>127.32</v>
       </c>
       <c r="H11">
-        <v>51.62</v>
+        <v>127.32</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>576410571</v>
+        <v>579211549</v>
       </c>
       <c r="B12" s="2">
-        <v>45931.43001157408</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C12" s="2">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12">
-        <v>116.85</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.85583</v>
+        <v>129.08</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>129.08</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>575554915</v>
+        <v>577313732</v>
       </c>
       <c r="B13" s="2">
-        <v>45929.452060185184</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C13" s="2">
-        <v>45931</v>
+        <v>45937</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -864,33 +864,33 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>51.47</v>
+        <v>52.65</v>
       </c>
       <c r="H13">
-        <v>51.47</v>
+        <v>105.3</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>573400676</v>
+        <v>576413456</v>
       </c>
       <c r="B14" s="2">
-        <v>45922.33627314815</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C14" s="2">
-        <v>45924</v>
+        <v>45933</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -899,91 +899,91 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>127.36</v>
+        <v>51.62</v>
       </c>
       <c r="H14">
-        <v>127.36</v>
+        <v>51.62</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>573399341</v>
+        <v>576410571</v>
       </c>
       <c r="B15" s="2">
-        <v>45922.324120370366</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C15" s="2">
-        <v>45924</v>
+        <v>45932</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G15">
-        <v>51</v>
+        <v>0.85583</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>568717926</v>
+        <v>575554915</v>
       </c>
       <c r="B16" s="2">
-        <v>45905.5246875</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C16" s="2">
-        <v>45908</v>
+        <v>45931</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.85539</v>
+        <v>51.47</v>
       </c>
       <c r="H16">
-        <v>106.92</v>
+        <v>51.47</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>567931751</v>
+        <v>573400676</v>
       </c>
       <c r="B17" s="2">
-        <v>45903.333657407406</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C17" s="2">
-        <v>45905</v>
+        <v>45924</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -995,123 +995,123 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>123.16</v>
+        <v>127.36</v>
       </c>
       <c r="H17">
-        <v>123.16</v>
+        <v>127.36</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>566723916</v>
+        <v>573399341</v>
       </c>
       <c r="B18" s="2">
-        <v>45897.62657407408</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C18" s="2">
-        <v>45898</v>
+        <v>45924</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18">
-        <v>290.69</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.86002</v>
+        <v>51</v>
       </c>
       <c r="H18">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>564426812</v>
+        <v>568717926</v>
       </c>
       <c r="B19" s="2">
-        <v>45889.61331018519</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C19" s="2">
-        <v>45891</v>
+        <v>45908</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="G19">
-        <v>121.62</v>
+        <v>0.85539</v>
       </c>
       <c r="H19">
-        <v>121.62</v>
+        <v>106.92</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>564420621</v>
+        <v>567931751</v>
       </c>
       <c r="B20" s="2">
-        <v>45889.60018518519</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C20" s="2">
-        <v>45890</v>
+        <v>45905</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20">
-        <v>127.71</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.86135</v>
+        <v>123.16</v>
       </c>
       <c r="H20">
-        <v>110</v>
+        <v>123.16</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>555657178</v>
+        <v>566723916</v>
       </c>
       <c r="B21" s="2">
-        <v>45859.48091435185</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C21" s="2">
-        <v>45860</v>
+        <v>45898</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1120,13 +1120,13 @@
         <v>11</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>290.69</v>
       </c>
       <c r="G21">
-        <v>0.85771</v>
+        <v>0.86002</v>
       </c>
       <c r="H21">
-        <v>85.77</v>
+        <v>250</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>555654532</v>
+        <v>564426812</v>
       </c>
       <c r="B22" s="2">
-        <v>45859.465474537035</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C22" s="2">
-        <v>45861</v>
+        <v>45891</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1155,59 +1155,59 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>395</v>
+        <v>121.62</v>
       </c>
       <c r="H22">
-        <v>395</v>
+        <v>121.62</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2.06</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>551218217</v>
+        <v>564420621</v>
       </c>
       <c r="B23" s="2">
-        <v>45841.369837962964</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C23" s="2">
-        <v>45845</v>
+        <v>45890</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>127.71</v>
       </c>
       <c r="G23">
-        <v>119.16</v>
+        <v>0.86135</v>
       </c>
       <c r="H23">
-        <v>119.16</v>
+        <v>110</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>551216497</v>
+        <v>555657178</v>
       </c>
       <c r="B24" s="2">
-        <v>45841.35429398148</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C24" s="2">
-        <v>45845</v>
+        <v>45860</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -1216,13 +1216,13 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G24">
-        <v>0.84741</v>
+        <v>0.85771</v>
       </c>
       <c r="H24">
-        <v>169.48</v>
+        <v>85.77</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1233,45 +1233,45 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>549290062</v>
+        <v>555654532</v>
       </c>
       <c r="B25" s="2">
-        <v>45834.39111111111</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C25" s="2">
-        <v>45835</v>
+        <v>45861</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
       </c>
       <c r="F25">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.85337</v>
+        <v>395</v>
       </c>
       <c r="H25">
-        <v>99.84</v>
+        <v>395</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>546584060</v>
+        <v>551218217</v>
       </c>
       <c r="B26" s="2">
-        <v>45824.480104166665</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C26" s="2">
-        <v>45826</v>
+        <v>45845</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -1283,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>114.8</v>
+        <v>119.16</v>
       </c>
       <c r="H26">
-        <v>114.8</v>
+        <v>119.16</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>546583898</v>
+        <v>551216497</v>
       </c>
       <c r="B27" s="2">
-        <v>45824.47923611111</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C27" s="2">
-        <v>45825</v>
+        <v>45845</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1312,13 +1312,13 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="G27">
-        <v>0.86376</v>
+        <v>0.84741</v>
       </c>
       <c r="H27">
-        <v>99.33</v>
+        <v>169.48</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>545459805</v>
+        <v>549290062</v>
       </c>
       <c r="B28" s="2">
-        <v>45819.41773148148</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C28" s="2">
-        <v>45820</v>
+        <v>45835</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -1344,13 +1344,13 @@
         <v>11</v>
       </c>
       <c r="F28">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="G28">
-        <v>0.87444</v>
+        <v>0.85337</v>
       </c>
       <c r="H28">
-        <v>43.72</v>
+        <v>99.84</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>542145647</v>
+        <v>546584060</v>
       </c>
       <c r="B29" s="2">
-        <v>45807.5672337963</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C29" s="2">
-        <v>45811</v>
+        <v>45826</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -1379,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>112.4</v>
+        <v>114.8</v>
       </c>
       <c r="H29">
-        <v>112.4</v>
+        <v>114.8</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1393,13 +1393,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>541352365</v>
+        <v>546583898</v>
       </c>
       <c r="B30" s="2">
-        <v>45805.594560185185</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C30" s="2">
-        <v>45806</v>
+        <v>45825</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -1408,13 +1408,13 @@
         <v>11</v>
       </c>
       <c r="F30">
-        <v>169.82</v>
+        <v>115</v>
       </c>
       <c r="G30">
-        <v>0.88332</v>
+        <v>0.86376</v>
       </c>
       <c r="H30">
-        <v>150.01</v>
+        <v>99.33</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1425,141 +1425,141 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>540397794</v>
+        <v>545459805</v>
       </c>
       <c r="B31" s="2">
-        <v>45800.4953125</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C31" s="2">
-        <v>45805</v>
+        <v>45820</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G31">
-        <v>110.1385</v>
+        <v>0.87444</v>
       </c>
       <c r="H31">
-        <v>110.14</v>
+        <v>43.72</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>539546182</v>
+        <v>542145647</v>
       </c>
       <c r="B32" s="2">
-        <v>45798.38793981481</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C32" s="2">
-        <v>45799</v>
+        <v>45811</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.88321</v>
+        <v>112.4</v>
       </c>
       <c r="H32">
-        <v>88.32</v>
+        <v>112.4</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>530748416</v>
+        <v>541352365</v>
       </c>
       <c r="B33" s="2">
-        <v>45777.621458333335</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C33" s="2">
-        <v>45779</v>
+        <v>45806</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>169.82</v>
       </c>
       <c r="G33">
-        <v>327.9</v>
+        <v>0.88332</v>
       </c>
       <c r="H33">
-        <v>327.9</v>
+        <v>150.01</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>530748345</v>
+        <v>540397794</v>
       </c>
       <c r="B34" s="2">
-        <v>45777.62107638889</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C34" s="2">
-        <v>45778</v>
+        <v>45805</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.88043</v>
+        <v>110.1385</v>
       </c>
       <c r="H34">
-        <v>26.41</v>
+        <v>110.14</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>530748166</v>
+        <v>539546182</v>
       </c>
       <c r="B35" s="2">
-        <v>45777.62068287037</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C35" s="2">
-        <v>45778</v>
+        <v>45799</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -1568,13 +1568,13 @@
         <v>11</v>
       </c>
       <c r="F35">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G35">
-        <v>0.8804</v>
+        <v>0.88321</v>
       </c>
       <c r="H35">
-        <v>264.12</v>
+        <v>88.32</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1585,77 +1585,77 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>528304116</v>
+        <v>530748416</v>
       </c>
       <c r="B36" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C36" s="2">
-        <v>45772</v>
+        <v>45779</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.87843</v>
+        <v>327.9</v>
       </c>
       <c r="H36">
-        <v>74.67</v>
+        <v>327.9</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>525384379</v>
+        <v>530748345</v>
       </c>
       <c r="B37" s="2">
-        <v>45763.63711805556</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C37" s="2">
-        <v>45769</v>
+        <v>45778</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G37">
-        <v>101.9</v>
+        <v>0.88043</v>
       </c>
       <c r="H37">
-        <v>101.9</v>
+        <v>26.41</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>525383965</v>
+        <v>530748166</v>
       </c>
       <c r="B38" s="2">
-        <v>45763.634826388894</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C38" s="2">
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -1664,13 +1664,13 @@
         <v>11</v>
       </c>
       <c r="F38">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="G38">
-        <v>0.87888</v>
+        <v>0.8804</v>
       </c>
       <c r="H38">
-        <v>65.92</v>
+        <v>264.12</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1681,333 +1681,333 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>521135744</v>
+        <v>528304116</v>
       </c>
       <c r="B39" s="2">
-        <v>45754.608506944445</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C39" s="2">
-        <v>45756</v>
+        <v>45772</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G39">
-        <v>95</v>
+        <v>0.87843</v>
       </c>
       <c r="H39">
-        <v>95</v>
+        <v>74.67</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>521115122</v>
+        <v>525384379</v>
       </c>
       <c r="B40" s="2">
-        <v>45754.593506944446</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C40" s="2">
-        <v>45755</v>
+        <v>45769</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>109.66</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0.91206</v>
+        <v>101.9</v>
       </c>
       <c r="H40">
-        <v>100.02</v>
+        <v>101.9</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>519105737</v>
+        <v>525383965</v>
       </c>
       <c r="B41" s="2">
-        <v>45749.575324074074</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C41" s="2">
-        <v>45751</v>
+        <v>45764</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G41">
-        <v>330.5499</v>
+        <v>0.87888</v>
       </c>
       <c r="H41">
-        <v>330.55</v>
+        <v>65.92</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>519105619</v>
+        <v>521135744</v>
       </c>
       <c r="B42" s="2">
-        <v>45749.575115740736</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C42" s="2">
-        <v>45750</v>
+        <v>45756</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0.92423</v>
+        <v>95</v>
       </c>
       <c r="H42">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>518501268</v>
+        <v>521115122</v>
       </c>
       <c r="B43" s="2">
-        <v>45748.342511574076</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C43" s="2">
-        <v>45750</v>
+        <v>45755</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>109.66</v>
       </c>
       <c r="G43">
-        <v>106.7</v>
+        <v>0.91206</v>
       </c>
       <c r="H43">
-        <v>106.7</v>
+        <v>100.02</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>518501204</v>
+        <v>519105737</v>
       </c>
       <c r="B44" s="2">
-        <v>45748.342199074075</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C44" s="2">
-        <v>45749</v>
+        <v>45751</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44">
-        <v>118.85</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0.92553</v>
+        <v>330.5499</v>
       </c>
       <c r="H44">
-        <v>110</v>
+        <v>330.55</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>510327986</v>
+        <v>519105619</v>
       </c>
       <c r="B45" s="2">
-        <v>45728.454201388886</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C45" s="2">
-        <v>45729.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="G45">
-        <v>107</v>
+        <v>0.92423</v>
       </c>
       <c r="H45">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>510326670</v>
+        <v>518501268</v>
       </c>
       <c r="B46" s="2">
-        <v>45728.43972222222</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C46" s="2">
-        <v>45728.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>114.54</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>0.91668</v>
+        <v>106.7</v>
       </c>
       <c r="H46">
-        <v>105</v>
+        <v>106.7</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>506086900</v>
+        <v>518501204</v>
       </c>
       <c r="B47" s="2">
-        <v>45719.31646990741</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C47" s="2">
-        <v>45720.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>118.85</v>
       </c>
       <c r="G47">
-        <v>355.9998</v>
+        <v>0.92553</v>
       </c>
       <c r="H47">
-        <v>356</v>
+        <v>110</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>506086612</v>
+        <v>510327986</v>
       </c>
       <c r="B48" s="2">
-        <v>45719.31418981482</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C48" s="2">
-        <v>45719.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48">
-        <v>9.74</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0.96213</v>
+        <v>107</v>
       </c>
       <c r="H48">
-        <v>9.37</v>
+        <v>107</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>506084312</v>
+        <v>510326670</v>
       </c>
       <c r="B49" s="2">
-        <v>45719.29939814815</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C49" s="2">
-        <v>45719.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
@@ -2016,13 +2016,13 @@
         <v>11</v>
       </c>
       <c r="F49">
-        <v>204.2</v>
+        <v>114.54</v>
       </c>
       <c r="G49">
-        <v>0.96116</v>
+        <v>0.91668</v>
       </c>
       <c r="H49">
-        <v>196.27</v>
+        <v>105</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2033,77 +2033,77 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>505408659</v>
+        <v>506086900</v>
       </c>
       <c r="B50" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C50" s="2">
-        <v>45718.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>129.21</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>0.96171</v>
+        <v>355.9998</v>
       </c>
       <c r="H50">
-        <v>124.26</v>
+        <v>356</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>503618898</v>
+        <v>506086612</v>
       </c>
       <c r="B51" s="2">
-        <v>45713.606828703705</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C51" s="2">
-        <v>45714.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>9.74</v>
       </c>
       <c r="G51">
-        <v>112.86</v>
+        <v>0.96213</v>
       </c>
       <c r="H51">
-        <v>112.86</v>
+        <v>9.37</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>503618686</v>
+        <v>506084312</v>
       </c>
       <c r="B52" s="2">
-        <v>45713.60653935185</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C52" s="2">
-        <v>45713.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -2112,13 +2112,13 @@
         <v>11</v>
       </c>
       <c r="F52">
-        <v>120</v>
+        <v>204.2</v>
       </c>
       <c r="G52">
-        <v>0.9511</v>
+        <v>0.96116</v>
       </c>
       <c r="H52">
-        <v>114.13</v>
+        <v>196.27</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2129,77 +2129,77 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>499625741</v>
+        <v>505408659</v>
       </c>
       <c r="B53" s="2">
-        <v>45702.56398148148</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C53" s="2">
-        <v>45705.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>129.21</v>
       </c>
       <c r="G53">
-        <v>375.25</v>
+        <v>0.96171</v>
       </c>
       <c r="H53">
-        <v>375.25</v>
+        <v>124.26</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>2.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>499590185</v>
+        <v>503618898</v>
       </c>
       <c r="B54" s="2">
-        <v>45702.36454861111</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C54" s="2">
-        <v>45705.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>20.96</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0.95429</v>
+        <v>112.86</v>
       </c>
       <c r="H54">
-        <v>20</v>
+        <v>112.86</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>498403616</v>
+        <v>503618686</v>
       </c>
       <c r="B55" s="2">
-        <v>45700.59783564815</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C55" s="2">
-        <v>45700.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
@@ -2208,13 +2208,13 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>103.4</v>
+        <v>120</v>
       </c>
       <c r="G55">
-        <v>0.96693</v>
+        <v>0.9511</v>
       </c>
       <c r="H55">
-        <v>99.98</v>
+        <v>114.13</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2225,16 +2225,16 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>494107867</v>
+        <v>499625741</v>
       </c>
       <c r="B56" s="2">
-        <v>45691.58335648148</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C56" s="2">
-        <v>45692.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -2243,27 +2243,27 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>112.9</v>
+        <v>375.25</v>
       </c>
       <c r="H56">
-        <v>112.9</v>
+        <v>375.25</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>1.48</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>494049655</v>
+        <v>499590185</v>
       </c>
       <c r="B57" s="2">
-        <v>45691.31773148148</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C57" s="2">
-        <v>45691.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
@@ -2272,13 +2272,13 @@
         <v>11</v>
       </c>
       <c r="F57">
-        <v>307.46</v>
+        <v>20.96</v>
       </c>
       <c r="G57">
-        <v>0.97578</v>
+        <v>0.95429</v>
       </c>
       <c r="H57">
-        <v>300.01</v>
+        <v>20</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2289,45 +2289,45 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>494049572</v>
+        <v>498403616</v>
       </c>
       <c r="B58" s="2">
-        <v>45691.31670138889</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C58" s="2">
-        <v>45692.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>103.4</v>
       </c>
       <c r="G58">
-        <v>113.34</v>
+        <v>0.96693</v>
       </c>
       <c r="H58">
-        <v>113.34</v>
+        <v>99.98</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>493368805</v>
+        <v>494107867</v>
       </c>
       <c r="B59" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C59" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -2336,30 +2336,30 @@
         <v>11</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>115.9</v>
+        <v>112.9</v>
       </c>
       <c r="H59">
-        <v>231.8</v>
+        <v>112.9</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>492836969</v>
+        <v>494049655</v>
       </c>
       <c r="B60" s="2">
-        <v>45687.621666666666</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C60" s="2">
-        <v>45687.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
@@ -2368,13 +2368,13 @@
         <v>11</v>
       </c>
       <c r="F60">
-        <v>417.21</v>
+        <v>307.46</v>
       </c>
       <c r="G60">
-        <v>0.95874</v>
+        <v>0.97578</v>
       </c>
       <c r="H60">
-        <v>400</v>
+        <v>300.01</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>491075870</v>
+        <v>494049572</v>
       </c>
       <c r="B61" s="2">
-        <v>45684.61530092593</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C61" s="2">
-        <v>45685.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -2403,10 +2403,10 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>114.4</v>
+        <v>113.34</v>
       </c>
       <c r="H61">
-        <v>114.4</v>
+        <v>113.34</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2417,237 +2417,237 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>491075618</v>
+        <v>493368805</v>
       </c>
       <c r="B62" s="2">
-        <v>45684.61476851851</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C62" s="2">
-        <v>45684.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>115.46</v>
+        <v>2</v>
       </c>
       <c r="G62">
-        <v>0.95269</v>
+        <v>115.9</v>
       </c>
       <c r="H62">
-        <v>110</v>
+        <v>231.8</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>483911545</v>
+        <v>492836969</v>
       </c>
       <c r="B63" s="2">
-        <v>45665.44930555555</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C63" s="2">
-        <v>45666.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>417.21</v>
       </c>
       <c r="G63">
-        <v>360.35</v>
+        <v>0.95874</v>
       </c>
       <c r="H63">
-        <v>360.35</v>
+        <v>400</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>483911481</v>
+        <v>491075870</v>
       </c>
       <c r="B64" s="2">
-        <v>45665.44840277778</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C64" s="2">
-        <v>45666.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>0.97183</v>
+        <v>114.4</v>
       </c>
       <c r="H64">
-        <v>354.72</v>
+        <v>114.4</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>481235383</v>
+        <v>491075618</v>
       </c>
       <c r="B65" s="2">
-        <v>45660.337430555555</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C65" s="2">
-        <v>45663.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>115.46</v>
       </c>
       <c r="G65">
-        <v>112</v>
+        <v>0.95269</v>
       </c>
       <c r="H65">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>481235152</v>
+        <v>483911545</v>
       </c>
       <c r="B66" s="2">
-        <v>45660.33241898148</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C66" s="2">
-        <v>45662.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66">
-        <v>226.2</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>0.97259</v>
+        <v>360.35</v>
       </c>
       <c r="H66">
-        <v>220</v>
+        <v>360.35</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>476674643</v>
+        <v>483911481</v>
       </c>
       <c r="B67" s="2">
-        <v>45646.40855324074</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C67" s="2">
-        <v>45652.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="G67">
-        <v>355.4</v>
+        <v>0.97183</v>
       </c>
       <c r="H67">
-        <v>355.4</v>
+        <v>354.72</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>476674604</v>
+        <v>481235383</v>
       </c>
       <c r="B68" s="2">
-        <v>45646.408437499995</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C68" s="2">
-        <v>45648.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="G68">
-        <v>0.96264</v>
+        <v>112</v>
       </c>
       <c r="H68">
-        <v>206.97</v>
+        <v>224</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>476670294</v>
+        <v>481235152</v>
       </c>
       <c r="B69" s="2">
-        <v>45646.38765046296</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C69" s="2">
-        <v>45648.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
@@ -2656,13 +2656,13 @@
         <v>11</v>
       </c>
       <c r="F69">
-        <v>51.32</v>
+        <v>226.2</v>
       </c>
       <c r="G69">
-        <v>0.96299</v>
+        <v>0.97259</v>
       </c>
       <c r="H69">
-        <v>49.42</v>
+        <v>220</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -2673,77 +2673,77 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>476669731</v>
+        <v>476674643</v>
       </c>
       <c r="B70" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C70" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>0.96251</v>
+        <v>355.4</v>
       </c>
       <c r="H70">
-        <v>57.75</v>
+        <v>355.4</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>476123556</v>
+        <v>476674604</v>
       </c>
       <c r="B71" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C71" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="G71">
-        <v>112.54</v>
+        <v>0.96264</v>
       </c>
       <c r="H71">
-        <v>112.54</v>
+        <v>206.97</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>476123515</v>
+        <v>476670294</v>
       </c>
       <c r="B72" s="2">
-        <v>45645.52649305556</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C72" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
@@ -2752,13 +2752,13 @@
         <v>11</v>
       </c>
       <c r="F72">
-        <v>100</v>
+        <v>51.32</v>
       </c>
       <c r="G72">
-        <v>0.96108</v>
+        <v>0.96299</v>
       </c>
       <c r="H72">
-        <v>96.11</v>
+        <v>49.42</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2769,48 +2769,48 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>471357479</v>
+        <v>476669731</v>
       </c>
       <c r="B73" s="2">
-        <v>45635.56259259259</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C73" s="2">
-        <v>45635.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G73">
-        <v>8.3412</v>
+        <v>0.96251</v>
       </c>
       <c r="H73">
-        <v>8.34</v>
+        <v>57.75</v>
       </c>
       <c r="I73">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>466623419</v>
+        <v>476123556</v>
       </c>
       <c r="B74" s="2">
-        <v>45622.31217592592</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C74" s="2">
-        <v>45624.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -2819,27 +2819,27 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>354.5</v>
+        <v>112.54</v>
       </c>
       <c r="H74">
-        <v>354.5</v>
+        <v>112.54</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>2.05</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>466623402</v>
+        <v>476123515</v>
       </c>
       <c r="B75" s="2">
-        <v>45622.31188657407</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C75" s="2">
-        <v>45622.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
@@ -2848,13 +2848,13 @@
         <v>11</v>
       </c>
       <c r="F75">
-        <v>141.78</v>
+        <v>100</v>
       </c>
       <c r="G75">
-        <v>0.95389</v>
+        <v>0.96108</v>
       </c>
       <c r="H75">
-        <v>135.24</v>
+        <v>96.11</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2865,77 +2865,77 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>462598648</v>
+        <v>471357479</v>
       </c>
       <c r="B76" s="2">
-        <v>45611.592997685184</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C76" s="2">
-        <v>45614.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>111.8099</v>
+        <v>8.3412</v>
       </c>
       <c r="H76">
-        <v>111.81</v>
+        <v>8.34</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J76">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>460084933</v>
+        <v>466623419</v>
       </c>
       <c r="B77" s="2">
-        <v>45604.62016203704</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C77" s="2">
-        <v>45607.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>8.3836</v>
+        <v>354.5</v>
       </c>
       <c r="H77">
-        <v>8.38</v>
+        <v>354.5</v>
       </c>
       <c r="I77">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>1.23</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>458847628</v>
+        <v>466623402</v>
       </c>
       <c r="B78" s="2">
-        <v>45602.26765046296</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C78" s="2">
-        <v>45602.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -2944,13 +2944,13 @@
         <v>11</v>
       </c>
       <c r="F78">
-        <v>341.65</v>
+        <v>141.78</v>
       </c>
       <c r="G78">
-        <v>0.93077</v>
+        <v>0.95389</v>
       </c>
       <c r="H78">
-        <v>318</v>
+        <v>135.24</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2961,13 +2961,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>449590057</v>
+        <v>462598648</v>
       </c>
       <c r="B79" s="2">
-        <v>45579.62847222222</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C79" s="2">
-        <v>45581</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -2979,283 +2979,283 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>110.9161</v>
+        <v>111.8099</v>
       </c>
       <c r="H79">
-        <v>110.92</v>
+        <v>111.81</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>449589875</v>
+        <v>460084933</v>
       </c>
       <c r="B80" s="2">
-        <v>45579.628125</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C80" s="2">
-        <v>45580</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F80">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>0.91628</v>
+        <v>8.3836</v>
       </c>
       <c r="H80">
-        <v>32.07</v>
+        <v>8.38</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>449589083</v>
+        <v>458847628</v>
       </c>
       <c r="B81" s="2">
-        <v>45579.62637731481</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C81" s="2">
-        <v>45581</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>341.65</v>
       </c>
       <c r="G81">
-        <v>110.9196</v>
+        <v>0.93077</v>
       </c>
       <c r="H81">
-        <v>110.92</v>
+        <v>318</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>449588246</v>
+        <v>449590057</v>
       </c>
       <c r="B82" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C82" s="2">
         <v>45581</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F82">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>3.4715</v>
+        <v>110.9161</v>
       </c>
       <c r="H82">
-        <v>149.27</v>
+        <v>110.92</v>
       </c>
       <c r="I82">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>445429841</v>
+        <v>449589875</v>
       </c>
       <c r="B83" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.628125</v>
       </c>
       <c r="C83" s="2">
-        <v>45572</v>
+        <v>45580</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G83">
-        <v>337.65</v>
+        <v>0.91628</v>
       </c>
       <c r="H83">
-        <v>337.65</v>
+        <v>32.07</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>1.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>445429174</v>
+        <v>449589083</v>
       </c>
       <c r="B84" s="2">
-        <v>45568.57231481481</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C84" s="2">
-        <v>45569</v>
+        <v>45581</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84">
-        <v>369.23</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0.90605</v>
+        <v>110.9196</v>
       </c>
       <c r="H84">
-        <v>334.54</v>
+        <v>110.92</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>444353954</v>
+        <v>449588246</v>
       </c>
       <c r="B85" s="2">
-        <v>45566.58853009259</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C85" s="2">
-        <v>45568</v>
+        <v>45581</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G85">
-        <v>108.24</v>
+        <v>3.4715</v>
       </c>
       <c r="H85">
-        <v>108.24</v>
+        <v>149.27</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J85">
-        <v>1.45</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>444310921</v>
+        <v>445429841</v>
       </c>
       <c r="B86" s="2">
-        <v>45566.29953703703</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C86" s="2">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
       </c>
       <c r="F86">
-        <v>60.56</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>0.89984</v>
+        <v>337.65</v>
       </c>
       <c r="H86">
-        <v>54.49</v>
+        <v>337.65</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>439936166</v>
+        <v>445429174</v>
       </c>
       <c r="B87" s="2">
-        <v>45554.56259259259</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C87" s="2">
-        <v>45555</v>
+        <v>45569</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>369.23</v>
       </c>
       <c r="G87">
-        <v>62.0726</v>
+        <v>0.90605</v>
       </c>
       <c r="H87">
-        <v>62.07</v>
+        <v>334.54</v>
       </c>
       <c r="I87">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>435165980</v>
+        <v>444353954</v>
       </c>
       <c r="B88" s="2">
-        <v>45541.475370370375</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C88" s="2">
-        <v>45545</v>
+        <v>45568</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -3267,27 +3267,27 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>103.72</v>
+        <v>108.24</v>
       </c>
       <c r="H88">
-        <v>103.72</v>
+        <v>108.24</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>435165968</v>
+        <v>444310921</v>
       </c>
       <c r="B89" s="2">
-        <v>45541.47508101852</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C89" s="2">
-        <v>45544</v>
+        <v>45567</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
@@ -3296,13 +3296,13 @@
         <v>11</v>
       </c>
       <c r="F89">
-        <v>0.21</v>
+        <v>60.56</v>
       </c>
       <c r="G89">
-        <v>0.9011</v>
+        <v>0.89984</v>
       </c>
       <c r="H89">
-        <v>0.19</v>
+        <v>54.49</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -3313,269 +3313,269 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>435165951</v>
+        <v>439936166</v>
       </c>
       <c r="B90" s="2">
-        <v>45541.47487268518</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C90" s="2">
-        <v>45544</v>
+        <v>45555</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F90">
-        <v>4.42</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>0.90109</v>
+        <v>62.0726</v>
       </c>
       <c r="H90">
-        <v>3.98</v>
+        <v>62.07</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>435165927</v>
+        <v>435165980</v>
       </c>
       <c r="B91" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C91" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
       </c>
       <c r="F91">
-        <v>92.77</v>
+        <v>1</v>
       </c>
       <c r="G91">
-        <v>0.90109</v>
+        <v>103.72</v>
       </c>
       <c r="H91">
-        <v>83.59</v>
+        <v>103.72</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>434675474</v>
+        <v>435165968</v>
       </c>
       <c r="B92" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C92" s="2">
         <v>45544</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92">
-        <v>8</v>
+        <v>0.21</v>
       </c>
       <c r="G92">
-        <v>3.689</v>
+        <v>0.9011</v>
       </c>
       <c r="H92">
-        <v>29.51</v>
+        <v>0.19</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>434162210</v>
+        <v>435165951</v>
       </c>
       <c r="B93" s="2">
-        <v>45539.43609953704</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C93" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>4.42</v>
       </c>
       <c r="G93">
-        <v>104.42</v>
+        <v>0.90109</v>
       </c>
       <c r="H93">
-        <v>104.42</v>
+        <v>3.98</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>433696199</v>
+        <v>435165927</v>
       </c>
       <c r="B94" s="2">
-        <v>45538.68898148148</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C94" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="D94" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>92.77</v>
       </c>
       <c r="G94">
-        <v>110.122</v>
+        <v>0.90109</v>
       </c>
       <c r="H94">
-        <v>110.12</v>
+        <v>83.59</v>
       </c>
       <c r="I94">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>433626785</v>
+        <v>434675474</v>
       </c>
       <c r="B95" s="2">
-        <v>45538.39231481482</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C95" s="2">
-        <v>45540</v>
+        <v>45544</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G95">
-        <v>106.54</v>
+        <v>3.689</v>
       </c>
       <c r="H95">
-        <v>106.54</v>
+        <v>29.51</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>433626678</v>
+        <v>434162210</v>
       </c>
       <c r="B96" s="2">
-        <v>45538.391076388885</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C96" s="2">
-        <v>45539</v>
+        <v>45541</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
       </c>
       <c r="F96">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>0.90603</v>
+        <v>104.42</v>
       </c>
       <c r="H96">
-        <v>66.96</v>
+        <v>104.42</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>432518350</v>
+        <v>433696199</v>
       </c>
       <c r="B97" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C97" s="2">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="D97" t="s">
         <v>20</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97">
-        <v>120.88</v>
+        <v>110.122</v>
       </c>
       <c r="H97">
-        <v>120.88</v>
+        <v>110.12</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J97">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>432515426</v>
+        <v>433626785</v>
       </c>
       <c r="B98" s="2">
-        <v>45533.54127314815</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C98" s="2">
-        <v>45537</v>
+        <v>45540</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -3587,10 +3587,10 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>106.34</v>
+        <v>106.54</v>
       </c>
       <c r="H98">
-        <v>106.34</v>
+        <v>106.54</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -3601,109 +3601,109 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>432005364</v>
+        <v>433626678</v>
       </c>
       <c r="B99" s="2">
-        <v>45532.39208333333</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C99" s="2">
-        <v>45534</v>
+        <v>45539</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
       </c>
       <c r="F99">
-        <v>32</v>
+        <v>73.9</v>
       </c>
       <c r="G99">
-        <v>3.632</v>
+        <v>0.90603</v>
       </c>
       <c r="H99">
-        <v>116.22</v>
+        <v>66.96</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>432003333</v>
+        <v>432518350</v>
       </c>
       <c r="B100" s="2">
-        <v>45532.363020833334</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C100" s="2">
-        <v>45534</v>
+        <v>45533</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>106.74</v>
+        <v>120.88</v>
       </c>
       <c r="H100">
-        <v>213.48</v>
+        <v>120.88</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>432003262</v>
+        <v>432515426</v>
       </c>
       <c r="B101" s="2">
-        <v>45532.361875</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C101" s="2">
-        <v>45533</v>
+        <v>45537</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
       </c>
       <c r="F101">
-        <v>618.74</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>0.89741</v>
+        <v>106.34</v>
       </c>
       <c r="H101">
-        <v>555.26</v>
+        <v>106.34</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>430366906</v>
+        <v>432005364</v>
       </c>
       <c r="B102" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C102" s="2">
-        <v>45532</v>
+        <v>45534</v>
       </c>
       <c r="D102" t="s">
         <v>18</v>
@@ -3712,126 +3712,126 @@
         <v>11</v>
       </c>
       <c r="F102">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G102">
-        <v>3.6305</v>
+        <v>3.632</v>
       </c>
       <c r="H102">
-        <v>10.89</v>
+        <v>116.22</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1.26</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>430365249</v>
+        <v>432003333</v>
       </c>
       <c r="B103" s="2">
-        <v>45527.27630787037</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C103" s="2">
-        <v>45530</v>
+        <v>45534</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
       </c>
       <c r="F103">
-        <v>4.63</v>
+        <v>2</v>
       </c>
       <c r="G103">
-        <v>0.8999</v>
+        <v>106.74</v>
       </c>
       <c r="H103">
-        <v>4.17</v>
+        <v>213.48</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>428453232</v>
+        <v>432003262</v>
       </c>
       <c r="B104" s="2">
-        <v>45523.56253472222</v>
+        <v>45532.361875</v>
       </c>
       <c r="C104" s="2">
-        <v>45524</v>
+        <v>45533</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>618.74</v>
       </c>
       <c r="G104">
-        <v>60.046</v>
+        <v>0.89741</v>
       </c>
       <c r="H104">
-        <v>60.05</v>
+        <v>555.26</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>428444212</v>
+        <v>430366906</v>
       </c>
       <c r="B105" s="2">
-        <v>45523.47152777778</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C105" s="2">
-        <v>45525</v>
+        <v>45532</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G105">
-        <v>105.3</v>
+        <v>3.6305</v>
       </c>
       <c r="H105">
-        <v>105.3</v>
+        <v>10.89</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>428437042</v>
+        <v>430365249</v>
       </c>
       <c r="B106" s="2">
-        <v>45523.37878472223</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C106" s="2">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
@@ -3840,13 +3840,13 @@
         <v>11</v>
       </c>
       <c r="F106">
-        <v>7.15</v>
+        <v>4.63</v>
       </c>
       <c r="G106">
-        <v>0.90756</v>
+        <v>0.8999</v>
       </c>
       <c r="H106">
-        <v>6.49</v>
+        <v>4.17</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -3857,45 +3857,45 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>428437005</v>
+        <v>428453232</v>
       </c>
       <c r="B107" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C107" s="2">
         <v>45524</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
       </c>
       <c r="F107">
-        <v>150.15</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>0.90756</v>
+        <v>60.046</v>
       </c>
       <c r="H107">
-        <v>136.27</v>
+        <v>60.05</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>426418112</v>
+        <v>428444212</v>
       </c>
       <c r="B108" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C108" s="2">
-        <v>45519</v>
+        <v>45525</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
@@ -3907,10 +3907,10 @@
         <v>1</v>
       </c>
       <c r="G108">
-        <v>102.02</v>
+        <v>105.3</v>
       </c>
       <c r="H108">
-        <v>102.02</v>
+        <v>105.3</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -3921,13 +3921,13 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>426417966</v>
+        <v>428437042</v>
       </c>
       <c r="B109" s="2">
-        <v>45517.58042824074</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C109" s="2">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -3936,13 +3936,13 @@
         <v>11</v>
       </c>
       <c r="F109">
-        <v>10.45</v>
+        <v>7.15</v>
       </c>
       <c r="G109">
-        <v>0.91439</v>
+        <v>0.90756</v>
       </c>
       <c r="H109">
-        <v>9.56</v>
+        <v>6.49</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -3953,13 +3953,13 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>426416264</v>
+        <v>428437005</v>
       </c>
       <c r="B110" s="2">
-        <v>45517.57699074074</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C110" s="2">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
@@ -3968,13 +3968,13 @@
         <v>11</v>
       </c>
       <c r="F110">
-        <v>4.86</v>
+        <v>150.15</v>
       </c>
       <c r="G110">
-        <v>0.91458</v>
+        <v>0.90756</v>
       </c>
       <c r="H110">
-        <v>4.44</v>
+        <v>136.27</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -3985,33 +3985,129 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
+        <v>426418112</v>
+      </c>
+      <c r="B111" s="2">
+        <v>45517.58078703703</v>
+      </c>
+      <c r="C111" s="2">
+        <v>45519</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>102.02</v>
+      </c>
+      <c r="H111">
+        <v>102.02</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>426417966</v>
+      </c>
+      <c r="B112" s="2">
+        <v>45517.58042824074</v>
+      </c>
+      <c r="C112" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112">
+        <v>10.45</v>
+      </c>
+      <c r="G112">
+        <v>0.91439</v>
+      </c>
+      <c r="H112">
+        <v>9.56</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>426416264</v>
+      </c>
+      <c r="B113" s="2">
+        <v>45517.57699074074</v>
+      </c>
+      <c r="C113" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113">
+        <v>4.86</v>
+      </c>
+      <c r="G113">
+        <v>0.91458</v>
+      </c>
+      <c r="H113">
+        <v>4.44</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>426416183</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B114" s="2">
         <v>45517.576678240745</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C114" s="2">
         <v>45518</v>
       </c>
-      <c r="D111" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111">
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114">
         <v>102.05</v>
       </c>
-      <c r="G111">
+      <c r="G114">
         <v>0.91459</v>
       </c>
-      <c r="H111">
+      <c r="H114">
         <v>93.33</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
         <v>0</v>
       </c>
     </row>

--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="21">
   <si>
     <t>Number</t>
   </si>
@@ -43,16 +43,16 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>AETF.GR</t>
+    <t>VUAA.EU</t>
   </si>
   <si>
     <t xml:space="preserve"> Buy </t>
   </si>
   <si>
-    <t>VUAA.EU</t>
+    <t>USD/EUR</t>
   </si>
   <si>
-    <t>USD/EUR</t>
+    <t>AETF.GR</t>
   </si>
   <si>
     <t>EQAC.EU</t>
@@ -460,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J117"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -497,13 +497,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>587179374</v>
+        <v>589647638</v>
       </c>
       <c r="B2" s="2">
-        <v>45965.315983796296</v>
+        <v>45973.3719212963</v>
       </c>
       <c r="C2" s="2">
-        <v>45966.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -515,27 +515,27 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.67</v>
+        <v>131.88</v>
       </c>
       <c r="H2">
-        <v>50.67</v>
+        <v>131.88</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>586793234</v>
+        <v>589647623</v>
       </c>
       <c r="B3" s="2">
-        <v>45964.60378472222</v>
+        <v>45973.371666666666</v>
       </c>
       <c r="C3" s="2">
-        <v>45965.95833333333</v>
+        <v>45973.95833333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -544,30 +544,30 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>138.34</v>
       </c>
       <c r="G3">
-        <v>130.9</v>
+        <v>0.86743</v>
       </c>
       <c r="H3">
-        <v>130.9</v>
+        <v>120</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>586792895</v>
+        <v>589647528</v>
       </c>
       <c r="B4" s="2">
-        <v>45964.60346064815</v>
+        <v>45973.37055555556</v>
       </c>
       <c r="C4" s="2">
-        <v>45964.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -576,33 +576,33 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>286.74</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.87185</v>
+        <v>51.88</v>
       </c>
       <c r="H4">
-        <v>249.99</v>
+        <v>51.88</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>585309488</v>
+        <v>587179374</v>
       </c>
       <c r="B5" s="2">
-        <v>45959.31539351852</v>
+        <v>45965.315983796296</v>
       </c>
       <c r="C5" s="2">
-        <v>45960.95833333333</v>
+        <v>45966.95833333333</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -611,10 +611,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.01</v>
+        <v>50.67</v>
       </c>
       <c r="H5">
-        <v>51.01</v>
+        <v>50.67</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -625,13 +625,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>581709074</v>
+        <v>586793234</v>
       </c>
       <c r="B6" s="2">
-        <v>45947.35291666667</v>
+        <v>45964.60378472222</v>
       </c>
       <c r="C6" s="2">
-        <v>45951</v>
+        <v>45965.95833333333</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -643,27 +643,27 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.61</v>
+        <v>130.9</v>
       </c>
       <c r="H6">
-        <v>49.61</v>
+        <v>130.9</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>581709060</v>
+        <v>586792895</v>
       </c>
       <c r="B7" s="2">
-        <v>45947.35277777778</v>
+        <v>45964.60346064815</v>
       </c>
       <c r="C7" s="2">
-        <v>45951</v>
+        <v>45964.95833333333</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -672,33 +672,33 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>286.74</v>
       </c>
       <c r="G7">
-        <v>125.58</v>
+        <v>0.87185</v>
       </c>
       <c r="H7">
-        <v>125.58</v>
+        <v>249.99</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>581269382</v>
+        <v>585309488</v>
       </c>
       <c r="B8" s="2">
-        <v>45946.41150462963</v>
+        <v>45959.31539351852</v>
       </c>
       <c r="C8" s="2">
-        <v>45950</v>
+        <v>45960.95833333333</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.94</v>
+        <v>51.01</v>
       </c>
       <c r="H8">
-        <v>50.94</v>
+        <v>51.01</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -721,13 +721,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>580169893</v>
+        <v>581709074</v>
       </c>
       <c r="B9" s="2">
-        <v>45943.423321759255</v>
+        <v>45947.35291666667</v>
       </c>
       <c r="C9" s="2">
-        <v>45944</v>
+        <v>45951</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -736,30 +736,30 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>80.87</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8656</v>
+        <v>49.61</v>
       </c>
       <c r="H9">
-        <v>70</v>
+        <v>49.61</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>580169868</v>
+        <v>581709060</v>
       </c>
       <c r="B10" s="2">
-        <v>45943.42288194444</v>
+        <v>45947.35277777778</v>
       </c>
       <c r="C10" s="2">
-        <v>45945</v>
+        <v>45951</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -771,30 +771,30 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>53.65</v>
+        <v>125.58</v>
       </c>
       <c r="H10">
-        <v>53.65</v>
+        <v>125.58</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>580169327</v>
+        <v>581269382</v>
       </c>
       <c r="B11" s="2">
-        <v>45943.41800925926</v>
+        <v>45946.41150462963</v>
       </c>
       <c r="C11" s="2">
-        <v>45945</v>
+        <v>45950</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -803,27 +803,27 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>127.32</v>
+        <v>50.94</v>
       </c>
       <c r="H11">
-        <v>127.32</v>
+        <v>50.94</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>579211549</v>
+        <v>580169893</v>
       </c>
       <c r="B12" s="2">
-        <v>45939.61756944444</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C12" s="2">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -832,62 +832,62 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>80.87</v>
       </c>
       <c r="G12">
-        <v>129.08</v>
+        <v>0.8656</v>
       </c>
       <c r="H12">
-        <v>129.08</v>
+        <v>70</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>577313732</v>
+        <v>580169868</v>
       </c>
       <c r="B13" s="2">
-        <v>45933.56972222222</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C13" s="2">
-        <v>45937</v>
+        <v>45945</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>52.65</v>
+        <v>53.65</v>
       </c>
       <c r="H13">
-        <v>105.3</v>
+        <v>53.65</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>576413456</v>
+        <v>580169327</v>
       </c>
       <c r="B14" s="2">
-        <v>45931.44907407407</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C14" s="2">
-        <v>45933</v>
+        <v>45945</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -899,94 +899,94 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>51.62</v>
+        <v>127.32</v>
       </c>
       <c r="H14">
-        <v>51.62</v>
+        <v>127.32</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>576410571</v>
+        <v>579211549</v>
       </c>
       <c r="B15" s="2">
-        <v>45931.43001157408</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C15" s="2">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15">
-        <v>116.85</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.85583</v>
+        <v>129.08</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>129.08</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>575554915</v>
+        <v>577313732</v>
       </c>
       <c r="B16" s="2">
-        <v>45929.452060185184</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C16" s="2">
-        <v>45931</v>
+        <v>45937</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>51.47</v>
+        <v>52.65</v>
       </c>
       <c r="H16">
-        <v>51.47</v>
+        <v>105.3</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>573400676</v>
+        <v>576413456</v>
       </c>
       <c r="B17" s="2">
-        <v>45922.33627314815</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C17" s="2">
-        <v>45924</v>
+        <v>45933</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -995,59 +995,59 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>127.36</v>
+        <v>51.62</v>
       </c>
       <c r="H17">
-        <v>127.36</v>
+        <v>51.62</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>573399341</v>
+        <v>576410571</v>
       </c>
       <c r="B18" s="2">
-        <v>45922.324120370366</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C18" s="2">
-        <v>45924</v>
+        <v>45932</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G18">
-        <v>51</v>
+        <v>0.85583</v>
       </c>
       <c r="H18">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>568717926</v>
+        <v>575554915</v>
       </c>
       <c r="B19" s="2">
-        <v>45905.5246875</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C19" s="2">
-        <v>45908</v>
+        <v>45931</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1056,33 +1056,33 @@
         <v>11</v>
       </c>
       <c r="F19">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.85539</v>
+        <v>51.47</v>
       </c>
       <c r="H19">
-        <v>106.92</v>
+        <v>51.47</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>567931751</v>
+        <v>573400676</v>
       </c>
       <c r="B20" s="2">
-        <v>45903.333657407406</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C20" s="2">
-        <v>45905</v>
+        <v>45924</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1091,27 +1091,27 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>123.16</v>
+        <v>127.36</v>
       </c>
       <c r="H20">
-        <v>123.16</v>
+        <v>127.36</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>566723916</v>
+        <v>573399341</v>
       </c>
       <c r="B21" s="2">
-        <v>45897.62657407408</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C21" s="2">
-        <v>45898</v>
+        <v>45924</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1120,30 +1120,30 @@
         <v>11</v>
       </c>
       <c r="F21">
-        <v>290.69</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.86002</v>
+        <v>51</v>
       </c>
       <c r="H21">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>564426812</v>
+        <v>568717926</v>
       </c>
       <c r="B22" s="2">
-        <v>45889.61331018519</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C22" s="2">
-        <v>45891</v>
+        <v>45908</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1152,77 +1152,77 @@
         <v>11</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="G22">
-        <v>121.62</v>
+        <v>0.85539</v>
       </c>
       <c r="H22">
-        <v>121.62</v>
+        <v>106.92</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>564420621</v>
+        <v>567931751</v>
       </c>
       <c r="B23" s="2">
-        <v>45889.60018518519</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C23" s="2">
-        <v>45890</v>
+        <v>45905</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23">
-        <v>127.71</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.86135</v>
+        <v>123.16</v>
       </c>
       <c r="H23">
-        <v>110</v>
+        <v>123.16</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>555657178</v>
+        <v>566723916</v>
       </c>
       <c r="B24" s="2">
-        <v>45859.48091435185</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C24" s="2">
-        <v>45860</v>
+        <v>45898</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>290.69</v>
       </c>
       <c r="G24">
-        <v>0.85771</v>
+        <v>0.86002</v>
       </c>
       <c r="H24">
-        <v>85.77</v>
+        <v>250</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>555654532</v>
+        <v>564426812</v>
       </c>
       <c r="B25" s="2">
-        <v>45859.465474537035</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C25" s="2">
-        <v>45861</v>
+        <v>45891</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1251,27 +1251,27 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>395</v>
+        <v>121.62</v>
       </c>
       <c r="H25">
-        <v>395</v>
+        <v>121.62</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.06</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>551218217</v>
+        <v>564420621</v>
       </c>
       <c r="B26" s="2">
-        <v>45841.369837962964</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C26" s="2">
-        <v>45845</v>
+        <v>45890</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -1280,45 +1280,45 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>127.71</v>
       </c>
       <c r="G26">
-        <v>119.16</v>
+        <v>0.86135</v>
       </c>
       <c r="H26">
-        <v>119.16</v>
+        <v>110</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>551216497</v>
+        <v>555657178</v>
       </c>
       <c r="B27" s="2">
-        <v>45841.35429398148</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C27" s="2">
-        <v>45845</v>
+        <v>45860</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G27">
-        <v>0.84741</v>
+        <v>0.85771</v>
       </c>
       <c r="H27">
-        <v>169.48</v>
+        <v>85.77</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1329,48 +1329,48 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>549290062</v>
+        <v>555654532</v>
       </c>
       <c r="B28" s="2">
-        <v>45834.39111111111</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C28" s="2">
-        <v>45835</v>
+        <v>45861</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.85337</v>
+        <v>395</v>
       </c>
       <c r="H28">
-        <v>99.84</v>
+        <v>395</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>546584060</v>
+        <v>551218217</v>
       </c>
       <c r="B29" s="2">
-        <v>45824.480104166665</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C29" s="2">
-        <v>45826</v>
+        <v>45845</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1379,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>114.8</v>
+        <v>119.16</v>
       </c>
       <c r="H29">
-        <v>114.8</v>
+        <v>119.16</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1393,28 +1393,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>546583898</v>
+        <v>551216497</v>
       </c>
       <c r="B30" s="2">
-        <v>45824.47923611111</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C30" s="2">
-        <v>45825</v>
+        <v>45845</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="G30">
-        <v>0.86376</v>
+        <v>0.84741</v>
       </c>
       <c r="H30">
-        <v>99.33</v>
+        <v>169.48</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1425,28 +1425,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>545459805</v>
+        <v>549290062</v>
       </c>
       <c r="B31" s="2">
-        <v>45819.41773148148</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C31" s="2">
-        <v>45820</v>
+        <v>45835</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="G31">
-        <v>0.87444</v>
+        <v>0.85337</v>
       </c>
       <c r="H31">
-        <v>43.72</v>
+        <v>99.84</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>542145647</v>
+        <v>546584060</v>
       </c>
       <c r="B32" s="2">
-        <v>45807.5672337963</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C32" s="2">
-        <v>45811</v>
+        <v>45826</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -1475,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>112.4</v>
+        <v>114.8</v>
       </c>
       <c r="H32">
-        <v>112.4</v>
+        <v>114.8</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1489,28 +1489,28 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>541352365</v>
+        <v>546583898</v>
       </c>
       <c r="B33" s="2">
-        <v>45805.594560185185</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C33" s="2">
-        <v>45806</v>
+        <v>45825</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
       <c r="F33">
-        <v>169.82</v>
+        <v>115</v>
       </c>
       <c r="G33">
-        <v>0.88332</v>
+        <v>0.86376</v>
       </c>
       <c r="H33">
-        <v>150.01</v>
+        <v>99.33</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>540397794</v>
+        <v>545459805</v>
       </c>
       <c r="B34" s="2">
-        <v>45800.4953125</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C34" s="2">
-        <v>45805</v>
+        <v>45820</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -1536,141 +1536,141 @@
         <v>11</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G34">
-        <v>110.1385</v>
+        <v>0.87444</v>
       </c>
       <c r="H34">
-        <v>110.14</v>
+        <v>43.72</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>539546182</v>
+        <v>542145647</v>
       </c>
       <c r="B35" s="2">
-        <v>45798.38793981481</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C35" s="2">
-        <v>45799</v>
+        <v>45811</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.88321</v>
+        <v>112.4</v>
       </c>
       <c r="H35">
-        <v>88.32</v>
+        <v>112.4</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>530748416</v>
+        <v>541352365</v>
       </c>
       <c r="B36" s="2">
-        <v>45777.621458333335</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C36" s="2">
-        <v>45779</v>
+        <v>45806</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>169.82</v>
       </c>
       <c r="G36">
-        <v>327.9</v>
+        <v>0.88332</v>
       </c>
       <c r="H36">
-        <v>327.9</v>
+        <v>150.01</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>530748345</v>
+        <v>540397794</v>
       </c>
       <c r="B37" s="2">
-        <v>45777.62107638889</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C37" s="2">
-        <v>45778</v>
+        <v>45805</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.88043</v>
+        <v>110.1385</v>
       </c>
       <c r="H37">
-        <v>26.41</v>
+        <v>110.14</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>530748166</v>
+        <v>539546182</v>
       </c>
       <c r="B38" s="2">
-        <v>45777.62068287037</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C38" s="2">
-        <v>45778</v>
+        <v>45799</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
       </c>
       <c r="F38">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G38">
-        <v>0.8804</v>
+        <v>0.88321</v>
       </c>
       <c r="H38">
-        <v>264.12</v>
+        <v>88.32</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1681,45 +1681,45 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>528304116</v>
+        <v>530748416</v>
       </c>
       <c r="B39" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C39" s="2">
-        <v>45772</v>
+        <v>45779</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.87843</v>
+        <v>327.9</v>
       </c>
       <c r="H39">
-        <v>74.67</v>
+        <v>327.9</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>525384379</v>
+        <v>530748345</v>
       </c>
       <c r="B40" s="2">
-        <v>45763.63711805556</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C40" s="2">
-        <v>45769</v>
+        <v>45778</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -1728,45 +1728,45 @@
         <v>11</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G40">
-        <v>101.9</v>
+        <v>0.88043</v>
       </c>
       <c r="H40">
-        <v>101.9</v>
+        <v>26.41</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>525383965</v>
+        <v>530748166</v>
       </c>
       <c r="B41" s="2">
-        <v>45763.634826388894</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C41" s="2">
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="G41">
-        <v>0.87888</v>
+        <v>0.8804</v>
       </c>
       <c r="H41">
-        <v>65.92</v>
+        <v>264.12</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>521135744</v>
+        <v>528304116</v>
       </c>
       <c r="B42" s="2">
-        <v>45754.608506944445</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C42" s="2">
-        <v>45756</v>
+        <v>45772</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -1792,126 +1792,126 @@
         <v>11</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G42">
-        <v>95</v>
+        <v>0.87843</v>
       </c>
       <c r="H42">
-        <v>95</v>
+        <v>74.67</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>521115122</v>
+        <v>525384379</v>
       </c>
       <c r="B43" s="2">
-        <v>45754.593506944446</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C43" s="2">
-        <v>45755</v>
+        <v>45769</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>109.66</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0.91206</v>
+        <v>101.9</v>
       </c>
       <c r="H43">
-        <v>100.02</v>
+        <v>101.9</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>519105737</v>
+        <v>525383965</v>
       </c>
       <c r="B44" s="2">
-        <v>45749.575324074074</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C44" s="2">
-        <v>45751</v>
+        <v>45764</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G44">
-        <v>330.5499</v>
+        <v>0.87888</v>
       </c>
       <c r="H44">
-        <v>330.55</v>
+        <v>65.92</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>519105619</v>
+        <v>521135744</v>
       </c>
       <c r="B45" s="2">
-        <v>45749.575115740736</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C45" s="2">
-        <v>45750</v>
+        <v>45756</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0.92423</v>
+        <v>95</v>
       </c>
       <c r="H45">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>518501268</v>
+        <v>521115122</v>
       </c>
       <c r="B46" s="2">
-        <v>45748.342511574076</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C46" s="2">
-        <v>45750</v>
+        <v>45755</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -1920,62 +1920,62 @@
         <v>11</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>109.66</v>
       </c>
       <c r="G46">
-        <v>106.7</v>
+        <v>0.91206</v>
       </c>
       <c r="H46">
-        <v>106.7</v>
+        <v>100.02</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>518501204</v>
+        <v>519105737</v>
       </c>
       <c r="B47" s="2">
-        <v>45748.342199074075</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C47" s="2">
-        <v>45749</v>
+        <v>45751</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47">
-        <v>118.85</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0.92553</v>
+        <v>330.5499</v>
       </c>
       <c r="H47">
-        <v>110</v>
+        <v>330.55</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>510327986</v>
+        <v>519105619</v>
       </c>
       <c r="B48" s="2">
-        <v>45728.454201388886</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C48" s="2">
-        <v>45729.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -1984,141 +1984,141 @@
         <v>11</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="G48">
-        <v>107</v>
+        <v>0.92423</v>
       </c>
       <c r="H48">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>510326670</v>
+        <v>518501268</v>
       </c>
       <c r="B49" s="2">
-        <v>45728.43972222222</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C49" s="2">
-        <v>45728.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
       <c r="F49">
-        <v>114.54</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0.91668</v>
+        <v>106.7</v>
       </c>
       <c r="H49">
-        <v>105</v>
+        <v>106.7</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>506086900</v>
+        <v>518501204</v>
       </c>
       <c r="B50" s="2">
-        <v>45719.31646990741</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C50" s="2">
-        <v>45720.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>118.85</v>
       </c>
       <c r="G50">
-        <v>355.9998</v>
+        <v>0.92553</v>
       </c>
       <c r="H50">
-        <v>356</v>
+        <v>110</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>506086612</v>
+        <v>510327986</v>
       </c>
       <c r="B51" s="2">
-        <v>45719.31418981482</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C51" s="2">
-        <v>45719.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
       </c>
       <c r="F51">
-        <v>9.74</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0.96213</v>
+        <v>107</v>
       </c>
       <c r="H51">
-        <v>9.37</v>
+        <v>107</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>506084312</v>
+        <v>510326670</v>
       </c>
       <c r="B52" s="2">
-        <v>45719.29939814815</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C52" s="2">
-        <v>45719.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>204.2</v>
+        <v>114.54</v>
       </c>
       <c r="G52">
-        <v>0.96116</v>
+        <v>0.91668</v>
       </c>
       <c r="H52">
-        <v>196.27</v>
+        <v>105</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2129,45 +2129,45 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>505408659</v>
+        <v>506086900</v>
       </c>
       <c r="B53" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C53" s="2">
-        <v>45718.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53">
-        <v>129.21</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0.96171</v>
+        <v>355.9998</v>
       </c>
       <c r="H53">
-        <v>124.26</v>
+        <v>356</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>503618898</v>
+        <v>506086612</v>
       </c>
       <c r="B54" s="2">
-        <v>45713.606828703705</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C54" s="2">
-        <v>45714.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -2176,45 +2176,45 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>9.74</v>
       </c>
       <c r="G54">
-        <v>112.86</v>
+        <v>0.96213</v>
       </c>
       <c r="H54">
-        <v>112.86</v>
+        <v>9.37</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>503618686</v>
+        <v>506084312</v>
       </c>
       <c r="B55" s="2">
-        <v>45713.60653935185</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C55" s="2">
-        <v>45713.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
       </c>
       <c r="F55">
-        <v>120</v>
+        <v>204.2</v>
       </c>
       <c r="G55">
-        <v>0.9511</v>
+        <v>0.96116</v>
       </c>
       <c r="H55">
-        <v>114.13</v>
+        <v>196.27</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2225,92 +2225,92 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>499625741</v>
+        <v>505408659</v>
       </c>
       <c r="B56" s="2">
-        <v>45702.56398148148</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C56" s="2">
-        <v>45705.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>129.21</v>
       </c>
       <c r="G56">
-        <v>375.25</v>
+        <v>0.96171</v>
       </c>
       <c r="H56">
-        <v>375.25</v>
+        <v>124.26</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>2.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>499590185</v>
+        <v>503618898</v>
       </c>
       <c r="B57" s="2">
-        <v>45702.36454861111</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C57" s="2">
-        <v>45705.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="F57">
-        <v>20.96</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>0.95429</v>
+        <v>112.86</v>
       </c>
       <c r="H57">
-        <v>20</v>
+        <v>112.86</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>498403616</v>
+        <v>503618686</v>
       </c>
       <c r="B58" s="2">
-        <v>45700.59783564815</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C58" s="2">
-        <v>45700.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>103.4</v>
+        <v>120</v>
       </c>
       <c r="G58">
-        <v>0.96693</v>
+        <v>0.9511</v>
       </c>
       <c r="H58">
-        <v>99.98</v>
+        <v>114.13</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2321,16 +2321,16 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>494107867</v>
+        <v>499625741</v>
       </c>
       <c r="B59" s="2">
-        <v>45691.58335648148</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C59" s="2">
-        <v>45692.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -2339,42 +2339,42 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>112.9</v>
+        <v>375.25</v>
       </c>
       <c r="H59">
-        <v>112.9</v>
+        <v>375.25</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1.48</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>494049655</v>
+        <v>499590185</v>
       </c>
       <c r="B60" s="2">
-        <v>45691.31773148148</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C60" s="2">
-        <v>45691.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>307.46</v>
+        <v>20.96</v>
       </c>
       <c r="G60">
-        <v>0.97578</v>
+        <v>0.95429</v>
       </c>
       <c r="H60">
-        <v>300.01</v>
+        <v>20</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>494049572</v>
+        <v>498403616</v>
       </c>
       <c r="B61" s="2">
-        <v>45691.31670138889</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C61" s="2">
-        <v>45692.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -2400,77 +2400,77 @@
         <v>11</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>103.4</v>
       </c>
       <c r="G61">
-        <v>113.34</v>
+        <v>0.96693</v>
       </c>
       <c r="H61">
-        <v>113.34</v>
+        <v>99.98</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>493368805</v>
+        <v>494107867</v>
       </c>
       <c r="B62" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C62" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>115.9</v>
+        <v>112.9</v>
       </c>
       <c r="H62">
-        <v>231.8</v>
+        <v>112.9</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>492836969</v>
+        <v>494049655</v>
       </c>
       <c r="B63" s="2">
-        <v>45687.621666666666</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C63" s="2">
-        <v>45687.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="F63">
-        <v>417.21</v>
+        <v>307.46</v>
       </c>
       <c r="G63">
-        <v>0.95874</v>
+        <v>0.97578</v>
       </c>
       <c r="H63">
-        <v>400</v>
+        <v>300.01</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2481,16 +2481,16 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>491075870</v>
+        <v>494049572</v>
       </c>
       <c r="B64" s="2">
-        <v>45684.61530092593</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C64" s="2">
-        <v>45685.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -2499,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>114.4</v>
+        <v>113.34</v>
       </c>
       <c r="H64">
-        <v>114.4</v>
+        <v>113.34</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2513,109 +2513,109 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>491075618</v>
+        <v>493368805</v>
       </c>
       <c r="B65" s="2">
-        <v>45684.61476851851</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C65" s="2">
-        <v>45684.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>115.46</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>0.95269</v>
+        <v>115.9</v>
       </c>
       <c r="H65">
-        <v>110</v>
+        <v>231.8</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>483911545</v>
+        <v>492836969</v>
       </c>
       <c r="B66" s="2">
-        <v>45665.44930555555</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C66" s="2">
-        <v>45666.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>417.21</v>
       </c>
       <c r="G66">
-        <v>360.35</v>
+        <v>0.95874</v>
       </c>
       <c r="H66">
-        <v>360.35</v>
+        <v>400</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>483911481</v>
+        <v>491075870</v>
       </c>
       <c r="B67" s="2">
-        <v>45665.44840277778</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C67" s="2">
-        <v>45666.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>0.97183</v>
+        <v>114.4</v>
       </c>
       <c r="H67">
-        <v>354.72</v>
+        <v>114.4</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>481235383</v>
+        <v>491075618</v>
       </c>
       <c r="B68" s="2">
-        <v>45660.337430555555</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C68" s="2">
-        <v>45663.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -2624,141 +2624,141 @@
         <v>11</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>115.46</v>
       </c>
       <c r="G68">
-        <v>112</v>
+        <v>0.95269</v>
       </c>
       <c r="H68">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>1.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>481235152</v>
+        <v>483911545</v>
       </c>
       <c r="B69" s="2">
-        <v>45660.33241898148</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C69" s="2">
-        <v>45662.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69">
-        <v>226.2</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0.97259</v>
+        <v>360.35</v>
       </c>
       <c r="H69">
-        <v>220</v>
+        <v>360.35</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>476674643</v>
+        <v>483911481</v>
       </c>
       <c r="B70" s="2">
-        <v>45646.40855324074</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C70" s="2">
-        <v>45652.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="G70">
-        <v>355.4</v>
+        <v>0.97183</v>
       </c>
       <c r="H70">
-        <v>355.4</v>
+        <v>354.72</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>476674604</v>
+        <v>481235383</v>
       </c>
       <c r="B71" s="2">
-        <v>45646.408437499995</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C71" s="2">
-        <v>45648.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="G71">
-        <v>0.96264</v>
+        <v>112</v>
       </c>
       <c r="H71">
-        <v>206.97</v>
+        <v>224</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>476670294</v>
+        <v>481235152</v>
       </c>
       <c r="B72" s="2">
-        <v>45646.38765046296</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C72" s="2">
-        <v>45648.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72">
-        <v>51.32</v>
+        <v>226.2</v>
       </c>
       <c r="G72">
-        <v>0.96299</v>
+        <v>0.97259</v>
       </c>
       <c r="H72">
-        <v>49.42</v>
+        <v>220</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2769,42 +2769,42 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>476669731</v>
+        <v>476674643</v>
       </c>
       <c r="B73" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C73" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>0.96251</v>
+        <v>355.4</v>
       </c>
       <c r="H73">
-        <v>57.75</v>
+        <v>355.4</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>476123556</v>
+        <v>476674604</v>
       </c>
       <c r="B74" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C74" s="2">
         <v>45648.95833333333</v>
@@ -2816,45 +2816,45 @@
         <v>11</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="G74">
-        <v>112.54</v>
+        <v>0.96264</v>
       </c>
       <c r="H74">
-        <v>112.54</v>
+        <v>206.97</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>476123515</v>
+        <v>476670294</v>
       </c>
       <c r="B75" s="2">
-        <v>45645.52649305556</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C75" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75">
-        <v>100</v>
+        <v>51.32</v>
       </c>
       <c r="G75">
-        <v>0.96108</v>
+        <v>0.96299</v>
       </c>
       <c r="H75">
-        <v>96.11</v>
+        <v>49.42</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2865,48 +2865,48 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>471357479</v>
+        <v>476669731</v>
       </c>
       <c r="B76" s="2">
-        <v>45635.56259259259</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C76" s="2">
-        <v>45635.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G76">
-        <v>8.3412</v>
+        <v>0.96251</v>
       </c>
       <c r="H76">
-        <v>8.34</v>
+        <v>57.75</v>
       </c>
       <c r="I76">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>466623419</v>
+        <v>476123556</v>
       </c>
       <c r="B77" s="2">
-        <v>45622.31217592592</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C77" s="2">
-        <v>45624.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -2915,42 +2915,42 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>354.5</v>
+        <v>112.54</v>
       </c>
       <c r="H77">
-        <v>354.5</v>
+        <v>112.54</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>2.05</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>466623402</v>
+        <v>476123515</v>
       </c>
       <c r="B78" s="2">
-        <v>45622.31188657407</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C78" s="2">
-        <v>45622.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78">
-        <v>141.78</v>
+        <v>100</v>
       </c>
       <c r="G78">
-        <v>0.95389</v>
+        <v>0.96108</v>
       </c>
       <c r="H78">
-        <v>135.24</v>
+        <v>96.11</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2961,92 +2961,92 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>462598648</v>
+        <v>471357479</v>
       </c>
       <c r="B79" s="2">
-        <v>45611.592997685184</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C79" s="2">
-        <v>45614.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>111.8099</v>
+        <v>8.3412</v>
       </c>
       <c r="H79">
-        <v>111.81</v>
+        <v>8.34</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J79">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>460084933</v>
+        <v>466623419</v>
       </c>
       <c r="B80" s="2">
-        <v>45604.62016203704</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C80" s="2">
-        <v>45607.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>8.3836</v>
+        <v>354.5</v>
       </c>
       <c r="H80">
-        <v>8.38</v>
+        <v>354.5</v>
       </c>
       <c r="I80">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>1.23</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>458847628</v>
+        <v>466623402</v>
       </c>
       <c r="B81" s="2">
-        <v>45602.26765046296</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C81" s="2">
-        <v>45602.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="F81">
-        <v>341.65</v>
+        <v>141.78</v>
       </c>
       <c r="G81">
-        <v>0.93077</v>
+        <v>0.95389</v>
       </c>
       <c r="H81">
-        <v>318</v>
+        <v>135.24</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3057,16 +3057,16 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>449590057</v>
+        <v>462598648</v>
       </c>
       <c r="B82" s="2">
-        <v>45579.62847222222</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C82" s="2">
-        <v>45581</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -3075,59 +3075,59 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>110.9161</v>
+        <v>111.8099</v>
       </c>
       <c r="H82">
-        <v>110.92</v>
+        <v>111.81</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>449589875</v>
+        <v>460084933</v>
       </c>
       <c r="B83" s="2">
-        <v>45579.628125</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C83" s="2">
-        <v>45580</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F83">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>0.91628</v>
+        <v>8.3836</v>
       </c>
       <c r="H83">
-        <v>32.07</v>
+        <v>8.38</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>449589083</v>
+        <v>458847628</v>
       </c>
       <c r="B84" s="2">
-        <v>45579.62637731481</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C84" s="2">
-        <v>45581</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -3136,225 +3136,225 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>341.65</v>
       </c>
       <c r="G84">
-        <v>110.9196</v>
+        <v>0.93077</v>
       </c>
       <c r="H84">
-        <v>110.92</v>
+        <v>318</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>449588246</v>
+        <v>449590057</v>
       </c>
       <c r="B85" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C85" s="2">
         <v>45581</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F85">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>3.4715</v>
+        <v>110.9161</v>
       </c>
       <c r="H85">
-        <v>149.27</v>
+        <v>110.92</v>
       </c>
       <c r="I85">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>445429841</v>
+        <v>449589875</v>
       </c>
       <c r="B86" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.628125</v>
       </c>
       <c r="C86" s="2">
-        <v>45572</v>
+        <v>45580</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G86">
-        <v>337.65</v>
+        <v>0.91628</v>
       </c>
       <c r="H86">
-        <v>337.65</v>
+        <v>32.07</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>445429174</v>
+        <v>449589083</v>
       </c>
       <c r="B87" s="2">
-        <v>45568.57231481481</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C87" s="2">
-        <v>45569</v>
+        <v>45581</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
       </c>
       <c r="F87">
-        <v>369.23</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>0.90605</v>
+        <v>110.9196</v>
       </c>
       <c r="H87">
-        <v>334.54</v>
+        <v>110.92</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>444353954</v>
+        <v>449588246</v>
       </c>
       <c r="B88" s="2">
-        <v>45566.58853009259</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C88" s="2">
-        <v>45568</v>
+        <v>45581</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G88">
-        <v>108.24</v>
+        <v>3.4715</v>
       </c>
       <c r="H88">
-        <v>108.24</v>
+        <v>149.27</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J88">
-        <v>1.45</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>444310921</v>
+        <v>445429841</v>
       </c>
       <c r="B89" s="2">
-        <v>45566.29953703703</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C89" s="2">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
       </c>
       <c r="F89">
-        <v>60.56</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>0.89984</v>
+        <v>337.65</v>
       </c>
       <c r="H89">
-        <v>54.49</v>
+        <v>337.65</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>439936166</v>
+        <v>445429174</v>
       </c>
       <c r="B90" s="2">
-        <v>45554.56259259259</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C90" s="2">
-        <v>45555</v>
+        <v>45569</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>369.23</v>
       </c>
       <c r="G90">
-        <v>62.0726</v>
+        <v>0.90605</v>
       </c>
       <c r="H90">
-        <v>62.07</v>
+        <v>334.54</v>
       </c>
       <c r="I90">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>435165980</v>
+        <v>444353954</v>
       </c>
       <c r="B91" s="2">
-        <v>45541.475370370375</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C91" s="2">
-        <v>45545</v>
+        <v>45568</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -3363,42 +3363,42 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>103.72</v>
+        <v>108.24</v>
       </c>
       <c r="H91">
-        <v>103.72</v>
+        <v>108.24</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>435165968</v>
+        <v>444310921</v>
       </c>
       <c r="B92" s="2">
-        <v>45541.47508101852</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C92" s="2">
-        <v>45544</v>
+        <v>45567</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92">
-        <v>0.21</v>
+        <v>60.56</v>
       </c>
       <c r="G92">
-        <v>0.9011</v>
+        <v>0.89984</v>
       </c>
       <c r="H92">
-        <v>0.19</v>
+        <v>54.49</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -3409,109 +3409,109 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>435165951</v>
+        <v>439936166</v>
       </c>
       <c r="B93" s="2">
-        <v>45541.47487268518</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C93" s="2">
-        <v>45544</v>
+        <v>45555</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F93">
-        <v>4.42</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0.90109</v>
+        <v>62.0726</v>
       </c>
       <c r="H93">
-        <v>3.98</v>
+        <v>62.07</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>435165927</v>
+        <v>435165980</v>
       </c>
       <c r="B94" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C94" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
       </c>
       <c r="F94">
-        <v>92.77</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>0.90109</v>
+        <v>103.72</v>
       </c>
       <c r="H94">
-        <v>83.59</v>
+        <v>103.72</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>434675474</v>
+        <v>435165968</v>
       </c>
       <c r="B95" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C95" s="2">
         <v>45544</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
       </c>
       <c r="F95">
-        <v>8</v>
+        <v>0.21</v>
       </c>
       <c r="G95">
-        <v>3.689</v>
+        <v>0.9011</v>
       </c>
       <c r="H95">
-        <v>29.51</v>
+        <v>0.19</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>434162210</v>
+        <v>435165951</v>
       </c>
       <c r="B96" s="2">
-        <v>45539.43609953704</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C96" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -3520,161 +3520,161 @@
         <v>11</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>4.42</v>
       </c>
       <c r="G96">
-        <v>104.42</v>
+        <v>0.90109</v>
       </c>
       <c r="H96">
-        <v>104.42</v>
+        <v>3.98</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>433696199</v>
+        <v>435165927</v>
       </c>
       <c r="B97" s="2">
-        <v>45538.68898148148</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C97" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="D97" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>92.77</v>
       </c>
       <c r="G97">
-        <v>110.122</v>
+        <v>0.90109</v>
       </c>
       <c r="H97">
-        <v>110.12</v>
+        <v>83.59</v>
       </c>
       <c r="I97">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>433626785</v>
+        <v>434675474</v>
       </c>
       <c r="B98" s="2">
-        <v>45538.39231481482</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C98" s="2">
-        <v>45540</v>
+        <v>45544</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G98">
-        <v>106.54</v>
+        <v>3.689</v>
       </c>
       <c r="H98">
-        <v>106.54</v>
+        <v>29.51</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>433626678</v>
+        <v>434162210</v>
       </c>
       <c r="B99" s="2">
-        <v>45538.391076388885</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C99" s="2">
-        <v>45539</v>
+        <v>45541</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
       </c>
       <c r="F99">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>0.90603</v>
+        <v>104.42</v>
       </c>
       <c r="H99">
-        <v>66.96</v>
+        <v>104.42</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>432518350</v>
+        <v>433696199</v>
       </c>
       <c r="B100" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C100" s="2">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="D100" t="s">
         <v>20</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100">
-        <v>120.88</v>
+        <v>110.122</v>
       </c>
       <c r="H100">
-        <v>120.88</v>
+        <v>110.12</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J100">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>432515426</v>
+        <v>433626785</v>
       </c>
       <c r="B101" s="2">
-        <v>45533.54127314815</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C101" s="2">
-        <v>45537</v>
+        <v>45540</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>106.34</v>
+        <v>106.54</v>
       </c>
       <c r="H101">
-        <v>106.34</v>
+        <v>106.54</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -3697,109 +3697,109 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>432005364</v>
+        <v>433626678</v>
       </c>
       <c r="B102" s="2">
-        <v>45532.39208333333</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C102" s="2">
-        <v>45534</v>
+        <v>45539</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
       </c>
       <c r="F102">
-        <v>32</v>
+        <v>73.9</v>
       </c>
       <c r="G102">
-        <v>3.632</v>
+        <v>0.90603</v>
       </c>
       <c r="H102">
-        <v>116.22</v>
+        <v>66.96</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>432003333</v>
+        <v>432518350</v>
       </c>
       <c r="B103" s="2">
-        <v>45532.363020833334</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C103" s="2">
-        <v>45534</v>
+        <v>45533</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>106.74</v>
+        <v>120.88</v>
       </c>
       <c r="H103">
-        <v>213.48</v>
+        <v>120.88</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>432003262</v>
+        <v>432515426</v>
       </c>
       <c r="B104" s="2">
-        <v>45532.361875</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C104" s="2">
-        <v>45533</v>
+        <v>45537</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
       </c>
       <c r="F104">
-        <v>618.74</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>0.89741</v>
+        <v>106.34</v>
       </c>
       <c r="H104">
-        <v>555.26</v>
+        <v>106.34</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>430366906</v>
+        <v>432005364</v>
       </c>
       <c r="B105" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C105" s="2">
-        <v>45532</v>
+        <v>45534</v>
       </c>
       <c r="D105" t="s">
         <v>18</v>
@@ -3808,141 +3808,141 @@
         <v>11</v>
       </c>
       <c r="F105">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G105">
-        <v>3.6305</v>
+        <v>3.632</v>
       </c>
       <c r="H105">
-        <v>10.89</v>
+        <v>116.22</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1.26</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>430365249</v>
+        <v>432003333</v>
       </c>
       <c r="B106" s="2">
-        <v>45527.27630787037</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C106" s="2">
-        <v>45530</v>
+        <v>45534</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
       </c>
       <c r="F106">
-        <v>4.63</v>
+        <v>2</v>
       </c>
       <c r="G106">
-        <v>0.8999</v>
+        <v>106.74</v>
       </c>
       <c r="H106">
-        <v>4.17</v>
+        <v>213.48</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>428453232</v>
+        <v>432003262</v>
       </c>
       <c r="B107" s="2">
-        <v>45523.56253472222</v>
+        <v>45532.361875</v>
       </c>
       <c r="C107" s="2">
-        <v>45524</v>
+        <v>45533</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>618.74</v>
       </c>
       <c r="G107">
-        <v>60.046</v>
+        <v>0.89741</v>
       </c>
       <c r="H107">
-        <v>60.05</v>
+        <v>555.26</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>428444212</v>
+        <v>430366906</v>
       </c>
       <c r="B108" s="2">
-        <v>45523.47152777778</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C108" s="2">
-        <v>45525</v>
+        <v>45532</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G108">
-        <v>105.3</v>
+        <v>3.6305</v>
       </c>
       <c r="H108">
-        <v>105.3</v>
+        <v>10.89</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>428437042</v>
+        <v>430365249</v>
       </c>
       <c r="B109" s="2">
-        <v>45523.37878472223</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C109" s="2">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
       </c>
       <c r="F109">
-        <v>7.15</v>
+        <v>4.63</v>
       </c>
       <c r="G109">
-        <v>0.90756</v>
+        <v>0.8999</v>
       </c>
       <c r="H109">
-        <v>6.49</v>
+        <v>4.17</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -3953,48 +3953,48 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>428437005</v>
+        <v>428453232</v>
       </c>
       <c r="B110" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C110" s="2">
         <v>45524</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
       </c>
       <c r="F110">
-        <v>150.15</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>0.90756</v>
+        <v>60.046</v>
       </c>
       <c r="H110">
-        <v>136.27</v>
+        <v>60.05</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>426418112</v>
+        <v>428444212</v>
       </c>
       <c r="B111" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C111" s="2">
-        <v>45519</v>
+        <v>45525</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -4003,10 +4003,10 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>102.02</v>
+        <v>105.3</v>
       </c>
       <c r="H111">
-        <v>102.02</v>
+        <v>105.3</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -4017,28 +4017,28 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>426417966</v>
+        <v>428437042</v>
       </c>
       <c r="B112" s="2">
-        <v>45517.58042824074</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C112" s="2">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
       <c r="F112">
-        <v>10.45</v>
+        <v>7.15</v>
       </c>
       <c r="G112">
-        <v>0.91439</v>
+        <v>0.90756</v>
       </c>
       <c r="H112">
-        <v>9.56</v>
+        <v>6.49</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -4049,28 +4049,28 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>426416264</v>
+        <v>428437005</v>
       </c>
       <c r="B113" s="2">
-        <v>45517.57699074074</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C113" s="2">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
       <c r="F113">
-        <v>4.86</v>
+        <v>150.15</v>
       </c>
       <c r="G113">
-        <v>0.91458</v>
+        <v>0.90756</v>
       </c>
       <c r="H113">
-        <v>4.44</v>
+        <v>136.27</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -4081,33 +4081,129 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
+        <v>426418112</v>
+      </c>
+      <c r="B114" s="2">
+        <v>45517.58078703703</v>
+      </c>
+      <c r="C114" s="2">
+        <v>45519</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>102.02</v>
+      </c>
+      <c r="H114">
+        <v>102.02</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>426417966</v>
+      </c>
+      <c r="B115" s="2">
+        <v>45517.58042824074</v>
+      </c>
+      <c r="C115" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115">
+        <v>10.45</v>
+      </c>
+      <c r="G115">
+        <v>0.91439</v>
+      </c>
+      <c r="H115">
+        <v>9.56</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>426416264</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45517.57699074074</v>
+      </c>
+      <c r="C116" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116">
+        <v>4.86</v>
+      </c>
+      <c r="G116">
+        <v>0.91458</v>
+      </c>
+      <c r="H116">
+        <v>4.44</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>426416183</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B117" s="2">
         <v>45517.576678240745</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C117" s="2">
         <v>45518</v>
       </c>
-      <c r="D114" t="s">
-        <v>13</v>
-      </c>
-      <c r="E114" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114">
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117">
         <v>102.05</v>
       </c>
-      <c r="G114">
+      <c r="G117">
         <v>0.91459</v>
       </c>
-      <c r="H114">
+      <c r="H117">
         <v>93.33</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
         <v>0</v>
       </c>
     </row>

--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="21">
   <si>
     <t>Number</t>
   </si>
@@ -43,16 +43,16 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>VUAA.EU</t>
+    <t>AETF.GR</t>
   </si>
   <si>
     <t xml:space="preserve"> Buy </t>
   </si>
   <si>
-    <t>USD/EUR</t>
+    <t>VUAA.EU</t>
   </si>
   <si>
-    <t>AETF.GR</t>
+    <t>USD/EUR</t>
   </si>
   <si>
     <t>EQAC.EU</t>
@@ -460,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J119"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -497,13 +497,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>589647638</v>
+        <v>591521660</v>
       </c>
       <c r="B2" s="2">
-        <v>45973.3719212963</v>
+        <v>45979.40392361111</v>
       </c>
       <c r="C2" s="2">
-        <v>45974.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -515,27 +515,27 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>131.88</v>
+        <v>51.58</v>
       </c>
       <c r="H2">
-        <v>131.88</v>
+        <v>51.58</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>589647623</v>
+        <v>591521571</v>
       </c>
       <c r="B3" s="2">
-        <v>45973.371666666666</v>
+        <v>45979.40299768519</v>
       </c>
       <c r="C3" s="2">
-        <v>45973.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -544,33 +544,33 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>138.34</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.86743</v>
+        <v>127.64</v>
       </c>
       <c r="H3">
-        <v>120</v>
+        <v>127.64</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>589647528</v>
+        <v>589647638</v>
       </c>
       <c r="B4" s="2">
-        <v>45973.37055555556</v>
+        <v>45973.3719212963</v>
       </c>
       <c r="C4" s="2">
         <v>45974.95833333333</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -579,27 +579,27 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.88</v>
+        <v>131.88</v>
       </c>
       <c r="H4">
-        <v>51.88</v>
+        <v>131.88</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>587179374</v>
+        <v>589647623</v>
       </c>
       <c r="B5" s="2">
-        <v>45965.315983796296</v>
+        <v>45973.371666666666</v>
       </c>
       <c r="C5" s="2">
-        <v>45966.95833333333</v>
+        <v>45973.95833333333</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -608,30 +608,30 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>138.34</v>
       </c>
       <c r="G5">
-        <v>50.67</v>
+        <v>0.86743</v>
       </c>
       <c r="H5">
-        <v>50.67</v>
+        <v>120</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>586793234</v>
+        <v>589647528</v>
       </c>
       <c r="B6" s="2">
-        <v>45964.60378472222</v>
+        <v>45973.37055555556</v>
       </c>
       <c r="C6" s="2">
-        <v>45965.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -643,62 +643,62 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>130.9</v>
+        <v>51.88</v>
       </c>
       <c r="H6">
-        <v>130.9</v>
+        <v>51.88</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>586792895</v>
+        <v>587179374</v>
       </c>
       <c r="B7" s="2">
-        <v>45964.60346064815</v>
+        <v>45965.315983796296</v>
       </c>
       <c r="C7" s="2">
-        <v>45964.95833333333</v>
+        <v>45966.95833333333</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7">
-        <v>286.74</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.87185</v>
+        <v>50.67</v>
       </c>
       <c r="H7">
-        <v>249.99</v>
+        <v>50.67</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>585309488</v>
+        <v>586793234</v>
       </c>
       <c r="B8" s="2">
-        <v>45959.31539351852</v>
+        <v>45964.60378472222</v>
       </c>
       <c r="C8" s="2">
-        <v>45960.95833333333</v>
+        <v>45965.95833333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -707,27 +707,27 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>51.01</v>
+        <v>130.9</v>
       </c>
       <c r="H8">
-        <v>51.01</v>
+        <v>130.9</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>581709074</v>
+        <v>586792895</v>
       </c>
       <c r="B9" s="2">
-        <v>45947.35291666667</v>
+        <v>45964.60346064815</v>
       </c>
       <c r="C9" s="2">
-        <v>45951</v>
+        <v>45964.95833333333</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -736,30 +736,30 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>286.74</v>
       </c>
       <c r="G9">
-        <v>49.61</v>
+        <v>0.87185</v>
       </c>
       <c r="H9">
-        <v>49.61</v>
+        <v>249.99</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>581709060</v>
+        <v>585309488</v>
       </c>
       <c r="B10" s="2">
-        <v>45947.35277777778</v>
+        <v>45959.31539351852</v>
       </c>
       <c r="C10" s="2">
-        <v>45951</v>
+        <v>45960.95833333333</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -771,30 +771,30 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>125.58</v>
+        <v>51.01</v>
       </c>
       <c r="H10">
-        <v>125.58</v>
+        <v>51.01</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>581269382</v>
+        <v>581709074</v>
       </c>
       <c r="B11" s="2">
-        <v>45946.41150462963</v>
+        <v>45947.35291666667</v>
       </c>
       <c r="C11" s="2">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -803,27 +803,27 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.94</v>
+        <v>49.61</v>
       </c>
       <c r="H11">
-        <v>50.94</v>
+        <v>49.61</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>580169893</v>
+        <v>581709060</v>
       </c>
       <c r="B12" s="2">
-        <v>45943.423321759255</v>
+        <v>45947.35277777778</v>
       </c>
       <c r="C12" s="2">
-        <v>45944</v>
+        <v>45951</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -832,33 +832,33 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>80.87</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8656</v>
+        <v>125.58</v>
       </c>
       <c r="H12">
-        <v>70</v>
+        <v>125.58</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>580169868</v>
+        <v>581269382</v>
       </c>
       <c r="B13" s="2">
-        <v>45943.42288194444</v>
+        <v>45946.41150462963</v>
       </c>
       <c r="C13" s="2">
-        <v>45945</v>
+        <v>45950</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -867,10 +867,10 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>53.65</v>
+        <v>50.94</v>
       </c>
       <c r="H13">
-        <v>53.65</v>
+        <v>50.94</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -881,45 +881,45 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>580169327</v>
+        <v>580169893</v>
       </c>
       <c r="B14" s="2">
-        <v>45943.41800925926</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C14" s="2">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>80.87</v>
       </c>
       <c r="G14">
-        <v>127.32</v>
+        <v>0.8656</v>
       </c>
       <c r="H14">
-        <v>127.32</v>
+        <v>70</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>579211549</v>
+        <v>580169868</v>
       </c>
       <c r="B15" s="2">
-        <v>45939.61756944444</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C15" s="2">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -931,42 +931,42 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.08</v>
+        <v>53.65</v>
       </c>
       <c r="H15">
-        <v>129.08</v>
+        <v>53.65</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>577313732</v>
+        <v>580169327</v>
       </c>
       <c r="B16" s="2">
-        <v>45933.56972222222</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C16" s="2">
-        <v>45937</v>
+        <v>45945</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>52.65</v>
+        <v>127.32</v>
       </c>
       <c r="H16">
-        <v>105.3</v>
+        <v>127.32</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -977,16 +977,16 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>576413456</v>
+        <v>579211549</v>
       </c>
       <c r="B17" s="2">
-        <v>45931.44907407407</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C17" s="2">
-        <v>45933</v>
+        <v>45943</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -995,62 +995,62 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>51.62</v>
+        <v>129.08</v>
       </c>
       <c r="H17">
-        <v>51.62</v>
+        <v>129.08</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>576410571</v>
+        <v>577313732</v>
       </c>
       <c r="B18" s="2">
-        <v>45931.43001157408</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C18" s="2">
-        <v>45932</v>
+        <v>45937</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18">
-        <v>116.85</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>0.85583</v>
+        <v>52.65</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>105.3</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>575554915</v>
+        <v>576413456</v>
       </c>
       <c r="B19" s="2">
-        <v>45929.452060185184</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C19" s="2">
-        <v>45931</v>
+        <v>45933</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1059,10 +1059,10 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>51.47</v>
+        <v>51.62</v>
       </c>
       <c r="H19">
-        <v>51.47</v>
+        <v>51.62</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1073,48 +1073,48 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>573400676</v>
+        <v>576410571</v>
       </c>
       <c r="B20" s="2">
-        <v>45922.33627314815</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C20" s="2">
-        <v>45924</v>
+        <v>45932</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G20">
-        <v>127.36</v>
+        <v>0.85583</v>
       </c>
       <c r="H20">
-        <v>127.36</v>
+        <v>100</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>573399341</v>
+        <v>575554915</v>
       </c>
       <c r="B21" s="2">
-        <v>45922.324120370366</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C21" s="2">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1123,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>51</v>
+        <v>51.47</v>
       </c>
       <c r="H21">
-        <v>51</v>
+        <v>51.47</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1137,13 +1137,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>568717926</v>
+        <v>573400676</v>
       </c>
       <c r="B22" s="2">
-        <v>45905.5246875</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C22" s="2">
-        <v>45908</v>
+        <v>45924</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1152,30 +1152,30 @@
         <v>11</v>
       </c>
       <c r="F22">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.85539</v>
+        <v>127.36</v>
       </c>
       <c r="H22">
-        <v>106.92</v>
+        <v>127.36</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>567931751</v>
+        <v>573399341</v>
       </c>
       <c r="B23" s="2">
-        <v>45903.333657407406</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C23" s="2">
-        <v>45905</v>
+        <v>45924</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -1187,42 +1187,42 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>123.16</v>
+        <v>51</v>
       </c>
       <c r="H23">
-        <v>123.16</v>
+        <v>51</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>566723916</v>
+        <v>568717926</v>
       </c>
       <c r="B24" s="2">
-        <v>45897.62657407408</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C24" s="2">
-        <v>45898</v>
+        <v>45908</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>290.69</v>
+        <v>125</v>
       </c>
       <c r="G24">
-        <v>0.86002</v>
+        <v>0.85539</v>
       </c>
       <c r="H24">
-        <v>250</v>
+        <v>106.92</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>564426812</v>
+        <v>567931751</v>
       </c>
       <c r="B25" s="2">
-        <v>45889.61331018519</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C25" s="2">
-        <v>45891</v>
+        <v>45905</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1251,10 +1251,10 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>121.62</v>
+        <v>123.16</v>
       </c>
       <c r="H25">
-        <v>121.62</v>
+        <v>123.16</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1265,28 +1265,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>564420621</v>
+        <v>566723916</v>
       </c>
       <c r="B26" s="2">
-        <v>45889.60018518519</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C26" s="2">
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
       <c r="F26">
-        <v>127.71</v>
+        <v>290.69</v>
       </c>
       <c r="G26">
-        <v>0.86135</v>
+        <v>0.86002</v>
       </c>
       <c r="H26">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>555657178</v>
+        <v>564426812</v>
       </c>
       <c r="B27" s="2">
-        <v>45859.48091435185</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C27" s="2">
-        <v>45860</v>
+        <v>45891</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -1312,126 +1312,126 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.85771</v>
+        <v>121.62</v>
       </c>
       <c r="H27">
-        <v>85.77</v>
+        <v>121.62</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>555654532</v>
+        <v>564420621</v>
       </c>
       <c r="B28" s="2">
-        <v>45859.465474537035</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C28" s="2">
-        <v>45861</v>
+        <v>45890</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>127.71</v>
       </c>
       <c r="G28">
-        <v>395</v>
+        <v>0.86135</v>
       </c>
       <c r="H28">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>551218217</v>
+        <v>555657178</v>
       </c>
       <c r="B29" s="2">
-        <v>45841.369837962964</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C29" s="2">
-        <v>45845</v>
+        <v>45860</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G29">
-        <v>119.16</v>
+        <v>0.85771</v>
       </c>
       <c r="H29">
-        <v>119.16</v>
+        <v>85.77</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>551216497</v>
+        <v>555654532</v>
       </c>
       <c r="B30" s="2">
-        <v>45841.35429398148</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C30" s="2">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.84741</v>
+        <v>395</v>
       </c>
       <c r="H30">
-        <v>169.48</v>
+        <v>395</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>549290062</v>
+        <v>551218217</v>
       </c>
       <c r="B31" s="2">
-        <v>45834.39111111111</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C31" s="2">
-        <v>45835</v>
+        <v>45845</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1440,77 +1440,77 @@
         <v>11</v>
       </c>
       <c r="F31">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.85337</v>
+        <v>119.16</v>
       </c>
       <c r="H31">
-        <v>99.84</v>
+        <v>119.16</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>546584060</v>
+        <v>551216497</v>
       </c>
       <c r="B32" s="2">
-        <v>45824.480104166665</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C32" s="2">
-        <v>45826</v>
+        <v>45845</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G32">
-        <v>114.8</v>
+        <v>0.84741</v>
       </c>
       <c r="H32">
-        <v>114.8</v>
+        <v>169.48</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>546583898</v>
+        <v>549290062</v>
       </c>
       <c r="B33" s="2">
-        <v>45824.47923611111</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C33" s="2">
-        <v>45825</v>
+        <v>45835</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
       <c r="F33">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G33">
-        <v>0.86376</v>
+        <v>0.85337</v>
       </c>
       <c r="H33">
-        <v>99.33</v>
+        <v>99.84</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>545459805</v>
+        <v>546584060</v>
       </c>
       <c r="B34" s="2">
-        <v>45819.41773148148</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C34" s="2">
-        <v>45820</v>
+        <v>45826</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -1536,77 +1536,77 @@
         <v>11</v>
       </c>
       <c r="F34">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.87444</v>
+        <v>114.8</v>
       </c>
       <c r="H34">
-        <v>43.72</v>
+        <v>114.8</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>542145647</v>
+        <v>546583898</v>
       </c>
       <c r="B35" s="2">
-        <v>45807.5672337963</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C35" s="2">
-        <v>45811</v>
+        <v>45825</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G35">
-        <v>112.4</v>
+        <v>0.86376</v>
       </c>
       <c r="H35">
-        <v>112.4</v>
+        <v>99.33</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>541352365</v>
+        <v>545459805</v>
       </c>
       <c r="B36" s="2">
-        <v>45805.594560185185</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C36" s="2">
-        <v>45806</v>
+        <v>45820</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36">
-        <v>169.82</v>
+        <v>50</v>
       </c>
       <c r="G36">
-        <v>0.88332</v>
+        <v>0.87444</v>
       </c>
       <c r="H36">
-        <v>150.01</v>
+        <v>43.72</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>540397794</v>
+        <v>542145647</v>
       </c>
       <c r="B37" s="2">
-        <v>45800.4953125</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C37" s="2">
-        <v>45805</v>
+        <v>45811</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1635,42 +1635,42 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>110.1385</v>
+        <v>112.4</v>
       </c>
       <c r="H37">
-        <v>110.14</v>
+        <v>112.4</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>539546182</v>
+        <v>541352365</v>
       </c>
       <c r="B38" s="2">
-        <v>45798.38793981481</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C38" s="2">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
       </c>
       <c r="F38">
-        <v>100</v>
+        <v>169.82</v>
       </c>
       <c r="G38">
-        <v>0.88321</v>
+        <v>0.88332</v>
       </c>
       <c r="H38">
-        <v>88.32</v>
+        <v>150.01</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1681,16 +1681,16 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>530748416</v>
+        <v>540397794</v>
       </c>
       <c r="B39" s="2">
-        <v>45777.621458333335</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C39" s="2">
-        <v>45779</v>
+        <v>45805</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1699,42 +1699,42 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>327.9</v>
+        <v>110.1385</v>
       </c>
       <c r="H39">
-        <v>327.9</v>
+        <v>110.14</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>530748345</v>
+        <v>539546182</v>
       </c>
       <c r="B40" s="2">
-        <v>45777.62107638889</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C40" s="2">
-        <v>45778</v>
+        <v>45799</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G40">
-        <v>0.88043</v>
+        <v>0.88321</v>
       </c>
       <c r="H40">
-        <v>26.41</v>
+        <v>88.32</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1745,60 +1745,60 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>530748166</v>
+        <v>530748416</v>
       </c>
       <c r="B41" s="2">
-        <v>45777.62068287037</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C41" s="2">
-        <v>45778</v>
+        <v>45779</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0.8804</v>
+        <v>327.9</v>
       </c>
       <c r="H41">
-        <v>264.12</v>
+        <v>327.9</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>528304116</v>
+        <v>530748345</v>
       </c>
       <c r="B42" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C42" s="2">
-        <v>45772</v>
+        <v>45778</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G42">
-        <v>0.87843</v>
+        <v>0.88043</v>
       </c>
       <c r="H42">
-        <v>74.67</v>
+        <v>26.41</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1809,60 +1809,60 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>525384379</v>
+        <v>530748166</v>
       </c>
       <c r="B43" s="2">
-        <v>45763.63711805556</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C43" s="2">
-        <v>45769</v>
+        <v>45778</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G43">
-        <v>101.9</v>
+        <v>0.8804</v>
       </c>
       <c r="H43">
-        <v>101.9</v>
+        <v>264.12</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>525383965</v>
+        <v>528304116</v>
       </c>
       <c r="B44" s="2">
-        <v>45763.634826388894</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C44" s="2">
-        <v>45764</v>
+        <v>45772</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G44">
-        <v>0.87888</v>
+        <v>0.87843</v>
       </c>
       <c r="H44">
-        <v>65.92</v>
+        <v>74.67</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -1873,16 +1873,16 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>521135744</v>
+        <v>525384379</v>
       </c>
       <c r="B45" s="2">
-        <v>45754.608506944445</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C45" s="2">
-        <v>45756</v>
+        <v>45769</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -1891,10 +1891,10 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>95</v>
+        <v>101.9</v>
       </c>
       <c r="H45">
-        <v>95</v>
+        <v>101.9</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -1905,28 +1905,28 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>521115122</v>
+        <v>525383965</v>
       </c>
       <c r="B46" s="2">
-        <v>45754.593506944446</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C46" s="2">
-        <v>45755</v>
+        <v>45764</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>109.66</v>
+        <v>75</v>
       </c>
       <c r="G46">
-        <v>0.91206</v>
+        <v>0.87888</v>
       </c>
       <c r="H46">
-        <v>100.02</v>
+        <v>65.92</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>519105737</v>
+        <v>521135744</v>
       </c>
       <c r="B47" s="2">
-        <v>45749.575324074074</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C47" s="2">
-        <v>45751</v>
+        <v>45756</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1955,42 +1955,42 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>330.5499</v>
+        <v>95</v>
       </c>
       <c r="H47">
-        <v>330.55</v>
+        <v>95</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1.97</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>519105619</v>
+        <v>521115122</v>
       </c>
       <c r="B48" s="2">
-        <v>45749.575115740736</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C48" s="2">
-        <v>45750</v>
+        <v>45755</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48">
-        <v>330</v>
+        <v>109.66</v>
       </c>
       <c r="G48">
-        <v>0.92423</v>
+        <v>0.91206</v>
       </c>
       <c r="H48">
-        <v>305</v>
+        <v>100.02</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2001,16 +2001,16 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>518501268</v>
+        <v>519105737</v>
       </c>
       <c r="B49" s="2">
-        <v>45748.342511574076</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C49" s="2">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -2019,42 +2019,42 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>106.7</v>
+        <v>330.5499</v>
       </c>
       <c r="H49">
-        <v>106.7</v>
+        <v>330.55</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1.46</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>518501204</v>
+        <v>519105619</v>
       </c>
       <c r="B50" s="2">
-        <v>45748.342199074075</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C50" s="2">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>118.85</v>
+        <v>330</v>
       </c>
       <c r="G50">
-        <v>0.92553</v>
+        <v>0.92423</v>
       </c>
       <c r="H50">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2065,16 +2065,16 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>510327986</v>
+        <v>518501268</v>
       </c>
       <c r="B51" s="2">
-        <v>45728.454201388886</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C51" s="2">
-        <v>45729.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -2083,10 +2083,10 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="H51">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2097,28 +2097,28 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>510326670</v>
+        <v>518501204</v>
       </c>
       <c r="B52" s="2">
-        <v>45728.43972222222</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C52" s="2">
-        <v>45728.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>114.54</v>
+        <v>118.85</v>
       </c>
       <c r="G52">
-        <v>0.91668</v>
+        <v>0.92553</v>
       </c>
       <c r="H52">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2129,16 +2129,16 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>506086900</v>
+        <v>510327986</v>
       </c>
       <c r="B53" s="2">
-        <v>45719.31646990741</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C53" s="2">
-        <v>45720.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -2147,42 +2147,42 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>355.9998</v>
+        <v>107</v>
       </c>
       <c r="H53">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>2.07</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>506086612</v>
+        <v>510326670</v>
       </c>
       <c r="B54" s="2">
-        <v>45719.31418981482</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C54" s="2">
-        <v>45719.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>9.74</v>
+        <v>114.54</v>
       </c>
       <c r="G54">
-        <v>0.96213</v>
+        <v>0.91668</v>
       </c>
       <c r="H54">
-        <v>9.37</v>
+        <v>105</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2193,60 +2193,60 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>506084312</v>
+        <v>506086900</v>
       </c>
       <c r="B55" s="2">
-        <v>45719.29939814815</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C55" s="2">
-        <v>45719.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
       </c>
       <c r="F55">
-        <v>204.2</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>0.96116</v>
+        <v>355.9998</v>
       </c>
       <c r="H55">
-        <v>196.27</v>
+        <v>356</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>505408659</v>
+        <v>506086612</v>
       </c>
       <c r="B56" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C56" s="2">
-        <v>45718.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>129.21</v>
+        <v>9.74</v>
       </c>
       <c r="G56">
-        <v>0.96171</v>
+        <v>0.96213</v>
       </c>
       <c r="H56">
-        <v>124.26</v>
+        <v>9.37</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2257,60 +2257,60 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>503618898</v>
+        <v>506084312</v>
       </c>
       <c r="B57" s="2">
-        <v>45713.606828703705</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C57" s="2">
-        <v>45714.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>204.2</v>
       </c>
       <c r="G57">
-        <v>112.86</v>
+        <v>0.96116</v>
       </c>
       <c r="H57">
-        <v>112.86</v>
+        <v>196.27</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>503618686</v>
+        <v>505408659</v>
       </c>
       <c r="B58" s="2">
-        <v>45713.60653935185</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C58" s="2">
-        <v>45713.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>120</v>
+        <v>129.21</v>
       </c>
       <c r="G58">
-        <v>0.9511</v>
+        <v>0.96171</v>
       </c>
       <c r="H58">
-        <v>114.13</v>
+        <v>124.26</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2321,16 +2321,16 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>499625741</v>
+        <v>503618898</v>
       </c>
       <c r="B59" s="2">
-        <v>45702.56398148148</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C59" s="2">
-        <v>45705.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -2339,42 +2339,42 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>375.25</v>
+        <v>112.86</v>
       </c>
       <c r="H59">
-        <v>375.25</v>
+        <v>112.86</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>2.11</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>499590185</v>
+        <v>503618686</v>
       </c>
       <c r="B60" s="2">
-        <v>45702.36454861111</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C60" s="2">
-        <v>45705.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>20.96</v>
+        <v>120</v>
       </c>
       <c r="G60">
-        <v>0.95429</v>
+        <v>0.9511</v>
       </c>
       <c r="H60">
-        <v>20</v>
+        <v>114.13</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2385,92 +2385,92 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>498403616</v>
+        <v>499625741</v>
       </c>
       <c r="B61" s="2">
-        <v>45700.59783564815</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C61" s="2">
-        <v>45700.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61">
-        <v>103.4</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>0.96693</v>
+        <v>375.25</v>
       </c>
       <c r="H61">
-        <v>99.98</v>
+        <v>375.25</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>494107867</v>
+        <v>499590185</v>
       </c>
       <c r="B62" s="2">
-        <v>45691.58335648148</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C62" s="2">
-        <v>45692.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>20.96</v>
       </c>
       <c r="G62">
-        <v>112.9</v>
+        <v>0.95429</v>
       </c>
       <c r="H62">
-        <v>112.9</v>
+        <v>20</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>494049655</v>
+        <v>498403616</v>
       </c>
       <c r="B63" s="2">
-        <v>45691.31773148148</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C63" s="2">
-        <v>45691.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="F63">
-        <v>307.46</v>
+        <v>103.4</v>
       </c>
       <c r="G63">
-        <v>0.97578</v>
+        <v>0.96693</v>
       </c>
       <c r="H63">
-        <v>300.01</v>
+        <v>99.98</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2481,16 +2481,16 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>494049572</v>
+        <v>494107867</v>
       </c>
       <c r="B64" s="2">
-        <v>45691.31670138889</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C64" s="2">
         <v>45692.95833333333</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -2499,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>113.34</v>
+        <v>112.9</v>
       </c>
       <c r="H64">
-        <v>113.34</v>
+        <v>112.9</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2513,45 +2513,45 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>493368805</v>
+        <v>494049655</v>
       </c>
       <c r="B65" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C65" s="2">
         <v>45691.95833333333</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>307.46</v>
       </c>
       <c r="G65">
-        <v>115.9</v>
+        <v>0.97578</v>
       </c>
       <c r="H65">
-        <v>231.8</v>
+        <v>300.01</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>492836969</v>
+        <v>494049572</v>
       </c>
       <c r="B66" s="2">
-        <v>45687.621666666666</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C66" s="2">
-        <v>45687.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -2560,77 +2560,77 @@
         <v>11</v>
       </c>
       <c r="F66">
-        <v>417.21</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>0.95874</v>
+        <v>113.34</v>
       </c>
       <c r="H66">
-        <v>400</v>
+        <v>113.34</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>491075870</v>
+        <v>493368805</v>
       </c>
       <c r="B67" s="2">
-        <v>45684.61530092593</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C67" s="2">
-        <v>45685.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67">
-        <v>114.4</v>
+        <v>115.9</v>
       </c>
       <c r="H67">
-        <v>114.4</v>
+        <v>231.8</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>491075618</v>
+        <v>492836969</v>
       </c>
       <c r="B68" s="2">
-        <v>45684.61476851851</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C68" s="2">
-        <v>45684.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68">
-        <v>115.46</v>
+        <v>417.21</v>
       </c>
       <c r="G68">
-        <v>0.95269</v>
+        <v>0.95874</v>
       </c>
       <c r="H68">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>483911545</v>
+        <v>491075870</v>
       </c>
       <c r="B69" s="2">
-        <v>45665.44930555555</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C69" s="2">
-        <v>45666.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -2659,42 +2659,42 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>360.35</v>
+        <v>114.4</v>
       </c>
       <c r="H69">
-        <v>360.35</v>
+        <v>114.4</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>483911481</v>
+        <v>491075618</v>
       </c>
       <c r="B70" s="2">
-        <v>45665.44840277778</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C70" s="2">
-        <v>45666.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70">
-        <v>365</v>
+        <v>115.46</v>
       </c>
       <c r="G70">
-        <v>0.97183</v>
+        <v>0.95269</v>
       </c>
       <c r="H70">
-        <v>354.72</v>
+        <v>110</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2705,60 +2705,60 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>481235383</v>
+        <v>483911545</v>
       </c>
       <c r="B71" s="2">
-        <v>45660.337430555555</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C71" s="2">
-        <v>45663.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>112</v>
+        <v>360.35</v>
       </c>
       <c r="H71">
-        <v>224</v>
+        <v>360.35</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1.76</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>481235152</v>
+        <v>483911481</v>
       </c>
       <c r="B72" s="2">
-        <v>45660.33241898148</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C72" s="2">
-        <v>45662.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72">
-        <v>226.2</v>
+        <v>365</v>
       </c>
       <c r="G72">
-        <v>0.97259</v>
+        <v>0.97183</v>
       </c>
       <c r="H72">
-        <v>220</v>
+        <v>354.72</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2769,60 +2769,60 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>476674643</v>
+        <v>481235383</v>
       </c>
       <c r="B73" s="2">
-        <v>45646.40855324074</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C73" s="2">
-        <v>45652.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73">
-        <v>355.4</v>
+        <v>112</v>
       </c>
       <c r="H73">
-        <v>355.4</v>
+        <v>224</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>476674604</v>
+        <v>481235152</v>
       </c>
       <c r="B74" s="2">
-        <v>45646.408437499995</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C74" s="2">
-        <v>45648.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74">
-        <v>215</v>
+        <v>226.2</v>
       </c>
       <c r="G74">
-        <v>0.96264</v>
+        <v>0.97259</v>
       </c>
       <c r="H74">
-        <v>206.97</v>
+        <v>220</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -2833,60 +2833,60 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>476670294</v>
+        <v>476674643</v>
       </c>
       <c r="B75" s="2">
-        <v>45646.38765046296</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C75" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75">
-        <v>51.32</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0.96299</v>
+        <v>355.4</v>
       </c>
       <c r="H75">
-        <v>49.42</v>
+        <v>355.4</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>476669731</v>
+        <v>476674604</v>
       </c>
       <c r="B76" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C76" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
       </c>
       <c r="F76">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="G76">
-        <v>0.96251</v>
+        <v>0.96264</v>
       </c>
       <c r="H76">
-        <v>57.75</v>
+        <v>206.97</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2897,60 +2897,60 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>476123556</v>
+        <v>476670294</v>
       </c>
       <c r="B77" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C77" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>51.32</v>
       </c>
       <c r="G77">
-        <v>112.54</v>
+        <v>0.96299</v>
       </c>
       <c r="H77">
-        <v>112.54</v>
+        <v>49.42</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>476123515</v>
+        <v>476669731</v>
       </c>
       <c r="B78" s="2">
-        <v>45645.52649305556</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C78" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G78">
-        <v>0.96108</v>
+        <v>0.96251</v>
       </c>
       <c r="H78">
-        <v>96.11</v>
+        <v>57.75</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2961,112 +2961,112 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>471357479</v>
+        <v>476123556</v>
       </c>
       <c r="B79" s="2">
-        <v>45635.56259259259</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C79" s="2">
-        <v>45635.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>8.3412</v>
+        <v>112.54</v>
       </c>
       <c r="H79">
-        <v>8.34</v>
+        <v>112.54</v>
       </c>
       <c r="I79">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>466623419</v>
+        <v>476123515</v>
       </c>
       <c r="B80" s="2">
-        <v>45622.31217592592</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C80" s="2">
-        <v>45624.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G80">
-        <v>354.5</v>
+        <v>0.96108</v>
       </c>
       <c r="H80">
-        <v>354.5</v>
+        <v>96.11</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>2.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>466623402</v>
+        <v>471357479</v>
       </c>
       <c r="B81" s="2">
-        <v>45622.31188657407</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C81" s="2">
-        <v>45622.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F81">
-        <v>141.78</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>0.95389</v>
+        <v>8.3412</v>
       </c>
       <c r="H81">
-        <v>135.24</v>
+        <v>8.34</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>462598648</v>
+        <v>466623419</v>
       </c>
       <c r="B82" s="2">
-        <v>45611.592997685184</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C82" s="2">
-        <v>45614.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -3075,59 +3075,59 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>111.8099</v>
+        <v>354.5</v>
       </c>
       <c r="H82">
-        <v>111.81</v>
+        <v>354.5</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>1.47</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>460084933</v>
+        <v>466623402</v>
       </c>
       <c r="B83" s="2">
-        <v>45604.62016203704</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C83" s="2">
-        <v>45607.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>141.78</v>
       </c>
       <c r="G83">
-        <v>8.3836</v>
+        <v>0.95389</v>
       </c>
       <c r="H83">
-        <v>8.38</v>
+        <v>135.24</v>
       </c>
       <c r="I83">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>458847628</v>
+        <v>462598648</v>
       </c>
       <c r="B84" s="2">
-        <v>45602.26765046296</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C84" s="2">
-        <v>45602.95833333333</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -3136,77 +3136,77 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>341.65</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0.93077</v>
+        <v>111.8099</v>
       </c>
       <c r="H84">
-        <v>318</v>
+        <v>111.81</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>449590057</v>
+        <v>460084933</v>
       </c>
       <c r="B85" s="2">
-        <v>45579.62847222222</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C85" s="2">
-        <v>45581</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
-        <v>110.9161</v>
+        <v>8.3836</v>
       </c>
       <c r="H85">
-        <v>110.92</v>
+        <v>8.38</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J85">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>449589875</v>
+        <v>458847628</v>
       </c>
       <c r="B86" s="2">
-        <v>45579.628125</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C86" s="2">
-        <v>45580</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
       </c>
       <c r="F86">
-        <v>35</v>
+        <v>341.65</v>
       </c>
       <c r="G86">
-        <v>0.91628</v>
+        <v>0.93077</v>
       </c>
       <c r="H86">
-        <v>32.07</v>
+        <v>318</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>449589083</v>
+        <v>449590057</v>
       </c>
       <c r="B87" s="2">
-        <v>45579.62637731481</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C87" s="2">
         <v>45581</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>110.9196</v>
+        <v>110.9161</v>
       </c>
       <c r="H87">
         <v>110.92</v>
@@ -3249,48 +3249,48 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>449588246</v>
+        <v>449589875</v>
       </c>
       <c r="B88" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.628125</v>
       </c>
       <c r="C88" s="2">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F88">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G88">
-        <v>3.4715</v>
+        <v>0.91628</v>
       </c>
       <c r="H88">
-        <v>149.27</v>
+        <v>32.07</v>
       </c>
       <c r="I88">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>445429841</v>
+        <v>449589083</v>
       </c>
       <c r="B89" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C89" s="2">
-        <v>45572</v>
+        <v>45581</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
@@ -3299,62 +3299,62 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>337.65</v>
+        <v>110.9196</v>
       </c>
       <c r="H89">
-        <v>337.65</v>
+        <v>110.92</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>445429174</v>
+        <v>449588246</v>
       </c>
       <c r="B90" s="2">
-        <v>45568.57231481481</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C90" s="2">
-        <v>45569</v>
+        <v>45581</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F90">
-        <v>369.23</v>
+        <v>43</v>
       </c>
       <c r="G90">
-        <v>0.90605</v>
+        <v>3.4715</v>
       </c>
       <c r="H90">
-        <v>334.54</v>
+        <v>149.27</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>444353954</v>
+        <v>445429841</v>
       </c>
       <c r="B91" s="2">
-        <v>45566.58853009259</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C91" s="2">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -3363,42 +3363,42 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>108.24</v>
+        <v>337.65</v>
       </c>
       <c r="H91">
-        <v>108.24</v>
+        <v>337.65</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1.45</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>444310921</v>
+        <v>445429174</v>
       </c>
       <c r="B92" s="2">
-        <v>45566.29953703703</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C92" s="2">
-        <v>45567</v>
+        <v>45569</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92">
-        <v>60.56</v>
+        <v>369.23</v>
       </c>
       <c r="G92">
-        <v>0.89984</v>
+        <v>0.90605</v>
       </c>
       <c r="H92">
-        <v>54.49</v>
+        <v>334.54</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -3409,109 +3409,109 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>439936166</v>
+        <v>444353954</v>
       </c>
       <c r="B93" s="2">
-        <v>45554.56259259259</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C93" s="2">
-        <v>45555</v>
+        <v>45568</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93">
-        <v>62.0726</v>
+        <v>108.24</v>
       </c>
       <c r="H93">
-        <v>62.07</v>
+        <v>108.24</v>
       </c>
       <c r="I93">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>435165980</v>
+        <v>444310921</v>
       </c>
       <c r="B94" s="2">
-        <v>45541.475370370375</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C94" s="2">
-        <v>45545</v>
+        <v>45567</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>60.56</v>
       </c>
       <c r="G94">
-        <v>103.72</v>
+        <v>0.89984</v>
       </c>
       <c r="H94">
-        <v>103.72</v>
+        <v>54.49</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>435165968</v>
+        <v>439936166</v>
       </c>
       <c r="B95" s="2">
-        <v>45541.47508101852</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C95" s="2">
-        <v>45544</v>
+        <v>45555</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F95">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>0.9011</v>
+        <v>62.0726</v>
       </c>
       <c r="H95">
-        <v>0.19</v>
+        <v>62.07</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>435165951</v>
+        <v>435165980</v>
       </c>
       <c r="B96" s="2">
-        <v>45541.47487268518</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C96" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -3520,45 +3520,45 @@
         <v>11</v>
       </c>
       <c r="F96">
-        <v>4.42</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>0.90109</v>
+        <v>103.72</v>
       </c>
       <c r="H96">
-        <v>3.98</v>
+        <v>103.72</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>435165927</v>
+        <v>435165968</v>
       </c>
       <c r="B97" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C97" s="2">
         <v>45544</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
       </c>
       <c r="F97">
-        <v>92.77</v>
+        <v>0.21</v>
       </c>
       <c r="G97">
-        <v>0.90109</v>
+        <v>0.9011</v>
       </c>
       <c r="H97">
-        <v>83.59</v>
+        <v>0.19</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -3569,112 +3569,112 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>434675474</v>
+        <v>435165951</v>
       </c>
       <c r="B98" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C98" s="2">
         <v>45544</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
       <c r="F98">
-        <v>8</v>
+        <v>4.42</v>
       </c>
       <c r="G98">
-        <v>3.689</v>
+        <v>0.90109</v>
       </c>
       <c r="H98">
-        <v>29.51</v>
+        <v>3.98</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>434162210</v>
+        <v>435165927</v>
       </c>
       <c r="B99" s="2">
-        <v>45539.43609953704</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C99" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>92.77</v>
       </c>
       <c r="G99">
-        <v>104.42</v>
+        <v>0.90109</v>
       </c>
       <c r="H99">
-        <v>104.42</v>
+        <v>83.59</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>433696199</v>
+        <v>434675474</v>
       </c>
       <c r="B100" s="2">
-        <v>45538.68898148148</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C100" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="D100" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G100">
-        <v>110.122</v>
+        <v>3.689</v>
       </c>
       <c r="H100">
-        <v>110.12</v>
+        <v>29.51</v>
       </c>
       <c r="I100">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>433626785</v>
+        <v>434162210</v>
       </c>
       <c r="B101" s="2">
-        <v>45538.39231481482</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C101" s="2">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>106.54</v>
+        <v>104.42</v>
       </c>
       <c r="H101">
-        <v>106.54</v>
+        <v>104.42</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -3697,48 +3697,48 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>433626678</v>
+        <v>433696199</v>
       </c>
       <c r="B102" s="2">
-        <v>45538.391076388885</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C102" s="2">
         <v>45539</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F102">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>0.90603</v>
+        <v>110.122</v>
       </c>
       <c r="H102">
-        <v>66.96</v>
+        <v>110.12</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>432518350</v>
+        <v>433626785</v>
       </c>
       <c r="B103" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C103" s="2">
-        <v>45533</v>
+        <v>45540</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
@@ -3747,202 +3747,202 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <v>120.88</v>
+        <v>106.54</v>
       </c>
       <c r="H103">
-        <v>120.88</v>
+        <v>106.54</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>432515426</v>
+        <v>433626678</v>
       </c>
       <c r="B104" s="2">
-        <v>45533.54127314815</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C104" s="2">
-        <v>45537</v>
+        <v>45539</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>73.9</v>
       </c>
       <c r="G104">
-        <v>106.34</v>
+        <v>0.90603</v>
       </c>
       <c r="H104">
-        <v>106.34</v>
+        <v>66.96</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>432005364</v>
+        <v>432518350</v>
       </c>
       <c r="B105" s="2">
-        <v>45532.39208333333</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C105" s="2">
-        <v>45534</v>
+        <v>45533</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
       </c>
       <c r="F105">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>3.632</v>
+        <v>120.88</v>
       </c>
       <c r="H105">
-        <v>116.22</v>
+        <v>120.88</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>432003333</v>
+        <v>432515426</v>
       </c>
       <c r="B106" s="2">
-        <v>45532.363020833334</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C106" s="2">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>106.74</v>
+        <v>106.34</v>
       </c>
       <c r="H106">
-        <v>213.48</v>
+        <v>106.34</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>432003262</v>
+        <v>432005364</v>
       </c>
       <c r="B107" s="2">
-        <v>45532.361875</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C107" s="2">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
       </c>
       <c r="F107">
-        <v>618.74</v>
+        <v>32</v>
       </c>
       <c r="G107">
-        <v>0.89741</v>
+        <v>3.632</v>
       </c>
       <c r="H107">
-        <v>555.26</v>
+        <v>116.22</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>430366906</v>
+        <v>432003333</v>
       </c>
       <c r="B108" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C108" s="2">
-        <v>45532</v>
+        <v>45534</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>3.6305</v>
+        <v>106.74</v>
       </c>
       <c r="H108">
-        <v>10.89</v>
+        <v>213.48</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1.26</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>430365249</v>
+        <v>432003262</v>
       </c>
       <c r="B109" s="2">
-        <v>45527.27630787037</v>
+        <v>45532.361875</v>
       </c>
       <c r="C109" s="2">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
       </c>
       <c r="F109">
-        <v>4.63</v>
+        <v>618.74</v>
       </c>
       <c r="G109">
-        <v>0.8999</v>
+        <v>0.89741</v>
       </c>
       <c r="H109">
-        <v>4.17</v>
+        <v>555.26</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -3953,109 +3953,109 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>428453232</v>
+        <v>430366906</v>
       </c>
       <c r="B110" s="2">
-        <v>45523.56253472222</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C110" s="2">
-        <v>45524</v>
+        <v>45532</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G110">
-        <v>60.046</v>
+        <v>3.6305</v>
       </c>
       <c r="H110">
-        <v>60.05</v>
+        <v>10.89</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>428444212</v>
+        <v>430365249</v>
       </c>
       <c r="B111" s="2">
-        <v>45523.47152777778</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C111" s="2">
-        <v>45525</v>
+        <v>45530</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>4.63</v>
       </c>
       <c r="G111">
-        <v>105.3</v>
+        <v>0.8999</v>
       </c>
       <c r="H111">
-        <v>105.3</v>
+        <v>4.17</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>428437042</v>
+        <v>428453232</v>
       </c>
       <c r="B112" s="2">
-        <v>45523.37878472223</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C112" s="2">
         <v>45524</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
       <c r="F112">
-        <v>7.15</v>
+        <v>1</v>
       </c>
       <c r="G112">
-        <v>0.90756</v>
+        <v>60.046</v>
       </c>
       <c r="H112">
-        <v>6.49</v>
+        <v>60.05</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>428437005</v>
+        <v>428444212</v>
       </c>
       <c r="B113" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C113" s="2">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
@@ -4064,77 +4064,77 @@
         <v>11</v>
       </c>
       <c r="F113">
-        <v>150.15</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>0.90756</v>
+        <v>105.3</v>
       </c>
       <c r="H113">
-        <v>136.27</v>
+        <v>105.3</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>426418112</v>
+        <v>428437042</v>
       </c>
       <c r="B114" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C114" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>7.15</v>
       </c>
       <c r="G114">
-        <v>102.02</v>
+        <v>0.90756</v>
       </c>
       <c r="H114">
-        <v>102.02</v>
+        <v>6.49</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>426417966</v>
+        <v>428437005</v>
       </c>
       <c r="B115" s="2">
-        <v>45517.58042824074</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C115" s="2">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
       </c>
       <c r="F115">
-        <v>10.45</v>
+        <v>150.15</v>
       </c>
       <c r="G115">
-        <v>0.91439</v>
+        <v>0.90756</v>
       </c>
       <c r="H115">
-        <v>9.56</v>
+        <v>136.27</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -4145,13 +4145,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>426416264</v>
+        <v>426418112</v>
       </c>
       <c r="B116" s="2">
-        <v>45517.57699074074</v>
+        <v>45517.58078703703</v>
       </c>
       <c r="C116" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
@@ -4160,50 +4160,114 @@
         <v>11</v>
       </c>
       <c r="F116">
-        <v>4.86</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>0.91458</v>
+        <v>102.02</v>
       </c>
       <c r="H116">
-        <v>4.44</v>
+        <v>102.02</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>426416183</v>
+        <v>426417966</v>
       </c>
       <c r="B117" s="2">
-        <v>45517.576678240745</v>
+        <v>45517.58042824074</v>
       </c>
       <c r="C117" s="2">
         <v>45518</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
       <c r="F117">
+        <v>10.45</v>
+      </c>
+      <c r="G117">
+        <v>0.91439</v>
+      </c>
+      <c r="H117">
+        <v>9.56</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>426416264</v>
+      </c>
+      <c r="B118" s="2">
+        <v>45517.57699074074</v>
+      </c>
+      <c r="C118" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118">
+        <v>4.86</v>
+      </c>
+      <c r="G118">
+        <v>0.91458</v>
+      </c>
+      <c r="H118">
+        <v>4.44</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>426416183</v>
+      </c>
+      <c r="B119" s="2">
+        <v>45517.576678240745</v>
+      </c>
+      <c r="C119" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119">
         <v>102.05</v>
       </c>
-      <c r="G117">
+      <c r="G119">
         <v>0.91459</v>
       </c>
-      <c r="H117">
+      <c r="H119">
         <v>93.33</v>
       </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
         <v>0</v>
       </c>
     </row>

--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="21">
   <si>
     <t>Number</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>AETF.GR</t>
+    <t>USD/EUR</t>
   </si>
   <si>
     <t xml:space="preserve"> Buy </t>
@@ -52,7 +52,7 @@
     <t>VUAA.EU</t>
   </si>
   <si>
-    <t>USD/EUR</t>
+    <t>AETF.GR</t>
   </si>
   <si>
     <t>EQAC.EU</t>
@@ -460,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J121"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -497,13 +497,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>591521660</v>
+        <v>592858794</v>
       </c>
       <c r="B2" s="2">
-        <v>45979.40392361111</v>
+        <v>45982.31758101852</v>
       </c>
       <c r="C2" s="2">
-        <v>45980.95833333333</v>
+        <v>45984.95833333333</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -512,30 +512,30 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>138.08</v>
       </c>
       <c r="G2">
-        <v>51.58</v>
+        <v>0.86907</v>
       </c>
       <c r="H2">
-        <v>51.58</v>
+        <v>120</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>591521571</v>
+        <v>592858764</v>
       </c>
       <c r="B3" s="2">
-        <v>45979.40299768519</v>
+        <v>45982.31736111111</v>
       </c>
       <c r="C3" s="2">
-        <v>45980.95833333333</v>
+        <v>45985.95833333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -547,10 +547,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>127.64</v>
+        <v>125.7</v>
       </c>
       <c r="H3">
-        <v>127.64</v>
+        <v>125.7</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -561,16 +561,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>589647638</v>
+        <v>591521660</v>
       </c>
       <c r="B4" s="2">
-        <v>45973.3719212963</v>
+        <v>45979.40392361111</v>
       </c>
       <c r="C4" s="2">
-        <v>45974.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -579,62 +579,62 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>131.88</v>
+        <v>51.58</v>
       </c>
       <c r="H4">
-        <v>131.88</v>
+        <v>51.58</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>589647623</v>
+        <v>591521571</v>
       </c>
       <c r="B5" s="2">
-        <v>45973.371666666666</v>
+        <v>45979.40299768519</v>
       </c>
       <c r="C5" s="2">
-        <v>45973.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5">
-        <v>138.34</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.86743</v>
+        <v>127.64</v>
       </c>
       <c r="H5">
-        <v>120</v>
+        <v>127.64</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>589647528</v>
+        <v>589647638</v>
       </c>
       <c r="B6" s="2">
-        <v>45973.37055555556</v>
+        <v>45973.3719212963</v>
       </c>
       <c r="C6" s="2">
         <v>45974.95833333333</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -643,27 +643,27 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.88</v>
+        <v>131.88</v>
       </c>
       <c r="H6">
-        <v>51.88</v>
+        <v>131.88</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>587179374</v>
+        <v>589647623</v>
       </c>
       <c r="B7" s="2">
-        <v>45965.315983796296</v>
+        <v>45973.371666666666</v>
       </c>
       <c r="C7" s="2">
-        <v>45966.95833333333</v>
+        <v>45973.95833333333</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -672,33 +672,33 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>138.34</v>
       </c>
       <c r="G7">
-        <v>50.67</v>
+        <v>0.86743</v>
       </c>
       <c r="H7">
-        <v>50.67</v>
+        <v>120</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>586793234</v>
+        <v>589647528</v>
       </c>
       <c r="B8" s="2">
-        <v>45964.60378472222</v>
+        <v>45973.37055555556</v>
       </c>
       <c r="C8" s="2">
-        <v>45965.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -707,27 +707,27 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>130.9</v>
+        <v>51.88</v>
       </c>
       <c r="H8">
-        <v>130.9</v>
+        <v>51.88</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>586792895</v>
+        <v>587179374</v>
       </c>
       <c r="B9" s="2">
-        <v>45964.60346064815</v>
+        <v>45965.315983796296</v>
       </c>
       <c r="C9" s="2">
-        <v>45964.95833333333</v>
+        <v>45966.95833333333</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -736,33 +736,33 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>286.74</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.87185</v>
+        <v>50.67</v>
       </c>
       <c r="H9">
-        <v>249.99</v>
+        <v>50.67</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>585309488</v>
+        <v>586793234</v>
       </c>
       <c r="B10" s="2">
-        <v>45959.31539351852</v>
+        <v>45964.60378472222</v>
       </c>
       <c r="C10" s="2">
-        <v>45960.95833333333</v>
+        <v>45965.95833333333</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -771,27 +771,27 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>51.01</v>
+        <v>130.9</v>
       </c>
       <c r="H10">
-        <v>51.01</v>
+        <v>130.9</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>581709074</v>
+        <v>586792895</v>
       </c>
       <c r="B11" s="2">
-        <v>45947.35291666667</v>
+        <v>45964.60346064815</v>
       </c>
       <c r="C11" s="2">
-        <v>45951</v>
+        <v>45964.95833333333</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -800,33 +800,33 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>286.74</v>
       </c>
       <c r="G11">
-        <v>49.61</v>
+        <v>0.87185</v>
       </c>
       <c r="H11">
-        <v>49.61</v>
+        <v>249.99</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>581709060</v>
+        <v>585309488</v>
       </c>
       <c r="B12" s="2">
-        <v>45947.35277777778</v>
+        <v>45959.31539351852</v>
       </c>
       <c r="C12" s="2">
-        <v>45951</v>
+        <v>45960.95833333333</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -835,30 +835,30 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>125.58</v>
+        <v>51.01</v>
       </c>
       <c r="H12">
-        <v>125.58</v>
+        <v>51.01</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>581269382</v>
+        <v>581709074</v>
       </c>
       <c r="B13" s="2">
-        <v>45946.41150462963</v>
+        <v>45947.35291666667</v>
       </c>
       <c r="C13" s="2">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -867,62 +867,62 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.94</v>
+        <v>49.61</v>
       </c>
       <c r="H13">
-        <v>50.94</v>
+        <v>49.61</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>580169893</v>
+        <v>581709060</v>
       </c>
       <c r="B14" s="2">
-        <v>45943.423321759255</v>
+        <v>45947.35277777778</v>
       </c>
       <c r="C14" s="2">
-        <v>45944</v>
+        <v>45951</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14">
-        <v>80.87</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8656</v>
+        <v>125.58</v>
       </c>
       <c r="H14">
-        <v>70</v>
+        <v>125.58</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>580169868</v>
+        <v>581269382</v>
       </c>
       <c r="B15" s="2">
-        <v>45943.42288194444</v>
+        <v>45946.41150462963</v>
       </c>
       <c r="C15" s="2">
-        <v>45945</v>
+        <v>45950</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -931,10 +931,10 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>53.65</v>
+        <v>50.94</v>
       </c>
       <c r="H15">
-        <v>53.65</v>
+        <v>50.94</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -945,48 +945,48 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>580169327</v>
+        <v>580169893</v>
       </c>
       <c r="B16" s="2">
-        <v>45943.41800925926</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C16" s="2">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>80.87</v>
       </c>
       <c r="G16">
-        <v>127.32</v>
+        <v>0.8656</v>
       </c>
       <c r="H16">
-        <v>127.32</v>
+        <v>70</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>579211549</v>
+        <v>580169868</v>
       </c>
       <c r="B17" s="2">
-        <v>45939.61756944444</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C17" s="2">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -995,42 +995,42 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.08</v>
+        <v>53.65</v>
       </c>
       <c r="H17">
-        <v>129.08</v>
+        <v>53.65</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>577313732</v>
+        <v>580169327</v>
       </c>
       <c r="B18" s="2">
-        <v>45933.56972222222</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C18" s="2">
-        <v>45937</v>
+        <v>45945</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>52.65</v>
+        <v>127.32</v>
       </c>
       <c r="H18">
-        <v>105.3</v>
+        <v>127.32</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>576413456</v>
+        <v>579211549</v>
       </c>
       <c r="B19" s="2">
-        <v>45931.44907407407</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C19" s="2">
-        <v>45933</v>
+        <v>45943</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1059,27 +1059,27 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>51.62</v>
+        <v>129.08</v>
       </c>
       <c r="H19">
-        <v>51.62</v>
+        <v>129.08</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>576410571</v>
+        <v>577313732</v>
       </c>
       <c r="B20" s="2">
-        <v>45931.43001157408</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C20" s="2">
-        <v>45932</v>
+        <v>45937</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1088,33 +1088,33 @@
         <v>11</v>
       </c>
       <c r="F20">
-        <v>116.85</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>0.85583</v>
+        <v>52.65</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>105.3</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>575554915</v>
+        <v>576413456</v>
       </c>
       <c r="B21" s="2">
-        <v>45929.452060185184</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C21" s="2">
-        <v>45931</v>
+        <v>45933</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1123,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>51.47</v>
+        <v>51.62</v>
       </c>
       <c r="H21">
-        <v>51.47</v>
+        <v>51.62</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1137,48 +1137,48 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>573400676</v>
+        <v>576410571</v>
       </c>
       <c r="B22" s="2">
-        <v>45922.33627314815</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C22" s="2">
-        <v>45924</v>
+        <v>45932</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G22">
-        <v>127.36</v>
+        <v>0.85583</v>
       </c>
       <c r="H22">
-        <v>127.36</v>
+        <v>100</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>573399341</v>
+        <v>575554915</v>
       </c>
       <c r="B23" s="2">
-        <v>45922.324120370366</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C23" s="2">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1187,10 +1187,10 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>51</v>
+        <v>51.47</v>
       </c>
       <c r="H23">
-        <v>51</v>
+        <v>51.47</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1201,48 +1201,48 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>568717926</v>
+        <v>573400676</v>
       </c>
       <c r="B24" s="2">
-        <v>45905.5246875</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C24" s="2">
-        <v>45908</v>
+        <v>45924</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.85539</v>
+        <v>127.36</v>
       </c>
       <c r="H24">
-        <v>106.92</v>
+        <v>127.36</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>567931751</v>
+        <v>573399341</v>
       </c>
       <c r="B25" s="2">
-        <v>45903.333657407406</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C25" s="2">
-        <v>45905</v>
+        <v>45924</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1251,42 +1251,42 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>123.16</v>
+        <v>51</v>
       </c>
       <c r="H25">
-        <v>123.16</v>
+        <v>51</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>566723916</v>
+        <v>568717926</v>
       </c>
       <c r="B26" s="2">
-        <v>45897.62657407408</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C26" s="2">
-        <v>45898</v>
+        <v>45908</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
       <c r="F26">
-        <v>290.69</v>
+        <v>125</v>
       </c>
       <c r="G26">
-        <v>0.86002</v>
+        <v>0.85539</v>
       </c>
       <c r="H26">
-        <v>250</v>
+        <v>106.92</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>564426812</v>
+        <v>567931751</v>
       </c>
       <c r="B27" s="2">
-        <v>45889.61331018519</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C27" s="2">
-        <v>45891</v>
+        <v>45905</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -1315,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>121.62</v>
+        <v>123.16</v>
       </c>
       <c r="H27">
-        <v>121.62</v>
+        <v>123.16</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1329,28 +1329,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>564420621</v>
+        <v>566723916</v>
       </c>
       <c r="B28" s="2">
-        <v>45889.60018518519</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C28" s="2">
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28">
-        <v>127.71</v>
+        <v>290.69</v>
       </c>
       <c r="G28">
-        <v>0.86135</v>
+        <v>0.86002</v>
       </c>
       <c r="H28">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1361,220 +1361,220 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>555657178</v>
+        <v>564426812</v>
       </c>
       <c r="B29" s="2">
-        <v>45859.48091435185</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C29" s="2">
-        <v>45860</v>
+        <v>45891</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.85771</v>
+        <v>121.62</v>
       </c>
       <c r="H29">
-        <v>85.77</v>
+        <v>121.62</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>555654532</v>
+        <v>564420621</v>
       </c>
       <c r="B30" s="2">
-        <v>45859.465474537035</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C30" s="2">
-        <v>45861</v>
+        <v>45890</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>127.71</v>
       </c>
       <c r="G30">
-        <v>395</v>
+        <v>0.86135</v>
       </c>
       <c r="H30">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>551218217</v>
+        <v>555657178</v>
       </c>
       <c r="B31" s="2">
-        <v>45841.369837962964</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C31" s="2">
-        <v>45845</v>
+        <v>45860</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G31">
-        <v>119.16</v>
+        <v>0.85771</v>
       </c>
       <c r="H31">
-        <v>119.16</v>
+        <v>85.77</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>551216497</v>
+        <v>555654532</v>
       </c>
       <c r="B32" s="2">
-        <v>45841.35429398148</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C32" s="2">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.84741</v>
+        <v>395</v>
       </c>
       <c r="H32">
-        <v>169.48</v>
+        <v>395</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>549290062</v>
+        <v>551218217</v>
       </c>
       <c r="B33" s="2">
-        <v>45834.39111111111</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C33" s="2">
-        <v>45835</v>
+        <v>45845</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
       <c r="F33">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.85337</v>
+        <v>119.16</v>
       </c>
       <c r="H33">
-        <v>99.84</v>
+        <v>119.16</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>546584060</v>
+        <v>551216497</v>
       </c>
       <c r="B34" s="2">
-        <v>45824.480104166665</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C34" s="2">
-        <v>45826</v>
+        <v>45845</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G34">
-        <v>114.8</v>
+        <v>0.84741</v>
       </c>
       <c r="H34">
-        <v>114.8</v>
+        <v>169.48</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>546583898</v>
+        <v>549290062</v>
       </c>
       <c r="B35" s="2">
-        <v>45824.47923611111</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C35" s="2">
-        <v>45825</v>
+        <v>45835</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
       <c r="F35">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G35">
-        <v>0.86376</v>
+        <v>0.85337</v>
       </c>
       <c r="H35">
-        <v>99.33</v>
+        <v>99.84</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1585,92 +1585,92 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>545459805</v>
+        <v>546584060</v>
       </c>
       <c r="B36" s="2">
-        <v>45819.41773148148</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C36" s="2">
-        <v>45820</v>
+        <v>45826</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.87444</v>
+        <v>114.8</v>
       </c>
       <c r="H36">
-        <v>43.72</v>
+        <v>114.8</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>542145647</v>
+        <v>546583898</v>
       </c>
       <c r="B37" s="2">
-        <v>45807.5672337963</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C37" s="2">
-        <v>45811</v>
+        <v>45825</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G37">
-        <v>112.4</v>
+        <v>0.86376</v>
       </c>
       <c r="H37">
-        <v>112.4</v>
+        <v>99.33</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>541352365</v>
+        <v>545459805</v>
       </c>
       <c r="B38" s="2">
-        <v>45805.594560185185</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C38" s="2">
-        <v>45806</v>
+        <v>45820</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
       </c>
       <c r="F38">
-        <v>169.82</v>
+        <v>50</v>
       </c>
       <c r="G38">
-        <v>0.88332</v>
+        <v>0.87444</v>
       </c>
       <c r="H38">
-        <v>150.01</v>
+        <v>43.72</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>540397794</v>
+        <v>542145647</v>
       </c>
       <c r="B39" s="2">
-        <v>45800.4953125</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C39" s="2">
-        <v>45805</v>
+        <v>45811</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -1699,42 +1699,42 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>110.1385</v>
+        <v>112.4</v>
       </c>
       <c r="H39">
-        <v>110.14</v>
+        <v>112.4</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>539546182</v>
+        <v>541352365</v>
       </c>
       <c r="B40" s="2">
-        <v>45798.38793981481</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C40" s="2">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>100</v>
+        <v>169.82</v>
       </c>
       <c r="G40">
-        <v>0.88321</v>
+        <v>0.88332</v>
       </c>
       <c r="H40">
-        <v>88.32</v>
+        <v>150.01</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1745,16 +1745,16 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>530748416</v>
+        <v>540397794</v>
       </c>
       <c r="B41" s="2">
-        <v>45777.621458333335</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C41" s="2">
-        <v>45779</v>
+        <v>45805</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -1763,42 +1763,42 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>327.9</v>
+        <v>110.1385</v>
       </c>
       <c r="H41">
-        <v>327.9</v>
+        <v>110.14</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>530748345</v>
+        <v>539546182</v>
       </c>
       <c r="B42" s="2">
-        <v>45777.62107638889</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C42" s="2">
-        <v>45778</v>
+        <v>45799</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G42">
-        <v>0.88043</v>
+        <v>0.88321</v>
       </c>
       <c r="H42">
-        <v>26.41</v>
+        <v>88.32</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1809,60 +1809,60 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>530748166</v>
+        <v>530748416</v>
       </c>
       <c r="B43" s="2">
-        <v>45777.62068287037</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C43" s="2">
-        <v>45778</v>
+        <v>45779</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0.8804</v>
+        <v>327.9</v>
       </c>
       <c r="H43">
-        <v>264.12</v>
+        <v>327.9</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>528304116</v>
+        <v>530748345</v>
       </c>
       <c r="B44" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C44" s="2">
-        <v>45772</v>
+        <v>45778</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G44">
-        <v>0.87843</v>
+        <v>0.88043</v>
       </c>
       <c r="H44">
-        <v>74.67</v>
+        <v>26.41</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -1873,60 +1873,60 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>525384379</v>
+        <v>530748166</v>
       </c>
       <c r="B45" s="2">
-        <v>45763.63711805556</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C45" s="2">
-        <v>45769</v>
+        <v>45778</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G45">
-        <v>101.9</v>
+        <v>0.8804</v>
       </c>
       <c r="H45">
-        <v>101.9</v>
+        <v>264.12</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>525383965</v>
+        <v>528304116</v>
       </c>
       <c r="B46" s="2">
-        <v>45763.634826388894</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C46" s="2">
-        <v>45764</v>
+        <v>45772</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G46">
-        <v>0.87888</v>
+        <v>0.87843</v>
       </c>
       <c r="H46">
-        <v>65.92</v>
+        <v>74.67</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>521135744</v>
+        <v>525384379</v>
       </c>
       <c r="B47" s="2">
-        <v>45754.608506944445</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C47" s="2">
-        <v>45756</v>
+        <v>45769</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -1955,10 +1955,10 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>95</v>
+        <v>101.9</v>
       </c>
       <c r="H47">
-        <v>95</v>
+        <v>101.9</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -1969,28 +1969,28 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>521115122</v>
+        <v>525383965</v>
       </c>
       <c r="B48" s="2">
-        <v>45754.593506944446</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C48" s="2">
-        <v>45755</v>
+        <v>45764</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48">
-        <v>109.66</v>
+        <v>75</v>
       </c>
       <c r="G48">
-        <v>0.91206</v>
+        <v>0.87888</v>
       </c>
       <c r="H48">
-        <v>100.02</v>
+        <v>65.92</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2001,16 +2001,16 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>519105737</v>
+        <v>521135744</v>
       </c>
       <c r="B49" s="2">
-        <v>45749.575324074074</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C49" s="2">
-        <v>45751</v>
+        <v>45756</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -2019,42 +2019,42 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>330.5499</v>
+        <v>95</v>
       </c>
       <c r="H49">
-        <v>330.55</v>
+        <v>95</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1.97</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>519105619</v>
+        <v>521115122</v>
       </c>
       <c r="B50" s="2">
-        <v>45749.575115740736</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C50" s="2">
-        <v>45750</v>
+        <v>45755</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>330</v>
+        <v>109.66</v>
       </c>
       <c r="G50">
-        <v>0.92423</v>
+        <v>0.91206</v>
       </c>
       <c r="H50">
-        <v>305</v>
+        <v>100.02</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2065,16 +2065,16 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>518501268</v>
+        <v>519105737</v>
       </c>
       <c r="B51" s="2">
-        <v>45748.342511574076</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C51" s="2">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -2083,42 +2083,42 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>106.7</v>
+        <v>330.5499</v>
       </c>
       <c r="H51">
-        <v>106.7</v>
+        <v>330.55</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1.46</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>518501204</v>
+        <v>519105619</v>
       </c>
       <c r="B52" s="2">
-        <v>45748.342199074075</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C52" s="2">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>118.85</v>
+        <v>330</v>
       </c>
       <c r="G52">
-        <v>0.92553</v>
+        <v>0.92423</v>
       </c>
       <c r="H52">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>510327986</v>
+        <v>518501268</v>
       </c>
       <c r="B53" s="2">
-        <v>45728.454201388886</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C53" s="2">
-        <v>45729.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -2147,10 +2147,10 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="H53">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2161,28 +2161,28 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>510326670</v>
+        <v>518501204</v>
       </c>
       <c r="B54" s="2">
-        <v>45728.43972222222</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C54" s="2">
-        <v>45728.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>114.54</v>
+        <v>118.85</v>
       </c>
       <c r="G54">
-        <v>0.91668</v>
+        <v>0.92553</v>
       </c>
       <c r="H54">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2193,16 +2193,16 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>506086900</v>
+        <v>510327986</v>
       </c>
       <c r="B55" s="2">
-        <v>45719.31646990741</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C55" s="2">
-        <v>45720.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -2211,42 +2211,42 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>355.9998</v>
+        <v>107</v>
       </c>
       <c r="H55">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>2.07</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>506086612</v>
+        <v>510326670</v>
       </c>
       <c r="B56" s="2">
-        <v>45719.31418981482</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C56" s="2">
-        <v>45719.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>9.74</v>
+        <v>114.54</v>
       </c>
       <c r="G56">
-        <v>0.96213</v>
+        <v>0.91668</v>
       </c>
       <c r="H56">
-        <v>9.37</v>
+        <v>105</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2257,60 +2257,60 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>506084312</v>
+        <v>506086900</v>
       </c>
       <c r="B57" s="2">
-        <v>45719.29939814815</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C57" s="2">
-        <v>45719.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="F57">
-        <v>204.2</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>0.96116</v>
+        <v>355.9998</v>
       </c>
       <c r="H57">
-        <v>196.27</v>
+        <v>356</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>505408659</v>
+        <v>506086612</v>
       </c>
       <c r="B58" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C58" s="2">
-        <v>45718.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>129.21</v>
+        <v>9.74</v>
       </c>
       <c r="G58">
-        <v>0.96171</v>
+        <v>0.96213</v>
       </c>
       <c r="H58">
-        <v>124.26</v>
+        <v>9.37</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2321,60 +2321,60 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>503618898</v>
+        <v>506084312</v>
       </c>
       <c r="B59" s="2">
-        <v>45713.606828703705</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C59" s="2">
-        <v>45714.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>204.2</v>
       </c>
       <c r="G59">
-        <v>112.86</v>
+        <v>0.96116</v>
       </c>
       <c r="H59">
-        <v>112.86</v>
+        <v>196.27</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>503618686</v>
+        <v>505408659</v>
       </c>
       <c r="B60" s="2">
-        <v>45713.60653935185</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C60" s="2">
-        <v>45713.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>120</v>
+        <v>129.21</v>
       </c>
       <c r="G60">
-        <v>0.9511</v>
+        <v>0.96171</v>
       </c>
       <c r="H60">
-        <v>114.13</v>
+        <v>124.26</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2385,16 +2385,16 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>499625741</v>
+        <v>503618898</v>
       </c>
       <c r="B61" s="2">
-        <v>45702.56398148148</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C61" s="2">
-        <v>45705.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -2403,42 +2403,42 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>375.25</v>
+        <v>112.86</v>
       </c>
       <c r="H61">
-        <v>375.25</v>
+        <v>112.86</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>2.11</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>499590185</v>
+        <v>503618686</v>
       </c>
       <c r="B62" s="2">
-        <v>45702.36454861111</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C62" s="2">
-        <v>45705.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>20.96</v>
+        <v>120</v>
       </c>
       <c r="G62">
-        <v>0.95429</v>
+        <v>0.9511</v>
       </c>
       <c r="H62">
-        <v>20</v>
+        <v>114.13</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2449,92 +2449,92 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>498403616</v>
+        <v>499625741</v>
       </c>
       <c r="B63" s="2">
-        <v>45700.59783564815</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C63" s="2">
-        <v>45700.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="F63">
-        <v>103.4</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>0.96693</v>
+        <v>375.25</v>
       </c>
       <c r="H63">
-        <v>99.98</v>
+        <v>375.25</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>494107867</v>
+        <v>499590185</v>
       </c>
       <c r="B64" s="2">
-        <v>45691.58335648148</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C64" s="2">
-        <v>45692.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>20.96</v>
       </c>
       <c r="G64">
-        <v>112.9</v>
+        <v>0.95429</v>
       </c>
       <c r="H64">
-        <v>112.9</v>
+        <v>20</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>494049655</v>
+        <v>498403616</v>
       </c>
       <c r="B65" s="2">
-        <v>45691.31773148148</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C65" s="2">
-        <v>45691.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>307.46</v>
+        <v>103.4</v>
       </c>
       <c r="G65">
-        <v>0.97578</v>
+        <v>0.96693</v>
       </c>
       <c r="H65">
-        <v>300.01</v>
+        <v>99.98</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2545,10 +2545,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>494049572</v>
+        <v>494107867</v>
       </c>
       <c r="B66" s="2">
-        <v>45691.31670138889</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C66" s="2">
         <v>45692.95833333333</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>113.34</v>
+        <v>112.9</v>
       </c>
       <c r="H66">
-        <v>113.34</v>
+        <v>112.9</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2577,77 +2577,77 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>493368805</v>
+        <v>494049655</v>
       </c>
       <c r="B67" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C67" s="2">
         <v>45691.95833333333</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>307.46</v>
       </c>
       <c r="G67">
-        <v>115.9</v>
+        <v>0.97578</v>
       </c>
       <c r="H67">
-        <v>231.8</v>
+        <v>300.01</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>492836969</v>
+        <v>494049572</v>
       </c>
       <c r="B68" s="2">
-        <v>45687.621666666666</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C68" s="2">
-        <v>45687.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68">
-        <v>417.21</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>0.95874</v>
+        <v>113.34</v>
       </c>
       <c r="H68">
-        <v>400</v>
+        <v>113.34</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>491075870</v>
+        <v>493368805</v>
       </c>
       <c r="B69" s="2">
-        <v>45684.61530092593</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C69" s="2">
-        <v>45685.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -2656,45 +2656,45 @@
         <v>11</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>114.4</v>
+        <v>115.9</v>
       </c>
       <c r="H69">
-        <v>114.4</v>
+        <v>231.8</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>491075618</v>
+        <v>492836969</v>
       </c>
       <c r="B70" s="2">
-        <v>45684.61476851851</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C70" s="2">
-        <v>45684.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70">
-        <v>115.46</v>
+        <v>417.21</v>
       </c>
       <c r="G70">
-        <v>0.95269</v>
+        <v>0.95874</v>
       </c>
       <c r="H70">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2705,16 +2705,16 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>483911545</v>
+        <v>491075870</v>
       </c>
       <c r="B71" s="2">
-        <v>45665.44930555555</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C71" s="2">
-        <v>45666.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -2723,42 +2723,42 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>360.35</v>
+        <v>114.4</v>
       </c>
       <c r="H71">
-        <v>360.35</v>
+        <v>114.4</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>483911481</v>
+        <v>491075618</v>
       </c>
       <c r="B72" s="2">
-        <v>45665.44840277778</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C72" s="2">
-        <v>45666.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72">
-        <v>365</v>
+        <v>115.46</v>
       </c>
       <c r="G72">
-        <v>0.97183</v>
+        <v>0.95269</v>
       </c>
       <c r="H72">
-        <v>354.72</v>
+        <v>110</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2769,60 +2769,60 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>481235383</v>
+        <v>483911545</v>
       </c>
       <c r="B73" s="2">
-        <v>45660.337430555555</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C73" s="2">
-        <v>45663.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>112</v>
+        <v>360.35</v>
       </c>
       <c r="H73">
-        <v>224</v>
+        <v>360.35</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1.76</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>481235152</v>
+        <v>483911481</v>
       </c>
       <c r="B74" s="2">
-        <v>45660.33241898148</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C74" s="2">
-        <v>45662.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74">
-        <v>226.2</v>
+        <v>365</v>
       </c>
       <c r="G74">
-        <v>0.97259</v>
+        <v>0.97183</v>
       </c>
       <c r="H74">
-        <v>220</v>
+        <v>354.72</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -2833,60 +2833,60 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>476674643</v>
+        <v>481235383</v>
       </c>
       <c r="B75" s="2">
-        <v>45646.40855324074</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C75" s="2">
-        <v>45652.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>355.4</v>
+        <v>112</v>
       </c>
       <c r="H75">
-        <v>355.4</v>
+        <v>224</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>476674604</v>
+        <v>481235152</v>
       </c>
       <c r="B76" s="2">
-        <v>45646.408437499995</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C76" s="2">
-        <v>45648.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
       </c>
       <c r="F76">
-        <v>215</v>
+        <v>226.2</v>
       </c>
       <c r="G76">
-        <v>0.96264</v>
+        <v>0.97259</v>
       </c>
       <c r="H76">
-        <v>206.97</v>
+        <v>220</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2897,60 +2897,60 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>476670294</v>
+        <v>476674643</v>
       </c>
       <c r="B77" s="2">
-        <v>45646.38765046296</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C77" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
       </c>
       <c r="F77">
-        <v>51.32</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>0.96299</v>
+        <v>355.4</v>
       </c>
       <c r="H77">
-        <v>49.42</v>
+        <v>355.4</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>476669731</v>
+        <v>476674604</v>
       </c>
       <c r="B78" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C78" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="G78">
-        <v>0.96251</v>
+        <v>0.96264</v>
       </c>
       <c r="H78">
-        <v>57.75</v>
+        <v>206.97</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2961,60 +2961,60 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>476123556</v>
+        <v>476670294</v>
       </c>
       <c r="B79" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C79" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>51.32</v>
       </c>
       <c r="G79">
-        <v>112.54</v>
+        <v>0.96299</v>
       </c>
       <c r="H79">
-        <v>112.54</v>
+        <v>49.42</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>476123515</v>
+        <v>476669731</v>
       </c>
       <c r="B80" s="2">
-        <v>45645.52649305556</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C80" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G80">
-        <v>0.96108</v>
+        <v>0.96251</v>
       </c>
       <c r="H80">
-        <v>96.11</v>
+        <v>57.75</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3025,112 +3025,112 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>471357479</v>
+        <v>476123556</v>
       </c>
       <c r="B81" s="2">
-        <v>45635.56259259259</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C81" s="2">
-        <v>45635.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
-        <v>8.3412</v>
+        <v>112.54</v>
       </c>
       <c r="H81">
-        <v>8.34</v>
+        <v>112.54</v>
       </c>
       <c r="I81">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>466623419</v>
+        <v>476123515</v>
       </c>
       <c r="B82" s="2">
-        <v>45622.31217592592</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C82" s="2">
-        <v>45624.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G82">
-        <v>354.5</v>
+        <v>0.96108</v>
       </c>
       <c r="H82">
-        <v>354.5</v>
+        <v>96.11</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>2.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>466623402</v>
+        <v>471357479</v>
       </c>
       <c r="B83" s="2">
-        <v>45622.31188657407</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C83" s="2">
-        <v>45622.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F83">
-        <v>141.78</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>0.95389</v>
+        <v>8.3412</v>
       </c>
       <c r="H83">
-        <v>135.24</v>
+        <v>8.34</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>462598648</v>
+        <v>466623419</v>
       </c>
       <c r="B84" s="2">
-        <v>45611.592997685184</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C84" s="2">
-        <v>45614.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -3139,138 +3139,138 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>111.8099</v>
+        <v>354.5</v>
       </c>
       <c r="H84">
-        <v>111.81</v>
+        <v>354.5</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1.47</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>460084933</v>
+        <v>466623402</v>
       </c>
       <c r="B85" s="2">
-        <v>45604.62016203704</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C85" s="2">
-        <v>45607.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>141.78</v>
       </c>
       <c r="G85">
-        <v>8.3836</v>
+        <v>0.95389</v>
       </c>
       <c r="H85">
-        <v>8.38</v>
+        <v>135.24</v>
       </c>
       <c r="I85">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>458847628</v>
+        <v>462598648</v>
       </c>
       <c r="B86" s="2">
-        <v>45602.26765046296</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C86" s="2">
-        <v>45602.95833333333</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
       </c>
       <c r="F86">
-        <v>341.65</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>0.93077</v>
+        <v>111.8099</v>
       </c>
       <c r="H86">
-        <v>318</v>
+        <v>111.81</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>449590057</v>
+        <v>460084933</v>
       </c>
       <c r="B87" s="2">
-        <v>45579.62847222222</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C87" s="2">
-        <v>45581</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>110.9161</v>
+        <v>8.3836</v>
       </c>
       <c r="H87">
-        <v>110.92</v>
+        <v>8.38</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J87">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>449589875</v>
+        <v>458847628</v>
       </c>
       <c r="B88" s="2">
-        <v>45579.628125</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C88" s="2">
-        <v>45580</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88">
-        <v>35</v>
+        <v>341.65</v>
       </c>
       <c r="G88">
-        <v>0.91628</v>
+        <v>0.93077</v>
       </c>
       <c r="H88">
-        <v>32.07</v>
+        <v>318</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -3281,10 +3281,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>449589083</v>
+        <v>449590057</v>
       </c>
       <c r="B89" s="2">
-        <v>45579.62637731481</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C89" s="2">
         <v>45581</v>
@@ -3299,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>110.9196</v>
+        <v>110.9161</v>
       </c>
       <c r="H89">
         <v>110.92</v>
@@ -3313,48 +3313,48 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>449588246</v>
+        <v>449589875</v>
       </c>
       <c r="B90" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.628125</v>
       </c>
       <c r="C90" s="2">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F90">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G90">
-        <v>3.4715</v>
+        <v>0.91628</v>
       </c>
       <c r="H90">
-        <v>149.27</v>
+        <v>32.07</v>
       </c>
       <c r="I90">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>445429841</v>
+        <v>449589083</v>
       </c>
       <c r="B91" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C91" s="2">
-        <v>45572</v>
+        <v>45581</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -3363,62 +3363,62 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>337.65</v>
+        <v>110.9196</v>
       </c>
       <c r="H91">
-        <v>337.65</v>
+        <v>110.92</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>445429174</v>
+        <v>449588246</v>
       </c>
       <c r="B92" s="2">
-        <v>45568.57231481481</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C92" s="2">
-        <v>45569</v>
+        <v>45581</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F92">
-        <v>369.23</v>
+        <v>43</v>
       </c>
       <c r="G92">
-        <v>0.90605</v>
+        <v>3.4715</v>
       </c>
       <c r="H92">
-        <v>334.54</v>
+        <v>149.27</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>444353954</v>
+        <v>445429841</v>
       </c>
       <c r="B93" s="2">
-        <v>45566.58853009259</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C93" s="2">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -3427,42 +3427,42 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>108.24</v>
+        <v>337.65</v>
       </c>
       <c r="H93">
-        <v>108.24</v>
+        <v>337.65</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1.45</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>444310921</v>
+        <v>445429174</v>
       </c>
       <c r="B94" s="2">
-        <v>45566.29953703703</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C94" s="2">
-        <v>45567</v>
+        <v>45569</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
       </c>
       <c r="F94">
-        <v>60.56</v>
+        <v>369.23</v>
       </c>
       <c r="G94">
-        <v>0.89984</v>
+        <v>0.90605</v>
       </c>
       <c r="H94">
-        <v>54.49</v>
+        <v>334.54</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -3473,156 +3473,156 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>439936166</v>
+        <v>444353954</v>
       </c>
       <c r="B95" s="2">
-        <v>45554.56259259259</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C95" s="2">
-        <v>45555</v>
+        <v>45568</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95">
-        <v>62.0726</v>
+        <v>108.24</v>
       </c>
       <c r="H95">
-        <v>62.07</v>
+        <v>108.24</v>
       </c>
       <c r="I95">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>435165980</v>
+        <v>444310921</v>
       </c>
       <c r="B96" s="2">
-        <v>45541.475370370375</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C96" s="2">
-        <v>45545</v>
+        <v>45567</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>60.56</v>
       </c>
       <c r="G96">
-        <v>103.72</v>
+        <v>0.89984</v>
       </c>
       <c r="H96">
-        <v>103.72</v>
+        <v>54.49</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>435165968</v>
+        <v>439936166</v>
       </c>
       <c r="B97" s="2">
-        <v>45541.47508101852</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C97" s="2">
-        <v>45544</v>
+        <v>45555</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F97">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>0.9011</v>
+        <v>62.0726</v>
       </c>
       <c r="H97">
-        <v>0.19</v>
+        <v>62.07</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>435165951</v>
+        <v>435165980</v>
       </c>
       <c r="B98" s="2">
-        <v>45541.47487268518</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C98" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
       <c r="F98">
-        <v>4.42</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>0.90109</v>
+        <v>103.72</v>
       </c>
       <c r="H98">
-        <v>3.98</v>
+        <v>103.72</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>435165927</v>
+        <v>435165968</v>
       </c>
       <c r="B99" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C99" s="2">
         <v>45544</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
       </c>
       <c r="F99">
-        <v>92.77</v>
+        <v>0.21</v>
       </c>
       <c r="G99">
-        <v>0.90109</v>
+        <v>0.9011</v>
       </c>
       <c r="H99">
-        <v>83.59</v>
+        <v>0.19</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -3633,109 +3633,109 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>434675474</v>
+        <v>435165951</v>
       </c>
       <c r="B100" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C100" s="2">
         <v>45544</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100">
-        <v>8</v>
+        <v>4.42</v>
       </c>
       <c r="G100">
-        <v>3.689</v>
+        <v>0.90109</v>
       </c>
       <c r="H100">
-        <v>29.51</v>
+        <v>3.98</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>434162210</v>
+        <v>435165927</v>
       </c>
       <c r="B101" s="2">
-        <v>45539.43609953704</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C101" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>92.77</v>
       </c>
       <c r="G101">
-        <v>104.42</v>
+        <v>0.90109</v>
       </c>
       <c r="H101">
-        <v>104.42</v>
+        <v>83.59</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>433696199</v>
+        <v>434675474</v>
       </c>
       <c r="B102" s="2">
-        <v>45538.68898148148</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C102" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="D102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E102" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G102">
-        <v>110.122</v>
+        <v>3.689</v>
       </c>
       <c r="H102">
-        <v>110.12</v>
+        <v>29.51</v>
       </c>
       <c r="I102">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>433626785</v>
+        <v>434162210</v>
       </c>
       <c r="B103" s="2">
-        <v>45538.39231481482</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C103" s="2">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
@@ -3747,10 +3747,10 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <v>106.54</v>
+        <v>104.42</v>
       </c>
       <c r="H103">
-        <v>106.54</v>
+        <v>104.42</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -3761,48 +3761,48 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>433626678</v>
+        <v>433696199</v>
       </c>
       <c r="B104" s="2">
-        <v>45538.391076388885</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C104" s="2">
         <v>45539</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F104">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>0.90603</v>
+        <v>110.122</v>
       </c>
       <c r="H104">
-        <v>66.96</v>
+        <v>110.12</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>432518350</v>
+        <v>433626785</v>
       </c>
       <c r="B105" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C105" s="2">
-        <v>45533</v>
+        <v>45540</v>
       </c>
       <c r="D105" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -3811,91 +3811,91 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <v>120.88</v>
+        <v>106.54</v>
       </c>
       <c r="H105">
-        <v>120.88</v>
+        <v>106.54</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>432515426</v>
+        <v>433626678</v>
       </c>
       <c r="B106" s="2">
-        <v>45533.54127314815</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C106" s="2">
-        <v>45537</v>
+        <v>45539</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>73.9</v>
       </c>
       <c r="G106">
-        <v>106.34</v>
+        <v>0.90603</v>
       </c>
       <c r="H106">
-        <v>106.34</v>
+        <v>66.96</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>432005364</v>
+        <v>432518350</v>
       </c>
       <c r="B107" s="2">
-        <v>45532.39208333333</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C107" s="2">
-        <v>45534</v>
+        <v>45533</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
       </c>
       <c r="F107">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>3.632</v>
+        <v>120.88</v>
       </c>
       <c r="H107">
-        <v>116.22</v>
+        <v>120.88</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>432003333</v>
+        <v>432515426</v>
       </c>
       <c r="B108" s="2">
-        <v>45532.363020833334</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C108" s="2">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
@@ -3904,109 +3904,109 @@
         <v>11</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>106.74</v>
+        <v>106.34</v>
       </c>
       <c r="H108">
-        <v>213.48</v>
+        <v>106.34</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>432003262</v>
+        <v>432005364</v>
       </c>
       <c r="B109" s="2">
-        <v>45532.361875</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C109" s="2">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
       </c>
       <c r="F109">
-        <v>618.74</v>
+        <v>32</v>
       </c>
       <c r="G109">
-        <v>0.89741</v>
+        <v>3.632</v>
       </c>
       <c r="H109">
-        <v>555.26</v>
+        <v>116.22</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>430366906</v>
+        <v>432003333</v>
       </c>
       <c r="B110" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C110" s="2">
-        <v>45532</v>
+        <v>45534</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
       </c>
       <c r="F110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>3.6305</v>
+        <v>106.74</v>
       </c>
       <c r="H110">
-        <v>10.89</v>
+        <v>213.48</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1.26</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>430365249</v>
+        <v>432003262</v>
       </c>
       <c r="B111" s="2">
-        <v>45527.27630787037</v>
+        <v>45532.361875</v>
       </c>
       <c r="C111" s="2">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
       </c>
       <c r="F111">
-        <v>4.63</v>
+        <v>618.74</v>
       </c>
       <c r="G111">
-        <v>0.8999</v>
+        <v>0.89741</v>
       </c>
       <c r="H111">
-        <v>4.17</v>
+        <v>555.26</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -4017,188 +4017,188 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>428453232</v>
+        <v>430366906</v>
       </c>
       <c r="B112" s="2">
-        <v>45523.56253472222</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C112" s="2">
-        <v>45524</v>
+        <v>45532</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G112">
-        <v>60.046</v>
+        <v>3.6305</v>
       </c>
       <c r="H112">
-        <v>60.05</v>
+        <v>10.89</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>428444212</v>
+        <v>430365249</v>
       </c>
       <c r="B113" s="2">
-        <v>45523.47152777778</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C113" s="2">
-        <v>45525</v>
+        <v>45530</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>4.63</v>
       </c>
       <c r="G113">
-        <v>105.3</v>
+        <v>0.8999</v>
       </c>
       <c r="H113">
-        <v>105.3</v>
+        <v>4.17</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>428437042</v>
+        <v>428453232</v>
       </c>
       <c r="B114" s="2">
-        <v>45523.37878472223</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C114" s="2">
         <v>45524</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
       <c r="F114">
-        <v>7.15</v>
+        <v>1</v>
       </c>
       <c r="G114">
-        <v>0.90756</v>
+        <v>60.046</v>
       </c>
       <c r="H114">
-        <v>6.49</v>
+        <v>60.05</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>428437005</v>
+        <v>428444212</v>
       </c>
       <c r="B115" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C115" s="2">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
       </c>
       <c r="F115">
-        <v>150.15</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>0.90756</v>
+        <v>105.3</v>
       </c>
       <c r="H115">
-        <v>136.27</v>
+        <v>105.3</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>426418112</v>
+        <v>428437042</v>
       </c>
       <c r="B116" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C116" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>7.15</v>
       </c>
       <c r="G116">
-        <v>102.02</v>
+        <v>0.90756</v>
       </c>
       <c r="H116">
-        <v>102.02</v>
+        <v>6.49</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>426417966</v>
+        <v>428437005</v>
       </c>
       <c r="B117" s="2">
-        <v>45517.58042824074</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C117" s="2">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
       <c r="F117">
-        <v>10.45</v>
+        <v>150.15</v>
       </c>
       <c r="G117">
-        <v>0.91439</v>
+        <v>0.90756</v>
       </c>
       <c r="H117">
-        <v>9.56</v>
+        <v>136.27</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -4209,65 +4209,129 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>426416264</v>
+        <v>426418112</v>
       </c>
       <c r="B118" s="2">
-        <v>45517.57699074074</v>
+        <v>45517.58078703703</v>
       </c>
       <c r="C118" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
       <c r="F118">
-        <v>4.86</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>0.91458</v>
+        <v>102.02</v>
       </c>
       <c r="H118">
-        <v>4.44</v>
+        <v>102.02</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>426416183</v>
+        <v>426417966</v>
       </c>
       <c r="B119" s="2">
-        <v>45517.576678240745</v>
+        <v>45517.58042824074</v>
       </c>
       <c r="C119" s="2">
         <v>45518</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
       </c>
       <c r="F119">
+        <v>10.45</v>
+      </c>
+      <c r="G119">
+        <v>0.91439</v>
+      </c>
+      <c r="H119">
+        <v>9.56</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>426416264</v>
+      </c>
+      <c r="B120" s="2">
+        <v>45517.57699074074</v>
+      </c>
+      <c r="C120" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120">
+        <v>4.86</v>
+      </c>
+      <c r="G120">
+        <v>0.91458</v>
+      </c>
+      <c r="H120">
+        <v>4.44</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>426416183</v>
+      </c>
+      <c r="B121" s="2">
+        <v>45517.576678240745</v>
+      </c>
+      <c r="C121" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121">
         <v>102.05</v>
       </c>
-      <c r="G119">
+      <c r="G121">
         <v>0.91459</v>
       </c>
-      <c r="H119">
+      <c r="H121">
         <v>93.33</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
         <v>0</v>
       </c>
     </row>

--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="22">
   <si>
     <t>Number</t>
   </si>
@@ -43,25 +43,28 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>USD/EUR</t>
+    <t>AETF.GR</t>
   </si>
   <si>
     <t xml:space="preserve"> Buy </t>
   </si>
   <si>
-    <t>VUAA.EU</t>
+    <t>EUR/USD</t>
   </si>
   <si>
-    <t>AETF.GR</t>
+    <t xml:space="preserve"> Sell </t>
+  </si>
+  <si>
+    <t>USD/EUR</t>
+  </si>
+  <si>
+    <t>VUAA.EU</t>
   </si>
   <si>
     <t>EQAC.EU</t>
   </si>
   <si>
     <t>NNOX.US</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sell </t>
   </si>
   <si>
     <t>PTON.US</t>
@@ -460,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J123"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -497,13 +500,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>592858794</v>
+        <v>596219726</v>
       </c>
       <c r="B2" s="2">
-        <v>45982.31758101852</v>
+        <v>45994.43467592592</v>
       </c>
       <c r="C2" s="2">
-        <v>45984.95833333333</v>
+        <v>45995.95833333333</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -512,97 +515,97 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>138.08</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>0.86907</v>
+        <v>53.57</v>
       </c>
       <c r="H2">
-        <v>120</v>
+        <v>107.14</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>592858764</v>
+        <v>595820593</v>
       </c>
       <c r="B3" s="2">
-        <v>45982.31736111111</v>
+        <v>45993.61094907408</v>
       </c>
       <c r="C3" s="2">
-        <v>45985.95833333333</v>
+        <v>45993.95833333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G3">
-        <v>125.7</v>
+        <v>1.1572</v>
       </c>
       <c r="H3">
-        <v>125.7</v>
+        <v>347.16</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>591521660</v>
+        <v>592858794</v>
       </c>
       <c r="B4" s="2">
-        <v>45979.40392361111</v>
+        <v>45982.31758101852</v>
       </c>
       <c r="C4" s="2">
-        <v>45980.95833333333</v>
+        <v>45984.95833333333</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>138.08</v>
       </c>
       <c r="G4">
-        <v>51.58</v>
+        <v>0.86907</v>
       </c>
       <c r="H4">
-        <v>51.58</v>
+        <v>120</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>591521571</v>
+        <v>592858764</v>
       </c>
       <c r="B5" s="2">
-        <v>45979.40299768519</v>
+        <v>45982.31736111111</v>
       </c>
       <c r="C5" s="2">
-        <v>45980.95833333333</v>
+        <v>45985.95833333333</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -611,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>127.64</v>
+        <v>125.7</v>
       </c>
       <c r="H5">
-        <v>127.64</v>
+        <v>125.7</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -625,16 +628,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>589647638</v>
+        <v>591521660</v>
       </c>
       <c r="B6" s="2">
-        <v>45973.3719212963</v>
+        <v>45979.40392361111</v>
       </c>
       <c r="C6" s="2">
-        <v>45974.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -643,62 +646,62 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>131.88</v>
+        <v>51.58</v>
       </c>
       <c r="H6">
-        <v>131.88</v>
+        <v>51.58</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>589647623</v>
+        <v>591521571</v>
       </c>
       <c r="B7" s="2">
-        <v>45973.371666666666</v>
+        <v>45979.40299768519</v>
       </c>
       <c r="C7" s="2">
-        <v>45973.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7">
-        <v>138.34</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.86743</v>
+        <v>127.64</v>
       </c>
       <c r="H7">
-        <v>120</v>
+        <v>127.64</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>589647528</v>
+        <v>589647638</v>
       </c>
       <c r="B8" s="2">
-        <v>45973.37055555556</v>
+        <v>45973.3719212963</v>
       </c>
       <c r="C8" s="2">
         <v>45974.95833333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -707,62 +710,62 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>51.88</v>
+        <v>131.88</v>
       </c>
       <c r="H8">
-        <v>51.88</v>
+        <v>131.88</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>587179374</v>
+        <v>589647623</v>
       </c>
       <c r="B9" s="2">
-        <v>45965.315983796296</v>
+        <v>45973.371666666666</v>
       </c>
       <c r="C9" s="2">
-        <v>45966.95833333333</v>
+        <v>45973.95833333333</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>138.34</v>
       </c>
       <c r="G9">
-        <v>50.67</v>
+        <v>0.86743</v>
       </c>
       <c r="H9">
-        <v>50.67</v>
+        <v>120</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>586793234</v>
+        <v>589647528</v>
       </c>
       <c r="B10" s="2">
-        <v>45964.60378472222</v>
+        <v>45973.37055555556</v>
       </c>
       <c r="C10" s="2">
-        <v>45965.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -771,27 +774,27 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>130.9</v>
+        <v>51.88</v>
       </c>
       <c r="H10">
-        <v>130.9</v>
+        <v>51.88</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>586792895</v>
+        <v>587179374</v>
       </c>
       <c r="B11" s="2">
-        <v>45964.60346064815</v>
+        <v>45965.315983796296</v>
       </c>
       <c r="C11" s="2">
-        <v>45964.95833333333</v>
+        <v>45966.95833333333</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -800,33 +803,33 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <v>286.74</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.87185</v>
+        <v>50.67</v>
       </c>
       <c r="H11">
-        <v>249.99</v>
+        <v>50.67</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>585309488</v>
+        <v>586793234</v>
       </c>
       <c r="B12" s="2">
-        <v>45959.31539351852</v>
+        <v>45964.60378472222</v>
       </c>
       <c r="C12" s="2">
-        <v>45960.95833333333</v>
+        <v>45965.95833333333</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -835,62 +838,62 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.01</v>
+        <v>130.9</v>
       </c>
       <c r="H12">
-        <v>51.01</v>
+        <v>130.9</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>581709074</v>
+        <v>586792895</v>
       </c>
       <c r="B13" s="2">
-        <v>45947.35291666667</v>
+        <v>45964.60346064815</v>
       </c>
       <c r="C13" s="2">
-        <v>45951</v>
+        <v>45964.95833333333</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>286.74</v>
       </c>
       <c r="G13">
-        <v>49.61</v>
+        <v>0.87185</v>
       </c>
       <c r="H13">
-        <v>49.61</v>
+        <v>249.99</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>581709060</v>
+        <v>585309488</v>
       </c>
       <c r="B14" s="2">
-        <v>45947.35277777778</v>
+        <v>45959.31539351852</v>
       </c>
       <c r="C14" s="2">
-        <v>45951</v>
+        <v>45960.95833333333</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -899,30 +902,30 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>125.58</v>
+        <v>51.01</v>
       </c>
       <c r="H14">
-        <v>125.58</v>
+        <v>51.01</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>581269382</v>
+        <v>581709074</v>
       </c>
       <c r="B15" s="2">
-        <v>45946.41150462963</v>
+        <v>45947.35291666667</v>
       </c>
       <c r="C15" s="2">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -931,62 +934,62 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>50.94</v>
+        <v>49.61</v>
       </c>
       <c r="H15">
-        <v>50.94</v>
+        <v>49.61</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>580169893</v>
+        <v>581709060</v>
       </c>
       <c r="B16" s="2">
-        <v>45943.423321759255</v>
+        <v>45947.35277777778</v>
       </c>
       <c r="C16" s="2">
-        <v>45944</v>
+        <v>45951</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16">
-        <v>80.87</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8656</v>
+        <v>125.58</v>
       </c>
       <c r="H16">
-        <v>70</v>
+        <v>125.58</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>580169868</v>
+        <v>581269382</v>
       </c>
       <c r="B17" s="2">
-        <v>45943.42288194444</v>
+        <v>45946.41150462963</v>
       </c>
       <c r="C17" s="2">
-        <v>45945</v>
+        <v>45950</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -995,10 +998,10 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>53.65</v>
+        <v>50.94</v>
       </c>
       <c r="H17">
-        <v>53.65</v>
+        <v>50.94</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,48 +1012,48 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>580169327</v>
+        <v>580169893</v>
       </c>
       <c r="B18" s="2">
-        <v>45943.41800925926</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C18" s="2">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>80.87</v>
       </c>
       <c r="G18">
-        <v>127.32</v>
+        <v>0.8656</v>
       </c>
       <c r="H18">
-        <v>127.32</v>
+        <v>70</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>579211549</v>
+        <v>580169868</v>
       </c>
       <c r="B19" s="2">
-        <v>45939.61756944444</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C19" s="2">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1059,42 +1062,42 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.08</v>
+        <v>53.65</v>
       </c>
       <c r="H19">
-        <v>129.08</v>
+        <v>53.65</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>577313732</v>
+        <v>580169327</v>
       </c>
       <c r="B20" s="2">
-        <v>45933.56972222222</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C20" s="2">
-        <v>45937</v>
+        <v>45945</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>52.65</v>
+        <v>127.32</v>
       </c>
       <c r="H20">
-        <v>105.3</v>
+        <v>127.32</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1105,16 +1108,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>576413456</v>
+        <v>579211549</v>
       </c>
       <c r="B21" s="2">
-        <v>45931.44907407407</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C21" s="2">
-        <v>45933</v>
+        <v>45943</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1123,27 +1126,27 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>51.62</v>
+        <v>129.08</v>
       </c>
       <c r="H21">
-        <v>51.62</v>
+        <v>129.08</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>576410571</v>
+        <v>577313732</v>
       </c>
       <c r="B22" s="2">
-        <v>45931.43001157408</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C22" s="2">
-        <v>45932</v>
+        <v>45937</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1152,33 +1155,33 @@
         <v>11</v>
       </c>
       <c r="F22">
-        <v>116.85</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>0.85583</v>
+        <v>52.65</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>105.3</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>575554915</v>
+        <v>576413456</v>
       </c>
       <c r="B23" s="2">
-        <v>45929.452060185184</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C23" s="2">
-        <v>45931</v>
+        <v>45933</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1187,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>51.47</v>
+        <v>51.62</v>
       </c>
       <c r="H23">
-        <v>51.47</v>
+        <v>51.62</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1201,48 +1204,48 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>573400676</v>
+        <v>576410571</v>
       </c>
       <c r="B24" s="2">
-        <v>45922.33627314815</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C24" s="2">
-        <v>45924</v>
+        <v>45932</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G24">
-        <v>127.36</v>
+        <v>0.85583</v>
       </c>
       <c r="H24">
-        <v>127.36</v>
+        <v>100</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>573399341</v>
+        <v>575554915</v>
       </c>
       <c r="B25" s="2">
-        <v>45922.324120370366</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C25" s="2">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1251,10 +1254,10 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>51</v>
+        <v>51.47</v>
       </c>
       <c r="H25">
-        <v>51</v>
+        <v>51.47</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1265,48 +1268,48 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>568717926</v>
+        <v>573400676</v>
       </c>
       <c r="B26" s="2">
-        <v>45905.5246875</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C26" s="2">
-        <v>45908</v>
+        <v>45924</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
       <c r="F26">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.85539</v>
+        <v>127.36</v>
       </c>
       <c r="H26">
-        <v>106.92</v>
+        <v>127.36</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>567931751</v>
+        <v>573399341</v>
       </c>
       <c r="B27" s="2">
-        <v>45903.333657407406</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C27" s="2">
-        <v>45905</v>
+        <v>45924</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1315,42 +1318,42 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>123.16</v>
+        <v>51</v>
       </c>
       <c r="H27">
-        <v>123.16</v>
+        <v>51</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>566723916</v>
+        <v>568717926</v>
       </c>
       <c r="B28" s="2">
-        <v>45897.62657407408</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C28" s="2">
-        <v>45898</v>
+        <v>45908</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28">
-        <v>290.69</v>
+        <v>125</v>
       </c>
       <c r="G28">
-        <v>0.86002</v>
+        <v>0.85539</v>
       </c>
       <c r="H28">
-        <v>250</v>
+        <v>106.92</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1361,16 +1364,16 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>564426812</v>
+        <v>567931751</v>
       </c>
       <c r="B29" s="2">
-        <v>45889.61331018519</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C29" s="2">
-        <v>45891</v>
+        <v>45905</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1379,10 +1382,10 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>121.62</v>
+        <v>123.16</v>
       </c>
       <c r="H29">
-        <v>121.62</v>
+        <v>123.16</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1393,28 +1396,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>564420621</v>
+        <v>566723916</v>
       </c>
       <c r="B30" s="2">
-        <v>45889.60018518519</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C30" s="2">
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>127.71</v>
+        <v>290.69</v>
       </c>
       <c r="G30">
-        <v>0.86135</v>
+        <v>0.86002</v>
       </c>
       <c r="H30">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1425,45 +1428,45 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>555657178</v>
+        <v>564426812</v>
       </c>
       <c r="B31" s="2">
-        <v>45859.48091435185</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C31" s="2">
-        <v>45860</v>
+        <v>45891</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.85771</v>
+        <v>121.62</v>
       </c>
       <c r="H31">
-        <v>85.77</v>
+        <v>121.62</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>555654532</v>
+        <v>564420621</v>
       </c>
       <c r="B32" s="2">
-        <v>45859.465474537035</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C32" s="2">
-        <v>45861</v>
+        <v>45890</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -1472,173 +1475,173 @@
         <v>11</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>127.71</v>
       </c>
       <c r="G32">
-        <v>395</v>
+        <v>0.86135</v>
       </c>
       <c r="H32">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>551218217</v>
+        <v>555657178</v>
       </c>
       <c r="B33" s="2">
-        <v>45841.369837962964</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C33" s="2">
-        <v>45845</v>
+        <v>45860</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G33">
-        <v>119.16</v>
+        <v>0.85771</v>
       </c>
       <c r="H33">
-        <v>119.16</v>
+        <v>85.77</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>551216497</v>
+        <v>555654532</v>
       </c>
       <c r="B34" s="2">
-        <v>45841.35429398148</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C34" s="2">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.84741</v>
+        <v>395</v>
       </c>
       <c r="H34">
-        <v>169.48</v>
+        <v>395</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>549290062</v>
+        <v>551218217</v>
       </c>
       <c r="B35" s="2">
-        <v>45834.39111111111</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C35" s="2">
-        <v>45835</v>
+        <v>45845</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
       <c r="F35">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.85337</v>
+        <v>119.16</v>
       </c>
       <c r="H35">
-        <v>99.84</v>
+        <v>119.16</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>546584060</v>
+        <v>551216497</v>
       </c>
       <c r="B36" s="2">
-        <v>45824.480104166665</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C36" s="2">
-        <v>45826</v>
+        <v>45845</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G36">
-        <v>114.8</v>
+        <v>0.84741</v>
       </c>
       <c r="H36">
-        <v>114.8</v>
+        <v>169.48</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>546583898</v>
+        <v>549290062</v>
       </c>
       <c r="B37" s="2">
-        <v>45824.47923611111</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C37" s="2">
-        <v>45825</v>
+        <v>45835</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G37">
-        <v>0.86376</v>
+        <v>0.85337</v>
       </c>
       <c r="H37">
-        <v>99.33</v>
+        <v>99.84</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1649,92 +1652,92 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>545459805</v>
+        <v>546584060</v>
       </c>
       <c r="B38" s="2">
-        <v>45819.41773148148</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C38" s="2">
-        <v>45820</v>
+        <v>45826</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
       </c>
       <c r="F38">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0.87444</v>
+        <v>114.8</v>
       </c>
       <c r="H38">
-        <v>43.72</v>
+        <v>114.8</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>542145647</v>
+        <v>546583898</v>
       </c>
       <c r="B39" s="2">
-        <v>45807.5672337963</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C39" s="2">
-        <v>45811</v>
+        <v>45825</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G39">
-        <v>112.4</v>
+        <v>0.86376</v>
       </c>
       <c r="H39">
-        <v>112.4</v>
+        <v>99.33</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>541352365</v>
+        <v>545459805</v>
       </c>
       <c r="B40" s="2">
-        <v>45805.594560185185</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C40" s="2">
-        <v>45806</v>
+        <v>45820</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>169.82</v>
+        <v>50</v>
       </c>
       <c r="G40">
-        <v>0.88332</v>
+        <v>0.87444</v>
       </c>
       <c r="H40">
-        <v>150.01</v>
+        <v>43.72</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1745,16 +1748,16 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>540397794</v>
+        <v>542145647</v>
       </c>
       <c r="B41" s="2">
-        <v>45800.4953125</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C41" s="2">
-        <v>45805</v>
+        <v>45811</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -1763,42 +1766,42 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>110.1385</v>
+        <v>112.4</v>
       </c>
       <c r="H41">
-        <v>110.14</v>
+        <v>112.4</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>539546182</v>
+        <v>541352365</v>
       </c>
       <c r="B42" s="2">
-        <v>45798.38793981481</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C42" s="2">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>100</v>
+        <v>169.82</v>
       </c>
       <c r="G42">
-        <v>0.88321</v>
+        <v>0.88332</v>
       </c>
       <c r="H42">
-        <v>88.32</v>
+        <v>150.01</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1809,16 +1812,16 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>530748416</v>
+        <v>540397794</v>
       </c>
       <c r="B43" s="2">
-        <v>45777.621458333335</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C43" s="2">
-        <v>45779</v>
+        <v>45805</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -1827,42 +1830,42 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>327.9</v>
+        <v>110.1385</v>
       </c>
       <c r="H43">
-        <v>327.9</v>
+        <v>110.14</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>530748345</v>
+        <v>539546182</v>
       </c>
       <c r="B44" s="2">
-        <v>45777.62107638889</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C44" s="2">
-        <v>45778</v>
+        <v>45799</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G44">
-        <v>0.88043</v>
+        <v>0.88321</v>
       </c>
       <c r="H44">
-        <v>26.41</v>
+        <v>88.32</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -1873,60 +1876,60 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>530748166</v>
+        <v>530748416</v>
       </c>
       <c r="B45" s="2">
-        <v>45777.62068287037</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C45" s="2">
-        <v>45778</v>
+        <v>45779</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0.8804</v>
+        <v>327.9</v>
       </c>
       <c r="H45">
-        <v>264.12</v>
+        <v>327.9</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>528304116</v>
+        <v>530748345</v>
       </c>
       <c r="B46" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C46" s="2">
-        <v>45772</v>
+        <v>45778</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G46">
-        <v>0.87843</v>
+        <v>0.88043</v>
       </c>
       <c r="H46">
-        <v>74.67</v>
+        <v>26.41</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -1937,60 +1940,60 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>525384379</v>
+        <v>530748166</v>
       </c>
       <c r="B47" s="2">
-        <v>45763.63711805556</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C47" s="2">
-        <v>45769</v>
+        <v>45778</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G47">
-        <v>101.9</v>
+        <v>0.8804</v>
       </c>
       <c r="H47">
-        <v>101.9</v>
+        <v>264.12</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>525383965</v>
+        <v>528304116</v>
       </c>
       <c r="B48" s="2">
-        <v>45763.634826388894</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C48" s="2">
-        <v>45764</v>
+        <v>45772</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G48">
-        <v>0.87888</v>
+        <v>0.87843</v>
       </c>
       <c r="H48">
-        <v>65.92</v>
+        <v>74.67</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2001,16 +2004,16 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>521135744</v>
+        <v>525384379</v>
       </c>
       <c r="B49" s="2">
-        <v>45754.608506944445</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C49" s="2">
-        <v>45756</v>
+        <v>45769</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -2019,10 +2022,10 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>95</v>
+        <v>101.9</v>
       </c>
       <c r="H49">
-        <v>95</v>
+        <v>101.9</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2033,28 +2036,28 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>521115122</v>
+        <v>525383965</v>
       </c>
       <c r="B50" s="2">
-        <v>45754.593506944446</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C50" s="2">
-        <v>45755</v>
+        <v>45764</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>109.66</v>
+        <v>75</v>
       </c>
       <c r="G50">
-        <v>0.91206</v>
+        <v>0.87888</v>
       </c>
       <c r="H50">
-        <v>100.02</v>
+        <v>65.92</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2065,16 +2068,16 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>519105737</v>
+        <v>521135744</v>
       </c>
       <c r="B51" s="2">
-        <v>45749.575324074074</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C51" s="2">
-        <v>45751</v>
+        <v>45756</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -2083,42 +2086,42 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>330.5499</v>
+        <v>95</v>
       </c>
       <c r="H51">
-        <v>330.55</v>
+        <v>95</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1.97</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>519105619</v>
+        <v>521115122</v>
       </c>
       <c r="B52" s="2">
-        <v>45749.575115740736</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C52" s="2">
-        <v>45750</v>
+        <v>45755</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>330</v>
+        <v>109.66</v>
       </c>
       <c r="G52">
-        <v>0.92423</v>
+        <v>0.91206</v>
       </c>
       <c r="H52">
-        <v>305</v>
+        <v>100.02</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2129,16 +2132,16 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>518501268</v>
+        <v>519105737</v>
       </c>
       <c r="B53" s="2">
-        <v>45748.342511574076</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C53" s="2">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -2147,42 +2150,42 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>106.7</v>
+        <v>330.5499</v>
       </c>
       <c r="H53">
-        <v>106.7</v>
+        <v>330.55</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1.46</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>518501204</v>
+        <v>519105619</v>
       </c>
       <c r="B54" s="2">
-        <v>45748.342199074075</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C54" s="2">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>118.85</v>
+        <v>330</v>
       </c>
       <c r="G54">
-        <v>0.92553</v>
+        <v>0.92423</v>
       </c>
       <c r="H54">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2193,16 +2196,16 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>510327986</v>
+        <v>518501268</v>
       </c>
       <c r="B55" s="2">
-        <v>45728.454201388886</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C55" s="2">
-        <v>45729.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -2211,10 +2214,10 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="H55">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2225,28 +2228,28 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>510326670</v>
+        <v>518501204</v>
       </c>
       <c r="B56" s="2">
-        <v>45728.43972222222</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C56" s="2">
-        <v>45728.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>114.54</v>
+        <v>118.85</v>
       </c>
       <c r="G56">
-        <v>0.91668</v>
+        <v>0.92553</v>
       </c>
       <c r="H56">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2257,16 +2260,16 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>506086900</v>
+        <v>510327986</v>
       </c>
       <c r="B57" s="2">
-        <v>45719.31646990741</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C57" s="2">
-        <v>45720.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -2275,42 +2278,42 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>355.9998</v>
+        <v>107</v>
       </c>
       <c r="H57">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>2.07</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>506086612</v>
+        <v>510326670</v>
       </c>
       <c r="B58" s="2">
-        <v>45719.31418981482</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C58" s="2">
-        <v>45719.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>9.74</v>
+        <v>114.54</v>
       </c>
       <c r="G58">
-        <v>0.96213</v>
+        <v>0.91668</v>
       </c>
       <c r="H58">
-        <v>9.37</v>
+        <v>105</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2321,60 +2324,60 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>506084312</v>
+        <v>506086900</v>
       </c>
       <c r="B59" s="2">
-        <v>45719.29939814815</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C59" s="2">
-        <v>45719.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59">
-        <v>204.2</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>0.96116</v>
+        <v>355.9998</v>
       </c>
       <c r="H59">
-        <v>196.27</v>
+        <v>356</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>505408659</v>
+        <v>506086612</v>
       </c>
       <c r="B60" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C60" s="2">
-        <v>45718.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>129.21</v>
+        <v>9.74</v>
       </c>
       <c r="G60">
-        <v>0.96171</v>
+        <v>0.96213</v>
       </c>
       <c r="H60">
-        <v>124.26</v>
+        <v>9.37</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2385,60 +2388,60 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>503618898</v>
+        <v>506084312</v>
       </c>
       <c r="B61" s="2">
-        <v>45713.606828703705</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C61" s="2">
-        <v>45714.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>204.2</v>
       </c>
       <c r="G61">
-        <v>112.86</v>
+        <v>0.96116</v>
       </c>
       <c r="H61">
-        <v>112.86</v>
+        <v>196.27</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>503618686</v>
+        <v>505408659</v>
       </c>
       <c r="B62" s="2">
-        <v>45713.60653935185</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C62" s="2">
-        <v>45713.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>120</v>
+        <v>129.21</v>
       </c>
       <c r="G62">
-        <v>0.9511</v>
+        <v>0.96171</v>
       </c>
       <c r="H62">
-        <v>114.13</v>
+        <v>124.26</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2449,16 +2452,16 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>499625741</v>
+        <v>503618898</v>
       </c>
       <c r="B63" s="2">
-        <v>45702.56398148148</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C63" s="2">
-        <v>45705.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -2467,42 +2470,42 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>375.25</v>
+        <v>112.86</v>
       </c>
       <c r="H63">
-        <v>375.25</v>
+        <v>112.86</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>2.11</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>499590185</v>
+        <v>503618686</v>
       </c>
       <c r="B64" s="2">
-        <v>45702.36454861111</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C64" s="2">
-        <v>45705.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>20.96</v>
+        <v>120</v>
       </c>
       <c r="G64">
-        <v>0.95429</v>
+        <v>0.9511</v>
       </c>
       <c r="H64">
-        <v>20</v>
+        <v>114.13</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2513,92 +2516,92 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>498403616</v>
+        <v>499625741</v>
       </c>
       <c r="B65" s="2">
-        <v>45700.59783564815</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C65" s="2">
-        <v>45700.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>103.4</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>0.96693</v>
+        <v>375.25</v>
       </c>
       <c r="H65">
-        <v>99.98</v>
+        <v>375.25</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>494107867</v>
+        <v>499590185</v>
       </c>
       <c r="B66" s="2">
-        <v>45691.58335648148</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C66" s="2">
-        <v>45692.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>20.96</v>
       </c>
       <c r="G66">
-        <v>112.9</v>
+        <v>0.95429</v>
       </c>
       <c r="H66">
-        <v>112.9</v>
+        <v>20</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>494049655</v>
+        <v>498403616</v>
       </c>
       <c r="B67" s="2">
-        <v>45691.31773148148</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C67" s="2">
-        <v>45691.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67">
-        <v>307.46</v>
+        <v>103.4</v>
       </c>
       <c r="G67">
-        <v>0.97578</v>
+        <v>0.96693</v>
       </c>
       <c r="H67">
-        <v>300.01</v>
+        <v>99.98</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2609,16 +2612,16 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>494049572</v>
+        <v>494107867</v>
       </c>
       <c r="B68" s="2">
-        <v>45691.31670138889</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C68" s="2">
         <v>45692.95833333333</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -2627,10 +2630,10 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>113.34</v>
+        <v>112.9</v>
       </c>
       <c r="H68">
-        <v>113.34</v>
+        <v>112.9</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2641,124 +2644,124 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>493368805</v>
+        <v>494049655</v>
       </c>
       <c r="B69" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C69" s="2">
         <v>45691.95833333333</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>307.46</v>
       </c>
       <c r="G69">
-        <v>115.9</v>
+        <v>0.97578</v>
       </c>
       <c r="H69">
-        <v>231.8</v>
+        <v>300.01</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>1.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>492836969</v>
+        <v>494049572</v>
       </c>
       <c r="B70" s="2">
-        <v>45687.621666666666</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C70" s="2">
-        <v>45687.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70">
-        <v>417.21</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>0.95874</v>
+        <v>113.34</v>
       </c>
       <c r="H70">
-        <v>400</v>
+        <v>113.34</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>491075870</v>
+        <v>493368805</v>
       </c>
       <c r="B71" s="2">
-        <v>45684.61530092593</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C71" s="2">
-        <v>45685.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71">
-        <v>114.4</v>
+        <v>115.9</v>
       </c>
       <c r="H71">
-        <v>114.4</v>
+        <v>231.8</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>491075618</v>
+        <v>492836969</v>
       </c>
       <c r="B72" s="2">
-        <v>45684.61476851851</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C72" s="2">
-        <v>45684.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72">
-        <v>115.46</v>
+        <v>417.21</v>
       </c>
       <c r="G72">
-        <v>0.95269</v>
+        <v>0.95874</v>
       </c>
       <c r="H72">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2769,16 +2772,16 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>483911545</v>
+        <v>491075870</v>
       </c>
       <c r="B73" s="2">
-        <v>45665.44930555555</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C73" s="2">
-        <v>45666.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -2787,42 +2790,42 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>360.35</v>
+        <v>114.4</v>
       </c>
       <c r="H73">
-        <v>360.35</v>
+        <v>114.4</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>483911481</v>
+        <v>491075618</v>
       </c>
       <c r="B74" s="2">
-        <v>45665.44840277778</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C74" s="2">
-        <v>45666.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74">
-        <v>365</v>
+        <v>115.46</v>
       </c>
       <c r="G74">
-        <v>0.97183</v>
+        <v>0.95269</v>
       </c>
       <c r="H74">
-        <v>354.72</v>
+        <v>110</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -2833,60 +2836,60 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>481235383</v>
+        <v>483911545</v>
       </c>
       <c r="B75" s="2">
-        <v>45660.337430555555</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C75" s="2">
-        <v>45663.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>112</v>
+        <v>360.35</v>
       </c>
       <c r="H75">
-        <v>224</v>
+        <v>360.35</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>1.76</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>481235152</v>
+        <v>483911481</v>
       </c>
       <c r="B76" s="2">
-        <v>45660.33241898148</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C76" s="2">
-        <v>45662.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
       </c>
       <c r="F76">
-        <v>226.2</v>
+        <v>365</v>
       </c>
       <c r="G76">
-        <v>0.97259</v>
+        <v>0.97183</v>
       </c>
       <c r="H76">
-        <v>220</v>
+        <v>354.72</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2897,60 +2900,60 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>476674643</v>
+        <v>481235383</v>
       </c>
       <c r="B77" s="2">
-        <v>45646.40855324074</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C77" s="2">
-        <v>45652.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77">
-        <v>355.4</v>
+        <v>112</v>
       </c>
       <c r="H77">
-        <v>355.4</v>
+        <v>224</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>476674604</v>
+        <v>481235152</v>
       </c>
       <c r="B78" s="2">
-        <v>45646.408437499995</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C78" s="2">
-        <v>45648.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78">
-        <v>215</v>
+        <v>226.2</v>
       </c>
       <c r="G78">
-        <v>0.96264</v>
+        <v>0.97259</v>
       </c>
       <c r="H78">
-        <v>206.97</v>
+        <v>220</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2961,60 +2964,60 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>476670294</v>
+        <v>476674643</v>
       </c>
       <c r="B79" s="2">
-        <v>45646.38765046296</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C79" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79">
-        <v>51.32</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>0.96299</v>
+        <v>355.4</v>
       </c>
       <c r="H79">
-        <v>49.42</v>
+        <v>355.4</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>476669731</v>
+        <v>476674604</v>
       </c>
       <c r="B80" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C80" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="G80">
-        <v>0.96251</v>
+        <v>0.96264</v>
       </c>
       <c r="H80">
-        <v>57.75</v>
+        <v>206.97</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3025,60 +3028,60 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>476123556</v>
+        <v>476670294</v>
       </c>
       <c r="B81" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C81" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>51.32</v>
       </c>
       <c r="G81">
-        <v>112.54</v>
+        <v>0.96299</v>
       </c>
       <c r="H81">
-        <v>112.54</v>
+        <v>49.42</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>476123515</v>
+        <v>476669731</v>
       </c>
       <c r="B82" s="2">
-        <v>45645.52649305556</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C82" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
       <c r="F82">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G82">
-        <v>0.96108</v>
+        <v>0.96251</v>
       </c>
       <c r="H82">
-        <v>96.11</v>
+        <v>57.75</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3089,45 +3092,45 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>471357479</v>
+        <v>476123556</v>
       </c>
       <c r="B83" s="2">
-        <v>45635.56259259259</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C83" s="2">
-        <v>45635.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83">
-        <v>8.3412</v>
+        <v>112.54</v>
       </c>
       <c r="H83">
-        <v>8.34</v>
+        <v>112.54</v>
       </c>
       <c r="I83">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>466623419</v>
+        <v>476123515</v>
       </c>
       <c r="B84" s="2">
-        <v>45622.31217592592</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C84" s="2">
-        <v>45624.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
@@ -3136,65 +3139,65 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G84">
-        <v>354.5</v>
+        <v>0.96108</v>
       </c>
       <c r="H84">
-        <v>354.5</v>
+        <v>96.11</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>2.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>466623402</v>
+        <v>471357479</v>
       </c>
       <c r="B85" s="2">
-        <v>45622.31188657407</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C85" s="2">
-        <v>45622.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F85">
-        <v>141.78</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0.95389</v>
+        <v>8.3412</v>
       </c>
       <c r="H85">
-        <v>135.24</v>
+        <v>8.34</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>462598648</v>
+        <v>466623419</v>
       </c>
       <c r="B86" s="2">
-        <v>45611.592997685184</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C86" s="2">
-        <v>45614.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -3203,138 +3206,138 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <v>111.8099</v>
+        <v>354.5</v>
       </c>
       <c r="H86">
-        <v>111.81</v>
+        <v>354.5</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1.47</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>460084933</v>
+        <v>466623402</v>
       </c>
       <c r="B87" s="2">
-        <v>45604.62016203704</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C87" s="2">
-        <v>45607.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>141.78</v>
       </c>
       <c r="G87">
-        <v>8.3836</v>
+        <v>0.95389</v>
       </c>
       <c r="H87">
-        <v>8.38</v>
+        <v>135.24</v>
       </c>
       <c r="I87">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>458847628</v>
+        <v>462598648</v>
       </c>
       <c r="B88" s="2">
-        <v>45602.26765046296</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C88" s="2">
-        <v>45602.95833333333</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88">
-        <v>341.65</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>0.93077</v>
+        <v>111.8099</v>
       </c>
       <c r="H88">
-        <v>318</v>
+        <v>111.81</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>449590057</v>
+        <v>460084933</v>
       </c>
       <c r="B89" s="2">
-        <v>45579.62847222222</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C89" s="2">
-        <v>45581</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89">
-        <v>110.9161</v>
+        <v>8.3836</v>
       </c>
       <c r="H89">
-        <v>110.92</v>
+        <v>8.38</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J89">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>449589875</v>
+        <v>458847628</v>
       </c>
       <c r="B90" s="2">
-        <v>45579.628125</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C90" s="2">
-        <v>45580</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
       </c>
       <c r="F90">
-        <v>35</v>
+        <v>341.65</v>
       </c>
       <c r="G90">
-        <v>0.91628</v>
+        <v>0.93077</v>
       </c>
       <c r="H90">
-        <v>32.07</v>
+        <v>318</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -3345,16 +3348,16 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>449589083</v>
+        <v>449590057</v>
       </c>
       <c r="B91" s="2">
-        <v>45579.62637731481</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C91" s="2">
         <v>45581</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -3363,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>110.9196</v>
+        <v>110.9161</v>
       </c>
       <c r="H91">
         <v>110.92</v>
@@ -3377,48 +3380,48 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>449588246</v>
+        <v>449589875</v>
       </c>
       <c r="B92" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.628125</v>
       </c>
       <c r="C92" s="2">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F92">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G92">
-        <v>3.4715</v>
+        <v>0.91628</v>
       </c>
       <c r="H92">
-        <v>149.27</v>
+        <v>32.07</v>
       </c>
       <c r="I92">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>445429841</v>
+        <v>449589083</v>
       </c>
       <c r="B93" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C93" s="2">
-        <v>45572</v>
+        <v>45581</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -3427,62 +3430,62 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>337.65</v>
+        <v>110.9196</v>
       </c>
       <c r="H93">
-        <v>337.65</v>
+        <v>110.92</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>445429174</v>
+        <v>449588246</v>
       </c>
       <c r="B94" s="2">
-        <v>45568.57231481481</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C94" s="2">
-        <v>45569</v>
+        <v>45581</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F94">
-        <v>369.23</v>
+        <v>43</v>
       </c>
       <c r="G94">
-        <v>0.90605</v>
+        <v>3.4715</v>
       </c>
       <c r="H94">
-        <v>334.54</v>
+        <v>149.27</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>444353954</v>
+        <v>445429841</v>
       </c>
       <c r="B95" s="2">
-        <v>45566.58853009259</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C95" s="2">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -3491,42 +3494,42 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>108.24</v>
+        <v>337.65</v>
       </c>
       <c r="H95">
-        <v>108.24</v>
+        <v>337.65</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>1.45</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>444310921</v>
+        <v>445429174</v>
       </c>
       <c r="B96" s="2">
-        <v>45566.29953703703</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C96" s="2">
-        <v>45567</v>
+        <v>45569</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
       </c>
       <c r="F96">
-        <v>60.56</v>
+        <v>369.23</v>
       </c>
       <c r="G96">
-        <v>0.89984</v>
+        <v>0.90605</v>
       </c>
       <c r="H96">
-        <v>54.49</v>
+        <v>334.54</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -3537,156 +3540,156 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>439936166</v>
+        <v>444353954</v>
       </c>
       <c r="B97" s="2">
-        <v>45554.56259259259</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C97" s="2">
-        <v>45555</v>
+        <v>45568</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97">
-        <v>62.0726</v>
+        <v>108.24</v>
       </c>
       <c r="H97">
-        <v>62.07</v>
+        <v>108.24</v>
       </c>
       <c r="I97">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>435165980</v>
+        <v>444310921</v>
       </c>
       <c r="B98" s="2">
-        <v>45541.475370370375</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C98" s="2">
-        <v>45545</v>
+        <v>45567</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>60.56</v>
       </c>
       <c r="G98">
-        <v>103.72</v>
+        <v>0.89984</v>
       </c>
       <c r="H98">
-        <v>103.72</v>
+        <v>54.49</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>435165968</v>
+        <v>439936166</v>
       </c>
       <c r="B99" s="2">
-        <v>45541.47508101852</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C99" s="2">
-        <v>45544</v>
+        <v>45555</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F99">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>0.9011</v>
+        <v>62.0726</v>
       </c>
       <c r="H99">
-        <v>0.19</v>
+        <v>62.07</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>435165951</v>
+        <v>435165980</v>
       </c>
       <c r="B100" s="2">
-        <v>45541.47487268518</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C100" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100">
-        <v>4.42</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>0.90109</v>
+        <v>103.72</v>
       </c>
       <c r="H100">
-        <v>3.98</v>
+        <v>103.72</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>435165927</v>
+        <v>435165968</v>
       </c>
       <c r="B101" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C101" s="2">
         <v>45544</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
       </c>
       <c r="F101">
-        <v>92.77</v>
+        <v>0.21</v>
       </c>
       <c r="G101">
-        <v>0.90109</v>
+        <v>0.9011</v>
       </c>
       <c r="H101">
-        <v>83.59</v>
+        <v>0.19</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -3697,112 +3700,112 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>434675474</v>
+        <v>435165951</v>
       </c>
       <c r="B102" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C102" s="2">
         <v>45544</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
       </c>
       <c r="F102">
-        <v>8</v>
+        <v>4.42</v>
       </c>
       <c r="G102">
-        <v>3.689</v>
+        <v>0.90109</v>
       </c>
       <c r="H102">
-        <v>29.51</v>
+        <v>3.98</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>434162210</v>
+        <v>435165927</v>
       </c>
       <c r="B103" s="2">
-        <v>45539.43609953704</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C103" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>92.77</v>
       </c>
       <c r="G103">
-        <v>104.42</v>
+        <v>0.90109</v>
       </c>
       <c r="H103">
-        <v>104.42</v>
+        <v>83.59</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>433696199</v>
+        <v>434675474</v>
       </c>
       <c r="B104" s="2">
-        <v>45538.68898148148</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C104" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G104">
-        <v>110.122</v>
+        <v>3.689</v>
       </c>
       <c r="H104">
-        <v>110.12</v>
+        <v>29.51</v>
       </c>
       <c r="I104">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>433626785</v>
+        <v>434162210</v>
       </c>
       <c r="B105" s="2">
-        <v>45538.39231481482</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C105" s="2">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -3811,10 +3814,10 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <v>106.54</v>
+        <v>104.42</v>
       </c>
       <c r="H105">
-        <v>106.54</v>
+        <v>104.42</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -3825,48 +3828,48 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>433626678</v>
+        <v>433696199</v>
       </c>
       <c r="B106" s="2">
-        <v>45538.391076388885</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C106" s="2">
         <v>45539</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F106">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>0.90603</v>
+        <v>110.122</v>
       </c>
       <c r="H106">
-        <v>66.96</v>
+        <v>110.12</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>432518350</v>
+        <v>433626785</v>
       </c>
       <c r="B107" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C107" s="2">
-        <v>45533</v>
+        <v>45540</v>
       </c>
       <c r="D107" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -3875,202 +3878,202 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>120.88</v>
+        <v>106.54</v>
       </c>
       <c r="H107">
-        <v>120.88</v>
+        <v>106.54</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>432515426</v>
+        <v>433626678</v>
       </c>
       <c r="B108" s="2">
-        <v>45533.54127314815</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C108" s="2">
-        <v>45537</v>
+        <v>45539</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>73.9</v>
       </c>
       <c r="G108">
-        <v>106.34</v>
+        <v>0.90603</v>
       </c>
       <c r="H108">
-        <v>106.34</v>
+        <v>66.96</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>432005364</v>
+        <v>432518350</v>
       </c>
       <c r="B109" s="2">
-        <v>45532.39208333333</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C109" s="2">
-        <v>45534</v>
+        <v>45533</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
       </c>
       <c r="F109">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G109">
-        <v>3.632</v>
+        <v>120.88</v>
       </c>
       <c r="H109">
-        <v>116.22</v>
+        <v>120.88</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>432003333</v>
+        <v>432515426</v>
       </c>
       <c r="B110" s="2">
-        <v>45532.363020833334</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C110" s="2">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>106.74</v>
+        <v>106.34</v>
       </c>
       <c r="H110">
-        <v>213.48</v>
+        <v>106.34</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>432003262</v>
+        <v>432005364</v>
       </c>
       <c r="B111" s="2">
-        <v>45532.361875</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C111" s="2">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
       </c>
       <c r="F111">
-        <v>618.74</v>
+        <v>32</v>
       </c>
       <c r="G111">
-        <v>0.89741</v>
+        <v>3.632</v>
       </c>
       <c r="H111">
-        <v>555.26</v>
+        <v>116.22</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>430366906</v>
+        <v>432003333</v>
       </c>
       <c r="B112" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C112" s="2">
-        <v>45532</v>
+        <v>45534</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
       <c r="F112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G112">
-        <v>3.6305</v>
+        <v>106.74</v>
       </c>
       <c r="H112">
-        <v>10.89</v>
+        <v>213.48</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>1.26</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>430365249</v>
+        <v>432003262</v>
       </c>
       <c r="B113" s="2">
-        <v>45527.27630787037</v>
+        <v>45532.361875</v>
       </c>
       <c r="C113" s="2">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
       <c r="F113">
-        <v>4.63</v>
+        <v>618.74</v>
       </c>
       <c r="G113">
-        <v>0.8999</v>
+        <v>0.89741</v>
       </c>
       <c r="H113">
-        <v>4.17</v>
+        <v>555.26</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -4081,13 +4084,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>428453232</v>
+        <v>430366906</v>
       </c>
       <c r="B114" s="2">
-        <v>45523.56253472222</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C114" s="2">
-        <v>45524</v>
+        <v>45532</v>
       </c>
       <c r="D114" t="s">
         <v>19</v>
@@ -4096,173 +4099,173 @@
         <v>11</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G114">
-        <v>60.046</v>
+        <v>3.6305</v>
       </c>
       <c r="H114">
-        <v>60.05</v>
+        <v>10.89</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>428444212</v>
+        <v>430365249</v>
       </c>
       <c r="B115" s="2">
-        <v>45523.47152777778</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C115" s="2">
-        <v>45525</v>
+        <v>45530</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>4.63</v>
       </c>
       <c r="G115">
-        <v>105.3</v>
+        <v>0.8999</v>
       </c>
       <c r="H115">
-        <v>105.3</v>
+        <v>4.17</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>428437042</v>
+        <v>428453232</v>
       </c>
       <c r="B116" s="2">
-        <v>45523.37878472223</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C116" s="2">
         <v>45524</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="F116">
-        <v>7.15</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>0.90756</v>
+        <v>60.046</v>
       </c>
       <c r="H116">
-        <v>6.49</v>
+        <v>60.05</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>428437005</v>
+        <v>428444212</v>
       </c>
       <c r="B117" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C117" s="2">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
       <c r="F117">
-        <v>150.15</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>0.90756</v>
+        <v>105.3</v>
       </c>
       <c r="H117">
-        <v>136.27</v>
+        <v>105.3</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>426418112</v>
+        <v>428437042</v>
       </c>
       <c r="B118" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C118" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>7.15</v>
       </c>
       <c r="G118">
-        <v>102.02</v>
+        <v>0.90756</v>
       </c>
       <c r="H118">
-        <v>102.02</v>
+        <v>6.49</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>426417966</v>
+        <v>428437005</v>
       </c>
       <c r="B119" s="2">
-        <v>45517.58042824074</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C119" s="2">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
       </c>
       <c r="F119">
-        <v>10.45</v>
+        <v>150.15</v>
       </c>
       <c r="G119">
-        <v>0.91439</v>
+        <v>0.90756</v>
       </c>
       <c r="H119">
-        <v>9.56</v>
+        <v>136.27</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -4273,65 +4276,129 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>426416264</v>
+        <v>426418112</v>
       </c>
       <c r="B120" s="2">
-        <v>45517.57699074074</v>
+        <v>45517.58078703703</v>
       </c>
       <c r="C120" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
       </c>
       <c r="F120">
-        <v>4.86</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>0.91458</v>
+        <v>102.02</v>
       </c>
       <c r="H120">
-        <v>4.44</v>
+        <v>102.02</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>426416183</v>
+        <v>426417966</v>
       </c>
       <c r="B121" s="2">
-        <v>45517.576678240745</v>
+        <v>45517.58042824074</v>
       </c>
       <c r="C121" s="2">
         <v>45518</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
       </c>
       <c r="F121">
+        <v>10.45</v>
+      </c>
+      <c r="G121">
+        <v>0.91439</v>
+      </c>
+      <c r="H121">
+        <v>9.56</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>426416264</v>
+      </c>
+      <c r="B122" s="2">
+        <v>45517.57699074074</v>
+      </c>
+      <c r="C122" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122">
+        <v>4.86</v>
+      </c>
+      <c r="G122">
+        <v>0.91458</v>
+      </c>
+      <c r="H122">
+        <v>4.44</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>426416183</v>
+      </c>
+      <c r="B123" s="2">
+        <v>45517.576678240745</v>
+      </c>
+      <c r="C123" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123">
         <v>102.05</v>
       </c>
-      <c r="G121">
+      <c r="G123">
         <v>0.91459</v>
       </c>
-      <c r="H121">
+      <c r="H123">
         <v>93.33</v>
       </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
         <v>0</v>
       </c>
     </row>

--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="22">
   <si>
     <t>Number</t>
   </si>
@@ -43,10 +43,13 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>AETF.GR</t>
+    <t>EQAC.EU</t>
   </si>
   <si>
     <t xml:space="preserve"> Buy </t>
+  </si>
+  <si>
+    <t>AETF.GR</t>
   </si>
   <si>
     <t>EUR/USD</t>
@@ -59,9 +62,6 @@
   </si>
   <si>
     <t>VUAA.EU</t>
-  </si>
-  <si>
-    <t>EQAC.EU</t>
   </si>
   <si>
     <t>NNOX.US</t>
@@ -463,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J124"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -500,13 +500,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>596219726</v>
+        <v>598550485</v>
       </c>
       <c r="B2" s="2">
-        <v>45994.43467592592</v>
+        <v>46001.63391203704</v>
       </c>
       <c r="C2" s="2">
-        <v>45995.95833333333</v>
+        <v>46002.95833333333</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -515,77 +515,77 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>53.57</v>
+        <v>437.25</v>
       </c>
       <c r="H2">
-        <v>107.14</v>
+        <v>437.25</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.49</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>595820593</v>
+        <v>596219726</v>
       </c>
       <c r="B3" s="2">
-        <v>45993.61094907408</v>
+        <v>45994.43467592592</v>
       </c>
       <c r="C3" s="2">
-        <v>45993.95833333333</v>
+        <v>45995.95833333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>1.1572</v>
+        <v>53.57</v>
       </c>
       <c r="H3">
-        <v>347.16</v>
+        <v>107.14</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>592858794</v>
+        <v>595820593</v>
       </c>
       <c r="B4" s="2">
-        <v>45982.31758101852</v>
+        <v>45993.61094907408</v>
       </c>
       <c r="C4" s="2">
-        <v>45984.95833333333</v>
+        <v>45993.95833333333</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4">
-        <v>138.08</v>
+        <v>300</v>
       </c>
       <c r="G4">
-        <v>0.86907</v>
+        <v>1.1572</v>
       </c>
       <c r="H4">
-        <v>120</v>
+        <v>347.16</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -596,13 +596,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>592858764</v>
+        <v>592858794</v>
       </c>
       <c r="B5" s="2">
-        <v>45982.31736111111</v>
+        <v>45982.31758101852</v>
       </c>
       <c r="C5" s="2">
-        <v>45985.95833333333</v>
+        <v>45984.95833333333</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -611,33 +611,33 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>138.08</v>
       </c>
       <c r="G5">
-        <v>125.7</v>
+        <v>0.86907</v>
       </c>
       <c r="H5">
-        <v>125.7</v>
+        <v>120</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>591521660</v>
+        <v>592858764</v>
       </c>
       <c r="B6" s="2">
-        <v>45979.40392361111</v>
+        <v>45982.31736111111</v>
       </c>
       <c r="C6" s="2">
-        <v>45980.95833333333</v>
+        <v>45985.95833333333</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -646,30 +646,30 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.58</v>
+        <v>125.7</v>
       </c>
       <c r="H6">
-        <v>51.58</v>
+        <v>125.7</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>591521571</v>
+        <v>591521660</v>
       </c>
       <c r="B7" s="2">
-        <v>45979.40299768519</v>
+        <v>45979.40392361111</v>
       </c>
       <c r="C7" s="2">
         <v>45980.95833333333</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -678,30 +678,30 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>127.64</v>
+        <v>51.58</v>
       </c>
       <c r="H7">
-        <v>127.64</v>
+        <v>51.58</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>589647638</v>
+        <v>591521571</v>
       </c>
       <c r="B8" s="2">
-        <v>45973.3719212963</v>
+        <v>45979.40299768519</v>
       </c>
       <c r="C8" s="2">
-        <v>45974.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -710,94 +710,94 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>131.88</v>
+        <v>127.64</v>
       </c>
       <c r="H8">
-        <v>131.88</v>
+        <v>127.64</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>589647623</v>
+        <v>589647638</v>
       </c>
       <c r="B9" s="2">
-        <v>45973.371666666666</v>
+        <v>45973.3719212963</v>
       </c>
       <c r="C9" s="2">
-        <v>45973.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>138.34</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.86743</v>
+        <v>131.88</v>
       </c>
       <c r="H9">
-        <v>120</v>
+        <v>131.88</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>589647528</v>
+        <v>589647623</v>
       </c>
       <c r="B10" s="2">
-        <v>45973.37055555556</v>
+        <v>45973.371666666666</v>
       </c>
       <c r="C10" s="2">
-        <v>45974.95833333333</v>
+        <v>45973.95833333333</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>138.34</v>
       </c>
       <c r="G10">
-        <v>51.88</v>
+        <v>0.86743</v>
       </c>
       <c r="H10">
-        <v>51.88</v>
+        <v>120</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>587179374</v>
+        <v>589647528</v>
       </c>
       <c r="B11" s="2">
-        <v>45965.315983796296</v>
+        <v>45973.37055555556</v>
       </c>
       <c r="C11" s="2">
-        <v>45966.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -806,10 +806,10 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.67</v>
+        <v>51.88</v>
       </c>
       <c r="H11">
-        <v>50.67</v>
+        <v>51.88</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -820,16 +820,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>586793234</v>
+        <v>587179374</v>
       </c>
       <c r="B12" s="2">
-        <v>45964.60378472222</v>
+        <v>45965.315983796296</v>
       </c>
       <c r="C12" s="2">
-        <v>45965.95833333333</v>
+        <v>45966.95833333333</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -838,94 +838,94 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>130.9</v>
+        <v>50.67</v>
       </c>
       <c r="H12">
-        <v>130.9</v>
+        <v>50.67</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>586792895</v>
+        <v>586793234</v>
       </c>
       <c r="B13" s="2">
-        <v>45964.60346064815</v>
+        <v>45964.60378472222</v>
       </c>
       <c r="C13" s="2">
-        <v>45964.95833333333</v>
+        <v>45965.95833333333</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>286.74</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.87185</v>
+        <v>130.9</v>
       </c>
       <c r="H13">
-        <v>249.99</v>
+        <v>130.9</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>585309488</v>
+        <v>586792895</v>
       </c>
       <c r="B14" s="2">
-        <v>45959.31539351852</v>
+        <v>45964.60346064815</v>
       </c>
       <c r="C14" s="2">
-        <v>45960.95833333333</v>
+        <v>45964.95833333333</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>286.74</v>
       </c>
       <c r="G14">
-        <v>51.01</v>
+        <v>0.87185</v>
       </c>
       <c r="H14">
-        <v>51.01</v>
+        <v>249.99</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>581709074</v>
+        <v>585309488</v>
       </c>
       <c r="B15" s="2">
-        <v>45947.35291666667</v>
+        <v>45959.31539351852</v>
       </c>
       <c r="C15" s="2">
-        <v>45951</v>
+        <v>45960.95833333333</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -934,30 +934,30 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.61</v>
+        <v>51.01</v>
       </c>
       <c r="H15">
-        <v>49.61</v>
+        <v>51.01</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>581709060</v>
+        <v>581709074</v>
       </c>
       <c r="B16" s="2">
-        <v>45947.35277777778</v>
+        <v>45947.35291666667</v>
       </c>
       <c r="C16" s="2">
         <v>45951</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -966,30 +966,30 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>125.58</v>
+        <v>49.61</v>
       </c>
       <c r="H16">
-        <v>125.58</v>
+        <v>49.61</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>581269382</v>
+        <v>581709060</v>
       </c>
       <c r="B17" s="2">
-        <v>45946.41150462963</v>
+        <v>45947.35277777778</v>
       </c>
       <c r="C17" s="2">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -998,94 +998,94 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.94</v>
+        <v>125.58</v>
       </c>
       <c r="H17">
-        <v>50.94</v>
+        <v>125.58</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>580169893</v>
+        <v>581269382</v>
       </c>
       <c r="B18" s="2">
-        <v>45943.423321759255</v>
+        <v>45946.41150462963</v>
       </c>
       <c r="C18" s="2">
-        <v>45944</v>
+        <v>45950</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18">
-        <v>80.87</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8656</v>
+        <v>50.94</v>
       </c>
       <c r="H18">
-        <v>70</v>
+        <v>50.94</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>580169868</v>
+        <v>580169893</v>
       </c>
       <c r="B19" s="2">
-        <v>45943.42288194444</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C19" s="2">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>80.87</v>
       </c>
       <c r="G19">
-        <v>53.65</v>
+        <v>0.8656</v>
       </c>
       <c r="H19">
-        <v>53.65</v>
+        <v>70</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>580169327</v>
+        <v>580169868</v>
       </c>
       <c r="B20" s="2">
-        <v>45943.41800925926</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C20" s="2">
         <v>45945</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1094,30 +1094,30 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>127.32</v>
+        <v>53.65</v>
       </c>
       <c r="H20">
-        <v>127.32</v>
+        <v>53.65</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>579211549</v>
+        <v>580169327</v>
       </c>
       <c r="B21" s="2">
-        <v>45939.61756944444</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C21" s="2">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1126,158 +1126,158 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>129.08</v>
+        <v>127.32</v>
       </c>
       <c r="H21">
-        <v>129.08</v>
+        <v>127.32</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>577313732</v>
+        <v>579211549</v>
       </c>
       <c r="B22" s="2">
-        <v>45933.56972222222</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C22" s="2">
-        <v>45937</v>
+        <v>45943</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>52.65</v>
+        <v>129.08</v>
       </c>
       <c r="H22">
-        <v>105.3</v>
+        <v>129.08</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>576413456</v>
+        <v>577313732</v>
       </c>
       <c r="B23" s="2">
-        <v>45931.44907407407</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C23" s="2">
-        <v>45933</v>
+        <v>45937</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>51.62</v>
+        <v>52.65</v>
       </c>
       <c r="H23">
-        <v>51.62</v>
+        <v>105.3</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>576410571</v>
+        <v>576413456</v>
       </c>
       <c r="B24" s="2">
-        <v>45931.43001157408</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C24" s="2">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>116.85</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.85583</v>
+        <v>51.62</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>51.62</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>575554915</v>
+        <v>576410571</v>
       </c>
       <c r="B25" s="2">
-        <v>45929.452060185184</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C25" s="2">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G25">
-        <v>51.47</v>
+        <v>0.85583</v>
       </c>
       <c r="H25">
-        <v>51.47</v>
+        <v>100</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>573400676</v>
+        <v>575554915</v>
       </c>
       <c r="B26" s="2">
-        <v>45922.33627314815</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C26" s="2">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -1286,30 +1286,30 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>127.36</v>
+        <v>51.47</v>
       </c>
       <c r="H26">
-        <v>127.36</v>
+        <v>51.47</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>573399341</v>
+        <v>573400676</v>
       </c>
       <c r="B27" s="2">
-        <v>45922.324120370366</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C27" s="2">
         <v>45924</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1318,59 +1318,59 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>51</v>
+        <v>127.36</v>
       </c>
       <c r="H27">
-        <v>51</v>
+        <v>127.36</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>568717926</v>
+        <v>573399341</v>
       </c>
       <c r="B28" s="2">
-        <v>45905.5246875</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C28" s="2">
-        <v>45908</v>
+        <v>45924</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.85539</v>
+        <v>51</v>
       </c>
       <c r="H28">
-        <v>106.92</v>
+        <v>51</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>567931751</v>
+        <v>568717926</v>
       </c>
       <c r="B29" s="2">
-        <v>45903.333657407406</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C29" s="2">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -1379,62 +1379,62 @@
         <v>11</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="G29">
-        <v>123.16</v>
+        <v>0.85539</v>
       </c>
       <c r="H29">
-        <v>123.16</v>
+        <v>106.92</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>566723916</v>
+        <v>567931751</v>
       </c>
       <c r="B30" s="2">
-        <v>45897.62657407408</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C30" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>290.69</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.86002</v>
+        <v>123.16</v>
       </c>
       <c r="H30">
-        <v>250</v>
+        <v>123.16</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>564426812</v>
+        <v>566723916</v>
       </c>
       <c r="B31" s="2">
-        <v>45889.61331018519</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C31" s="2">
-        <v>45891</v>
+        <v>45898</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -1443,77 +1443,77 @@
         <v>11</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>290.69</v>
       </c>
       <c r="G31">
-        <v>121.62</v>
+        <v>0.86002</v>
       </c>
       <c r="H31">
-        <v>121.62</v>
+        <v>250</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>564420621</v>
+        <v>564426812</v>
       </c>
       <c r="B32" s="2">
-        <v>45889.60018518519</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C32" s="2">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32">
-        <v>127.71</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.86135</v>
+        <v>121.62</v>
       </c>
       <c r="H32">
-        <v>110</v>
+        <v>121.62</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>555657178</v>
+        <v>564420621</v>
       </c>
       <c r="B33" s="2">
-        <v>45859.48091435185</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C33" s="2">
-        <v>45860</v>
+        <v>45890</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
       <c r="F33">
-        <v>100</v>
+        <v>127.71</v>
       </c>
       <c r="G33">
-        <v>0.85771</v>
+        <v>0.86135</v>
       </c>
       <c r="H33">
-        <v>85.77</v>
+        <v>110</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1524,48 +1524,48 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>555654532</v>
+        <v>555657178</v>
       </c>
       <c r="B34" s="2">
-        <v>45859.465474537035</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C34" s="2">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G34">
-        <v>395</v>
+        <v>0.85771</v>
       </c>
       <c r="H34">
-        <v>395</v>
+        <v>85.77</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>551218217</v>
+        <v>555654532</v>
       </c>
       <c r="B35" s="2">
-        <v>45841.369837962964</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C35" s="2">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1574,74 +1574,74 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>119.16</v>
+        <v>395</v>
       </c>
       <c r="H35">
-        <v>119.16</v>
+        <v>395</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>551216497</v>
+        <v>551218217</v>
       </c>
       <c r="B36" s="2">
-        <v>45841.35429398148</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C36" s="2">
         <v>45845</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.84741</v>
+        <v>119.16</v>
       </c>
       <c r="H36">
-        <v>169.48</v>
+        <v>119.16</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>549290062</v>
+        <v>551216497</v>
       </c>
       <c r="B37" s="2">
-        <v>45834.39111111111</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C37" s="2">
-        <v>45835</v>
+        <v>45845</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="G37">
-        <v>0.85337</v>
+        <v>0.84741</v>
       </c>
       <c r="H37">
-        <v>99.84</v>
+        <v>169.48</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>546584060</v>
+        <v>549290062</v>
       </c>
       <c r="B38" s="2">
-        <v>45824.480104166665</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C38" s="2">
-        <v>45826</v>
+        <v>45835</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -1667,77 +1667,77 @@
         <v>11</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="G38">
-        <v>114.8</v>
+        <v>0.85337</v>
       </c>
       <c r="H38">
-        <v>114.8</v>
+        <v>99.84</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>546583898</v>
+        <v>546584060</v>
       </c>
       <c r="B39" s="2">
-        <v>45824.47923611111</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C39" s="2">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.86376</v>
+        <v>114.8</v>
       </c>
       <c r="H39">
-        <v>99.33</v>
+        <v>114.8</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>545459805</v>
+        <v>546583898</v>
       </c>
       <c r="B40" s="2">
-        <v>45819.41773148148</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C40" s="2">
-        <v>45820</v>
+        <v>45825</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="G40">
-        <v>0.87444</v>
+        <v>0.86376</v>
       </c>
       <c r="H40">
-        <v>43.72</v>
+        <v>99.33</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1748,13 +1748,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>542145647</v>
+        <v>545459805</v>
       </c>
       <c r="B41" s="2">
-        <v>45807.5672337963</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C41" s="2">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
@@ -1763,62 +1763,62 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G41">
-        <v>112.4</v>
+        <v>0.87444</v>
       </c>
       <c r="H41">
-        <v>112.4</v>
+        <v>43.72</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>541352365</v>
+        <v>542145647</v>
       </c>
       <c r="B42" s="2">
-        <v>45805.594560185185</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C42" s="2">
-        <v>45806</v>
+        <v>45811</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>169.82</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0.88332</v>
+        <v>112.4</v>
       </c>
       <c r="H42">
-        <v>150.01</v>
+        <v>112.4</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>540397794</v>
+        <v>541352365</v>
       </c>
       <c r="B43" s="2">
-        <v>45800.4953125</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C43" s="2">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
@@ -1827,141 +1827,141 @@
         <v>11</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>169.82</v>
       </c>
       <c r="G43">
-        <v>110.1385</v>
+        <v>0.88332</v>
       </c>
       <c r="H43">
-        <v>110.14</v>
+        <v>150.01</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>539546182</v>
+        <v>540397794</v>
       </c>
       <c r="B44" s="2">
-        <v>45798.38793981481</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C44" s="2">
-        <v>45799</v>
+        <v>45805</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0.88321</v>
+        <v>110.1385</v>
       </c>
       <c r="H44">
-        <v>88.32</v>
+        <v>110.14</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>530748416</v>
+        <v>539546182</v>
       </c>
       <c r="B45" s="2">
-        <v>45777.621458333335</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C45" s="2">
-        <v>45779</v>
+        <v>45799</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G45">
-        <v>327.9</v>
+        <v>0.88321</v>
       </c>
       <c r="H45">
-        <v>327.9</v>
+        <v>88.32</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>530748345</v>
+        <v>530748416</v>
       </c>
       <c r="B46" s="2">
-        <v>45777.62107638889</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C46" s="2">
-        <v>45778</v>
+        <v>45779</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>0.88043</v>
+        <v>327.9</v>
       </c>
       <c r="H46">
-        <v>26.41</v>
+        <v>327.9</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>530748166</v>
+        <v>530748345</v>
       </c>
       <c r="B47" s="2">
-        <v>45777.62068287037</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C47" s="2">
         <v>45778</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G47">
-        <v>0.8804</v>
+        <v>0.88043</v>
       </c>
       <c r="H47">
-        <v>264.12</v>
+        <v>26.41</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -1972,28 +1972,28 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>528304116</v>
+        <v>530748166</v>
       </c>
       <c r="B48" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C48" s="2">
-        <v>45772</v>
+        <v>45778</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="G48">
-        <v>0.87843</v>
+        <v>0.8804</v>
       </c>
       <c r="H48">
-        <v>74.67</v>
+        <v>264.12</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2004,13 +2004,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>525384379</v>
+        <v>528304116</v>
       </c>
       <c r="B49" s="2">
-        <v>45763.63711805556</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C49" s="2">
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
@@ -2019,62 +2019,62 @@
         <v>11</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G49">
-        <v>101.9</v>
+        <v>0.87843</v>
       </c>
       <c r="H49">
-        <v>101.9</v>
+        <v>74.67</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>525383965</v>
+        <v>525384379</v>
       </c>
       <c r="B50" s="2">
-        <v>45763.634826388894</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C50" s="2">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>0.87888</v>
+        <v>101.9</v>
       </c>
       <c r="H50">
-        <v>65.92</v>
+        <v>101.9</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>521135744</v>
+        <v>525383965</v>
       </c>
       <c r="B51" s="2">
-        <v>45754.608506944445</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C51" s="2">
-        <v>45756</v>
+        <v>45764</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
@@ -2083,123 +2083,123 @@
         <v>11</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G51">
-        <v>95</v>
+        <v>0.87888</v>
       </c>
       <c r="H51">
-        <v>95</v>
+        <v>65.92</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>521115122</v>
+        <v>521135744</v>
       </c>
       <c r="B52" s="2">
-        <v>45754.593506944446</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C52" s="2">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>109.66</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>0.91206</v>
+        <v>95</v>
       </c>
       <c r="H52">
-        <v>100.02</v>
+        <v>95</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>519105737</v>
+        <v>521115122</v>
       </c>
       <c r="B53" s="2">
-        <v>45749.575324074074</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C53" s="2">
-        <v>45751</v>
+        <v>45755</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>109.66</v>
       </c>
       <c r="G53">
-        <v>330.5499</v>
+        <v>0.91206</v>
       </c>
       <c r="H53">
-        <v>330.55</v>
+        <v>100.02</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>519105619</v>
+        <v>519105737</v>
       </c>
       <c r="B54" s="2">
-        <v>45749.575115740736</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C54" s="2">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0.92423</v>
+        <v>330.5499</v>
       </c>
       <c r="H54">
-        <v>305</v>
+        <v>330.55</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>518501268</v>
+        <v>519105619</v>
       </c>
       <c r="B55" s="2">
-        <v>45748.342511574076</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C55" s="2">
         <v>45750</v>
@@ -2211,62 +2211,62 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="G55">
-        <v>106.7</v>
+        <v>0.92423</v>
       </c>
       <c r="H55">
-        <v>106.7</v>
+        <v>305</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>518501204</v>
+        <v>518501268</v>
       </c>
       <c r="B56" s="2">
-        <v>45748.342199074075</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C56" s="2">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>118.85</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>0.92553</v>
+        <v>106.7</v>
       </c>
       <c r="H56">
-        <v>110</v>
+        <v>106.7</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>510327986</v>
+        <v>518501204</v>
       </c>
       <c r="B57" s="2">
-        <v>45728.454201388886</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C57" s="2">
-        <v>45729.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
@@ -2275,141 +2275,141 @@
         <v>11</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>118.85</v>
       </c>
       <c r="G57">
-        <v>107</v>
+        <v>0.92553</v>
       </c>
       <c r="H57">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>510326670</v>
+        <v>510327986</v>
       </c>
       <c r="B58" s="2">
-        <v>45728.43972222222</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C58" s="2">
-        <v>45728.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>114.54</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>0.91668</v>
+        <v>107</v>
       </c>
       <c r="H58">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>506086900</v>
+        <v>510326670</v>
       </c>
       <c r="B59" s="2">
-        <v>45719.31646990741</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C59" s="2">
-        <v>45720.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>114.54</v>
       </c>
       <c r="G59">
-        <v>355.9998</v>
+        <v>0.91668</v>
       </c>
       <c r="H59">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>506086612</v>
+        <v>506086900</v>
       </c>
       <c r="B60" s="2">
-        <v>45719.31418981482</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C60" s="2">
-        <v>45719.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>9.74</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>0.96213</v>
+        <v>355.9998</v>
       </c>
       <c r="H60">
-        <v>9.37</v>
+        <v>356</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>506084312</v>
+        <v>506086612</v>
       </c>
       <c r="B61" s="2">
-        <v>45719.29939814815</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C61" s="2">
         <v>45719.95833333333</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61">
-        <v>204.2</v>
+        <v>9.74</v>
       </c>
       <c r="G61">
-        <v>0.96116</v>
+        <v>0.96213</v>
       </c>
       <c r="H61">
-        <v>196.27</v>
+        <v>9.37</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2420,28 +2420,28 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>505408659</v>
+        <v>506084312</v>
       </c>
       <c r="B62" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C62" s="2">
-        <v>45718.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>129.21</v>
+        <v>204.2</v>
       </c>
       <c r="G62">
-        <v>0.96171</v>
+        <v>0.96116</v>
       </c>
       <c r="H62">
-        <v>124.26</v>
+        <v>196.27</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2452,13 +2452,13 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>503618898</v>
+        <v>505408659</v>
       </c>
       <c r="B63" s="2">
-        <v>45713.606828703705</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C63" s="2">
-        <v>45714.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
@@ -2467,141 +2467,141 @@
         <v>11</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>129.21</v>
       </c>
       <c r="G63">
-        <v>112.86</v>
+        <v>0.96171</v>
       </c>
       <c r="H63">
-        <v>112.86</v>
+        <v>124.26</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>503618686</v>
+        <v>503618898</v>
       </c>
       <c r="B64" s="2">
-        <v>45713.60653935185</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C64" s="2">
-        <v>45713.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>0.9511</v>
+        <v>112.86</v>
       </c>
       <c r="H64">
-        <v>114.13</v>
+        <v>112.86</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>499625741</v>
+        <v>503618686</v>
       </c>
       <c r="B65" s="2">
-        <v>45702.56398148148</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C65" s="2">
-        <v>45705.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G65">
-        <v>375.25</v>
+        <v>0.9511</v>
       </c>
       <c r="H65">
-        <v>375.25</v>
+        <v>114.13</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>2.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>499590185</v>
+        <v>499625741</v>
       </c>
       <c r="B66" s="2">
-        <v>45702.36454861111</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C66" s="2">
         <v>45705.95833333333</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66">
-        <v>20.96</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>0.95429</v>
+        <v>375.25</v>
       </c>
       <c r="H66">
-        <v>20</v>
+        <v>375.25</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>498403616</v>
+        <v>499590185</v>
       </c>
       <c r="B67" s="2">
-        <v>45700.59783564815</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C67" s="2">
-        <v>45700.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67">
-        <v>103.4</v>
+        <v>20.96</v>
       </c>
       <c r="G67">
-        <v>0.96693</v>
+        <v>0.95429</v>
       </c>
       <c r="H67">
-        <v>99.98</v>
+        <v>20</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2612,13 +2612,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>494107867</v>
+        <v>498403616</v>
       </c>
       <c r="B68" s="2">
-        <v>45691.58335648148</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C68" s="2">
-        <v>45692.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
@@ -2627,62 +2627,62 @@
         <v>11</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>103.4</v>
       </c>
       <c r="G68">
-        <v>112.9</v>
+        <v>0.96693</v>
       </c>
       <c r="H68">
-        <v>112.9</v>
+        <v>99.98</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>494049655</v>
+        <v>494107867</v>
       </c>
       <c r="B69" s="2">
-        <v>45691.31773148148</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C69" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69">
-        <v>307.46</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0.97578</v>
+        <v>112.9</v>
       </c>
       <c r="H69">
-        <v>300.01</v>
+        <v>112.9</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>494049572</v>
+        <v>494049655</v>
       </c>
       <c r="B70" s="2">
-        <v>45691.31670138889</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C70" s="2">
-        <v>45692.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
@@ -2691,94 +2691,94 @@
         <v>11</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>307.46</v>
       </c>
       <c r="G70">
-        <v>113.34</v>
+        <v>0.97578</v>
       </c>
       <c r="H70">
-        <v>113.34</v>
+        <v>300.01</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>493368805</v>
+        <v>494049572</v>
       </c>
       <c r="B71" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C71" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>115.9</v>
+        <v>113.34</v>
       </c>
       <c r="H71">
-        <v>231.8</v>
+        <v>113.34</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>492836969</v>
+        <v>493368805</v>
       </c>
       <c r="B72" s="2">
-        <v>45687.621666666666</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C72" s="2">
-        <v>45687.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72">
-        <v>417.21</v>
+        <v>2</v>
       </c>
       <c r="G72">
-        <v>0.95874</v>
+        <v>115.9</v>
       </c>
       <c r="H72">
-        <v>400</v>
+        <v>231.8</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>491075870</v>
+        <v>492836969</v>
       </c>
       <c r="B73" s="2">
-        <v>45684.61530092593</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C73" s="2">
-        <v>45685.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
@@ -2787,126 +2787,126 @@
         <v>11</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>417.21</v>
       </c>
       <c r="G73">
-        <v>114.4</v>
+        <v>0.95874</v>
       </c>
       <c r="H73">
-        <v>114.4</v>
+        <v>400</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>491075618</v>
+        <v>491075870</v>
       </c>
       <c r="B74" s="2">
-        <v>45684.61476851851</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C74" s="2">
-        <v>45684.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74">
-        <v>115.46</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0.95269</v>
+        <v>114.4</v>
       </c>
       <c r="H74">
-        <v>110</v>
+        <v>114.4</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>483911545</v>
+        <v>491075618</v>
       </c>
       <c r="B75" s="2">
-        <v>45665.44930555555</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C75" s="2">
-        <v>45666.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>115.46</v>
       </c>
       <c r="G75">
-        <v>360.35</v>
+        <v>0.95269</v>
       </c>
       <c r="H75">
-        <v>360.35</v>
+        <v>110</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>483911481</v>
+        <v>483911545</v>
       </c>
       <c r="B76" s="2">
-        <v>45665.44840277778</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C76" s="2">
         <v>45666.95833333333</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
       </c>
       <c r="F76">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>0.97183</v>
+        <v>360.35</v>
       </c>
       <c r="H76">
-        <v>354.72</v>
+        <v>360.35</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>481235383</v>
+        <v>483911481</v>
       </c>
       <c r="B77" s="2">
-        <v>45660.337430555555</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C77" s="2">
-        <v>45663.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
@@ -2915,141 +2915,141 @@
         <v>11</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>365</v>
       </c>
       <c r="G77">
-        <v>112</v>
+        <v>0.97183</v>
       </c>
       <c r="H77">
-        <v>224</v>
+        <v>354.72</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>481235152</v>
+        <v>481235383</v>
       </c>
       <c r="B78" s="2">
-        <v>45660.33241898148</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C78" s="2">
-        <v>45662.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78">
-        <v>226.2</v>
+        <v>2</v>
       </c>
       <c r="G78">
-        <v>0.97259</v>
+        <v>112</v>
       </c>
       <c r="H78">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>476674643</v>
+        <v>481235152</v>
       </c>
       <c r="B79" s="2">
-        <v>45646.40855324074</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C79" s="2">
-        <v>45652.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>226.2</v>
       </c>
       <c r="G79">
-        <v>355.4</v>
+        <v>0.97259</v>
       </c>
       <c r="H79">
-        <v>355.4</v>
+        <v>220</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>476674604</v>
+        <v>476674643</v>
       </c>
       <c r="B80" s="2">
-        <v>45646.408437499995</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C80" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>0.96264</v>
+        <v>355.4</v>
       </c>
       <c r="H80">
-        <v>206.97</v>
+        <v>355.4</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>476670294</v>
+        <v>476674604</v>
       </c>
       <c r="B81" s="2">
-        <v>45646.38765046296</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C81" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="F81">
-        <v>51.32</v>
+        <v>215</v>
       </c>
       <c r="G81">
-        <v>0.96299</v>
+        <v>0.96264</v>
       </c>
       <c r="H81">
-        <v>49.42</v>
+        <v>206.97</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3060,28 +3060,28 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>476669731</v>
+        <v>476670294</v>
       </c>
       <c r="B82" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C82" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
       <c r="F82">
-        <v>60</v>
+        <v>51.32</v>
       </c>
       <c r="G82">
-        <v>0.96251</v>
+        <v>0.96299</v>
       </c>
       <c r="H82">
-        <v>57.75</v>
+        <v>49.42</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>476123556</v>
+        <v>476669731</v>
       </c>
       <c r="B83" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C83" s="2">
         <v>45648.95833333333</v>
@@ -3107,158 +3107,158 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G83">
-        <v>112.54</v>
+        <v>0.96251</v>
       </c>
       <c r="H83">
-        <v>112.54</v>
+        <v>57.75</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>476123515</v>
+        <v>476123556</v>
       </c>
       <c r="B84" s="2">
-        <v>45645.52649305556</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C84" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0.96108</v>
+        <v>112.54</v>
       </c>
       <c r="H84">
-        <v>96.11</v>
+        <v>112.54</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>471357479</v>
+        <v>476123515</v>
       </c>
       <c r="B85" s="2">
-        <v>45635.56259259259</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C85" s="2">
-        <v>45635.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G85">
-        <v>8.3412</v>
+        <v>0.96108</v>
       </c>
       <c r="H85">
-        <v>8.34</v>
+        <v>96.11</v>
       </c>
       <c r="I85">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>466623419</v>
+        <v>471357479</v>
       </c>
       <c r="B86" s="2">
-        <v>45622.31217592592</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C86" s="2">
-        <v>45624.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86">
-        <v>354.5</v>
+        <v>8.3412</v>
       </c>
       <c r="H86">
-        <v>354.5</v>
+        <v>8.34</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J86">
-        <v>2.05</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>466623402</v>
+        <v>466623419</v>
       </c>
       <c r="B87" s="2">
-        <v>45622.31188657407</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C87" s="2">
-        <v>45622.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
       </c>
       <c r="F87">
-        <v>141.78</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>0.95389</v>
+        <v>354.5</v>
       </c>
       <c r="H87">
-        <v>135.24</v>
+        <v>354.5</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>462598648</v>
+        <v>466623402</v>
       </c>
       <c r="B88" s="2">
-        <v>45611.592997685184</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C88" s="2">
-        <v>45614.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
@@ -3267,94 +3267,94 @@
         <v>11</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>141.78</v>
       </c>
       <c r="G88">
-        <v>111.8099</v>
+        <v>0.95389</v>
       </c>
       <c r="H88">
-        <v>111.81</v>
+        <v>135.24</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>460084933</v>
+        <v>462598648</v>
       </c>
       <c r="B89" s="2">
-        <v>45604.62016203704</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C89" s="2">
-        <v>45607.95833333333</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89">
-        <v>8.3836</v>
+        <v>111.8099</v>
       </c>
       <c r="H89">
-        <v>8.38</v>
+        <v>111.81</v>
       </c>
       <c r="I89">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>458847628</v>
+        <v>460084933</v>
       </c>
       <c r="B90" s="2">
-        <v>45602.26765046296</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C90" s="2">
-        <v>45602.95833333333</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" t="s">
         <v>14</v>
       </c>
-      <c r="E90" t="s">
-        <v>11</v>
-      </c>
       <c r="F90">
-        <v>341.65</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>0.93077</v>
+        <v>8.3836</v>
       </c>
       <c r="H90">
-        <v>318</v>
+        <v>8.38</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>449590057</v>
+        <v>458847628</v>
       </c>
       <c r="B91" s="2">
-        <v>45579.62847222222</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C91" s="2">
-        <v>45581</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
@@ -3363,62 +3363,62 @@
         <v>11</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>341.65</v>
       </c>
       <c r="G91">
-        <v>110.9161</v>
+        <v>0.93077</v>
       </c>
       <c r="H91">
-        <v>110.92</v>
+        <v>318</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>449589875</v>
+        <v>449590057</v>
       </c>
       <c r="B92" s="2">
-        <v>45579.628125</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C92" s="2">
-        <v>45580</v>
+        <v>45581</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0.91628</v>
+        <v>110.9161</v>
       </c>
       <c r="H92">
-        <v>32.07</v>
+        <v>110.92</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>449589083</v>
+        <v>449589875</v>
       </c>
       <c r="B93" s="2">
-        <v>45579.62637731481</v>
+        <v>45579.628125</v>
       </c>
       <c r="C93" s="2">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="D93" t="s">
         <v>15</v>
@@ -3427,126 +3427,126 @@
         <v>11</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G93">
-        <v>110.9196</v>
+        <v>0.91628</v>
       </c>
       <c r="H93">
-        <v>110.92</v>
+        <v>32.07</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>449588246</v>
+        <v>449589083</v>
       </c>
       <c r="B94" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C94" s="2">
         <v>45581</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F94">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>3.4715</v>
+        <v>110.9196</v>
       </c>
       <c r="H94">
-        <v>149.27</v>
+        <v>110.92</v>
       </c>
       <c r="I94">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>445429841</v>
+        <v>449588246</v>
       </c>
       <c r="B95" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C95" s="2">
-        <v>45572</v>
+        <v>45581</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G95">
-        <v>337.65</v>
+        <v>3.4715</v>
       </c>
       <c r="H95">
-        <v>337.65</v>
+        <v>149.27</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J95">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>445429174</v>
+        <v>445429841</v>
       </c>
       <c r="B96" s="2">
-        <v>45568.57231481481</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C96" s="2">
-        <v>45569</v>
+        <v>45572</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
       </c>
       <c r="F96">
-        <v>369.23</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>0.90605</v>
+        <v>337.65</v>
       </c>
       <c r="H96">
-        <v>334.54</v>
+        <v>337.65</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>444353954</v>
+        <v>445429174</v>
       </c>
       <c r="B97" s="2">
-        <v>45566.58853009259</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C97" s="2">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="D97" t="s">
         <v>15</v>
@@ -3555,173 +3555,173 @@
         <v>11</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>369.23</v>
       </c>
       <c r="G97">
-        <v>108.24</v>
+        <v>0.90605</v>
       </c>
       <c r="H97">
-        <v>108.24</v>
+        <v>334.54</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>444310921</v>
+        <v>444353954</v>
       </c>
       <c r="B98" s="2">
-        <v>45566.29953703703</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C98" s="2">
-        <v>45567</v>
+        <v>45568</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
       <c r="F98">
-        <v>60.56</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>0.89984</v>
+        <v>108.24</v>
       </c>
       <c r="H98">
-        <v>54.49</v>
+        <v>108.24</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>439936166</v>
+        <v>444310921</v>
       </c>
       <c r="B99" s="2">
-        <v>45554.56259259259</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C99" s="2">
-        <v>45555</v>
+        <v>45567</v>
       </c>
       <c r="D99" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>60.56</v>
       </c>
       <c r="G99">
-        <v>62.0726</v>
+        <v>0.89984</v>
       </c>
       <c r="H99">
-        <v>62.07</v>
+        <v>54.49</v>
       </c>
       <c r="I99">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>435165980</v>
+        <v>439936166</v>
       </c>
       <c r="B100" s="2">
-        <v>45541.475370370375</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C100" s="2">
-        <v>45545</v>
+        <v>45555</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100">
-        <v>103.72</v>
+        <v>62.0726</v>
       </c>
       <c r="H100">
-        <v>103.72</v>
+        <v>62.07</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J100">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>435165968</v>
+        <v>435165980</v>
       </c>
       <c r="B101" s="2">
-        <v>45541.47508101852</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C101" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
       </c>
       <c r="F101">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>0.9011</v>
+        <v>103.72</v>
       </c>
       <c r="H101">
-        <v>0.19</v>
+        <v>103.72</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>435165951</v>
+        <v>435165968</v>
       </c>
       <c r="B102" s="2">
-        <v>45541.47487268518</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C102" s="2">
         <v>45544</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
       </c>
       <c r="F102">
-        <v>4.42</v>
+        <v>0.21</v>
       </c>
       <c r="G102">
-        <v>0.90109</v>
+        <v>0.9011</v>
       </c>
       <c r="H102">
-        <v>3.98</v>
+        <v>0.19</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -3732,28 +3732,28 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>435165927</v>
+        <v>435165951</v>
       </c>
       <c r="B103" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C103" s="2">
         <v>45544</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
       </c>
       <c r="F103">
-        <v>92.77</v>
+        <v>4.42</v>
       </c>
       <c r="G103">
         <v>0.90109</v>
       </c>
       <c r="H103">
-        <v>83.59</v>
+        <v>3.98</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -3764,208 +3764,208 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>434675474</v>
+        <v>435165927</v>
       </c>
       <c r="B104" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C104" s="2">
         <v>45544</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
       </c>
       <c r="F104">
-        <v>8</v>
+        <v>92.77</v>
       </c>
       <c r="G104">
-        <v>3.689</v>
+        <v>0.90109</v>
       </c>
       <c r="H104">
-        <v>29.51</v>
+        <v>83.59</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>434162210</v>
+        <v>434675474</v>
       </c>
       <c r="B105" s="2">
-        <v>45539.43609953704</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C105" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G105">
-        <v>104.42</v>
+        <v>3.689</v>
       </c>
       <c r="H105">
-        <v>104.42</v>
+        <v>29.51</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>433696199</v>
+        <v>434162210</v>
       </c>
       <c r="B106" s="2">
-        <v>45538.68898148148</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C106" s="2">
-        <v>45539</v>
+        <v>45541</v>
       </c>
       <c r="D106" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
       <c r="G106">
-        <v>110.122</v>
+        <v>104.42</v>
       </c>
       <c r="H106">
-        <v>110.12</v>
+        <v>104.42</v>
       </c>
       <c r="I106">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J106">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>433626785</v>
+        <v>433696199</v>
       </c>
       <c r="B107" s="2">
-        <v>45538.39231481482</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C107" s="2">
-        <v>45540</v>
+        <v>45539</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F107">
         <v>1</v>
       </c>
       <c r="G107">
-        <v>106.54</v>
+        <v>110.122</v>
       </c>
       <c r="H107">
-        <v>106.54</v>
+        <v>110.12</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J107">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>433626678</v>
+        <v>433626785</v>
       </c>
       <c r="B108" s="2">
-        <v>45538.391076388885</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C108" s="2">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
       </c>
       <c r="F108">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>0.90603</v>
+        <v>106.54</v>
       </c>
       <c r="H108">
-        <v>66.96</v>
+        <v>106.54</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>432518350</v>
+        <v>433626678</v>
       </c>
       <c r="B109" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C109" s="2">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="D109" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>73.9</v>
       </c>
       <c r="G109">
-        <v>120.88</v>
+        <v>0.90603</v>
       </c>
       <c r="H109">
-        <v>120.88</v>
+        <v>66.96</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>432515426</v>
+        <v>432518350</v>
       </c>
       <c r="B110" s="2">
-        <v>45533.54127314815</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C110" s="2">
-        <v>45537</v>
+        <v>45533</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
@@ -3974,222 +3974,222 @@
         <v>1</v>
       </c>
       <c r="G110">
-        <v>106.34</v>
+        <v>120.88</v>
       </c>
       <c r="H110">
-        <v>106.34</v>
+        <v>120.88</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>432005364</v>
+        <v>432515426</v>
       </c>
       <c r="B111" s="2">
-        <v>45532.39208333333</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C111" s="2">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
       </c>
       <c r="F111">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>3.632</v>
+        <v>106.34</v>
       </c>
       <c r="H111">
-        <v>116.22</v>
+        <v>106.34</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>1.84</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>432003333</v>
+        <v>432005364</v>
       </c>
       <c r="B112" s="2">
-        <v>45532.363020833334</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C112" s="2">
         <v>45534</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G112">
-        <v>106.74</v>
+        <v>3.632</v>
       </c>
       <c r="H112">
-        <v>213.48</v>
+        <v>116.22</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>432003262</v>
+        <v>432003333</v>
       </c>
       <c r="B113" s="2">
-        <v>45532.361875</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C113" s="2">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
       <c r="F113">
-        <v>618.74</v>
+        <v>2</v>
       </c>
       <c r="G113">
-        <v>0.89741</v>
+        <v>106.74</v>
       </c>
       <c r="H113">
-        <v>555.26</v>
+        <v>213.48</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>430366906</v>
+        <v>432003262</v>
       </c>
       <c r="B114" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.361875</v>
       </c>
       <c r="C114" s="2">
-        <v>45532</v>
+        <v>45533</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>618.74</v>
       </c>
       <c r="G114">
-        <v>3.6305</v>
+        <v>0.89741</v>
       </c>
       <c r="H114">
-        <v>10.89</v>
+        <v>555.26</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>1.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>430365249</v>
+        <v>430366906</v>
       </c>
       <c r="B115" s="2">
-        <v>45527.27630787037</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C115" s="2">
-        <v>45530</v>
+        <v>45532</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
       </c>
       <c r="F115">
-        <v>4.63</v>
+        <v>3</v>
       </c>
       <c r="G115">
-        <v>0.8999</v>
+        <v>3.6305</v>
       </c>
       <c r="H115">
-        <v>4.17</v>
+        <v>10.89</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>428453232</v>
+        <v>430365249</v>
       </c>
       <c r="B116" s="2">
-        <v>45523.56253472222</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C116" s="2">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="D116" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>4.63</v>
       </c>
       <c r="G116">
-        <v>60.046</v>
+        <v>0.8999</v>
       </c>
       <c r="H116">
-        <v>60.05</v>
+        <v>4.17</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>428444212</v>
+        <v>428453232</v>
       </c>
       <c r="B117" s="2">
-        <v>45523.47152777778</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C117" s="2">
-        <v>45525</v>
+        <v>45524</v>
       </c>
       <c r="D117" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
@@ -4198,74 +4198,74 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <v>105.3</v>
+        <v>60.046</v>
       </c>
       <c r="H117">
-        <v>105.3</v>
+        <v>60.05</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>428437042</v>
+        <v>428444212</v>
       </c>
       <c r="B118" s="2">
-        <v>45523.37878472223</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C118" s="2">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
       <c r="F118">
-        <v>7.15</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>0.90756</v>
+        <v>105.3</v>
       </c>
       <c r="H118">
-        <v>6.49</v>
+        <v>105.3</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>428437005</v>
+        <v>428437042</v>
       </c>
       <c r="B119" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C119" s="2">
         <v>45524</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
       </c>
       <c r="F119">
-        <v>150.15</v>
+        <v>7.15</v>
       </c>
       <c r="G119">
         <v>0.90756</v>
       </c>
       <c r="H119">
-        <v>136.27</v>
+        <v>6.49</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -4276,13 +4276,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>426418112</v>
+        <v>428437005</v>
       </c>
       <c r="B120" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C120" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="D120" t="s">
         <v>15</v>
@@ -4291,77 +4291,77 @@
         <v>11</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>150.15</v>
       </c>
       <c r="G120">
-        <v>102.02</v>
+        <v>0.90756</v>
       </c>
       <c r="H120">
-        <v>102.02</v>
+        <v>136.27</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>426417966</v>
+        <v>426418112</v>
       </c>
       <c r="B121" s="2">
-        <v>45517.58042824074</v>
+        <v>45517.58078703703</v>
       </c>
       <c r="C121" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="D121" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
       </c>
       <c r="F121">
-        <v>10.45</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>0.91439</v>
+        <v>102.02</v>
       </c>
       <c r="H121">
-        <v>9.56</v>
+        <v>102.02</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>426416264</v>
+        <v>426417966</v>
       </c>
       <c r="B122" s="2">
-        <v>45517.57699074074</v>
+        <v>45517.58042824074</v>
       </c>
       <c r="C122" s="2">
         <v>45518</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
       </c>
       <c r="F122">
-        <v>4.86</v>
+        <v>10.45</v>
       </c>
       <c r="G122">
-        <v>0.91458</v>
+        <v>0.91439</v>
       </c>
       <c r="H122">
-        <v>4.44</v>
+        <v>9.56</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -4372,33 +4372,65 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>426416183</v>
+        <v>426416264</v>
       </c>
       <c r="B123" s="2">
-        <v>45517.576678240745</v>
+        <v>45517.57699074074</v>
       </c>
       <c r="C123" s="2">
         <v>45518</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
       </c>
       <c r="F123">
+        <v>4.86</v>
+      </c>
+      <c r="G123">
+        <v>0.91458</v>
+      </c>
+      <c r="H123">
+        <v>4.44</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>426416183</v>
+      </c>
+      <c r="B124" s="2">
+        <v>45517.576678240745</v>
+      </c>
+      <c r="C124" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124">
         <v>102.05</v>
       </c>
-      <c r="G123">
+      <c r="G124">
         <v>0.91459</v>
       </c>
-      <c r="H123">
+      <c r="H124">
         <v>93.33</v>
       </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
         <v>0</v>
       </c>
     </row>

--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="22">
   <si>
     <t>Number</t>
   </si>
@@ -43,13 +43,13 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>EQAC.EU</t>
+    <t>AETF.GR</t>
   </si>
   <si>
     <t xml:space="preserve"> Buy </t>
   </si>
   <si>
-    <t>AETF.GR</t>
+    <t>EQAC.EU</t>
   </si>
   <si>
     <t>EUR/USD</t>
@@ -463,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J125"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -500,13 +500,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>598550485</v>
+        <v>604650426</v>
       </c>
       <c r="B2" s="2">
-        <v>46001.63391203704</v>
+        <v>46021.38538194445</v>
       </c>
       <c r="C2" s="2">
-        <v>46002.95833333333</v>
+        <v>46023.95833333333</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -515,30 +515,30 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>437.25</v>
+        <v>54.19</v>
       </c>
       <c r="H2">
-        <v>437.25</v>
+        <v>108.38</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.15</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>596219726</v>
+        <v>598550485</v>
       </c>
       <c r="B3" s="2">
-        <v>45994.43467592592</v>
+        <v>46001.63391203704</v>
       </c>
       <c r="C3" s="2">
-        <v>45995.95833333333</v>
+        <v>46002.95833333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -547,77 +547,77 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>53.57</v>
+        <v>437.25</v>
       </c>
       <c r="H3">
-        <v>107.14</v>
+        <v>437.25</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.49</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>595820593</v>
+        <v>596219726</v>
       </c>
       <c r="B4" s="2">
-        <v>45993.61094907408</v>
+        <v>45994.43467592592</v>
       </c>
       <c r="C4" s="2">
-        <v>45993.95833333333</v>
+        <v>45995.95833333333</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>1.1572</v>
+        <v>53.57</v>
       </c>
       <c r="H4">
-        <v>347.16</v>
+        <v>107.14</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>592858794</v>
+        <v>595820593</v>
       </c>
       <c r="B5" s="2">
-        <v>45982.31758101852</v>
+        <v>45993.61094907408</v>
       </c>
       <c r="C5" s="2">
-        <v>45984.95833333333</v>
+        <v>45993.95833333333</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>138.08</v>
+        <v>300</v>
       </c>
       <c r="G5">
-        <v>0.86907</v>
+        <v>1.1572</v>
       </c>
       <c r="H5">
-        <v>120</v>
+        <v>347.16</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -628,48 +628,48 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>592858764</v>
+        <v>592858794</v>
       </c>
       <c r="B6" s="2">
-        <v>45982.31736111111</v>
+        <v>45982.31758101852</v>
       </c>
       <c r="C6" s="2">
-        <v>45985.95833333333</v>
+        <v>45984.95833333333</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>138.08</v>
       </c>
       <c r="G6">
-        <v>125.7</v>
+        <v>0.86907</v>
       </c>
       <c r="H6">
-        <v>125.7</v>
+        <v>120</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>591521660</v>
+        <v>592858764</v>
       </c>
       <c r="B7" s="2">
-        <v>45979.40392361111</v>
+        <v>45982.31736111111</v>
       </c>
       <c r="C7" s="2">
-        <v>45980.95833333333</v>
+        <v>45985.95833333333</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -678,30 +678,30 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.58</v>
+        <v>125.7</v>
       </c>
       <c r="H7">
-        <v>51.58</v>
+        <v>125.7</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>591521571</v>
+        <v>591521660</v>
       </c>
       <c r="B8" s="2">
-        <v>45979.40299768519</v>
+        <v>45979.40392361111</v>
       </c>
       <c r="C8" s="2">
         <v>45980.95833333333</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -710,27 +710,27 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>127.64</v>
+        <v>51.58</v>
       </c>
       <c r="H8">
-        <v>127.64</v>
+        <v>51.58</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>589647638</v>
+        <v>591521571</v>
       </c>
       <c r="B9" s="2">
-        <v>45973.3719212963</v>
+        <v>45979.40299768519</v>
       </c>
       <c r="C9" s="2">
-        <v>45974.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -742,94 +742,94 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>131.88</v>
+        <v>127.64</v>
       </c>
       <c r="H9">
-        <v>131.88</v>
+        <v>127.64</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>589647623</v>
+        <v>589647638</v>
       </c>
       <c r="B10" s="2">
-        <v>45973.371666666666</v>
+        <v>45973.3719212963</v>
       </c>
       <c r="C10" s="2">
-        <v>45973.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>138.34</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.86743</v>
+        <v>131.88</v>
       </c>
       <c r="H10">
-        <v>120</v>
+        <v>131.88</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>589647528</v>
+        <v>589647623</v>
       </c>
       <c r="B11" s="2">
-        <v>45973.37055555556</v>
+        <v>45973.371666666666</v>
       </c>
       <c r="C11" s="2">
-        <v>45974.95833333333</v>
+        <v>45973.95833333333</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>138.34</v>
       </c>
       <c r="G11">
-        <v>51.88</v>
+        <v>0.86743</v>
       </c>
       <c r="H11">
-        <v>51.88</v>
+        <v>120</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>587179374</v>
+        <v>589647528</v>
       </c>
       <c r="B12" s="2">
-        <v>45965.315983796296</v>
+        <v>45973.37055555556</v>
       </c>
       <c r="C12" s="2">
-        <v>45966.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -838,10 +838,10 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.67</v>
+        <v>51.88</v>
       </c>
       <c r="H12">
-        <v>50.67</v>
+        <v>51.88</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,16 +852,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>586793234</v>
+        <v>587179374</v>
       </c>
       <c r="B13" s="2">
-        <v>45964.60378472222</v>
+        <v>45965.315983796296</v>
       </c>
       <c r="C13" s="2">
-        <v>45965.95833333333</v>
+        <v>45966.95833333333</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -870,94 +870,94 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>130.9</v>
+        <v>50.67</v>
       </c>
       <c r="H13">
-        <v>130.9</v>
+        <v>50.67</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>586792895</v>
+        <v>586793234</v>
       </c>
       <c r="B14" s="2">
-        <v>45964.60346064815</v>
+        <v>45964.60378472222</v>
       </c>
       <c r="C14" s="2">
-        <v>45964.95833333333</v>
+        <v>45965.95833333333</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14">
-        <v>286.74</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.87185</v>
+        <v>130.9</v>
       </c>
       <c r="H14">
-        <v>249.99</v>
+        <v>130.9</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>585309488</v>
+        <v>586792895</v>
       </c>
       <c r="B15" s="2">
-        <v>45959.31539351852</v>
+        <v>45964.60346064815</v>
       </c>
       <c r="C15" s="2">
-        <v>45960.95833333333</v>
+        <v>45964.95833333333</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>286.74</v>
       </c>
       <c r="G15">
-        <v>51.01</v>
+        <v>0.87185</v>
       </c>
       <c r="H15">
-        <v>51.01</v>
+        <v>249.99</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>581709074</v>
+        <v>585309488</v>
       </c>
       <c r="B16" s="2">
-        <v>45947.35291666667</v>
+        <v>45959.31539351852</v>
       </c>
       <c r="C16" s="2">
-        <v>45951</v>
+        <v>45960.95833333333</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -966,30 +966,30 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>49.61</v>
+        <v>51.01</v>
       </c>
       <c r="H16">
-        <v>49.61</v>
+        <v>51.01</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>581709060</v>
+        <v>581709074</v>
       </c>
       <c r="B17" s="2">
-        <v>45947.35277777778</v>
+        <v>45947.35291666667</v>
       </c>
       <c r="C17" s="2">
         <v>45951</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -998,30 +998,30 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>125.58</v>
+        <v>49.61</v>
       </c>
       <c r="H17">
-        <v>125.58</v>
+        <v>49.61</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>581269382</v>
+        <v>581709060</v>
       </c>
       <c r="B18" s="2">
-        <v>45946.41150462963</v>
+        <v>45947.35277777778</v>
       </c>
       <c r="C18" s="2">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1030,94 +1030,94 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.94</v>
+        <v>125.58</v>
       </c>
       <c r="H18">
-        <v>50.94</v>
+        <v>125.58</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>580169893</v>
+        <v>581269382</v>
       </c>
       <c r="B19" s="2">
-        <v>45943.423321759255</v>
+        <v>45946.41150462963</v>
       </c>
       <c r="C19" s="2">
-        <v>45944</v>
+        <v>45950</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19">
-        <v>80.87</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8656</v>
+        <v>50.94</v>
       </c>
       <c r="H19">
-        <v>70</v>
+        <v>50.94</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>580169868</v>
+        <v>580169893</v>
       </c>
       <c r="B20" s="2">
-        <v>45943.42288194444</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C20" s="2">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>80.87</v>
       </c>
       <c r="G20">
-        <v>53.65</v>
+        <v>0.8656</v>
       </c>
       <c r="H20">
-        <v>53.65</v>
+        <v>70</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>580169327</v>
+        <v>580169868</v>
       </c>
       <c r="B21" s="2">
-        <v>45943.41800925926</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C21" s="2">
         <v>45945</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1126,27 +1126,27 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>127.32</v>
+        <v>53.65</v>
       </c>
       <c r="H21">
-        <v>127.32</v>
+        <v>53.65</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>579211549</v>
+        <v>580169327</v>
       </c>
       <c r="B22" s="2">
-        <v>45939.61756944444</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C22" s="2">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -1158,158 +1158,158 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>129.08</v>
+        <v>127.32</v>
       </c>
       <c r="H22">
-        <v>129.08</v>
+        <v>127.32</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>577313732</v>
+        <v>579211549</v>
       </c>
       <c r="B23" s="2">
-        <v>45933.56972222222</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C23" s="2">
-        <v>45937</v>
+        <v>45943</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>52.65</v>
+        <v>129.08</v>
       </c>
       <c r="H23">
-        <v>105.3</v>
+        <v>129.08</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>576413456</v>
+        <v>577313732</v>
       </c>
       <c r="B24" s="2">
-        <v>45931.44907407407</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C24" s="2">
-        <v>45933</v>
+        <v>45937</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>51.62</v>
+        <v>52.65</v>
       </c>
       <c r="H24">
-        <v>51.62</v>
+        <v>105.3</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>576410571</v>
+        <v>576413456</v>
       </c>
       <c r="B25" s="2">
-        <v>45931.43001157408</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C25" s="2">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
       </c>
       <c r="F25">
-        <v>116.85</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.85583</v>
+        <v>51.62</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>51.62</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>575554915</v>
+        <v>576410571</v>
       </c>
       <c r="B26" s="2">
-        <v>45929.452060185184</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C26" s="2">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G26">
-        <v>51.47</v>
+        <v>0.85583</v>
       </c>
       <c r="H26">
-        <v>51.47</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>573400676</v>
+        <v>575554915</v>
       </c>
       <c r="B27" s="2">
-        <v>45922.33627314815</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C27" s="2">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1318,30 +1318,30 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>127.36</v>
+        <v>51.47</v>
       </c>
       <c r="H27">
-        <v>127.36</v>
+        <v>51.47</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>573399341</v>
+        <v>573400676</v>
       </c>
       <c r="B28" s="2">
-        <v>45922.324120370366</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C28" s="2">
         <v>45924</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -1350,187 +1350,187 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>51</v>
+        <v>127.36</v>
       </c>
       <c r="H28">
-        <v>51</v>
+        <v>127.36</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>568717926</v>
+        <v>573399341</v>
       </c>
       <c r="B29" s="2">
-        <v>45905.5246875</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C29" s="2">
-        <v>45908</v>
+        <v>45924</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.85539</v>
+        <v>51</v>
       </c>
       <c r="H29">
-        <v>106.92</v>
+        <v>51</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>567931751</v>
+        <v>568717926</v>
       </c>
       <c r="B30" s="2">
-        <v>45903.333657407406</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C30" s="2">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="G30">
-        <v>123.16</v>
+        <v>0.85539</v>
       </c>
       <c r="H30">
-        <v>123.16</v>
+        <v>106.92</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>566723916</v>
+        <v>567931751</v>
       </c>
       <c r="B31" s="2">
-        <v>45897.62657407408</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C31" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31">
-        <v>290.69</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.86002</v>
+        <v>123.16</v>
       </c>
       <c r="H31">
-        <v>250</v>
+        <v>123.16</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>564426812</v>
+        <v>566723916</v>
       </c>
       <c r="B32" s="2">
-        <v>45889.61331018519</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C32" s="2">
-        <v>45891</v>
+        <v>45898</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>290.69</v>
       </c>
       <c r="G32">
-        <v>121.62</v>
+        <v>0.86002</v>
       </c>
       <c r="H32">
-        <v>121.62</v>
+        <v>250</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>564420621</v>
+        <v>564426812</v>
       </c>
       <c r="B33" s="2">
-        <v>45889.60018518519</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C33" s="2">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
       <c r="F33">
-        <v>127.71</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.86135</v>
+        <v>121.62</v>
       </c>
       <c r="H33">
-        <v>110</v>
+        <v>121.62</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>555657178</v>
+        <v>564420621</v>
       </c>
       <c r="B34" s="2">
-        <v>45859.48091435185</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C34" s="2">
-        <v>45860</v>
+        <v>45890</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -1539,13 +1539,13 @@
         <v>11</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>127.71</v>
       </c>
       <c r="G34">
-        <v>0.85771</v>
+        <v>0.86135</v>
       </c>
       <c r="H34">
-        <v>85.77</v>
+        <v>110</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1556,48 +1556,48 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>555654532</v>
+        <v>555657178</v>
       </c>
       <c r="B35" s="2">
-        <v>45859.465474537035</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C35" s="2">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G35">
-        <v>395</v>
+        <v>0.85771</v>
       </c>
       <c r="H35">
-        <v>395</v>
+        <v>85.77</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>551218217</v>
+        <v>555654532</v>
       </c>
       <c r="B36" s="2">
-        <v>45841.369837962964</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C36" s="2">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1606,59 +1606,59 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>119.16</v>
+        <v>395</v>
       </c>
       <c r="H36">
-        <v>119.16</v>
+        <v>395</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>551216497</v>
+        <v>551218217</v>
       </c>
       <c r="B37" s="2">
-        <v>45841.35429398148</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C37" s="2">
         <v>45845</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.84741</v>
+        <v>119.16</v>
       </c>
       <c r="H37">
-        <v>169.48</v>
+        <v>119.16</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>549290062</v>
+        <v>551216497</v>
       </c>
       <c r="B38" s="2">
-        <v>45834.39111111111</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C38" s="2">
-        <v>45835</v>
+        <v>45845</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -1667,13 +1667,13 @@
         <v>11</v>
       </c>
       <c r="F38">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="G38">
-        <v>0.85337</v>
+        <v>0.84741</v>
       </c>
       <c r="H38">
-        <v>99.84</v>
+        <v>169.48</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1684,77 +1684,77 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>546584060</v>
+        <v>549290062</v>
       </c>
       <c r="B39" s="2">
-        <v>45824.480104166665</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C39" s="2">
-        <v>45826</v>
+        <v>45835</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="G39">
-        <v>114.8</v>
+        <v>0.85337</v>
       </c>
       <c r="H39">
-        <v>114.8</v>
+        <v>99.84</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>546583898</v>
+        <v>546584060</v>
       </c>
       <c r="B40" s="2">
-        <v>45824.47923611111</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C40" s="2">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0.86376</v>
+        <v>114.8</v>
       </c>
       <c r="H40">
-        <v>99.33</v>
+        <v>114.8</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>545459805</v>
+        <v>546583898</v>
       </c>
       <c r="B41" s="2">
-        <v>45819.41773148148</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C41" s="2">
-        <v>45820</v>
+        <v>45825</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
@@ -1763,13 +1763,13 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="G41">
-        <v>0.87444</v>
+        <v>0.86376</v>
       </c>
       <c r="H41">
-        <v>43.72</v>
+        <v>99.33</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1780,202 +1780,202 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>542145647</v>
+        <v>545459805</v>
       </c>
       <c r="B42" s="2">
-        <v>45807.5672337963</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C42" s="2">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G42">
-        <v>112.4</v>
+        <v>0.87444</v>
       </c>
       <c r="H42">
-        <v>112.4</v>
+        <v>43.72</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>541352365</v>
+        <v>542145647</v>
       </c>
       <c r="B43" s="2">
-        <v>45805.594560185185</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C43" s="2">
-        <v>45806</v>
+        <v>45811</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>169.82</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0.88332</v>
+        <v>112.4</v>
       </c>
       <c r="H43">
-        <v>150.01</v>
+        <v>112.4</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>540397794</v>
+        <v>541352365</v>
       </c>
       <c r="B44" s="2">
-        <v>45800.4953125</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C44" s="2">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>169.82</v>
       </c>
       <c r="G44">
-        <v>110.1385</v>
+        <v>0.88332</v>
       </c>
       <c r="H44">
-        <v>110.14</v>
+        <v>150.01</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>539546182</v>
+        <v>540397794</v>
       </c>
       <c r="B45" s="2">
-        <v>45798.38793981481</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C45" s="2">
-        <v>45799</v>
+        <v>45805</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0.88321</v>
+        <v>110.1385</v>
       </c>
       <c r="H45">
-        <v>88.32</v>
+        <v>110.14</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>530748416</v>
+        <v>539546182</v>
       </c>
       <c r="B46" s="2">
-        <v>45777.621458333335</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C46" s="2">
-        <v>45779</v>
+        <v>45799</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G46">
-        <v>327.9</v>
+        <v>0.88321</v>
       </c>
       <c r="H46">
-        <v>327.9</v>
+        <v>88.32</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>1.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>530748345</v>
+        <v>530748416</v>
       </c>
       <c r="B47" s="2">
-        <v>45777.62107638889</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C47" s="2">
-        <v>45778</v>
+        <v>45779</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0.88043</v>
+        <v>327.9</v>
       </c>
       <c r="H47">
-        <v>26.41</v>
+        <v>327.9</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>530748166</v>
+        <v>530748345</v>
       </c>
       <c r="B48" s="2">
-        <v>45777.62068287037</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C48" s="2">
         <v>45778</v>
@@ -1987,13 +1987,13 @@
         <v>11</v>
       </c>
       <c r="F48">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G48">
-        <v>0.8804</v>
+        <v>0.88043</v>
       </c>
       <c r="H48">
-        <v>264.12</v>
+        <v>26.41</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2004,13 +2004,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>528304116</v>
+        <v>530748166</v>
       </c>
       <c r="B49" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C49" s="2">
-        <v>45772</v>
+        <v>45778</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
@@ -2019,13 +2019,13 @@
         <v>11</v>
       </c>
       <c r="F49">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="G49">
-        <v>0.87843</v>
+        <v>0.8804</v>
       </c>
       <c r="H49">
-        <v>74.67</v>
+        <v>264.12</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2036,394 +2036,394 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>525384379</v>
+        <v>528304116</v>
       </c>
       <c r="B50" s="2">
-        <v>45763.63711805556</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C50" s="2">
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G50">
-        <v>101.9</v>
+        <v>0.87843</v>
       </c>
       <c r="H50">
-        <v>101.9</v>
+        <v>74.67</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>525383965</v>
+        <v>525384379</v>
       </c>
       <c r="B51" s="2">
-        <v>45763.634826388894</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C51" s="2">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
       </c>
       <c r="F51">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0.87888</v>
+        <v>101.9</v>
       </c>
       <c r="H51">
-        <v>65.92</v>
+        <v>101.9</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>521135744</v>
+        <v>525383965</v>
       </c>
       <c r="B52" s="2">
-        <v>45754.608506944445</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C52" s="2">
-        <v>45756</v>
+        <v>45764</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G52">
-        <v>95</v>
+        <v>0.87888</v>
       </c>
       <c r="H52">
-        <v>95</v>
+        <v>65.92</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>521115122</v>
+        <v>521135744</v>
       </c>
       <c r="B53" s="2">
-        <v>45754.593506944446</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C53" s="2">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53">
-        <v>109.66</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0.91206</v>
+        <v>95</v>
       </c>
       <c r="H53">
-        <v>100.02</v>
+        <v>95</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>519105737</v>
+        <v>521115122</v>
       </c>
       <c r="B54" s="2">
-        <v>45749.575324074074</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C54" s="2">
-        <v>45751</v>
+        <v>45755</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>109.66</v>
       </c>
       <c r="G54">
-        <v>330.5499</v>
+        <v>0.91206</v>
       </c>
       <c r="H54">
-        <v>330.55</v>
+        <v>100.02</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>519105619</v>
+        <v>519105737</v>
       </c>
       <c r="B55" s="2">
-        <v>45749.575115740736</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C55" s="2">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
       </c>
       <c r="F55">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>0.92423</v>
+        <v>330.5499</v>
       </c>
       <c r="H55">
-        <v>305</v>
+        <v>330.55</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>518501268</v>
+        <v>519105619</v>
       </c>
       <c r="B56" s="2">
-        <v>45748.342511574076</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C56" s="2">
         <v>45750</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="G56">
-        <v>106.7</v>
+        <v>0.92423</v>
       </c>
       <c r="H56">
-        <v>106.7</v>
+        <v>305</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>518501204</v>
+        <v>518501268</v>
       </c>
       <c r="B57" s="2">
-        <v>45748.342199074075</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C57" s="2">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="F57">
-        <v>118.85</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>0.92553</v>
+        <v>106.7</v>
       </c>
       <c r="H57">
-        <v>110</v>
+        <v>106.7</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>510327986</v>
+        <v>518501204</v>
       </c>
       <c r="B58" s="2">
-        <v>45728.454201388886</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C58" s="2">
-        <v>45729.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>118.85</v>
       </c>
       <c r="G58">
-        <v>107</v>
+        <v>0.92553</v>
       </c>
       <c r="H58">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>510326670</v>
+        <v>510327986</v>
       </c>
       <c r="B59" s="2">
-        <v>45728.43972222222</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C59" s="2">
-        <v>45728.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59">
-        <v>114.54</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>0.91668</v>
+        <v>107</v>
       </c>
       <c r="H59">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>506086900</v>
+        <v>510326670</v>
       </c>
       <c r="B60" s="2">
-        <v>45719.31646990741</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C60" s="2">
-        <v>45720.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>114.54</v>
       </c>
       <c r="G60">
-        <v>355.9998</v>
+        <v>0.91668</v>
       </c>
       <c r="H60">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>506086612</v>
+        <v>506086900</v>
       </c>
       <c r="B61" s="2">
-        <v>45719.31418981482</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C61" s="2">
-        <v>45719.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61">
-        <v>9.74</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>0.96213</v>
+        <v>355.9998</v>
       </c>
       <c r="H61">
-        <v>9.37</v>
+        <v>356</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>506084312</v>
+        <v>506086612</v>
       </c>
       <c r="B62" s="2">
-        <v>45719.29939814815</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C62" s="2">
         <v>45719.95833333333</v>
@@ -2435,13 +2435,13 @@
         <v>11</v>
       </c>
       <c r="F62">
-        <v>204.2</v>
+        <v>9.74</v>
       </c>
       <c r="G62">
-        <v>0.96116</v>
+        <v>0.96213</v>
       </c>
       <c r="H62">
-        <v>196.27</v>
+        <v>9.37</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2452,13 +2452,13 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>505408659</v>
+        <v>506084312</v>
       </c>
       <c r="B63" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C63" s="2">
-        <v>45718.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
@@ -2467,13 +2467,13 @@
         <v>11</v>
       </c>
       <c r="F63">
-        <v>129.21</v>
+        <v>204.2</v>
       </c>
       <c r="G63">
-        <v>0.96171</v>
+        <v>0.96116</v>
       </c>
       <c r="H63">
-        <v>124.26</v>
+        <v>196.27</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2484,141 +2484,141 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>503618898</v>
+        <v>505408659</v>
       </c>
       <c r="B64" s="2">
-        <v>45713.606828703705</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C64" s="2">
-        <v>45714.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>129.21</v>
       </c>
       <c r="G64">
-        <v>112.86</v>
+        <v>0.96171</v>
       </c>
       <c r="H64">
-        <v>112.86</v>
+        <v>124.26</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>503618686</v>
+        <v>503618898</v>
       </c>
       <c r="B65" s="2">
-        <v>45713.60653935185</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C65" s="2">
-        <v>45713.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>0.9511</v>
+        <v>112.86</v>
       </c>
       <c r="H65">
-        <v>114.13</v>
+        <v>112.86</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>499625741</v>
+        <v>503618686</v>
       </c>
       <c r="B66" s="2">
-        <v>45702.56398148148</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C66" s="2">
-        <v>45705.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G66">
-        <v>375.25</v>
+        <v>0.9511</v>
       </c>
       <c r="H66">
-        <v>375.25</v>
+        <v>114.13</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>2.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>499590185</v>
+        <v>499625741</v>
       </c>
       <c r="B67" s="2">
-        <v>45702.36454861111</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C67" s="2">
         <v>45705.95833333333</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67">
-        <v>20.96</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>0.95429</v>
+        <v>375.25</v>
       </c>
       <c r="H67">
-        <v>20</v>
+        <v>375.25</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>498403616</v>
+        <v>499590185</v>
       </c>
       <c r="B68" s="2">
-        <v>45700.59783564815</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C68" s="2">
-        <v>45700.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
@@ -2627,13 +2627,13 @@
         <v>11</v>
       </c>
       <c r="F68">
-        <v>103.4</v>
+        <v>20.96</v>
       </c>
       <c r="G68">
-        <v>0.96693</v>
+        <v>0.95429</v>
       </c>
       <c r="H68">
-        <v>99.98</v>
+        <v>20</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2644,109 +2644,109 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>494107867</v>
+        <v>498403616</v>
       </c>
       <c r="B69" s="2">
-        <v>45691.58335648148</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C69" s="2">
-        <v>45692.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>103.4</v>
       </c>
       <c r="G69">
-        <v>112.9</v>
+        <v>0.96693</v>
       </c>
       <c r="H69">
-        <v>112.9</v>
+        <v>99.98</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>494049655</v>
+        <v>494107867</v>
       </c>
       <c r="B70" s="2">
-        <v>45691.31773148148</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C70" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70">
-        <v>307.46</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>0.97578</v>
+        <v>112.9</v>
       </c>
       <c r="H70">
-        <v>300.01</v>
+        <v>112.9</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>494049572</v>
+        <v>494049655</v>
       </c>
       <c r="B71" s="2">
-        <v>45691.31670138889</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C71" s="2">
-        <v>45692.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>307.46</v>
       </c>
       <c r="G71">
-        <v>113.34</v>
+        <v>0.97578</v>
       </c>
       <c r="H71">
-        <v>113.34</v>
+        <v>300.01</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>493368805</v>
+        <v>494049572</v>
       </c>
       <c r="B72" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C72" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
@@ -2755,315 +2755,315 @@
         <v>11</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>115.9</v>
+        <v>113.34</v>
       </c>
       <c r="H72">
-        <v>231.8</v>
+        <v>113.34</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>492836969</v>
+        <v>493368805</v>
       </c>
       <c r="B73" s="2">
-        <v>45687.621666666666</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C73" s="2">
-        <v>45687.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73">
-        <v>417.21</v>
+        <v>2</v>
       </c>
       <c r="G73">
-        <v>0.95874</v>
+        <v>115.9</v>
       </c>
       <c r="H73">
-        <v>400</v>
+        <v>231.8</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>491075870</v>
+        <v>492836969</v>
       </c>
       <c r="B74" s="2">
-        <v>45684.61530092593</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C74" s="2">
-        <v>45685.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>417.21</v>
       </c>
       <c r="G74">
-        <v>114.4</v>
+        <v>0.95874</v>
       </c>
       <c r="H74">
-        <v>114.4</v>
+        <v>400</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>491075618</v>
+        <v>491075870</v>
       </c>
       <c r="B75" s="2">
-        <v>45684.61476851851</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C75" s="2">
-        <v>45684.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75">
-        <v>115.46</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0.95269</v>
+        <v>114.4</v>
       </c>
       <c r="H75">
-        <v>110</v>
+        <v>114.4</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>483911545</v>
+        <v>491075618</v>
       </c>
       <c r="B76" s="2">
-        <v>45665.44930555555</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C76" s="2">
-        <v>45666.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>115.46</v>
       </c>
       <c r="G76">
-        <v>360.35</v>
+        <v>0.95269</v>
       </c>
       <c r="H76">
-        <v>360.35</v>
+        <v>110</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>483911481</v>
+        <v>483911545</v>
       </c>
       <c r="B77" s="2">
-        <v>45665.44840277778</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C77" s="2">
         <v>45666.95833333333</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
       </c>
       <c r="F77">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>0.97183</v>
+        <v>360.35</v>
       </c>
       <c r="H77">
-        <v>354.72</v>
+        <v>360.35</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>481235383</v>
+        <v>483911481</v>
       </c>
       <c r="B78" s="2">
-        <v>45660.337430555555</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C78" s="2">
-        <v>45663.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>365</v>
       </c>
       <c r="G78">
-        <v>112</v>
+        <v>0.97183</v>
       </c>
       <c r="H78">
-        <v>224</v>
+        <v>354.72</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>1.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>481235152</v>
+        <v>481235383</v>
       </c>
       <c r="B79" s="2">
-        <v>45660.33241898148</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C79" s="2">
-        <v>45662.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79">
-        <v>226.2</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>0.97259</v>
+        <v>112</v>
       </c>
       <c r="H79">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>476674643</v>
+        <v>481235152</v>
       </c>
       <c r="B80" s="2">
-        <v>45646.40855324074</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C80" s="2">
-        <v>45652.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>226.2</v>
       </c>
       <c r="G80">
-        <v>355.4</v>
+        <v>0.97259</v>
       </c>
       <c r="H80">
-        <v>355.4</v>
+        <v>220</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>476674604</v>
+        <v>476674643</v>
       </c>
       <c r="B81" s="2">
-        <v>45646.408437499995</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C81" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="F81">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>0.96264</v>
+        <v>355.4</v>
       </c>
       <c r="H81">
-        <v>206.97</v>
+        <v>355.4</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>476670294</v>
+        <v>476674604</v>
       </c>
       <c r="B82" s="2">
-        <v>45646.38765046296</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C82" s="2">
         <v>45648.95833333333</v>
@@ -3075,13 +3075,13 @@
         <v>11</v>
       </c>
       <c r="F82">
-        <v>51.32</v>
+        <v>215</v>
       </c>
       <c r="G82">
-        <v>0.96299</v>
+        <v>0.96264</v>
       </c>
       <c r="H82">
-        <v>49.42</v>
+        <v>206.97</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>476669731</v>
+        <v>476670294</v>
       </c>
       <c r="B83" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C83" s="2">
         <v>45648.95833333333</v>
@@ -3107,13 +3107,13 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>60</v>
+        <v>51.32</v>
       </c>
       <c r="G83">
-        <v>0.96251</v>
+        <v>0.96299</v>
       </c>
       <c r="H83">
-        <v>57.75</v>
+        <v>49.42</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3124,618 +3124,618 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>476123556</v>
+        <v>476669731</v>
       </c>
       <c r="B84" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C84" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G84">
-        <v>112.54</v>
+        <v>0.96251</v>
       </c>
       <c r="H84">
-        <v>112.54</v>
+        <v>57.75</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>476123515</v>
+        <v>476123556</v>
       </c>
       <c r="B85" s="2">
-        <v>45645.52649305556</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C85" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0.96108</v>
+        <v>112.54</v>
       </c>
       <c r="H85">
-        <v>96.11</v>
+        <v>112.54</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>471357479</v>
+        <v>476123515</v>
       </c>
       <c r="B86" s="2">
-        <v>45635.56259259259</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C86" s="2">
-        <v>45635.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G86">
-        <v>8.3412</v>
+        <v>0.96108</v>
       </c>
       <c r="H86">
-        <v>8.34</v>
+        <v>96.11</v>
       </c>
       <c r="I86">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>466623419</v>
+        <v>471357479</v>
       </c>
       <c r="B87" s="2">
-        <v>45622.31217592592</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C87" s="2">
-        <v>45624.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>354.5</v>
+        <v>8.3412</v>
       </c>
       <c r="H87">
-        <v>354.5</v>
+        <v>8.34</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J87">
-        <v>2.05</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>466623402</v>
+        <v>466623419</v>
       </c>
       <c r="B88" s="2">
-        <v>45622.31188657407</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C88" s="2">
-        <v>45622.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88">
-        <v>141.78</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>0.95389</v>
+        <v>354.5</v>
       </c>
       <c r="H88">
-        <v>135.24</v>
+        <v>354.5</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>462598648</v>
+        <v>466623402</v>
       </c>
       <c r="B89" s="2">
-        <v>45611.592997685184</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C89" s="2">
-        <v>45614.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>141.78</v>
       </c>
       <c r="G89">
-        <v>111.8099</v>
+        <v>0.95389</v>
       </c>
       <c r="H89">
-        <v>111.81</v>
+        <v>135.24</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>460084933</v>
+        <v>462598648</v>
       </c>
       <c r="B90" s="2">
-        <v>45604.62016203704</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C90" s="2">
-        <v>45607.95833333333</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90">
-        <v>8.3836</v>
+        <v>111.8099</v>
       </c>
       <c r="H90">
-        <v>8.38</v>
+        <v>111.81</v>
       </c>
       <c r="I90">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>458847628</v>
+        <v>460084933</v>
       </c>
       <c r="B91" s="2">
-        <v>45602.26765046296</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C91" s="2">
-        <v>45602.95833333333</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F91">
-        <v>341.65</v>
+        <v>1</v>
       </c>
       <c r="G91">
-        <v>0.93077</v>
+        <v>8.3836</v>
       </c>
       <c r="H91">
-        <v>318</v>
+        <v>8.38</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>449590057</v>
+        <v>458847628</v>
       </c>
       <c r="B92" s="2">
-        <v>45579.62847222222</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C92" s="2">
-        <v>45581</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>341.65</v>
       </c>
       <c r="G92">
-        <v>110.9161</v>
+        <v>0.93077</v>
       </c>
       <c r="H92">
-        <v>110.92</v>
+        <v>318</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>449589875</v>
+        <v>449590057</v>
       </c>
       <c r="B93" s="2">
-        <v>45579.628125</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C93" s="2">
-        <v>45580</v>
+        <v>45581</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
       </c>
       <c r="F93">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0.91628</v>
+        <v>110.9161</v>
       </c>
       <c r="H93">
-        <v>32.07</v>
+        <v>110.92</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>449589083</v>
+        <v>449589875</v>
       </c>
       <c r="B94" s="2">
-        <v>45579.62637731481</v>
+        <v>45579.628125</v>
       </c>
       <c r="C94" s="2">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G94">
-        <v>110.9196</v>
+        <v>0.91628</v>
       </c>
       <c r="H94">
-        <v>110.92</v>
+        <v>32.07</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>449588246</v>
+        <v>449589083</v>
       </c>
       <c r="B95" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C95" s="2">
         <v>45581</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F95">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>3.4715</v>
+        <v>110.9196</v>
       </c>
       <c r="H95">
-        <v>149.27</v>
+        <v>110.92</v>
       </c>
       <c r="I95">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>445429841</v>
+        <v>449588246</v>
       </c>
       <c r="B96" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C96" s="2">
-        <v>45572</v>
+        <v>45581</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G96">
-        <v>337.65</v>
+        <v>3.4715</v>
       </c>
       <c r="H96">
-        <v>337.65</v>
+        <v>149.27</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J96">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>445429174</v>
+        <v>445429841</v>
       </c>
       <c r="B97" s="2">
-        <v>45568.57231481481</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C97" s="2">
-        <v>45569</v>
+        <v>45572</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
       </c>
       <c r="F97">
-        <v>369.23</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>0.90605</v>
+        <v>337.65</v>
       </c>
       <c r="H97">
-        <v>334.54</v>
+        <v>337.65</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>444353954</v>
+        <v>445429174</v>
       </c>
       <c r="B98" s="2">
-        <v>45566.58853009259</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C98" s="2">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>369.23</v>
       </c>
       <c r="G98">
-        <v>108.24</v>
+        <v>0.90605</v>
       </c>
       <c r="H98">
-        <v>108.24</v>
+        <v>334.54</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>444310921</v>
+        <v>444353954</v>
       </c>
       <c r="B99" s="2">
-        <v>45566.29953703703</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C99" s="2">
-        <v>45567</v>
+        <v>45568</v>
       </c>
       <c r="D99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
       </c>
       <c r="F99">
-        <v>60.56</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>0.89984</v>
+        <v>108.24</v>
       </c>
       <c r="H99">
-        <v>54.49</v>
+        <v>108.24</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>439936166</v>
+        <v>444310921</v>
       </c>
       <c r="B100" s="2">
-        <v>45554.56259259259</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C100" s="2">
-        <v>45555</v>
+        <v>45567</v>
       </c>
       <c r="D100" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>60.56</v>
       </c>
       <c r="G100">
-        <v>62.0726</v>
+        <v>0.89984</v>
       </c>
       <c r="H100">
-        <v>62.07</v>
+        <v>54.49</v>
       </c>
       <c r="I100">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>435165980</v>
+        <v>439936166</v>
       </c>
       <c r="B101" s="2">
-        <v>45541.475370370375</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C101" s="2">
-        <v>45545</v>
+        <v>45555</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101">
-        <v>103.72</v>
+        <v>62.0726</v>
       </c>
       <c r="H101">
-        <v>103.72</v>
+        <v>62.07</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J101">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>435165968</v>
+        <v>435165980</v>
       </c>
       <c r="B102" s="2">
-        <v>45541.47508101852</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C102" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
       </c>
       <c r="F102">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>0.9011</v>
+        <v>103.72</v>
       </c>
       <c r="H102">
-        <v>0.19</v>
+        <v>103.72</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>435165951</v>
+        <v>435165968</v>
       </c>
       <c r="B103" s="2">
-        <v>45541.47487268518</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C103" s="2">
         <v>45544</v>
@@ -3747,13 +3747,13 @@
         <v>11</v>
       </c>
       <c r="F103">
-        <v>4.42</v>
+        <v>0.21</v>
       </c>
       <c r="G103">
-        <v>0.90109</v>
+        <v>0.9011</v>
       </c>
       <c r="H103">
-        <v>3.98</v>
+        <v>0.19</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -3764,10 +3764,10 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>435165927</v>
+        <v>435165951</v>
       </c>
       <c r="B104" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C104" s="2">
         <v>45544</v>
@@ -3779,13 +3779,13 @@
         <v>11</v>
       </c>
       <c r="F104">
-        <v>92.77</v>
+        <v>4.42</v>
       </c>
       <c r="G104">
         <v>0.90109</v>
       </c>
       <c r="H104">
-        <v>83.59</v>
+        <v>3.98</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -3796,208 +3796,208 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>434675474</v>
+        <v>435165927</v>
       </c>
       <c r="B105" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C105" s="2">
         <v>45544</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
       </c>
       <c r="F105">
-        <v>8</v>
+        <v>92.77</v>
       </c>
       <c r="G105">
-        <v>3.689</v>
+        <v>0.90109</v>
       </c>
       <c r="H105">
-        <v>29.51</v>
+        <v>83.59</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>434162210</v>
+        <v>434675474</v>
       </c>
       <c r="B106" s="2">
-        <v>45539.43609953704</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C106" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G106">
-        <v>104.42</v>
+        <v>3.689</v>
       </c>
       <c r="H106">
-        <v>104.42</v>
+        <v>29.51</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>433696199</v>
+        <v>434162210</v>
       </c>
       <c r="B107" s="2">
-        <v>45538.68898148148</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C107" s="2">
-        <v>45539</v>
+        <v>45541</v>
       </c>
       <c r="D107" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F107">
         <v>1</v>
       </c>
       <c r="G107">
-        <v>110.122</v>
+        <v>104.42</v>
       </c>
       <c r="H107">
-        <v>110.12</v>
+        <v>104.42</v>
       </c>
       <c r="I107">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>433626785</v>
+        <v>433696199</v>
       </c>
       <c r="B108" s="2">
-        <v>45538.39231481482</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C108" s="2">
-        <v>45540</v>
+        <v>45539</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="G108">
-        <v>106.54</v>
+        <v>110.122</v>
       </c>
       <c r="H108">
-        <v>106.54</v>
+        <v>110.12</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J108">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>433626678</v>
+        <v>433626785</v>
       </c>
       <c r="B109" s="2">
-        <v>45538.391076388885</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C109" s="2">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
       </c>
       <c r="F109">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G109">
-        <v>0.90603</v>
+        <v>106.54</v>
       </c>
       <c r="H109">
-        <v>66.96</v>
+        <v>106.54</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>432518350</v>
+        <v>433626678</v>
       </c>
       <c r="B110" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C110" s="2">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="D110" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>73.9</v>
       </c>
       <c r="G110">
-        <v>120.88</v>
+        <v>0.90603</v>
       </c>
       <c r="H110">
-        <v>120.88</v>
+        <v>66.96</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>432515426</v>
+        <v>432518350</v>
       </c>
       <c r="B111" s="2">
-        <v>45533.54127314815</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C111" s="2">
-        <v>45537</v>
+        <v>45533</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -4006,222 +4006,222 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>106.34</v>
+        <v>120.88</v>
       </c>
       <c r="H111">
-        <v>106.34</v>
+        <v>120.88</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>432005364</v>
+        <v>432515426</v>
       </c>
       <c r="B112" s="2">
-        <v>45532.39208333333</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C112" s="2">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
       <c r="F112">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G112">
-        <v>3.632</v>
+        <v>106.34</v>
       </c>
       <c r="H112">
-        <v>116.22</v>
+        <v>106.34</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>1.84</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>432003333</v>
+        <v>432005364</v>
       </c>
       <c r="B113" s="2">
-        <v>45532.363020833334</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C113" s="2">
         <v>45534</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G113">
-        <v>106.74</v>
+        <v>3.632</v>
       </c>
       <c r="H113">
-        <v>213.48</v>
+        <v>116.22</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>432003262</v>
+        <v>432003333</v>
       </c>
       <c r="B114" s="2">
-        <v>45532.361875</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C114" s="2">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="D114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
       <c r="F114">
-        <v>618.74</v>
+        <v>2</v>
       </c>
       <c r="G114">
-        <v>0.89741</v>
+        <v>106.74</v>
       </c>
       <c r="H114">
-        <v>555.26</v>
+        <v>213.48</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>430366906</v>
+        <v>432003262</v>
       </c>
       <c r="B115" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.361875</v>
       </c>
       <c r="C115" s="2">
-        <v>45532</v>
+        <v>45533</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
       </c>
       <c r="F115">
-        <v>3</v>
+        <v>618.74</v>
       </c>
       <c r="G115">
-        <v>3.6305</v>
+        <v>0.89741</v>
       </c>
       <c r="H115">
-        <v>10.89</v>
+        <v>555.26</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>1.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>430365249</v>
+        <v>430366906</v>
       </c>
       <c r="B116" s="2">
-        <v>45527.27630787037</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C116" s="2">
-        <v>45530</v>
+        <v>45532</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="F116">
-        <v>4.63</v>
+        <v>3</v>
       </c>
       <c r="G116">
-        <v>0.8999</v>
+        <v>3.6305</v>
       </c>
       <c r="H116">
-        <v>4.17</v>
+        <v>10.89</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>428453232</v>
+        <v>430365249</v>
       </c>
       <c r="B117" s="2">
-        <v>45523.56253472222</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C117" s="2">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="D117" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>4.63</v>
       </c>
       <c r="G117">
-        <v>60.046</v>
+        <v>0.8999</v>
       </c>
       <c r="H117">
-        <v>60.05</v>
+        <v>4.17</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>428444212</v>
+        <v>428453232</v>
       </c>
       <c r="B118" s="2">
-        <v>45523.47152777778</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C118" s="2">
-        <v>45525</v>
+        <v>45524</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
@@ -4230,56 +4230,56 @@
         <v>1</v>
       </c>
       <c r="G118">
-        <v>105.3</v>
+        <v>60.046</v>
       </c>
       <c r="H118">
-        <v>105.3</v>
+        <v>60.05</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>428437042</v>
+        <v>428444212</v>
       </c>
       <c r="B119" s="2">
-        <v>45523.37878472223</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C119" s="2">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
       </c>
       <c r="F119">
-        <v>7.15</v>
+        <v>1</v>
       </c>
       <c r="G119">
-        <v>0.90756</v>
+        <v>105.3</v>
       </c>
       <c r="H119">
-        <v>6.49</v>
+        <v>105.3</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>428437005</v>
+        <v>428437042</v>
       </c>
       <c r="B120" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C120" s="2">
         <v>45524</v>
@@ -4291,13 +4291,13 @@
         <v>11</v>
       </c>
       <c r="F120">
-        <v>150.15</v>
+        <v>7.15</v>
       </c>
       <c r="G120">
         <v>0.90756</v>
       </c>
       <c r="H120">
-        <v>136.27</v>
+        <v>6.49</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -4308,74 +4308,74 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>426418112</v>
+        <v>428437005</v>
       </c>
       <c r="B121" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C121" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>150.15</v>
       </c>
       <c r="G121">
-        <v>102.02</v>
+        <v>0.90756</v>
       </c>
       <c r="H121">
-        <v>102.02</v>
+        <v>136.27</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>426417966</v>
+        <v>426418112</v>
       </c>
       <c r="B122" s="2">
-        <v>45517.58042824074</v>
+        <v>45517.58078703703</v>
       </c>
       <c r="C122" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
       </c>
       <c r="F122">
-        <v>10.45</v>
+        <v>1</v>
       </c>
       <c r="G122">
-        <v>0.91439</v>
+        <v>102.02</v>
       </c>
       <c r="H122">
-        <v>9.56</v>
+        <v>102.02</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>426416264</v>
+        <v>426417966</v>
       </c>
       <c r="B123" s="2">
-        <v>45517.57699074074</v>
+        <v>45517.58042824074</v>
       </c>
       <c r="C123" s="2">
         <v>45518</v>
@@ -4387,13 +4387,13 @@
         <v>11</v>
       </c>
       <c r="F123">
-        <v>4.86</v>
+        <v>10.45</v>
       </c>
       <c r="G123">
-        <v>0.91458</v>
+        <v>0.91439</v>
       </c>
       <c r="H123">
-        <v>4.44</v>
+        <v>9.56</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -4404,10 +4404,10 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>426416183</v>
+        <v>426416264</v>
       </c>
       <c r="B124" s="2">
-        <v>45517.576678240745</v>
+        <v>45517.57699074074</v>
       </c>
       <c r="C124" s="2">
         <v>45518</v>
@@ -4419,18 +4419,50 @@
         <v>11</v>
       </c>
       <c r="F124">
+        <v>4.86</v>
+      </c>
+      <c r="G124">
+        <v>0.91458</v>
+      </c>
+      <c r="H124">
+        <v>4.44</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>426416183</v>
+      </c>
+      <c r="B125" s="2">
+        <v>45517.576678240745</v>
+      </c>
+      <c r="C125" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125">
         <v>102.05</v>
       </c>
-      <c r="G124">
+      <c r="G125">
         <v>0.91459</v>
       </c>
-      <c r="H124">
+      <c r="H125">
         <v>93.33</v>
       </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
         <v>0</v>
       </c>
     </row>

--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="22">
   <si>
     <t>Number</t>
   </si>
@@ -43,10 +43,16 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>AETF.GR</t>
+    <t>VUAA.EU</t>
   </si>
   <si>
     <t xml:space="preserve"> Buy </t>
+  </si>
+  <si>
+    <t>USD/EUR</t>
+  </si>
+  <si>
+    <t>AETF.GR</t>
   </si>
   <si>
     <t>EQAC.EU</t>
@@ -56,12 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Sell </t>
-  </si>
-  <si>
-    <t>USD/EUR</t>
-  </si>
-  <si>
-    <t>VUAA.EU</t>
   </si>
   <si>
     <t>NNOX.US</t>
@@ -463,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J127"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -500,13 +500,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>604650426</v>
+        <v>607897752</v>
       </c>
       <c r="B2" s="2">
-        <v>46021.38538194445</v>
+        <v>46031.419953703706</v>
       </c>
       <c r="C2" s="2">
-        <v>46023.95833333333</v>
+        <v>46034.95833333333</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -515,13 +515,13 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>54.19</v>
+        <v>133.16</v>
       </c>
       <c r="H2">
-        <v>108.38</v>
+        <v>133.16</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -532,13 +532,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>598550485</v>
+        <v>607448850</v>
       </c>
       <c r="B3" s="2">
-        <v>46001.63391203704</v>
+        <v>46030.52565972222</v>
       </c>
       <c r="C3" s="2">
-        <v>46002.95833333333</v>
+        <v>46030.95833333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -547,33 +547,33 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>174.44</v>
       </c>
       <c r="G3">
-        <v>437.25</v>
+        <v>0.8599</v>
       </c>
       <c r="H3">
-        <v>437.25</v>
+        <v>150.01</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>596219726</v>
+        <v>604650426</v>
       </c>
       <c r="B4" s="2">
-        <v>45994.43467592592</v>
+        <v>46021.38538194445</v>
       </c>
       <c r="C4" s="2">
-        <v>45995.95833333333</v>
+        <v>46023.95833333333</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -582,10 +582,10 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>53.57</v>
+        <v>54.19</v>
       </c>
       <c r="H4">
-        <v>107.14</v>
+        <v>108.38</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -596,144 +596,144 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>595820593</v>
+        <v>598550485</v>
       </c>
       <c r="B5" s="2">
-        <v>45993.61094907408</v>
+        <v>46001.63391203704</v>
       </c>
       <c r="C5" s="2">
-        <v>45993.95833333333</v>
+        <v>46002.95833333333</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.1572</v>
+        <v>437.25</v>
       </c>
       <c r="H5">
-        <v>347.16</v>
+        <v>437.25</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>592858794</v>
+        <v>596219726</v>
       </c>
       <c r="B6" s="2">
-        <v>45982.31758101852</v>
+        <v>45994.43467592592</v>
       </c>
       <c r="C6" s="2">
-        <v>45984.95833333333</v>
+        <v>45995.95833333333</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6">
-        <v>138.08</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0.86907</v>
+        <v>53.57</v>
       </c>
       <c r="H6">
-        <v>120</v>
+        <v>107.14</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>592858764</v>
+        <v>595820593</v>
       </c>
       <c r="B7" s="2">
-        <v>45982.31736111111</v>
+        <v>45993.61094907408</v>
       </c>
       <c r="C7" s="2">
-        <v>45985.95833333333</v>
+        <v>45993.95833333333</v>
       </c>
       <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
       <c r="F7">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G7">
-        <v>125.7</v>
+        <v>1.1572</v>
       </c>
       <c r="H7">
-        <v>125.7</v>
+        <v>347.16</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>591521660</v>
+        <v>592858794</v>
       </c>
       <c r="B8" s="2">
-        <v>45979.40392361111</v>
+        <v>45982.31758101852</v>
       </c>
       <c r="C8" s="2">
-        <v>45980.95833333333</v>
+        <v>45984.95833333333</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>138.08</v>
       </c>
       <c r="G8">
-        <v>51.58</v>
+        <v>0.86907</v>
       </c>
       <c r="H8">
-        <v>51.58</v>
+        <v>120</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>591521571</v>
+        <v>592858764</v>
       </c>
       <c r="B9" s="2">
-        <v>45979.40299768519</v>
+        <v>45982.31736111111</v>
       </c>
       <c r="C9" s="2">
-        <v>45980.95833333333</v>
+        <v>45985.95833333333</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -742,10 +742,10 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>127.64</v>
+        <v>125.7</v>
       </c>
       <c r="H9">
-        <v>127.64</v>
+        <v>125.7</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -756,16 +756,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>589647638</v>
+        <v>591521660</v>
       </c>
       <c r="B10" s="2">
-        <v>45973.3719212963</v>
+        <v>45979.40392361111</v>
       </c>
       <c r="C10" s="2">
-        <v>45974.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -774,56 +774,56 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>131.88</v>
+        <v>51.58</v>
       </c>
       <c r="H10">
-        <v>131.88</v>
+        <v>51.58</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>589647623</v>
+        <v>591521571</v>
       </c>
       <c r="B11" s="2">
-        <v>45973.371666666666</v>
+        <v>45979.40299768519</v>
       </c>
       <c r="C11" s="2">
-        <v>45973.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11">
-        <v>138.34</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.86743</v>
+        <v>127.64</v>
       </c>
       <c r="H11">
-        <v>120</v>
+        <v>127.64</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>589647528</v>
+        <v>589647638</v>
       </c>
       <c r="B12" s="2">
-        <v>45973.37055555556</v>
+        <v>45973.3719212963</v>
       </c>
       <c r="C12" s="2">
         <v>45974.95833333333</v>
@@ -838,62 +838,62 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.88</v>
+        <v>131.88</v>
       </c>
       <c r="H12">
-        <v>51.88</v>
+        <v>131.88</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>587179374</v>
+        <v>589647623</v>
       </c>
       <c r="B13" s="2">
-        <v>45965.315983796296</v>
+        <v>45973.371666666666</v>
       </c>
       <c r="C13" s="2">
-        <v>45966.95833333333</v>
+        <v>45973.95833333333</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>138.34</v>
       </c>
       <c r="G13">
-        <v>50.67</v>
+        <v>0.86743</v>
       </c>
       <c r="H13">
-        <v>50.67</v>
+        <v>120</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>586793234</v>
+        <v>589647528</v>
       </c>
       <c r="B14" s="2">
-        <v>45964.60378472222</v>
+        <v>45973.37055555556</v>
       </c>
       <c r="C14" s="2">
-        <v>45965.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -902,59 +902,59 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>130.9</v>
+        <v>51.88</v>
       </c>
       <c r="H14">
-        <v>130.9</v>
+        <v>51.88</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>586792895</v>
+        <v>587179374</v>
       </c>
       <c r="B15" s="2">
-        <v>45964.60346064815</v>
+        <v>45965.315983796296</v>
       </c>
       <c r="C15" s="2">
-        <v>45964.95833333333</v>
+        <v>45966.95833333333</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15">
-        <v>286.74</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.87185</v>
+        <v>50.67</v>
       </c>
       <c r="H15">
-        <v>249.99</v>
+        <v>50.67</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>585309488</v>
+        <v>586793234</v>
       </c>
       <c r="B16" s="2">
-        <v>45959.31539351852</v>
+        <v>45964.60378472222</v>
       </c>
       <c r="C16" s="2">
-        <v>45960.95833333333</v>
+        <v>45965.95833333333</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -966,62 +966,62 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>51.01</v>
+        <v>130.9</v>
       </c>
       <c r="H16">
-        <v>51.01</v>
+        <v>130.9</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>581709074</v>
+        <v>586792895</v>
       </c>
       <c r="B17" s="2">
-        <v>45947.35291666667</v>
+        <v>45964.60346064815</v>
       </c>
       <c r="C17" s="2">
-        <v>45951</v>
+        <v>45964.95833333333</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>286.74</v>
       </c>
       <c r="G17">
-        <v>49.61</v>
+        <v>0.87185</v>
       </c>
       <c r="H17">
-        <v>49.61</v>
+        <v>249.99</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>581709060</v>
+        <v>585309488</v>
       </c>
       <c r="B18" s="2">
-        <v>45947.35277777778</v>
+        <v>45959.31539351852</v>
       </c>
       <c r="C18" s="2">
-        <v>45951</v>
+        <v>45960.95833333333</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1030,30 +1030,30 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>125.58</v>
+        <v>51.01</v>
       </c>
       <c r="H18">
-        <v>125.58</v>
+        <v>51.01</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>581269382</v>
+        <v>581709074</v>
       </c>
       <c r="B19" s="2">
-        <v>45946.41150462963</v>
+        <v>45947.35291666667</v>
       </c>
       <c r="C19" s="2">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1062,62 +1062,62 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.94</v>
+        <v>49.61</v>
       </c>
       <c r="H19">
-        <v>50.94</v>
+        <v>49.61</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>580169893</v>
+        <v>581709060</v>
       </c>
       <c r="B20" s="2">
-        <v>45943.423321759255</v>
+        <v>45947.35277777778</v>
       </c>
       <c r="C20" s="2">
-        <v>45944</v>
+        <v>45951</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20">
-        <v>80.87</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8656</v>
+        <v>125.58</v>
       </c>
       <c r="H20">
-        <v>70</v>
+        <v>125.58</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>580169868</v>
+        <v>581269382</v>
       </c>
       <c r="B21" s="2">
-        <v>45943.42288194444</v>
+        <v>45946.41150462963</v>
       </c>
       <c r="C21" s="2">
-        <v>45945</v>
+        <v>45950</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1126,10 +1126,10 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.65</v>
+        <v>50.94</v>
       </c>
       <c r="H21">
-        <v>53.65</v>
+        <v>50.94</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1140,48 +1140,48 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>580169327</v>
+        <v>580169893</v>
       </c>
       <c r="B22" s="2">
-        <v>45943.41800925926</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C22" s="2">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>80.87</v>
       </c>
       <c r="G22">
-        <v>127.32</v>
+        <v>0.8656</v>
       </c>
       <c r="H22">
-        <v>127.32</v>
+        <v>70</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>579211549</v>
+        <v>580169868</v>
       </c>
       <c r="B23" s="2">
-        <v>45939.61756944444</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C23" s="2">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1190,27 +1190,27 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>129.08</v>
+        <v>53.65</v>
       </c>
       <c r="H23">
-        <v>129.08</v>
+        <v>53.65</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>577313732</v>
+        <v>580169327</v>
       </c>
       <c r="B24" s="2">
-        <v>45933.56972222222</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C24" s="2">
-        <v>45937</v>
+        <v>45945</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -1219,13 +1219,13 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>52.65</v>
+        <v>127.32</v>
       </c>
       <c r="H24">
-        <v>105.3</v>
+        <v>127.32</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1236,13 +1236,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>576413456</v>
+        <v>579211549</v>
       </c>
       <c r="B25" s="2">
-        <v>45931.44907407407</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C25" s="2">
-        <v>45933</v>
+        <v>45943</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -1254,62 +1254,62 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>51.62</v>
+        <v>129.08</v>
       </c>
       <c r="H25">
-        <v>51.62</v>
+        <v>129.08</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>576410571</v>
+        <v>577313732</v>
       </c>
       <c r="B26" s="2">
-        <v>45931.43001157408</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C26" s="2">
-        <v>45932</v>
+        <v>45937</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
       <c r="F26">
-        <v>116.85</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>0.85583</v>
+        <v>52.65</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>105.3</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>575554915</v>
+        <v>576413456</v>
       </c>
       <c r="B27" s="2">
-        <v>45929.452060185184</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C27" s="2">
-        <v>45931</v>
+        <v>45933</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1318,10 +1318,10 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>51.47</v>
+        <v>51.62</v>
       </c>
       <c r="H27">
-        <v>51.47</v>
+        <v>51.62</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1332,48 +1332,48 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>573400676</v>
+        <v>576410571</v>
       </c>
       <c r="B28" s="2">
-        <v>45922.33627314815</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C28" s="2">
-        <v>45924</v>
+        <v>45932</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G28">
-        <v>127.36</v>
+        <v>0.85583</v>
       </c>
       <c r="H28">
-        <v>127.36</v>
+        <v>100</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>573399341</v>
+        <v>575554915</v>
       </c>
       <c r="B29" s="2">
-        <v>45922.324120370366</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C29" s="2">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1382,10 +1382,10 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>51</v>
+        <v>51.47</v>
       </c>
       <c r="H29">
-        <v>51</v>
+        <v>51.47</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1396,48 +1396,48 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>568717926</v>
+        <v>573400676</v>
       </c>
       <c r="B30" s="2">
-        <v>45905.5246875</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C30" s="2">
-        <v>45908</v>
+        <v>45924</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.85539</v>
+        <v>127.36</v>
       </c>
       <c r="H30">
-        <v>106.92</v>
+        <v>127.36</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>567931751</v>
+        <v>573399341</v>
       </c>
       <c r="B31" s="2">
-        <v>45903.333657407406</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C31" s="2">
-        <v>45905</v>
+        <v>45924</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1446,42 +1446,42 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>123.16</v>
+        <v>51</v>
       </c>
       <c r="H31">
-        <v>123.16</v>
+        <v>51</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>566723916</v>
+        <v>568717926</v>
       </c>
       <c r="B32" s="2">
-        <v>45897.62657407408</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C32" s="2">
-        <v>45898</v>
+        <v>45908</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32">
-        <v>290.69</v>
+        <v>125</v>
       </c>
       <c r="G32">
-        <v>0.86002</v>
+        <v>0.85539</v>
       </c>
       <c r="H32">
-        <v>250</v>
+        <v>106.92</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1492,16 +1492,16 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>564426812</v>
+        <v>567931751</v>
       </c>
       <c r="B33" s="2">
-        <v>45889.61331018519</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C33" s="2">
-        <v>45891</v>
+        <v>45905</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1510,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>121.62</v>
+        <v>123.16</v>
       </c>
       <c r="H33">
-        <v>121.62</v>
+        <v>123.16</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1524,28 +1524,28 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>564420621</v>
+        <v>566723916</v>
       </c>
       <c r="B34" s="2">
-        <v>45889.60018518519</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C34" s="2">
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34">
-        <v>127.71</v>
+        <v>290.69</v>
       </c>
       <c r="G34">
-        <v>0.86135</v>
+        <v>0.86002</v>
       </c>
       <c r="H34">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1556,45 +1556,45 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>555657178</v>
+        <v>564426812</v>
       </c>
       <c r="B35" s="2">
-        <v>45859.48091435185</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C35" s="2">
-        <v>45860</v>
+        <v>45891</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.85771</v>
+        <v>121.62</v>
       </c>
       <c r="H35">
-        <v>85.77</v>
+        <v>121.62</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>555654532</v>
+        <v>564420621</v>
       </c>
       <c r="B36" s="2">
-        <v>45859.465474537035</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C36" s="2">
-        <v>45861</v>
+        <v>45890</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -1603,173 +1603,173 @@
         <v>11</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>127.71</v>
       </c>
       <c r="G36">
-        <v>395</v>
+        <v>0.86135</v>
       </c>
       <c r="H36">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>551218217</v>
+        <v>555657178</v>
       </c>
       <c r="B37" s="2">
-        <v>45841.369837962964</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C37" s="2">
-        <v>45845</v>
+        <v>45860</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G37">
-        <v>119.16</v>
+        <v>0.85771</v>
       </c>
       <c r="H37">
-        <v>119.16</v>
+        <v>85.77</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>551216497</v>
+        <v>555654532</v>
       </c>
       <c r="B38" s="2">
-        <v>45841.35429398148</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C38" s="2">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
       </c>
       <c r="F38">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0.84741</v>
+        <v>395</v>
       </c>
       <c r="H38">
-        <v>169.48</v>
+        <v>395</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>549290062</v>
+        <v>551218217</v>
       </c>
       <c r="B39" s="2">
-        <v>45834.39111111111</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C39" s="2">
-        <v>45835</v>
+        <v>45845</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.85337</v>
+        <v>119.16</v>
       </c>
       <c r="H39">
-        <v>99.84</v>
+        <v>119.16</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>546584060</v>
+        <v>551216497</v>
       </c>
       <c r="B40" s="2">
-        <v>45824.480104166665</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C40" s="2">
-        <v>45826</v>
+        <v>45845</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G40">
-        <v>114.8</v>
+        <v>0.84741</v>
       </c>
       <c r="H40">
-        <v>114.8</v>
+        <v>169.48</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>546583898</v>
+        <v>549290062</v>
       </c>
       <c r="B41" s="2">
-        <v>45824.47923611111</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C41" s="2">
-        <v>45825</v>
+        <v>45835</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G41">
-        <v>0.86376</v>
+        <v>0.85337</v>
       </c>
       <c r="H41">
-        <v>99.33</v>
+        <v>99.84</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1780,92 +1780,92 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>545459805</v>
+        <v>546584060</v>
       </c>
       <c r="B42" s="2">
-        <v>45819.41773148148</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C42" s="2">
-        <v>45820</v>
+        <v>45826</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0.87444</v>
+        <v>114.8</v>
       </c>
       <c r="H42">
-        <v>43.72</v>
+        <v>114.8</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>542145647</v>
+        <v>546583898</v>
       </c>
       <c r="B43" s="2">
-        <v>45807.5672337963</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C43" s="2">
-        <v>45811</v>
+        <v>45825</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G43">
-        <v>112.4</v>
+        <v>0.86376</v>
       </c>
       <c r="H43">
-        <v>112.4</v>
+        <v>99.33</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>541352365</v>
+        <v>545459805</v>
       </c>
       <c r="B44" s="2">
-        <v>45805.594560185185</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C44" s="2">
-        <v>45806</v>
+        <v>45820</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44">
-        <v>169.82</v>
+        <v>50</v>
       </c>
       <c r="G44">
-        <v>0.88332</v>
+        <v>0.87444</v>
       </c>
       <c r="H44">
-        <v>150.01</v>
+        <v>43.72</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>540397794</v>
+        <v>542145647</v>
       </c>
       <c r="B45" s="2">
-        <v>45800.4953125</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C45" s="2">
-        <v>45805</v>
+        <v>45811</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -1894,42 +1894,42 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>110.1385</v>
+        <v>112.4</v>
       </c>
       <c r="H45">
-        <v>110.14</v>
+        <v>112.4</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>539546182</v>
+        <v>541352365</v>
       </c>
       <c r="B46" s="2">
-        <v>45798.38793981481</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C46" s="2">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>169.82</v>
       </c>
       <c r="G46">
-        <v>0.88321</v>
+        <v>0.88332</v>
       </c>
       <c r="H46">
-        <v>88.32</v>
+        <v>150.01</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -1940,16 +1940,16 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>530748416</v>
+        <v>540397794</v>
       </c>
       <c r="B47" s="2">
-        <v>45777.621458333335</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C47" s="2">
-        <v>45779</v>
+        <v>45805</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1958,42 +1958,42 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>327.9</v>
+        <v>110.1385</v>
       </c>
       <c r="H47">
-        <v>327.9</v>
+        <v>110.14</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>530748345</v>
+        <v>539546182</v>
       </c>
       <c r="B48" s="2">
-        <v>45777.62107638889</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C48" s="2">
-        <v>45778</v>
+        <v>45799</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G48">
-        <v>0.88043</v>
+        <v>0.88321</v>
       </c>
       <c r="H48">
-        <v>26.41</v>
+        <v>88.32</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2004,60 +2004,60 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>530748166</v>
+        <v>530748416</v>
       </c>
       <c r="B49" s="2">
-        <v>45777.62068287037</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C49" s="2">
-        <v>45778</v>
+        <v>45779</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
       <c r="F49">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0.8804</v>
+        <v>327.9</v>
       </c>
       <c r="H49">
-        <v>264.12</v>
+        <v>327.9</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>528304116</v>
+        <v>530748345</v>
       </c>
       <c r="B50" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C50" s="2">
-        <v>45772</v>
+        <v>45778</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G50">
-        <v>0.87843</v>
+        <v>0.88043</v>
       </c>
       <c r="H50">
-        <v>74.67</v>
+        <v>26.41</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2068,60 +2068,60 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>525384379</v>
+        <v>530748166</v>
       </c>
       <c r="B51" s="2">
-        <v>45763.63711805556</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C51" s="2">
-        <v>45769</v>
+        <v>45778</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G51">
-        <v>101.9</v>
+        <v>0.8804</v>
       </c>
       <c r="H51">
-        <v>101.9</v>
+        <v>264.12</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>525383965</v>
+        <v>528304116</v>
       </c>
       <c r="B52" s="2">
-        <v>45763.634826388894</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C52" s="2">
-        <v>45764</v>
+        <v>45772</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G52">
-        <v>0.87888</v>
+        <v>0.87843</v>
       </c>
       <c r="H52">
-        <v>65.92</v>
+        <v>74.67</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2132,16 +2132,16 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>521135744</v>
+        <v>525384379</v>
       </c>
       <c r="B53" s="2">
-        <v>45754.608506944445</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C53" s="2">
-        <v>45756</v>
+        <v>45769</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -2150,10 +2150,10 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>95</v>
+        <v>101.9</v>
       </c>
       <c r="H53">
-        <v>95</v>
+        <v>101.9</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2164,28 +2164,28 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>521115122</v>
+        <v>525383965</v>
       </c>
       <c r="B54" s="2">
-        <v>45754.593506944446</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C54" s="2">
-        <v>45755</v>
+        <v>45764</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>109.66</v>
+        <v>75</v>
       </c>
       <c r="G54">
-        <v>0.91206</v>
+        <v>0.87888</v>
       </c>
       <c r="H54">
-        <v>100.02</v>
+        <v>65.92</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2196,16 +2196,16 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>519105737</v>
+        <v>521135744</v>
       </c>
       <c r="B55" s="2">
-        <v>45749.575324074074</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C55" s="2">
-        <v>45751</v>
+        <v>45756</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -2214,42 +2214,42 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>330.5499</v>
+        <v>95</v>
       </c>
       <c r="H55">
-        <v>330.55</v>
+        <v>95</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1.97</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>519105619</v>
+        <v>521115122</v>
       </c>
       <c r="B56" s="2">
-        <v>45749.575115740736</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C56" s="2">
-        <v>45750</v>
+        <v>45755</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>330</v>
+        <v>109.66</v>
       </c>
       <c r="G56">
-        <v>0.92423</v>
+        <v>0.91206</v>
       </c>
       <c r="H56">
-        <v>305</v>
+        <v>100.02</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2260,16 +2260,16 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>518501268</v>
+        <v>519105737</v>
       </c>
       <c r="B57" s="2">
-        <v>45748.342511574076</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C57" s="2">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -2278,42 +2278,42 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>106.7</v>
+        <v>330.5499</v>
       </c>
       <c r="H57">
-        <v>106.7</v>
+        <v>330.55</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1.46</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>518501204</v>
+        <v>519105619</v>
       </c>
       <c r="B58" s="2">
-        <v>45748.342199074075</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C58" s="2">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>118.85</v>
+        <v>330</v>
       </c>
       <c r="G58">
-        <v>0.92553</v>
+        <v>0.92423</v>
       </c>
       <c r="H58">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2324,16 +2324,16 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>510327986</v>
+        <v>518501268</v>
       </c>
       <c r="B59" s="2">
-        <v>45728.454201388886</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C59" s="2">
-        <v>45729.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -2342,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="H59">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2356,28 +2356,28 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>510326670</v>
+        <v>518501204</v>
       </c>
       <c r="B60" s="2">
-        <v>45728.43972222222</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C60" s="2">
-        <v>45728.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>114.54</v>
+        <v>118.85</v>
       </c>
       <c r="G60">
-        <v>0.91668</v>
+        <v>0.92553</v>
       </c>
       <c r="H60">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2388,16 +2388,16 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>506086900</v>
+        <v>510327986</v>
       </c>
       <c r="B61" s="2">
-        <v>45719.31646990741</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C61" s="2">
-        <v>45720.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -2406,42 +2406,42 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>355.9998</v>
+        <v>107</v>
       </c>
       <c r="H61">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>2.07</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>506086612</v>
+        <v>510326670</v>
       </c>
       <c r="B62" s="2">
-        <v>45719.31418981482</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C62" s="2">
-        <v>45719.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>9.74</v>
+        <v>114.54</v>
       </c>
       <c r="G62">
-        <v>0.96213</v>
+        <v>0.91668</v>
       </c>
       <c r="H62">
-        <v>9.37</v>
+        <v>105</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2452,60 +2452,60 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>506084312</v>
+        <v>506086900</v>
       </c>
       <c r="B63" s="2">
-        <v>45719.29939814815</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C63" s="2">
-        <v>45719.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="F63">
-        <v>204.2</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>0.96116</v>
+        <v>355.9998</v>
       </c>
       <c r="H63">
-        <v>196.27</v>
+        <v>356</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>505408659</v>
+        <v>506086612</v>
       </c>
       <c r="B64" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C64" s="2">
-        <v>45718.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>129.21</v>
+        <v>9.74</v>
       </c>
       <c r="G64">
-        <v>0.96171</v>
+        <v>0.96213</v>
       </c>
       <c r="H64">
-        <v>124.26</v>
+        <v>9.37</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2516,60 +2516,60 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>503618898</v>
+        <v>506084312</v>
       </c>
       <c r="B65" s="2">
-        <v>45713.606828703705</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C65" s="2">
-        <v>45714.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>204.2</v>
       </c>
       <c r="G65">
-        <v>112.86</v>
+        <v>0.96116</v>
       </c>
       <c r="H65">
-        <v>112.86</v>
+        <v>196.27</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>503618686</v>
+        <v>505408659</v>
       </c>
       <c r="B66" s="2">
-        <v>45713.60653935185</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C66" s="2">
-        <v>45713.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66">
-        <v>120</v>
+        <v>129.21</v>
       </c>
       <c r="G66">
-        <v>0.9511</v>
+        <v>0.96171</v>
       </c>
       <c r="H66">
-        <v>114.13</v>
+        <v>124.26</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2580,16 +2580,16 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>499625741</v>
+        <v>503618898</v>
       </c>
       <c r="B67" s="2">
-        <v>45702.56398148148</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C67" s="2">
-        <v>45705.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -2598,42 +2598,42 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>375.25</v>
+        <v>112.86</v>
       </c>
       <c r="H67">
-        <v>375.25</v>
+        <v>112.86</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>2.11</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>499590185</v>
+        <v>503618686</v>
       </c>
       <c r="B68" s="2">
-        <v>45702.36454861111</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C68" s="2">
-        <v>45705.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68">
-        <v>20.96</v>
+        <v>120</v>
       </c>
       <c r="G68">
-        <v>0.95429</v>
+        <v>0.9511</v>
       </c>
       <c r="H68">
-        <v>20</v>
+        <v>114.13</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2644,92 +2644,92 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>498403616</v>
+        <v>499625741</v>
       </c>
       <c r="B69" s="2">
-        <v>45700.59783564815</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C69" s="2">
-        <v>45700.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69">
-        <v>103.4</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0.96693</v>
+        <v>375.25</v>
       </c>
       <c r="H69">
-        <v>99.98</v>
+        <v>375.25</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>494107867</v>
+        <v>499590185</v>
       </c>
       <c r="B70" s="2">
-        <v>45691.58335648148</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C70" s="2">
-        <v>45692.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>20.96</v>
       </c>
       <c r="G70">
-        <v>112.9</v>
+        <v>0.95429</v>
       </c>
       <c r="H70">
-        <v>112.9</v>
+        <v>20</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>494049655</v>
+        <v>498403616</v>
       </c>
       <c r="B71" s="2">
-        <v>45691.31773148148</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C71" s="2">
-        <v>45691.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>307.46</v>
+        <v>103.4</v>
       </c>
       <c r="G71">
-        <v>0.97578</v>
+        <v>0.96693</v>
       </c>
       <c r="H71">
-        <v>300.01</v>
+        <v>99.98</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2740,16 +2740,16 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>494049572</v>
+        <v>494107867</v>
       </c>
       <c r="B72" s="2">
-        <v>45691.31670138889</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C72" s="2">
         <v>45692.95833333333</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -2758,10 +2758,10 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>113.34</v>
+        <v>112.9</v>
       </c>
       <c r="H72">
-        <v>113.34</v>
+        <v>112.9</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2772,124 +2772,124 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>493368805</v>
+        <v>494049655</v>
       </c>
       <c r="B73" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C73" s="2">
         <v>45691.95833333333</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>307.46</v>
       </c>
       <c r="G73">
-        <v>115.9</v>
+        <v>0.97578</v>
       </c>
       <c r="H73">
-        <v>231.8</v>
+        <v>300.01</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>492836969</v>
+        <v>494049572</v>
       </c>
       <c r="B74" s="2">
-        <v>45687.621666666666</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C74" s="2">
-        <v>45687.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74">
-        <v>417.21</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0.95874</v>
+        <v>113.34</v>
       </c>
       <c r="H74">
-        <v>400</v>
+        <v>113.34</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>491075870</v>
+        <v>493368805</v>
       </c>
       <c r="B75" s="2">
-        <v>45684.61530092593</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C75" s="2">
-        <v>45685.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>114.4</v>
+        <v>115.9</v>
       </c>
       <c r="H75">
-        <v>114.4</v>
+        <v>231.8</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>491075618</v>
+        <v>492836969</v>
       </c>
       <c r="B76" s="2">
-        <v>45684.61476851851</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C76" s="2">
-        <v>45684.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
       </c>
       <c r="F76">
-        <v>115.46</v>
+        <v>417.21</v>
       </c>
       <c r="G76">
-        <v>0.95269</v>
+        <v>0.95874</v>
       </c>
       <c r="H76">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2900,16 +2900,16 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>483911545</v>
+        <v>491075870</v>
       </c>
       <c r="B77" s="2">
-        <v>45665.44930555555</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C77" s="2">
-        <v>45666.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -2918,42 +2918,42 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>360.35</v>
+        <v>114.4</v>
       </c>
       <c r="H77">
-        <v>360.35</v>
+        <v>114.4</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>483911481</v>
+        <v>491075618</v>
       </c>
       <c r="B78" s="2">
-        <v>45665.44840277778</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C78" s="2">
-        <v>45666.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78">
-        <v>365</v>
+        <v>115.46</v>
       </c>
       <c r="G78">
-        <v>0.97183</v>
+        <v>0.95269</v>
       </c>
       <c r="H78">
-        <v>354.72</v>
+        <v>110</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2964,60 +2964,60 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>481235383</v>
+        <v>483911545</v>
       </c>
       <c r="B79" s="2">
-        <v>45660.337430555555</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C79" s="2">
-        <v>45663.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>112</v>
+        <v>360.35</v>
       </c>
       <c r="H79">
-        <v>224</v>
+        <v>360.35</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>1.76</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>481235152</v>
+        <v>483911481</v>
       </c>
       <c r="B80" s="2">
-        <v>45660.33241898148</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C80" s="2">
-        <v>45662.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80">
-        <v>226.2</v>
+        <v>365</v>
       </c>
       <c r="G80">
-        <v>0.97259</v>
+        <v>0.97183</v>
       </c>
       <c r="H80">
-        <v>220</v>
+        <v>354.72</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3028,60 +3028,60 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>476674643</v>
+        <v>481235383</v>
       </c>
       <c r="B81" s="2">
-        <v>45646.40855324074</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C81" s="2">
-        <v>45652.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <v>355.4</v>
+        <v>112</v>
       </c>
       <c r="H81">
-        <v>355.4</v>
+        <v>224</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>476674604</v>
+        <v>481235152</v>
       </c>
       <c r="B82" s="2">
-        <v>45646.408437499995</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C82" s="2">
-        <v>45648.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
       <c r="F82">
-        <v>215</v>
+        <v>226.2</v>
       </c>
       <c r="G82">
-        <v>0.96264</v>
+        <v>0.97259</v>
       </c>
       <c r="H82">
-        <v>206.97</v>
+        <v>220</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3092,60 +3092,60 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>476670294</v>
+        <v>476674643</v>
       </c>
       <c r="B83" s="2">
-        <v>45646.38765046296</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C83" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
       </c>
       <c r="F83">
-        <v>51.32</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>0.96299</v>
+        <v>355.4</v>
       </c>
       <c r="H83">
-        <v>49.42</v>
+        <v>355.4</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>476669731</v>
+        <v>476674604</v>
       </c>
       <c r="B84" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C84" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="G84">
-        <v>0.96251</v>
+        <v>0.96264</v>
       </c>
       <c r="H84">
-        <v>57.75</v>
+        <v>206.97</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3156,60 +3156,60 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>476123556</v>
+        <v>476670294</v>
       </c>
       <c r="B85" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C85" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>51.32</v>
       </c>
       <c r="G85">
-        <v>112.54</v>
+        <v>0.96299</v>
       </c>
       <c r="H85">
-        <v>112.54</v>
+        <v>49.42</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>476123515</v>
+        <v>476669731</v>
       </c>
       <c r="B86" s="2">
-        <v>45645.52649305556</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C86" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
       </c>
       <c r="F86">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G86">
-        <v>0.96108</v>
+        <v>0.96251</v>
       </c>
       <c r="H86">
-        <v>96.11</v>
+        <v>57.75</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3220,45 +3220,45 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>471357479</v>
+        <v>476123556</v>
       </c>
       <c r="B87" s="2">
-        <v>45635.56259259259</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C87" s="2">
-        <v>45635.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>8.3412</v>
+        <v>112.54</v>
       </c>
       <c r="H87">
-        <v>8.34</v>
+        <v>112.54</v>
       </c>
       <c r="I87">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>466623419</v>
+        <v>476123515</v>
       </c>
       <c r="B88" s="2">
-        <v>45622.31217592592</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C88" s="2">
-        <v>45624.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -3267,65 +3267,65 @@
         <v>11</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G88">
-        <v>354.5</v>
+        <v>0.96108</v>
       </c>
       <c r="H88">
-        <v>354.5</v>
+        <v>96.11</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>2.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>466623402</v>
+        <v>471357479</v>
       </c>
       <c r="B89" s="2">
-        <v>45622.31188657407</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C89" s="2">
-        <v>45622.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F89">
-        <v>141.78</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>0.95389</v>
+        <v>8.3412</v>
       </c>
       <c r="H89">
-        <v>135.24</v>
+        <v>8.34</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>462598648</v>
+        <v>466623419</v>
       </c>
       <c r="B90" s="2">
-        <v>45611.592997685184</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C90" s="2">
-        <v>45614.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
@@ -3334,138 +3334,138 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>111.8099</v>
+        <v>354.5</v>
       </c>
       <c r="H90">
-        <v>111.81</v>
+        <v>354.5</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>1.47</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>460084933</v>
+        <v>466623402</v>
       </c>
       <c r="B91" s="2">
-        <v>45604.62016203704</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C91" s="2">
-        <v>45607.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>141.78</v>
       </c>
       <c r="G91">
-        <v>8.3836</v>
+        <v>0.95389</v>
       </c>
       <c r="H91">
-        <v>8.38</v>
+        <v>135.24</v>
       </c>
       <c r="I91">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>458847628</v>
+        <v>462598648</v>
       </c>
       <c r="B92" s="2">
-        <v>45602.26765046296</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C92" s="2">
-        <v>45602.95833333333</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92">
-        <v>341.65</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0.93077</v>
+        <v>111.8099</v>
       </c>
       <c r="H92">
-        <v>318</v>
+        <v>111.81</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>449590057</v>
+        <v>460084933</v>
       </c>
       <c r="B93" s="2">
-        <v>45579.62847222222</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C93" s="2">
-        <v>45581</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" t="s">
         <v>16</v>
       </c>
-      <c r="E93" t="s">
-        <v>11</v>
-      </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93">
-        <v>110.9161</v>
+        <v>8.3836</v>
       </c>
       <c r="H93">
-        <v>110.92</v>
+        <v>8.38</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J93">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>449589875</v>
+        <v>458847628</v>
       </c>
       <c r="B94" s="2">
-        <v>45579.628125</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C94" s="2">
-        <v>45580</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
       </c>
       <c r="F94">
-        <v>35</v>
+        <v>341.65</v>
       </c>
       <c r="G94">
-        <v>0.91628</v>
+        <v>0.93077</v>
       </c>
       <c r="H94">
-        <v>32.07</v>
+        <v>318</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -3476,16 +3476,16 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>449589083</v>
+        <v>449590057</v>
       </c>
       <c r="B95" s="2">
-        <v>45579.62637731481</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C95" s="2">
         <v>45581</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>110.9196</v>
+        <v>110.9161</v>
       </c>
       <c r="H95">
         <v>110.92</v>
@@ -3508,48 +3508,48 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>449588246</v>
+        <v>449589875</v>
       </c>
       <c r="B96" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.628125</v>
       </c>
       <c r="C96" s="2">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F96">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G96">
-        <v>3.4715</v>
+        <v>0.91628</v>
       </c>
       <c r="H96">
-        <v>149.27</v>
+        <v>32.07</v>
       </c>
       <c r="I96">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>445429841</v>
+        <v>449589083</v>
       </c>
       <c r="B97" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C97" s="2">
-        <v>45572</v>
+        <v>45581</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
@@ -3558,62 +3558,62 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <v>337.65</v>
+        <v>110.9196</v>
       </c>
       <c r="H97">
-        <v>337.65</v>
+        <v>110.92</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>445429174</v>
+        <v>449588246</v>
       </c>
       <c r="B98" s="2">
-        <v>45568.57231481481</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C98" s="2">
-        <v>45569</v>
+        <v>45581</v>
       </c>
       <c r="D98" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F98">
-        <v>369.23</v>
+        <v>43</v>
       </c>
       <c r="G98">
-        <v>0.90605</v>
+        <v>3.4715</v>
       </c>
       <c r="H98">
-        <v>334.54</v>
+        <v>149.27</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>444353954</v>
+        <v>445429841</v>
       </c>
       <c r="B99" s="2">
-        <v>45566.58853009259</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C99" s="2">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -3622,42 +3622,42 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>108.24</v>
+        <v>337.65</v>
       </c>
       <c r="H99">
-        <v>108.24</v>
+        <v>337.65</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1.45</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>444310921</v>
+        <v>445429174</v>
       </c>
       <c r="B100" s="2">
-        <v>45566.29953703703</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C100" s="2">
-        <v>45567</v>
+        <v>45569</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100">
-        <v>60.56</v>
+        <v>369.23</v>
       </c>
       <c r="G100">
-        <v>0.89984</v>
+        <v>0.90605</v>
       </c>
       <c r="H100">
-        <v>54.49</v>
+        <v>334.54</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -3668,156 +3668,156 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>439936166</v>
+        <v>444353954</v>
       </c>
       <c r="B101" s="2">
-        <v>45554.56259259259</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C101" s="2">
-        <v>45555</v>
+        <v>45568</v>
       </c>
       <c r="D101" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101">
-        <v>62.0726</v>
+        <v>108.24</v>
       </c>
       <c r="H101">
-        <v>62.07</v>
+        <v>108.24</v>
       </c>
       <c r="I101">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>435165980</v>
+        <v>444310921</v>
       </c>
       <c r="B102" s="2">
-        <v>45541.475370370375</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C102" s="2">
-        <v>45545</v>
+        <v>45567</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>60.56</v>
       </c>
       <c r="G102">
-        <v>103.72</v>
+        <v>0.89984</v>
       </c>
       <c r="H102">
-        <v>103.72</v>
+        <v>54.49</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>435165968</v>
+        <v>439936166</v>
       </c>
       <c r="B103" s="2">
-        <v>45541.47508101852</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C103" s="2">
-        <v>45544</v>
+        <v>45555</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F103">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>0.9011</v>
+        <v>62.0726</v>
       </c>
       <c r="H103">
-        <v>0.19</v>
+        <v>62.07</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>435165951</v>
+        <v>435165980</v>
       </c>
       <c r="B104" s="2">
-        <v>45541.47487268518</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C104" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
       </c>
       <c r="F104">
-        <v>4.42</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>0.90109</v>
+        <v>103.72</v>
       </c>
       <c r="H104">
-        <v>3.98</v>
+        <v>103.72</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>435165927</v>
+        <v>435165968</v>
       </c>
       <c r="B105" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C105" s="2">
         <v>45544</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
       </c>
       <c r="F105">
-        <v>92.77</v>
+        <v>0.21</v>
       </c>
       <c r="G105">
-        <v>0.90109</v>
+        <v>0.9011</v>
       </c>
       <c r="H105">
-        <v>83.59</v>
+        <v>0.19</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -3828,112 +3828,112 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>434675474</v>
+        <v>435165951</v>
       </c>
       <c r="B106" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C106" s="2">
         <v>45544</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
       </c>
       <c r="F106">
-        <v>8</v>
+        <v>4.42</v>
       </c>
       <c r="G106">
-        <v>3.689</v>
+        <v>0.90109</v>
       </c>
       <c r="H106">
-        <v>29.51</v>
+        <v>3.98</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>434162210</v>
+        <v>435165927</v>
       </c>
       <c r="B107" s="2">
-        <v>45539.43609953704</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C107" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>92.77</v>
       </c>
       <c r="G107">
-        <v>104.42</v>
+        <v>0.90109</v>
       </c>
       <c r="H107">
-        <v>104.42</v>
+        <v>83.59</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>433696199</v>
+        <v>434675474</v>
       </c>
       <c r="B108" s="2">
-        <v>45538.68898148148</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C108" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="D108" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G108">
-        <v>110.122</v>
+        <v>3.689</v>
       </c>
       <c r="H108">
-        <v>110.12</v>
+        <v>29.51</v>
       </c>
       <c r="I108">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>433626785</v>
+        <v>434162210</v>
       </c>
       <c r="B109" s="2">
-        <v>45538.39231481482</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C109" s="2">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -3942,10 +3942,10 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>106.54</v>
+        <v>104.42</v>
       </c>
       <c r="H109">
-        <v>106.54</v>
+        <v>104.42</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -3956,48 +3956,48 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>433626678</v>
+        <v>433696199</v>
       </c>
       <c r="B110" s="2">
-        <v>45538.391076388885</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C110" s="2">
         <v>45539</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F110">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>0.90603</v>
+        <v>110.122</v>
       </c>
       <c r="H110">
-        <v>66.96</v>
+        <v>110.12</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>432518350</v>
+        <v>433626785</v>
       </c>
       <c r="B111" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C111" s="2">
-        <v>45533</v>
+        <v>45540</v>
       </c>
       <c r="D111" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -4006,202 +4006,202 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>120.88</v>
+        <v>106.54</v>
       </c>
       <c r="H111">
-        <v>120.88</v>
+        <v>106.54</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>432515426</v>
+        <v>433626678</v>
       </c>
       <c r="B112" s="2">
-        <v>45533.54127314815</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C112" s="2">
-        <v>45537</v>
+        <v>45539</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>73.9</v>
       </c>
       <c r="G112">
-        <v>106.34</v>
+        <v>0.90603</v>
       </c>
       <c r="H112">
-        <v>106.34</v>
+        <v>66.96</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>432005364</v>
+        <v>432518350</v>
       </c>
       <c r="B113" s="2">
-        <v>45532.39208333333</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C113" s="2">
-        <v>45534</v>
+        <v>45533</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
       <c r="F113">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>3.632</v>
+        <v>120.88</v>
       </c>
       <c r="H113">
-        <v>116.22</v>
+        <v>120.88</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>432003333</v>
+        <v>432515426</v>
       </c>
       <c r="B114" s="2">
-        <v>45532.363020833334</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C114" s="2">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114">
-        <v>106.74</v>
+        <v>106.34</v>
       </c>
       <c r="H114">
-        <v>213.48</v>
+        <v>106.34</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>432003262</v>
+        <v>432005364</v>
       </c>
       <c r="B115" s="2">
-        <v>45532.361875</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C115" s="2">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="D115" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
       </c>
       <c r="F115">
-        <v>618.74</v>
+        <v>32</v>
       </c>
       <c r="G115">
-        <v>0.89741</v>
+        <v>3.632</v>
       </c>
       <c r="H115">
-        <v>555.26</v>
+        <v>116.22</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>430366906</v>
+        <v>432003333</v>
       </c>
       <c r="B116" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C116" s="2">
-        <v>45532</v>
+        <v>45534</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="F116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G116">
-        <v>3.6305</v>
+        <v>106.74</v>
       </c>
       <c r="H116">
-        <v>10.89</v>
+        <v>213.48</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1.26</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>430365249</v>
+        <v>432003262</v>
       </c>
       <c r="B117" s="2">
-        <v>45527.27630787037</v>
+        <v>45532.361875</v>
       </c>
       <c r="C117" s="2">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="D117" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
       <c r="F117">
-        <v>4.63</v>
+        <v>618.74</v>
       </c>
       <c r="G117">
-        <v>0.8999</v>
+        <v>0.89741</v>
       </c>
       <c r="H117">
-        <v>4.17</v>
+        <v>555.26</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -4212,188 +4212,188 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>428453232</v>
+        <v>430366906</v>
       </c>
       <c r="B118" s="2">
-        <v>45523.56253472222</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C118" s="2">
-        <v>45524</v>
+        <v>45532</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G118">
-        <v>60.046</v>
+        <v>3.6305</v>
       </c>
       <c r="H118">
-        <v>60.05</v>
+        <v>10.89</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>428444212</v>
+        <v>430365249</v>
       </c>
       <c r="B119" s="2">
-        <v>45523.47152777778</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C119" s="2">
-        <v>45525</v>
+        <v>45530</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>4.63</v>
       </c>
       <c r="G119">
-        <v>105.3</v>
+        <v>0.8999</v>
       </c>
       <c r="H119">
-        <v>105.3</v>
+        <v>4.17</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>428437042</v>
+        <v>428453232</v>
       </c>
       <c r="B120" s="2">
-        <v>45523.37878472223</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C120" s="2">
         <v>45524</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
       </c>
       <c r="F120">
-        <v>7.15</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>0.90756</v>
+        <v>60.046</v>
       </c>
       <c r="H120">
-        <v>6.49</v>
+        <v>60.05</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>428437005</v>
+        <v>428444212</v>
       </c>
       <c r="B121" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C121" s="2">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
       </c>
       <c r="F121">
-        <v>150.15</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>0.90756</v>
+        <v>105.3</v>
       </c>
       <c r="H121">
-        <v>136.27</v>
+        <v>105.3</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>426418112</v>
+        <v>428437042</v>
       </c>
       <c r="B122" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C122" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="D122" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>7.15</v>
       </c>
       <c r="G122">
-        <v>102.02</v>
+        <v>0.90756</v>
       </c>
       <c r="H122">
-        <v>102.02</v>
+        <v>6.49</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>426417966</v>
+        <v>428437005</v>
       </c>
       <c r="B123" s="2">
-        <v>45517.58042824074</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C123" s="2">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="D123" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
       </c>
       <c r="F123">
-        <v>10.45</v>
+        <v>150.15</v>
       </c>
       <c r="G123">
-        <v>0.91439</v>
+        <v>0.90756</v>
       </c>
       <c r="H123">
-        <v>9.56</v>
+        <v>136.27</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -4404,65 +4404,129 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>426416264</v>
+        <v>426418112</v>
       </c>
       <c r="B124" s="2">
-        <v>45517.57699074074</v>
+        <v>45517.58078703703</v>
       </c>
       <c r="C124" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
       </c>
       <c r="F124">
-        <v>4.86</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>0.91458</v>
+        <v>102.02</v>
       </c>
       <c r="H124">
-        <v>4.44</v>
+        <v>102.02</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>426416183</v>
+        <v>426417966</v>
       </c>
       <c r="B125" s="2">
-        <v>45517.576678240745</v>
+        <v>45517.58042824074</v>
       </c>
       <c r="C125" s="2">
         <v>45518</v>
       </c>
       <c r="D125" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
       </c>
       <c r="F125">
+        <v>10.45</v>
+      </c>
+      <c r="G125">
+        <v>0.91439</v>
+      </c>
+      <c r="H125">
+        <v>9.56</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>426416264</v>
+      </c>
+      <c r="B126" s="2">
+        <v>45517.57699074074</v>
+      </c>
+      <c r="C126" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126">
+        <v>4.86</v>
+      </c>
+      <c r="G126">
+        <v>0.91458</v>
+      </c>
+      <c r="H126">
+        <v>4.44</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>426416183</v>
+      </c>
+      <c r="B127" s="2">
+        <v>45517.576678240745</v>
+      </c>
+      <c r="C127" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127">
         <v>102.05</v>
       </c>
-      <c r="G125">
+      <c r="G127">
         <v>0.91459</v>
       </c>
-      <c r="H125">
+      <c r="H127">
         <v>93.33</v>
       </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
         <v>0</v>
       </c>
     </row>

--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="22">
   <si>
     <t>Number</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>VUAA.EU</t>
+    <t>AETF.GR</t>
   </si>
   <si>
     <t xml:space="preserve"> Buy </t>
@@ -52,7 +52,7 @@
     <t>USD/EUR</t>
   </si>
   <si>
-    <t>AETF.GR</t>
+    <t>VUAA.EU</t>
   </si>
   <si>
     <t>EQAC.EU</t>
@@ -463,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J129"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -500,13 +500,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>607897752</v>
+        <v>608925629</v>
       </c>
       <c r="B2" s="2">
-        <v>46031.419953703706</v>
+        <v>46035.31548611111</v>
       </c>
       <c r="C2" s="2">
-        <v>46034.95833333333</v>
+        <v>46036.95833333333</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -515,30 +515,30 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>133.16</v>
+        <v>56.7</v>
       </c>
       <c r="H2">
-        <v>133.16</v>
+        <v>226.8</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.49</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>607448850</v>
+        <v>608923859</v>
       </c>
       <c r="B3" s="2">
-        <v>46030.52565972222</v>
+        <v>46035.30521990741</v>
       </c>
       <c r="C3" s="2">
-        <v>46030.95833333333</v>
+        <v>46035.95833333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -547,13 +547,13 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>174.44</v>
+        <v>302.19</v>
       </c>
       <c r="G3">
-        <v>0.8599</v>
+        <v>0.86037</v>
       </c>
       <c r="H3">
-        <v>150.01</v>
+        <v>260</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>604650426</v>
+        <v>607897752</v>
       </c>
       <c r="B4" s="2">
-        <v>46021.38538194445</v>
+        <v>46031.419953703706</v>
       </c>
       <c r="C4" s="2">
-        <v>46023.95833333333</v>
+        <v>46034.95833333333</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -579,13 +579,13 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>54.19</v>
+        <v>133.16</v>
       </c>
       <c r="H4">
-        <v>108.38</v>
+        <v>133.16</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -596,48 +596,48 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>598550485</v>
+        <v>607448850</v>
       </c>
       <c r="B5" s="2">
-        <v>46001.63391203704</v>
+        <v>46030.52565972222</v>
       </c>
       <c r="C5" s="2">
-        <v>46002.95833333333</v>
+        <v>46030.95833333333</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>174.44</v>
       </c>
       <c r="G5">
-        <v>437.25</v>
+        <v>0.8599</v>
       </c>
       <c r="H5">
-        <v>437.25</v>
+        <v>150.01</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>596219726</v>
+        <v>604650426</v>
       </c>
       <c r="B6" s="2">
-        <v>45994.43467592592</v>
+        <v>46021.38538194445</v>
       </c>
       <c r="C6" s="2">
-        <v>45995.95833333333</v>
+        <v>46023.95833333333</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -646,10 +646,10 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>53.57</v>
+        <v>54.19</v>
       </c>
       <c r="H6">
-        <v>107.14</v>
+        <v>108.38</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -660,144 +660,144 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>595820593</v>
+        <v>598550485</v>
       </c>
       <c r="B7" s="2">
-        <v>45993.61094907408</v>
+        <v>46001.63391203704</v>
       </c>
       <c r="C7" s="2">
-        <v>45993.95833333333</v>
+        <v>46002.95833333333</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.1572</v>
+        <v>437.25</v>
       </c>
       <c r="H7">
-        <v>347.16</v>
+        <v>437.25</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>592858794</v>
+        <v>596219726</v>
       </c>
       <c r="B8" s="2">
-        <v>45982.31758101852</v>
+        <v>45994.43467592592</v>
       </c>
       <c r="C8" s="2">
-        <v>45984.95833333333</v>
+        <v>45995.95833333333</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8">
-        <v>138.08</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>0.86907</v>
+        <v>53.57</v>
       </c>
       <c r="H8">
-        <v>120</v>
+        <v>107.14</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>592858764</v>
+        <v>595820593</v>
       </c>
       <c r="B9" s="2">
-        <v>45982.31736111111</v>
+        <v>45993.61094907408</v>
       </c>
       <c r="C9" s="2">
-        <v>45985.95833333333</v>
+        <v>45993.95833333333</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G9">
-        <v>125.7</v>
+        <v>1.1572</v>
       </c>
       <c r="H9">
-        <v>125.7</v>
+        <v>347.16</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>591521660</v>
+        <v>592858794</v>
       </c>
       <c r="B10" s="2">
-        <v>45979.40392361111</v>
+        <v>45982.31758101852</v>
       </c>
       <c r="C10" s="2">
-        <v>45980.95833333333</v>
+        <v>45984.95833333333</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>138.08</v>
       </c>
       <c r="G10">
-        <v>51.58</v>
+        <v>0.86907</v>
       </c>
       <c r="H10">
-        <v>51.58</v>
+        <v>120</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>591521571</v>
+        <v>592858764</v>
       </c>
       <c r="B11" s="2">
-        <v>45979.40299768519</v>
+        <v>45982.31736111111</v>
       </c>
       <c r="C11" s="2">
-        <v>45980.95833333333</v>
+        <v>45985.95833333333</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -806,10 +806,10 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>127.64</v>
+        <v>125.7</v>
       </c>
       <c r="H11">
-        <v>127.64</v>
+        <v>125.7</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -820,13 +820,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>589647638</v>
+        <v>591521660</v>
       </c>
       <c r="B12" s="2">
-        <v>45973.3719212963</v>
+        <v>45979.40392361111</v>
       </c>
       <c r="C12" s="2">
-        <v>45974.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -838,56 +838,56 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>131.88</v>
+        <v>51.58</v>
       </c>
       <c r="H12">
-        <v>131.88</v>
+        <v>51.58</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>589647623</v>
+        <v>591521571</v>
       </c>
       <c r="B13" s="2">
-        <v>45973.371666666666</v>
+        <v>45979.40299768519</v>
       </c>
       <c r="C13" s="2">
-        <v>45973.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>138.34</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.86743</v>
+        <v>127.64</v>
       </c>
       <c r="H13">
-        <v>120</v>
+        <v>127.64</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>589647528</v>
+        <v>589647638</v>
       </c>
       <c r="B14" s="2">
-        <v>45973.37055555556</v>
+        <v>45973.3719212963</v>
       </c>
       <c r="C14" s="2">
         <v>45974.95833333333</v>
@@ -902,59 +902,59 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>51.88</v>
+        <v>131.88</v>
       </c>
       <c r="H14">
-        <v>51.88</v>
+        <v>131.88</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>587179374</v>
+        <v>589647623</v>
       </c>
       <c r="B15" s="2">
-        <v>45965.315983796296</v>
+        <v>45973.371666666666</v>
       </c>
       <c r="C15" s="2">
-        <v>45966.95833333333</v>
+        <v>45973.95833333333</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>138.34</v>
       </c>
       <c r="G15">
-        <v>50.67</v>
+        <v>0.86743</v>
       </c>
       <c r="H15">
-        <v>50.67</v>
+        <v>120</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>586793234</v>
+        <v>589647528</v>
       </c>
       <c r="B16" s="2">
-        <v>45964.60378472222</v>
+        <v>45973.37055555556</v>
       </c>
       <c r="C16" s="2">
-        <v>45965.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -966,59 +966,59 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>130.9</v>
+        <v>51.88</v>
       </c>
       <c r="H16">
-        <v>130.9</v>
+        <v>51.88</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>586792895</v>
+        <v>587179374</v>
       </c>
       <c r="B17" s="2">
-        <v>45964.60346064815</v>
+        <v>45965.315983796296</v>
       </c>
       <c r="C17" s="2">
-        <v>45964.95833333333</v>
+        <v>45966.95833333333</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17">
-        <v>286.74</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.87185</v>
+        <v>50.67</v>
       </c>
       <c r="H17">
-        <v>249.99</v>
+        <v>50.67</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>585309488</v>
+        <v>586793234</v>
       </c>
       <c r="B18" s="2">
-        <v>45959.31539351852</v>
+        <v>45964.60378472222</v>
       </c>
       <c r="C18" s="2">
-        <v>45960.95833333333</v>
+        <v>45965.95833333333</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1030,59 +1030,59 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>51.01</v>
+        <v>130.9</v>
       </c>
       <c r="H18">
-        <v>51.01</v>
+        <v>130.9</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>581709074</v>
+        <v>586792895</v>
       </c>
       <c r="B19" s="2">
-        <v>45947.35291666667</v>
+        <v>45964.60346064815</v>
       </c>
       <c r="C19" s="2">
-        <v>45951</v>
+        <v>45964.95833333333</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>286.74</v>
       </c>
       <c r="G19">
-        <v>49.61</v>
+        <v>0.87185</v>
       </c>
       <c r="H19">
-        <v>49.61</v>
+        <v>249.99</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>581709060</v>
+        <v>585309488</v>
       </c>
       <c r="B20" s="2">
-        <v>45947.35277777778</v>
+        <v>45959.31539351852</v>
       </c>
       <c r="C20" s="2">
-        <v>45951</v>
+        <v>45960.95833333333</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1094,30 +1094,30 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>125.58</v>
+        <v>51.01</v>
       </c>
       <c r="H20">
-        <v>125.58</v>
+        <v>51.01</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>581269382</v>
+        <v>581709074</v>
       </c>
       <c r="B21" s="2">
-        <v>45946.41150462963</v>
+        <v>45947.35291666667</v>
       </c>
       <c r="C21" s="2">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1126,62 +1126,62 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.94</v>
+        <v>49.61</v>
       </c>
       <c r="H21">
-        <v>50.94</v>
+        <v>49.61</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>580169893</v>
+        <v>581709060</v>
       </c>
       <c r="B22" s="2">
-        <v>45943.423321759255</v>
+        <v>45947.35277777778</v>
       </c>
       <c r="C22" s="2">
-        <v>45944</v>
+        <v>45951</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22">
-        <v>80.87</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8656</v>
+        <v>125.58</v>
       </c>
       <c r="H22">
-        <v>70</v>
+        <v>125.58</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>580169868</v>
+        <v>581269382</v>
       </c>
       <c r="B23" s="2">
-        <v>45943.42288194444</v>
+        <v>45946.41150462963</v>
       </c>
       <c r="C23" s="2">
-        <v>45945</v>
+        <v>45950</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1190,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.65</v>
+        <v>50.94</v>
       </c>
       <c r="H23">
-        <v>53.65</v>
+        <v>50.94</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1204,45 +1204,45 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>580169327</v>
+        <v>580169893</v>
       </c>
       <c r="B24" s="2">
-        <v>45943.41800925926</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C24" s="2">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>80.87</v>
       </c>
       <c r="G24">
-        <v>127.32</v>
+        <v>0.8656</v>
       </c>
       <c r="H24">
-        <v>127.32</v>
+        <v>70</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>579211549</v>
+        <v>580169868</v>
       </c>
       <c r="B25" s="2">
-        <v>45939.61756944444</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C25" s="2">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -1254,27 +1254,27 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>129.08</v>
+        <v>53.65</v>
       </c>
       <c r="H25">
-        <v>129.08</v>
+        <v>53.65</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>577313732</v>
+        <v>580169327</v>
       </c>
       <c r="B26" s="2">
-        <v>45933.56972222222</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C26" s="2">
-        <v>45937</v>
+        <v>45945</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -1283,13 +1283,13 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>52.65</v>
+        <v>127.32</v>
       </c>
       <c r="H26">
-        <v>105.3</v>
+        <v>127.32</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1300,13 +1300,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>576413456</v>
+        <v>579211549</v>
       </c>
       <c r="B27" s="2">
-        <v>45931.44907407407</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C27" s="2">
-        <v>45933</v>
+        <v>45943</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1318,62 +1318,62 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>51.62</v>
+        <v>129.08</v>
       </c>
       <c r="H27">
-        <v>51.62</v>
+        <v>129.08</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>576410571</v>
+        <v>577313732</v>
       </c>
       <c r="B28" s="2">
-        <v>45931.43001157408</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C28" s="2">
-        <v>45932</v>
+        <v>45937</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28">
-        <v>116.85</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>0.85583</v>
+        <v>52.65</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>105.3</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>575554915</v>
+        <v>576413456</v>
       </c>
       <c r="B29" s="2">
-        <v>45929.452060185184</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C29" s="2">
-        <v>45931</v>
+        <v>45933</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1382,10 +1382,10 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>51.47</v>
+        <v>51.62</v>
       </c>
       <c r="H29">
-        <v>51.47</v>
+        <v>51.62</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1396,48 +1396,48 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>573400676</v>
+        <v>576410571</v>
       </c>
       <c r="B30" s="2">
-        <v>45922.33627314815</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C30" s="2">
-        <v>45924</v>
+        <v>45932</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G30">
-        <v>127.36</v>
+        <v>0.85583</v>
       </c>
       <c r="H30">
-        <v>127.36</v>
+        <v>100</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>573399341</v>
+        <v>575554915</v>
       </c>
       <c r="B31" s="2">
-        <v>45922.324120370366</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C31" s="2">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1446,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>51</v>
+        <v>51.47</v>
       </c>
       <c r="H31">
-        <v>51</v>
+        <v>51.47</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1460,45 +1460,45 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>568717926</v>
+        <v>573400676</v>
       </c>
       <c r="B32" s="2">
-        <v>45905.5246875</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C32" s="2">
-        <v>45908</v>
+        <v>45924</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.85539</v>
+        <v>127.36</v>
       </c>
       <c r="H32">
-        <v>106.92</v>
+        <v>127.36</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>567931751</v>
+        <v>573399341</v>
       </c>
       <c r="B33" s="2">
-        <v>45903.333657407406</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C33" s="2">
-        <v>45905</v>
+        <v>45924</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -1510,27 +1510,27 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>123.16</v>
+        <v>51</v>
       </c>
       <c r="H33">
-        <v>123.16</v>
+        <v>51</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>566723916</v>
+        <v>568717926</v>
       </c>
       <c r="B34" s="2">
-        <v>45897.62657407408</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C34" s="2">
-        <v>45898</v>
+        <v>45908</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -1539,13 +1539,13 @@
         <v>11</v>
       </c>
       <c r="F34">
-        <v>290.69</v>
+        <v>125</v>
       </c>
       <c r="G34">
-        <v>0.86002</v>
+        <v>0.85539</v>
       </c>
       <c r="H34">
-        <v>250</v>
+        <v>106.92</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1556,16 +1556,16 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>564426812</v>
+        <v>567931751</v>
       </c>
       <c r="B35" s="2">
-        <v>45889.61331018519</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C35" s="2">
-        <v>45891</v>
+        <v>45905</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1574,10 +1574,10 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>121.62</v>
+        <v>123.16</v>
       </c>
       <c r="H35">
-        <v>121.62</v>
+        <v>123.16</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>564420621</v>
+        <v>566723916</v>
       </c>
       <c r="B36" s="2">
-        <v>45889.60018518519</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C36" s="2">
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -1603,13 +1603,13 @@
         <v>11</v>
       </c>
       <c r="F36">
-        <v>127.71</v>
+        <v>290.69</v>
       </c>
       <c r="G36">
-        <v>0.86135</v>
+        <v>0.86002</v>
       </c>
       <c r="H36">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1620,205 +1620,205 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>555657178</v>
+        <v>564426812</v>
       </c>
       <c r="B37" s="2">
-        <v>45859.48091435185</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C37" s="2">
-        <v>45860</v>
+        <v>45891</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.85771</v>
+        <v>121.62</v>
       </c>
       <c r="H37">
-        <v>85.77</v>
+        <v>121.62</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>555654532</v>
+        <v>564420621</v>
       </c>
       <c r="B38" s="2">
-        <v>45859.465474537035</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C38" s="2">
-        <v>45861</v>
+        <v>45890</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>127.71</v>
       </c>
       <c r="G38">
-        <v>395</v>
+        <v>0.86135</v>
       </c>
       <c r="H38">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>551218217</v>
+        <v>555657178</v>
       </c>
       <c r="B39" s="2">
-        <v>45841.369837962964</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C39" s="2">
-        <v>45845</v>
+        <v>45860</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G39">
-        <v>119.16</v>
+        <v>0.85771</v>
       </c>
       <c r="H39">
-        <v>119.16</v>
+        <v>85.77</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>551216497</v>
+        <v>555654532</v>
       </c>
       <c r="B40" s="2">
-        <v>45841.35429398148</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C40" s="2">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0.84741</v>
+        <v>395</v>
       </c>
       <c r="H40">
-        <v>169.48</v>
+        <v>395</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>549290062</v>
+        <v>551218217</v>
       </c>
       <c r="B41" s="2">
-        <v>45834.39111111111</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C41" s="2">
-        <v>45835</v>
+        <v>45845</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0.85337</v>
+        <v>119.16</v>
       </c>
       <c r="H41">
-        <v>99.84</v>
+        <v>119.16</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>546584060</v>
+        <v>551216497</v>
       </c>
       <c r="B42" s="2">
-        <v>45824.480104166665</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C42" s="2">
-        <v>45826</v>
+        <v>45845</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G42">
-        <v>114.8</v>
+        <v>0.84741</v>
       </c>
       <c r="H42">
-        <v>114.8</v>
+        <v>169.48</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>546583898</v>
+        <v>549290062</v>
       </c>
       <c r="B43" s="2">
-        <v>45824.47923611111</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C43" s="2">
-        <v>45825</v>
+        <v>45835</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -1827,13 +1827,13 @@
         <v>11</v>
       </c>
       <c r="F43">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G43">
-        <v>0.86376</v>
+        <v>0.85337</v>
       </c>
       <c r="H43">
-        <v>99.33</v>
+        <v>99.84</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -1844,77 +1844,77 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>545459805</v>
+        <v>546584060</v>
       </c>
       <c r="B44" s="2">
-        <v>45819.41773148148</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C44" s="2">
-        <v>45820</v>
+        <v>45826</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0.87444</v>
+        <v>114.8</v>
       </c>
       <c r="H44">
-        <v>43.72</v>
+        <v>114.8</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>542145647</v>
+        <v>546583898</v>
       </c>
       <c r="B45" s="2">
-        <v>45807.5672337963</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C45" s="2">
-        <v>45811</v>
+        <v>45825</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G45">
-        <v>112.4</v>
+        <v>0.86376</v>
       </c>
       <c r="H45">
-        <v>112.4</v>
+        <v>99.33</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>541352365</v>
+        <v>545459805</v>
       </c>
       <c r="B46" s="2">
-        <v>45805.594560185185</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C46" s="2">
-        <v>45806</v>
+        <v>45820</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -1923,13 +1923,13 @@
         <v>11</v>
       </c>
       <c r="F46">
-        <v>169.82</v>
+        <v>50</v>
       </c>
       <c r="G46">
-        <v>0.88332</v>
+        <v>0.87444</v>
       </c>
       <c r="H46">
-        <v>150.01</v>
+        <v>43.72</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -1940,16 +1940,16 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>540397794</v>
+        <v>542145647</v>
       </c>
       <c r="B47" s="2">
-        <v>45800.4953125</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C47" s="2">
-        <v>45805</v>
+        <v>45811</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1958,27 +1958,27 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>110.1385</v>
+        <v>112.4</v>
       </c>
       <c r="H47">
-        <v>110.14</v>
+        <v>112.4</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>539546182</v>
+        <v>541352365</v>
       </c>
       <c r="B48" s="2">
-        <v>45798.38793981481</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C48" s="2">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -1987,13 +1987,13 @@
         <v>11</v>
       </c>
       <c r="F48">
-        <v>100</v>
+        <v>169.82</v>
       </c>
       <c r="G48">
-        <v>0.88321</v>
+        <v>0.88332</v>
       </c>
       <c r="H48">
-        <v>88.32</v>
+        <v>150.01</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2004,16 +2004,16 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>530748416</v>
+        <v>540397794</v>
       </c>
       <c r="B49" s="2">
-        <v>45777.621458333335</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C49" s="2">
-        <v>45779</v>
+        <v>45805</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -2022,27 +2022,27 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>327.9</v>
+        <v>110.1385</v>
       </c>
       <c r="H49">
-        <v>327.9</v>
+        <v>110.14</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>530748345</v>
+        <v>539546182</v>
       </c>
       <c r="B50" s="2">
-        <v>45777.62107638889</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C50" s="2">
-        <v>45778</v>
+        <v>45799</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -2051,13 +2051,13 @@
         <v>11</v>
       </c>
       <c r="F50">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G50">
-        <v>0.88043</v>
+        <v>0.88321</v>
       </c>
       <c r="H50">
-        <v>26.41</v>
+        <v>88.32</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2068,45 +2068,45 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>530748166</v>
+        <v>530748416</v>
       </c>
       <c r="B51" s="2">
-        <v>45777.62068287037</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C51" s="2">
-        <v>45778</v>
+        <v>45779</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
       </c>
       <c r="F51">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0.8804</v>
+        <v>327.9</v>
       </c>
       <c r="H51">
-        <v>264.12</v>
+        <v>327.9</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>528304116</v>
+        <v>530748345</v>
       </c>
       <c r="B52" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C52" s="2">
-        <v>45772</v>
+        <v>45778</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -2115,13 +2115,13 @@
         <v>11</v>
       </c>
       <c r="F52">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G52">
-        <v>0.87843</v>
+        <v>0.88043</v>
       </c>
       <c r="H52">
-        <v>74.67</v>
+        <v>26.41</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2132,45 +2132,45 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>525384379</v>
+        <v>530748166</v>
       </c>
       <c r="B53" s="2">
-        <v>45763.63711805556</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C53" s="2">
-        <v>45769</v>
+        <v>45778</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G53">
-        <v>101.9</v>
+        <v>0.8804</v>
       </c>
       <c r="H53">
-        <v>101.9</v>
+        <v>264.12</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>525383965</v>
+        <v>528304116</v>
       </c>
       <c r="B54" s="2">
-        <v>45763.634826388894</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C54" s="2">
-        <v>45764</v>
+        <v>45772</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -2179,13 +2179,13 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G54">
-        <v>0.87888</v>
+        <v>0.87843</v>
       </c>
       <c r="H54">
-        <v>65.92</v>
+        <v>74.67</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2196,16 +2196,16 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>521135744</v>
+        <v>525384379</v>
       </c>
       <c r="B55" s="2">
-        <v>45754.608506944445</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C55" s="2">
-        <v>45756</v>
+        <v>45769</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -2214,10 +2214,10 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>95</v>
+        <v>101.9</v>
       </c>
       <c r="H55">
-        <v>95</v>
+        <v>101.9</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2228,13 +2228,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>521115122</v>
+        <v>525383965</v>
       </c>
       <c r="B56" s="2">
-        <v>45754.593506944446</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C56" s="2">
-        <v>45755</v>
+        <v>45764</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -2243,13 +2243,13 @@
         <v>11</v>
       </c>
       <c r="F56">
-        <v>109.66</v>
+        <v>75</v>
       </c>
       <c r="G56">
-        <v>0.91206</v>
+        <v>0.87888</v>
       </c>
       <c r="H56">
-        <v>100.02</v>
+        <v>65.92</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2260,16 +2260,16 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>519105737</v>
+        <v>521135744</v>
       </c>
       <c r="B57" s="2">
-        <v>45749.575324074074</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C57" s="2">
-        <v>45751</v>
+        <v>45756</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -2278,27 +2278,27 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>330.5499</v>
+        <v>95</v>
       </c>
       <c r="H57">
-        <v>330.55</v>
+        <v>95</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1.97</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>519105619</v>
+        <v>521115122</v>
       </c>
       <c r="B58" s="2">
-        <v>45749.575115740736</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C58" s="2">
-        <v>45750</v>
+        <v>45755</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -2307,13 +2307,13 @@
         <v>11</v>
       </c>
       <c r="F58">
-        <v>330</v>
+        <v>109.66</v>
       </c>
       <c r="G58">
-        <v>0.92423</v>
+        <v>0.91206</v>
       </c>
       <c r="H58">
-        <v>305</v>
+        <v>100.02</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2324,16 +2324,16 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>518501268</v>
+        <v>519105737</v>
       </c>
       <c r="B59" s="2">
-        <v>45748.342511574076</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C59" s="2">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -2342,27 +2342,27 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>106.7</v>
+        <v>330.5499</v>
       </c>
       <c r="H59">
-        <v>106.7</v>
+        <v>330.55</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1.46</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>518501204</v>
+        <v>519105619</v>
       </c>
       <c r="B60" s="2">
-        <v>45748.342199074075</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C60" s="2">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -2371,13 +2371,13 @@
         <v>11</v>
       </c>
       <c r="F60">
-        <v>118.85</v>
+        <v>330</v>
       </c>
       <c r="G60">
-        <v>0.92553</v>
+        <v>0.92423</v>
       </c>
       <c r="H60">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2388,16 +2388,16 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>510327986</v>
+        <v>518501268</v>
       </c>
       <c r="B61" s="2">
-        <v>45728.454201388886</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C61" s="2">
-        <v>45729.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -2406,10 +2406,10 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="H61">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2420,13 +2420,13 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>510326670</v>
+        <v>518501204</v>
       </c>
       <c r="B62" s="2">
-        <v>45728.43972222222</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C62" s="2">
-        <v>45728.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -2435,13 +2435,13 @@
         <v>11</v>
       </c>
       <c r="F62">
-        <v>114.54</v>
+        <v>118.85</v>
       </c>
       <c r="G62">
-        <v>0.91668</v>
+        <v>0.92553</v>
       </c>
       <c r="H62">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2452,16 +2452,16 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>506086900</v>
+        <v>510327986</v>
       </c>
       <c r="B63" s="2">
-        <v>45719.31646990741</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C63" s="2">
-        <v>45720.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -2470,27 +2470,27 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>355.9998</v>
+        <v>107</v>
       </c>
       <c r="H63">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>2.07</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>506086612</v>
+        <v>510326670</v>
       </c>
       <c r="B64" s="2">
-        <v>45719.31418981482</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C64" s="2">
-        <v>45719.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -2499,13 +2499,13 @@
         <v>11</v>
       </c>
       <c r="F64">
-        <v>9.74</v>
+        <v>114.54</v>
       </c>
       <c r="G64">
-        <v>0.96213</v>
+        <v>0.91668</v>
       </c>
       <c r="H64">
-        <v>9.37</v>
+        <v>105</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2516,45 +2516,45 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>506084312</v>
+        <v>506086900</v>
       </c>
       <c r="B65" s="2">
-        <v>45719.29939814815</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C65" s="2">
-        <v>45719.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>204.2</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>0.96116</v>
+        <v>355.9998</v>
       </c>
       <c r="H65">
-        <v>196.27</v>
+        <v>356</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>505408659</v>
+        <v>506086612</v>
       </c>
       <c r="B66" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C66" s="2">
-        <v>45718.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -2563,13 +2563,13 @@
         <v>11</v>
       </c>
       <c r="F66">
-        <v>129.21</v>
+        <v>9.74</v>
       </c>
       <c r="G66">
-        <v>0.96171</v>
+        <v>0.96213</v>
       </c>
       <c r="H66">
-        <v>124.26</v>
+        <v>9.37</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2580,45 +2580,45 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>503618898</v>
+        <v>506084312</v>
       </c>
       <c r="B67" s="2">
-        <v>45713.606828703705</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C67" s="2">
-        <v>45714.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>204.2</v>
       </c>
       <c r="G67">
-        <v>112.86</v>
+        <v>0.96116</v>
       </c>
       <c r="H67">
-        <v>112.86</v>
+        <v>196.27</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>503618686</v>
+        <v>505408659</v>
       </c>
       <c r="B68" s="2">
-        <v>45713.60653935185</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C68" s="2">
-        <v>45713.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -2627,13 +2627,13 @@
         <v>11</v>
       </c>
       <c r="F68">
-        <v>120</v>
+        <v>129.21</v>
       </c>
       <c r="G68">
-        <v>0.9511</v>
+        <v>0.96171</v>
       </c>
       <c r="H68">
-        <v>114.13</v>
+        <v>124.26</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2644,16 +2644,16 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>499625741</v>
+        <v>503618898</v>
       </c>
       <c r="B69" s="2">
-        <v>45702.56398148148</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C69" s="2">
-        <v>45705.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -2662,27 +2662,27 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>375.25</v>
+        <v>112.86</v>
       </c>
       <c r="H69">
-        <v>375.25</v>
+        <v>112.86</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>2.11</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>499590185</v>
+        <v>503618686</v>
       </c>
       <c r="B70" s="2">
-        <v>45702.36454861111</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C70" s="2">
-        <v>45705.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -2691,13 +2691,13 @@
         <v>11</v>
       </c>
       <c r="F70">
-        <v>20.96</v>
+        <v>120</v>
       </c>
       <c r="G70">
-        <v>0.95429</v>
+        <v>0.9511</v>
       </c>
       <c r="H70">
-        <v>20</v>
+        <v>114.13</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2708,77 +2708,77 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>498403616</v>
+        <v>499625741</v>
       </c>
       <c r="B71" s="2">
-        <v>45700.59783564815</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C71" s="2">
-        <v>45700.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>103.4</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0.96693</v>
+        <v>375.25</v>
       </c>
       <c r="H71">
-        <v>99.98</v>
+        <v>375.25</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>494107867</v>
+        <v>499590185</v>
       </c>
       <c r="B72" s="2">
-        <v>45691.58335648148</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C72" s="2">
-        <v>45692.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>20.96</v>
       </c>
       <c r="G72">
-        <v>112.9</v>
+        <v>0.95429</v>
       </c>
       <c r="H72">
-        <v>112.9</v>
+        <v>20</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>494049655</v>
+        <v>498403616</v>
       </c>
       <c r="B73" s="2">
-        <v>45691.31773148148</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C73" s="2">
-        <v>45691.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -2787,13 +2787,13 @@
         <v>11</v>
       </c>
       <c r="F73">
-        <v>307.46</v>
+        <v>103.4</v>
       </c>
       <c r="G73">
-        <v>0.97578</v>
+        <v>0.96693</v>
       </c>
       <c r="H73">
-        <v>300.01</v>
+        <v>99.98</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -2804,16 +2804,16 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>494049572</v>
+        <v>494107867</v>
       </c>
       <c r="B74" s="2">
-        <v>45691.31670138889</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C74" s="2">
         <v>45692.95833333333</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -2822,10 +2822,10 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>113.34</v>
+        <v>112.9</v>
       </c>
       <c r="H74">
-        <v>113.34</v>
+        <v>112.9</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -2836,109 +2836,109 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>493368805</v>
+        <v>494049655</v>
       </c>
       <c r="B75" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C75" s="2">
         <v>45691.95833333333</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>307.46</v>
       </c>
       <c r="G75">
-        <v>115.9</v>
+        <v>0.97578</v>
       </c>
       <c r="H75">
-        <v>231.8</v>
+        <v>300.01</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>1.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>492836969</v>
+        <v>494049572</v>
       </c>
       <c r="B76" s="2">
-        <v>45687.621666666666</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C76" s="2">
-        <v>45687.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
       </c>
       <c r="F76">
-        <v>417.21</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>0.95874</v>
+        <v>113.34</v>
       </c>
       <c r="H76">
-        <v>400</v>
+        <v>113.34</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>491075870</v>
+        <v>493368805</v>
       </c>
       <c r="B77" s="2">
-        <v>45684.61530092593</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C77" s="2">
-        <v>45685.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77">
-        <v>114.4</v>
+        <v>115.9</v>
       </c>
       <c r="H77">
-        <v>114.4</v>
+        <v>231.8</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>491075618</v>
+        <v>492836969</v>
       </c>
       <c r="B78" s="2">
-        <v>45684.61476851851</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C78" s="2">
-        <v>45684.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -2947,13 +2947,13 @@
         <v>11</v>
       </c>
       <c r="F78">
-        <v>115.46</v>
+        <v>417.21</v>
       </c>
       <c r="G78">
-        <v>0.95269</v>
+        <v>0.95874</v>
       </c>
       <c r="H78">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2964,16 +2964,16 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>483911545</v>
+        <v>491075870</v>
       </c>
       <c r="B79" s="2">
-        <v>45665.44930555555</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C79" s="2">
-        <v>45666.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
@@ -2982,27 +2982,27 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>360.35</v>
+        <v>114.4</v>
       </c>
       <c r="H79">
-        <v>360.35</v>
+        <v>114.4</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>483911481</v>
+        <v>491075618</v>
       </c>
       <c r="B80" s="2">
-        <v>45665.44840277778</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C80" s="2">
-        <v>45666.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -3011,13 +3011,13 @@
         <v>11</v>
       </c>
       <c r="F80">
-        <v>365</v>
+        <v>115.46</v>
       </c>
       <c r="G80">
-        <v>0.97183</v>
+        <v>0.95269</v>
       </c>
       <c r="H80">
-        <v>354.72</v>
+        <v>110</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3028,45 +3028,45 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>481235383</v>
+        <v>483911545</v>
       </c>
       <c r="B81" s="2">
-        <v>45660.337430555555</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C81" s="2">
-        <v>45663.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>112</v>
+        <v>360.35</v>
       </c>
       <c r="H81">
-        <v>224</v>
+        <v>360.35</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>1.76</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>481235152</v>
+        <v>483911481</v>
       </c>
       <c r="B82" s="2">
-        <v>45660.33241898148</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C82" s="2">
-        <v>45662.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -3075,13 +3075,13 @@
         <v>11</v>
       </c>
       <c r="F82">
-        <v>226.2</v>
+        <v>365</v>
       </c>
       <c r="G82">
-        <v>0.97259</v>
+        <v>0.97183</v>
       </c>
       <c r="H82">
-        <v>220</v>
+        <v>354.72</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3092,45 +3092,45 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>476674643</v>
+        <v>481235383</v>
       </c>
       <c r="B83" s="2">
-        <v>45646.40855324074</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C83" s="2">
-        <v>45652.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>355.4</v>
+        <v>112</v>
       </c>
       <c r="H83">
-        <v>355.4</v>
+        <v>224</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>476674604</v>
+        <v>481235152</v>
       </c>
       <c r="B84" s="2">
-        <v>45646.408437499995</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C84" s="2">
-        <v>45648.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -3139,13 +3139,13 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>215</v>
+        <v>226.2</v>
       </c>
       <c r="G84">
-        <v>0.96264</v>
+        <v>0.97259</v>
       </c>
       <c r="H84">
-        <v>206.97</v>
+        <v>220</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3156,42 +3156,42 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>476670294</v>
+        <v>476674643</v>
       </c>
       <c r="B85" s="2">
-        <v>45646.38765046296</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C85" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85">
-        <v>51.32</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0.96299</v>
+        <v>355.4</v>
       </c>
       <c r="H85">
-        <v>49.42</v>
+        <v>355.4</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>476669731</v>
+        <v>476674604</v>
       </c>
       <c r="B86" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C86" s="2">
         <v>45648.95833333333</v>
@@ -3203,13 +3203,13 @@
         <v>11</v>
       </c>
       <c r="F86">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="G86">
-        <v>0.96251</v>
+        <v>0.96264</v>
       </c>
       <c r="H86">
-        <v>57.75</v>
+        <v>206.97</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3220,45 +3220,45 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>476123556</v>
+        <v>476670294</v>
       </c>
       <c r="B87" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C87" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>51.32</v>
       </c>
       <c r="G87">
-        <v>112.54</v>
+        <v>0.96299</v>
       </c>
       <c r="H87">
-        <v>112.54</v>
+        <v>49.42</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>476123515</v>
+        <v>476669731</v>
       </c>
       <c r="B88" s="2">
-        <v>45645.52649305556</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C88" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -3267,13 +3267,13 @@
         <v>11</v>
       </c>
       <c r="F88">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G88">
-        <v>0.96108</v>
+        <v>0.96251</v>
       </c>
       <c r="H88">
-        <v>96.11</v>
+        <v>57.75</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -3284,112 +3284,112 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>471357479</v>
+        <v>476123556</v>
       </c>
       <c r="B89" s="2">
-        <v>45635.56259259259</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C89" s="2">
-        <v>45635.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89">
-        <v>8.3412</v>
+        <v>112.54</v>
       </c>
       <c r="H89">
-        <v>8.34</v>
+        <v>112.54</v>
       </c>
       <c r="I89">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>466623419</v>
+        <v>476123515</v>
       </c>
       <c r="B90" s="2">
-        <v>45622.31217592592</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C90" s="2">
-        <v>45624.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G90">
-        <v>354.5</v>
+        <v>0.96108</v>
       </c>
       <c r="H90">
-        <v>354.5</v>
+        <v>96.11</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>2.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>466623402</v>
+        <v>471357479</v>
       </c>
       <c r="B91" s="2">
-        <v>45622.31188657407</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C91" s="2">
-        <v>45622.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F91">
-        <v>141.78</v>
+        <v>1</v>
       </c>
       <c r="G91">
-        <v>0.95389</v>
+        <v>8.3412</v>
       </c>
       <c r="H91">
-        <v>135.24</v>
+        <v>8.34</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>462598648</v>
+        <v>466623419</v>
       </c>
       <c r="B92" s="2">
-        <v>45611.592997685184</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C92" s="2">
-        <v>45614.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -3398,123 +3398,123 @@
         <v>1</v>
       </c>
       <c r="G92">
-        <v>111.8099</v>
+        <v>354.5</v>
       </c>
       <c r="H92">
-        <v>111.81</v>
+        <v>354.5</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1.47</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>460084933</v>
+        <v>466623402</v>
       </c>
       <c r="B93" s="2">
-        <v>45604.62016203704</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C93" s="2">
-        <v>45607.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>141.78</v>
       </c>
       <c r="G93">
-        <v>8.3836</v>
+        <v>0.95389</v>
       </c>
       <c r="H93">
-        <v>8.38</v>
+        <v>135.24</v>
       </c>
       <c r="I93">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>458847628</v>
+        <v>462598648</v>
       </c>
       <c r="B94" s="2">
-        <v>45602.26765046296</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C94" s="2">
-        <v>45602.95833333333</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
       </c>
       <c r="F94">
-        <v>341.65</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>0.93077</v>
+        <v>111.8099</v>
       </c>
       <c r="H94">
-        <v>318</v>
+        <v>111.81</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>449590057</v>
+        <v>460084933</v>
       </c>
       <c r="B95" s="2">
-        <v>45579.62847222222</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C95" s="2">
-        <v>45581</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95">
-        <v>110.9161</v>
+        <v>8.3836</v>
       </c>
       <c r="H95">
-        <v>110.92</v>
+        <v>8.38</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J95">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>449589875</v>
+        <v>458847628</v>
       </c>
       <c r="B96" s="2">
-        <v>45579.628125</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C96" s="2">
-        <v>45580</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -3523,13 +3523,13 @@
         <v>11</v>
       </c>
       <c r="F96">
-        <v>35</v>
+        <v>341.65</v>
       </c>
       <c r="G96">
-        <v>0.91628</v>
+        <v>0.93077</v>
       </c>
       <c r="H96">
-        <v>32.07</v>
+        <v>318</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -3540,16 +3540,16 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>449589083</v>
+        <v>449590057</v>
       </c>
       <c r="B97" s="2">
-        <v>45579.62637731481</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C97" s="2">
         <v>45581</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <v>110.9196</v>
+        <v>110.9161</v>
       </c>
       <c r="H97">
         <v>110.92</v>
@@ -3572,48 +3572,48 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>449588246</v>
+        <v>449589875</v>
       </c>
       <c r="B98" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.628125</v>
       </c>
       <c r="C98" s="2">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F98">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G98">
-        <v>3.4715</v>
+        <v>0.91628</v>
       </c>
       <c r="H98">
-        <v>149.27</v>
+        <v>32.07</v>
       </c>
       <c r="I98">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>445429841</v>
+        <v>449589083</v>
       </c>
       <c r="B99" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C99" s="2">
-        <v>45572</v>
+        <v>45581</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -3622,62 +3622,62 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>337.65</v>
+        <v>110.9196</v>
       </c>
       <c r="H99">
-        <v>337.65</v>
+        <v>110.92</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>445429174</v>
+        <v>449588246</v>
       </c>
       <c r="B100" s="2">
-        <v>45568.57231481481</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C100" s="2">
-        <v>45569</v>
+        <v>45581</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F100">
-        <v>369.23</v>
+        <v>43</v>
       </c>
       <c r="G100">
-        <v>0.90605</v>
+        <v>3.4715</v>
       </c>
       <c r="H100">
-        <v>334.54</v>
+        <v>149.27</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>444353954</v>
+        <v>445429841</v>
       </c>
       <c r="B101" s="2">
-        <v>45566.58853009259</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C101" s="2">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -3686,27 +3686,27 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>108.24</v>
+        <v>337.65</v>
       </c>
       <c r="H101">
-        <v>108.24</v>
+        <v>337.65</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>1.45</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>444310921</v>
+        <v>445429174</v>
       </c>
       <c r="B102" s="2">
-        <v>45566.29953703703</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C102" s="2">
-        <v>45567</v>
+        <v>45569</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
@@ -3715,13 +3715,13 @@
         <v>11</v>
       </c>
       <c r="F102">
-        <v>60.56</v>
+        <v>369.23</v>
       </c>
       <c r="G102">
-        <v>0.89984</v>
+        <v>0.90605</v>
       </c>
       <c r="H102">
-        <v>54.49</v>
+        <v>334.54</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -3732,138 +3732,138 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>439936166</v>
+        <v>444353954</v>
       </c>
       <c r="B103" s="2">
-        <v>45554.56259259259</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C103" s="2">
-        <v>45555</v>
+        <v>45568</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
       <c r="G103">
-        <v>62.0726</v>
+        <v>108.24</v>
       </c>
       <c r="H103">
-        <v>62.07</v>
+        <v>108.24</v>
       </c>
       <c r="I103">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>435165980</v>
+        <v>444310921</v>
       </c>
       <c r="B104" s="2">
-        <v>45541.475370370375</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C104" s="2">
-        <v>45545</v>
+        <v>45567</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>60.56</v>
       </c>
       <c r="G104">
-        <v>103.72</v>
+        <v>0.89984</v>
       </c>
       <c r="H104">
-        <v>103.72</v>
+        <v>54.49</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>435165968</v>
+        <v>439936166</v>
       </c>
       <c r="B105" s="2">
-        <v>45541.47508101852</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C105" s="2">
-        <v>45544</v>
+        <v>45555</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F105">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>0.9011</v>
+        <v>62.0726</v>
       </c>
       <c r="H105">
-        <v>0.19</v>
+        <v>62.07</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>435165951</v>
+        <v>435165980</v>
       </c>
       <c r="B106" s="2">
-        <v>45541.47487268518</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C106" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
       </c>
       <c r="F106">
-        <v>4.42</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>0.90109</v>
+        <v>103.72</v>
       </c>
       <c r="H106">
-        <v>3.98</v>
+        <v>103.72</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>435165927</v>
+        <v>435165968</v>
       </c>
       <c r="B107" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C107" s="2">
         <v>45544</v>
@@ -3875,13 +3875,13 @@
         <v>11</v>
       </c>
       <c r="F107">
-        <v>92.77</v>
+        <v>0.21</v>
       </c>
       <c r="G107">
-        <v>0.90109</v>
+        <v>0.9011</v>
       </c>
       <c r="H107">
-        <v>83.59</v>
+        <v>0.19</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -3892,112 +3892,112 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>434675474</v>
+        <v>435165951</v>
       </c>
       <c r="B108" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C108" s="2">
         <v>45544</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
       </c>
       <c r="F108">
-        <v>8</v>
+        <v>4.42</v>
       </c>
       <c r="G108">
-        <v>3.689</v>
+        <v>0.90109</v>
       </c>
       <c r="H108">
-        <v>29.51</v>
+        <v>3.98</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>434162210</v>
+        <v>435165927</v>
       </c>
       <c r="B109" s="2">
-        <v>45539.43609953704</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C109" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>92.77</v>
       </c>
       <c r="G109">
-        <v>104.42</v>
+        <v>0.90109</v>
       </c>
       <c r="H109">
-        <v>104.42</v>
+        <v>83.59</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>433696199</v>
+        <v>434675474</v>
       </c>
       <c r="B110" s="2">
-        <v>45538.68898148148</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C110" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="D110" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G110">
-        <v>110.122</v>
+        <v>3.689</v>
       </c>
       <c r="H110">
-        <v>110.12</v>
+        <v>29.51</v>
       </c>
       <c r="I110">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>433626785</v>
+        <v>434162210</v>
       </c>
       <c r="B111" s="2">
-        <v>45538.39231481482</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C111" s="2">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -4006,10 +4006,10 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>106.54</v>
+        <v>104.42</v>
       </c>
       <c r="H111">
-        <v>106.54</v>
+        <v>104.42</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -4020,48 +4020,48 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>433626678</v>
+        <v>433696199</v>
       </c>
       <c r="B112" s="2">
-        <v>45538.391076388885</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C112" s="2">
         <v>45539</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F112">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G112">
-        <v>0.90603</v>
+        <v>110.122</v>
       </c>
       <c r="H112">
-        <v>66.96</v>
+        <v>110.12</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>432518350</v>
+        <v>433626785</v>
       </c>
       <c r="B113" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C113" s="2">
-        <v>45533</v>
+        <v>45540</v>
       </c>
       <c r="D113" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -4070,187 +4070,187 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <v>120.88</v>
+        <v>106.54</v>
       </c>
       <c r="H113">
-        <v>120.88</v>
+        <v>106.54</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>432515426</v>
+        <v>433626678</v>
       </c>
       <c r="B114" s="2">
-        <v>45533.54127314815</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C114" s="2">
-        <v>45537</v>
+        <v>45539</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>73.9</v>
       </c>
       <c r="G114">
-        <v>106.34</v>
+        <v>0.90603</v>
       </c>
       <c r="H114">
-        <v>106.34</v>
+        <v>66.96</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>432005364</v>
+        <v>432518350</v>
       </c>
       <c r="B115" s="2">
-        <v>45532.39208333333</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C115" s="2">
-        <v>45534</v>
+        <v>45533</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
       </c>
       <c r="F115">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>3.632</v>
+        <v>120.88</v>
       </c>
       <c r="H115">
-        <v>116.22</v>
+        <v>120.88</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>432003333</v>
+        <v>432515426</v>
       </c>
       <c r="B116" s="2">
-        <v>45532.363020833334</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C116" s="2">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>106.74</v>
+        <v>106.34</v>
       </c>
       <c r="H116">
-        <v>213.48</v>
+        <v>106.34</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>432003262</v>
+        <v>432005364</v>
       </c>
       <c r="B117" s="2">
-        <v>45532.361875</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C117" s="2">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
       <c r="F117">
-        <v>618.74</v>
+        <v>32</v>
       </c>
       <c r="G117">
-        <v>0.89741</v>
+        <v>3.632</v>
       </c>
       <c r="H117">
-        <v>555.26</v>
+        <v>116.22</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>430366906</v>
+        <v>432003333</v>
       </c>
       <c r="B118" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C118" s="2">
-        <v>45532</v>
+        <v>45534</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
       <c r="F118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G118">
-        <v>3.6305</v>
+        <v>106.74</v>
       </c>
       <c r="H118">
-        <v>10.89</v>
+        <v>213.48</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1.26</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>430365249</v>
+        <v>432003262</v>
       </c>
       <c r="B119" s="2">
-        <v>45527.27630787037</v>
+        <v>45532.361875</v>
       </c>
       <c r="C119" s="2">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
@@ -4259,13 +4259,13 @@
         <v>11</v>
       </c>
       <c r="F119">
-        <v>4.63</v>
+        <v>618.74</v>
       </c>
       <c r="G119">
-        <v>0.8999</v>
+        <v>0.89741</v>
       </c>
       <c r="H119">
-        <v>4.17</v>
+        <v>555.26</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -4276,173 +4276,173 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>428453232</v>
+        <v>430366906</v>
       </c>
       <c r="B120" s="2">
-        <v>45523.56253472222</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C120" s="2">
-        <v>45524</v>
+        <v>45532</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G120">
-        <v>60.046</v>
+        <v>3.6305</v>
       </c>
       <c r="H120">
-        <v>60.05</v>
+        <v>10.89</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>428444212</v>
+        <v>430365249</v>
       </c>
       <c r="B121" s="2">
-        <v>45523.47152777778</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C121" s="2">
-        <v>45525</v>
+        <v>45530</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>4.63</v>
       </c>
       <c r="G121">
-        <v>105.3</v>
+        <v>0.8999</v>
       </c>
       <c r="H121">
-        <v>105.3</v>
+        <v>4.17</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>428437042</v>
+        <v>428453232</v>
       </c>
       <c r="B122" s="2">
-        <v>45523.37878472223</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C122" s="2">
         <v>45524</v>
       </c>
       <c r="D122" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
       </c>
       <c r="F122">
-        <v>7.15</v>
+        <v>1</v>
       </c>
       <c r="G122">
-        <v>0.90756</v>
+        <v>60.046</v>
       </c>
       <c r="H122">
-        <v>6.49</v>
+        <v>60.05</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>428437005</v>
+        <v>428444212</v>
       </c>
       <c r="B123" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C123" s="2">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="D123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
       </c>
       <c r="F123">
-        <v>150.15</v>
+        <v>1</v>
       </c>
       <c r="G123">
-        <v>0.90756</v>
+        <v>105.3</v>
       </c>
       <c r="H123">
-        <v>136.27</v>
+        <v>105.3</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>426418112</v>
+        <v>428437042</v>
       </c>
       <c r="B124" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C124" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>7.15</v>
       </c>
       <c r="G124">
-        <v>102.02</v>
+        <v>0.90756</v>
       </c>
       <c r="H124">
-        <v>102.02</v>
+        <v>6.49</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>426417966</v>
+        <v>428437005</v>
       </c>
       <c r="B125" s="2">
-        <v>45517.58042824074</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C125" s="2">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
@@ -4451,13 +4451,13 @@
         <v>11</v>
       </c>
       <c r="F125">
-        <v>10.45</v>
+        <v>150.15</v>
       </c>
       <c r="G125">
-        <v>0.91439</v>
+        <v>0.90756</v>
       </c>
       <c r="H125">
-        <v>9.56</v>
+        <v>136.27</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -4468,42 +4468,42 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>426416264</v>
+        <v>426418112</v>
       </c>
       <c r="B126" s="2">
-        <v>45517.57699074074</v>
+        <v>45517.58078703703</v>
       </c>
       <c r="C126" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
       </c>
       <c r="F126">
-        <v>4.86</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>0.91458</v>
+        <v>102.02</v>
       </c>
       <c r="H126">
-        <v>4.44</v>
+        <v>102.02</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>426416183</v>
+        <v>426417966</v>
       </c>
       <c r="B127" s="2">
-        <v>45517.576678240745</v>
+        <v>45517.58042824074</v>
       </c>
       <c r="C127" s="2">
         <v>45518</v>
@@ -4515,18 +4515,82 @@
         <v>11</v>
       </c>
       <c r="F127">
+        <v>10.45</v>
+      </c>
+      <c r="G127">
+        <v>0.91439</v>
+      </c>
+      <c r="H127">
+        <v>9.56</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>426416264</v>
+      </c>
+      <c r="B128" s="2">
+        <v>45517.57699074074</v>
+      </c>
+      <c r="C128" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128">
+        <v>4.86</v>
+      </c>
+      <c r="G128">
+        <v>0.91458</v>
+      </c>
+      <c r="H128">
+        <v>4.44</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>426416183</v>
+      </c>
+      <c r="B129" s="2">
+        <v>45517.576678240745</v>
+      </c>
+      <c r="C129" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129">
         <v>102.05</v>
       </c>
-      <c r="G127">
+      <c r="G129">
         <v>0.91459</v>
       </c>
-      <c r="H127">
+      <c r="H129">
         <v>93.33</v>
       </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
         <v>0</v>
       </c>
     </row>
